--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO93"/>
+  <dimension ref="A1:AO95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -691,13 +691,13 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
         <v>1.69</v>
@@ -709,19 +709,19 @@
         <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
         <v>16.5</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>11.5</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="J4" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="K4" t="n">
-        <v>17.5</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.34</v>
+        <v>2.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1480,16 +1480,16 @@
         <v>4.3</v>
       </c>
       <c r="G8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H8" t="n">
         <v>1.77</v>
       </c>
       <c r="I8" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
         <v>4.7</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>2.52</v>
       </c>
       <c r="H9" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I9" t="n">
         <v>3.4</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="H13" t="n">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="I13" t="n">
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="K13" t="n">
         <v>1000</v>
@@ -2185,7 +2185,7 @@
         <v>1.52</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2425,67 +2425,67 @@
         <v>2.04</v>
       </c>
       <c r="G15" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>2.08</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.52</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S15" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB15" t="n">
         <v>1000</v>
@@ -2497,7 +2497,7 @@
         <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
         <v>1000</v>
@@ -2509,25 +2509,25 @@
         <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="n">
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
@@ -2560,16 +2560,16 @@
         <v>2.04</v>
       </c>
       <c r="G16" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H16" t="n">
         <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
         <v>3.75</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.94</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="G17" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
         <v>3.65</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G18" t="n">
         <v>1.81</v>
@@ -2839,10 +2839,10 @@
         <v>5.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="G19" t="n">
         <v>3.45</v>
@@ -2971,13 +2971,13 @@
         <v>2.62</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
         <v>2.74</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2989,7 +2989,7 @@
         <v>1.54</v>
       </c>
       <c r="O19" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
         <v>1.54</v>
@@ -3013,7 +3013,7 @@
         <v>1.45</v>
       </c>
       <c r="W19" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G20" t="n">
         <v>2.28</v>
@@ -3109,7 +3109,7 @@
         <v>3.45</v>
       </c>
       <c r="J20" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
         <v>4.2</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>1.32</v>
       </c>
       <c r="G23" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H23" t="n">
         <v>11.5</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J23" t="n">
         <v>6</v>
@@ -3535,7 +3535,7 @@
         <v>2.32</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R23" t="n">
         <v>1.51</v>
@@ -3544,7 +3544,7 @@
         <v>2.84</v>
       </c>
       <c r="T23" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U23" t="n">
         <v>1.75</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD23" t="n">
         <v>46</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.02</v>
+        <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>2.56</v>
       </c>
       <c r="K24" t="n">
-        <v>3.85</v>
+        <v>980</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="Q24" t="n">
         <v>1.01</v>
@@ -3778,7 +3778,7 @@
         <v>1.66</v>
       </c>
       <c r="H25" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I25" t="n">
         <v>7.2</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G31" t="n">
         <v>3.1</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="G33" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I33" t="n">
         <v>4.9</v>
       </c>
       <c r="J33" t="n">
-        <v>2.66</v>
+        <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4990,7 +4990,7 @@
         <v>3.2</v>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H34" t="n">
         <v>2.68</v>
@@ -5023,7 +5023,7 @@
         <v>2.46</v>
       </c>
       <c r="R34" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
         <v>4.9</v>
@@ -5044,7 +5044,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y34" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z34" t="n">
         <v>16</v>
@@ -5155,7 +5155,7 @@
         <v>2.18</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R35" t="n">
         <v>1.47</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="I36" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>980</v>
       </c>
-      <c r="J36" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,61 +5383,61 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="I37" t="n">
-        <v>2.58</v>
+        <v>980</v>
       </c>
       <c r="J37" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K37" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.12</v>
+        <v>1.07</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="R37" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -5446,58 +5446,58 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5560,7 +5560,7 @@
         <v>1.92</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R38" t="n">
         <v>1.36</v>
@@ -5584,7 +5584,7 @@
         <v>14</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z38" t="n">
         <v>32</v>
@@ -5593,7 +5593,7 @@
         <v>120</v>
       </c>
       <c r="AB38" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC38" t="n">
         <v>8</v>
@@ -5611,7 +5611,7 @@
         <v>10.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI38" t="n">
         <v>65</v>
@@ -5836,7 +5836,7 @@
         <v>1.46</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T40" t="n">
         <v>1.71</v>
@@ -5863,7 +5863,7 @@
         <v>25</v>
       </c>
       <c r="AB40" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC40" t="n">
         <v>8.6</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q41" t="n">
         <v>2.06</v>
@@ -6100,7 +6100,7 @@
         <v>2.08</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6463,61 +6463,61 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.15</v>
+        <v>1.25</v>
       </c>
       <c r="G45" t="n">
-        <v>3.45</v>
+        <v>1.29</v>
       </c>
       <c r="H45" t="n">
-        <v>2.34</v>
+        <v>14.5</v>
       </c>
       <c r="I45" t="n">
-        <v>2.38</v>
+        <v>16.5</v>
       </c>
       <c r="J45" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="K45" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>2.06</v>
+        <v>2.48</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="R45" t="n">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="S45" t="n">
-        <v>3.05</v>
+        <v>2.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="U45" t="n">
-        <v>2.28</v>
+        <v>1.73</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -6526,58 +6526,58 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA45" t="n">
         <v>1000</v>
       </c>
-      <c r="Y45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>980</v>
-      </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC45" t="n">
         <v>1000</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE45" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH45" t="n">
         <v>980</v>
       </c>
-      <c r="AF45" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI45" t="n">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="AJ45" t="n">
-        <v>75</v>
+        <v>9.6</v>
       </c>
       <c r="AK45" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AL45" t="n">
         <v>980</v>
       </c>
       <c r="AM45" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AN45" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
     </row>
     <row r="46">
@@ -6598,61 +6598,61 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.25</v>
+        <v>3.15</v>
       </c>
       <c r="G46" t="n">
-        <v>1.29</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
-        <v>14</v>
+        <v>2.34</v>
       </c>
       <c r="I46" t="n">
-        <v>16.5</v>
+        <v>2.38</v>
       </c>
       <c r="J46" t="n">
-        <v>6.2</v>
+        <v>3.55</v>
       </c>
       <c r="K46" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="P46" t="n">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="R46" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="S46" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="T46" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="U46" t="n">
-        <v>1.73</v>
+        <v>2.28</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -6661,58 +6661,58 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA46" t="n">
         <v>980</v>
       </c>
-      <c r="Z46" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA46" t="n">
+      <c r="AB46" t="n">
         <v>1000</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>9.6</v>
       </c>
       <c r="AC46" t="n">
         <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>330</v>
+        <v>980</v>
       </c>
       <c r="AF46" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AG46" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI46" t="n">
         <v>980</v>
       </c>
-      <c r="AI46" t="n">
-        <v>240</v>
-      </c>
       <c r="AJ46" t="n">
-        <v>9.6</v>
+        <v>65</v>
       </c>
       <c r="AK46" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AL46" t="n">
         <v>980</v>
       </c>
       <c r="AM46" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="AO46" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
@@ -6751,10 +6751,10 @@
         <v>3.25</v>
       </c>
       <c r="I47" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J47" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
         <v>3.5</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q47" t="n">
         <v>2.22</v>
@@ -6889,7 +6889,7 @@
         <v>32</v>
       </c>
       <c r="J48" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="K48" t="n">
         <v>13</v>
@@ -6916,13 +6916,13 @@
         <v>2.42</v>
       </c>
       <c r="S48" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="T48" t="n">
         <v>2.04</v>
       </c>
       <c r="U48" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -6967,7 +6967,7 @@
         <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK48" t="n">
         <v>14.5</v>
@@ -6976,10 +6976,10 @@
         <v>40</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN48" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="AO48" t="n">
         <v>450</v>
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="G49" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="H49" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="I49" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="J49" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
         <v>7.8</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7282,19 +7282,19 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G51" t="n">
         <v>2.52</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
         <v>3.8</v>
       </c>
       <c r="J51" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K51" t="n">
         <v>3.6</v>
@@ -7315,7 +7315,7 @@
         <v>1.87</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G53" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H53" t="n">
         <v>2.92</v>
       </c>
       <c r="I53" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J53" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K53" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G54" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H54" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I54" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="J54" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7717,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G55" t="n">
         <v>1.3</v>
@@ -7831,13 +7831,13 @@
         <v>12</v>
       </c>
       <c r="I55" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="J55" t="n">
         <v>6.8</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7960,10 +7960,10 @@
         <v>1.87</v>
       </c>
       <c r="G56" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="H56" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I56" t="n">
         <v>4.5</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.15</v>
+        <v>2.26</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8092,13 +8092,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="G57" t="n">
         <v>2.38</v>
       </c>
       <c r="H57" t="n">
-        <v>1.72</v>
+        <v>2.74</v>
       </c>
       <c r="I57" t="n">
         <v>980</v>
@@ -8107,7 +8107,7 @@
         <v>1.72</v>
       </c>
       <c r="K57" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="H58" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I58" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J58" t="n">
-        <v>2.72</v>
+        <v>3.85</v>
       </c>
       <c r="K58" t="n">
-        <v>980</v>
+        <v>5.2</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8395,7 +8395,7 @@
         <v>1.59</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G60" t="n">
         <v>5.3</v>
@@ -8530,16 +8530,16 @@
         <v>2.2</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R60" t="n">
         <v>1.48</v>
       </c>
       <c r="S60" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T60" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U60" t="n">
         <v>2.22</v>
@@ -8554,7 +8554,7 @@
         <v>23</v>
       </c>
       <c r="Y60" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z60" t="n">
         <v>12.5</v>
@@ -8572,10 +8572,10 @@
         <v>10.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG60" t="n">
         <v>21</v>
@@ -8644,7 +8644,7 @@
         <v>5.1</v>
       </c>
       <c r="J61" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K61" t="n">
         <v>3.65</v>
@@ -8665,7 +8665,7 @@
         <v>1.81</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R61" t="n">
         <v>1.31</v>
@@ -8689,7 +8689,7 @@
         <v>12.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z61" t="n">
         <v>38</v>
@@ -8716,7 +8716,7 @@
         <v>10</v>
       </c>
       <c r="AH61" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI61" t="n">
         <v>80</v>
@@ -8782,7 +8782,7 @@
         <v>3.15</v>
       </c>
       <c r="K62" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8797,7 +8797,7 @@
         <v>1.4</v>
       </c>
       <c r="P62" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q62" t="n">
         <v>2.22</v>
@@ -9040,7 +9040,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H64" t="n">
         <v>4</v>
@@ -9070,7 +9070,7 @@
         <v>2.14</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R64" t="n">
         <v>1.44</v>
@@ -9100,7 +9100,7 @@
         <v>34</v>
       </c>
       <c r="AA64" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB64" t="n">
         <v>10.5</v>
@@ -9136,7 +9136,7 @@
         <v>34</v>
       </c>
       <c r="AM64" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN64" t="n">
         <v>12.5</v>
@@ -9445,13 +9445,13 @@
         <v>2.16</v>
       </c>
       <c r="G67" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I67" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J67" t="n">
         <v>3.25</v>
@@ -9478,7 +9478,7 @@
         <v>2.68</v>
       </c>
       <c r="R67" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S67" t="n">
         <v>5.7</v>
@@ -9544,7 +9544,7 @@
         <v>240</v>
       </c>
       <c r="AN67" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO67" t="n">
         <v>130</v>
@@ -9577,19 +9577,19 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G68" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H68" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I68" t="n">
         <v>4.2</v>
       </c>
       <c r="J68" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K68" t="n">
         <v>4.1</v>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q68" t="n">
         <v>2.14</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G70" t="n">
         <v>1.48</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>1.09</v>
+        <v>1.96</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="G71" t="n">
         <v>2.12</v>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.4</v>
+        <v>1.22</v>
       </c>
       <c r="G72" t="n">
         <v>8.800000000000001</v>
@@ -10126,10 +10126,10 @@
         <v>1.41</v>
       </c>
       <c r="I72" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J72" t="n">
-        <v>2.76</v>
+        <v>1.12</v>
       </c>
       <c r="K72" t="n">
         <v>5.5</v>
@@ -10150,7 +10150,7 @@
         <v>1.07</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G73" t="n">
         <v>3.1</v>
       </c>
       <c r="H73" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I73" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J73" t="n">
         <v>2.52</v>
       </c>
       <c r="K73" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10399,10 +10399,10 @@
         <v>1.34</v>
       </c>
       <c r="J74" t="n">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="K74" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -10417,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -10528,16 +10528,16 @@
         <v>2.1</v>
       </c>
       <c r="H75" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I75" t="n">
         <v>4.3</v>
       </c>
       <c r="J75" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K75" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -10591,10 +10591,10 @@
         <v>8.6</v>
       </c>
       <c r="AC75" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD75" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE75" t="n">
         <v>60</v>
@@ -10657,19 +10657,19 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G76" t="n">
         <v>4.4</v>
       </c>
       <c r="H76" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I76" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J76" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K76" t="n">
         <v>3.9</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="Q76" t="n">
         <v>1.79</v>
@@ -10798,7 +10798,7 @@
         <v>1.18</v>
       </c>
       <c r="H77" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I77" t="n">
         <v>32</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1.16</v>
+        <v>2.56</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10927,22 +10927,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="G78" t="n">
         <v>1.68</v>
       </c>
       <c r="H78" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I78" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J78" t="n">
         <v>3.85</v>
       </c>
       <c r="K78" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -10957,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1.15</v>
+        <v>1.76</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11065,19 +11065,19 @@
         <v>1.84</v>
       </c>
       <c r="G79" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H79" t="n">
         <v>4.4</v>
       </c>
       <c r="I79" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J79" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K79" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11602,13 +11602,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G83" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H83" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I83" t="n">
         <v>4</v>
@@ -11632,7 +11632,7 @@
         <v>1.28</v>
       </c>
       <c r="P83" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q83" t="n">
         <v>1.83</v>
@@ -11665,7 +11665,7 @@
         <v>30</v>
       </c>
       <c r="AA83" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB83" t="n">
         <v>11.5</v>
@@ -11743,7 +11743,7 @@
         <v>2.86</v>
       </c>
       <c r="H84" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I84" t="n">
         <v>3.05</v>
@@ -11779,7 +11779,7 @@
         <v>4.3</v>
       </c>
       <c r="T84" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U84" t="n">
         <v>2.04</v>
@@ -11905,7 +11905,7 @@
         <v>1.72</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R85" t="n">
         <v>1.26</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.16</v>
+        <v>1.31</v>
       </c>
       <c r="G86" t="n">
         <v>2.6</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="H87" t="n">
         <v>2.66</v>
       </c>
       <c r="I87" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J87" t="n">
         <v>2.66</v>
       </c>
       <c r="K87" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G89" t="n">
         <v>2.22</v>
@@ -12427,7 +12427,7 @@
         <v>2.86</v>
       </c>
       <c r="K89" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -12442,10 +12442,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12523,7 +12523,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -12538,127 +12538,127 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="G90" t="n">
-        <v>2.7</v>
+        <v>1000</v>
       </c>
       <c r="H90" t="n">
-        <v>3.15</v>
+        <v>1.04</v>
       </c>
       <c r="I90" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="J90" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="K90" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q90" t="n">
         <v>1.01</v>
       </c>
-      <c r="M90" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N90" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P90" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>1.86</v>
-      </c>
       <c r="R90" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V90" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="W90" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="X90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -12668,132 +12668,132 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.57</v>
+        <v>2.22</v>
       </c>
       <c r="G91" t="n">
-        <v>1.65</v>
+        <v>2.66</v>
       </c>
       <c r="H91" t="n">
-        <v>7.4</v>
+        <v>3.15</v>
       </c>
       <c r="I91" t="n">
-        <v>9</v>
+        <v>3.9</v>
       </c>
       <c r="J91" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="K91" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P91" t="n">
-        <v>1.56</v>
+        <v>1.91</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.26</v>
+        <v>1.81</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO91" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -12803,36 +12803,36 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="G92" t="n">
-        <v>2.14</v>
+        <v>1.65</v>
       </c>
       <c r="H92" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="I92" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="J92" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="K92" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12847,10 +12847,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>2.58</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12928,135 +12928,405 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>20:10:00</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H93" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K93" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Lobos UPNFM</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>CD Marathon</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>Paraguayan Primera Division</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>2026-01-25</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>20:15:00</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>Club Sportivo Ameliano</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>Rubio Nu</t>
         </is>
       </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
         <v>1.01</v>
       </c>
-      <c r="M93" t="n">
+      <c r="M95" t="n">
         <v>1.01</v>
       </c>
-      <c r="N93" t="n">
+      <c r="N95" t="n">
         <v>1.24</v>
       </c>
-      <c r="O93" t="n">
+      <c r="O95" t="n">
         <v>1.01</v>
       </c>
-      <c r="P93" t="n">
+      <c r="P95" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q93" t="n">
+      <c r="Q95" t="n">
         <v>1.02</v>
       </c>
-      <c r="R93" t="n">
+      <c r="R95" t="n">
         <v>1.07</v>
       </c>
-      <c r="S93" t="n">
+      <c r="S95" t="n">
         <v>1.02</v>
       </c>
-      <c r="T93" t="n">
+      <c r="T95" t="n">
         <v>1.01</v>
       </c>
-      <c r="U93" t="n">
+      <c r="U95" t="n">
         <v>1.01</v>
       </c>
-      <c r="V93" t="n">
+      <c r="V95" t="n">
         <v>1.01</v>
       </c>
-      <c r="W93" t="n">
+      <c r="W95" t="n">
         <v>1.01</v>
       </c>
-      <c r="X93" t="n">
+      <c r="X95" t="n">
         <v>1000</v>
       </c>
-      <c r="Y93" t="n">
+      <c r="Y95" t="n">
         <v>1000</v>
       </c>
-      <c r="Z93" t="n">
+      <c r="Z95" t="n">
         <v>1000</v>
       </c>
-      <c r="AA93" t="n">
+      <c r="AA95" t="n">
         <v>1000</v>
       </c>
-      <c r="AB93" t="n">
+      <c r="AB95" t="n">
         <v>1000</v>
       </c>
-      <c r="AC93" t="n">
+      <c r="AC95" t="n">
         <v>1000</v>
       </c>
-      <c r="AD93" t="n">
+      <c r="AD95" t="n">
         <v>1000</v>
       </c>
-      <c r="AE93" t="n">
+      <c r="AE95" t="n">
         <v>1000</v>
       </c>
-      <c r="AF93" t="n">
+      <c r="AF95" t="n">
         <v>1000</v>
       </c>
-      <c r="AG93" t="n">
+      <c r="AG95" t="n">
         <v>1000</v>
       </c>
-      <c r="AH93" t="n">
+      <c r="AH95" t="n">
         <v>1000</v>
       </c>
-      <c r="AI93" t="n">
+      <c r="AI95" t="n">
         <v>1000</v>
       </c>
-      <c r="AJ93" t="n">
+      <c r="AJ95" t="n">
         <v>1000</v>
       </c>
-      <c r="AK93" t="n">
+      <c r="AK95" t="n">
         <v>1000</v>
       </c>
-      <c r="AL93" t="n">
+      <c r="AL95" t="n">
         <v>1000</v>
       </c>
-      <c r="AM93" t="n">
+      <c r="AM95" t="n">
         <v>1000</v>
       </c>
-      <c r="AN93" t="n">
+      <c r="AN95" t="n">
         <v>1000</v>
       </c>
-      <c r="AO93" t="n">
+      <c r="AO95" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -673,7 +673,7 @@
         <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
         <v>3.95</v>
@@ -685,7 +685,7 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -706,7 +706,7 @@
         <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T2" t="n">
         <v>1.65</v>
@@ -718,7 +718,7 @@
         <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -769,7 +769,7 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO2" t="n">
         <v>980</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="G8" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>1.77</v>
       </c>
       <c r="I8" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="J8" t="n">
         <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H9" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
         <v>3.4</v>
@@ -1627,7 +1627,7 @@
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q11" t="n">
         <v>2.24</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
         <v>14</v>
@@ -1954,7 +1954,7 @@
         <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE11" t="n">
         <v>70</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G14" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
         <v>4.5</v>
@@ -2509,7 +2509,7 @@
         <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
         <v>980</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H16" t="n">
         <v>4.1</v>
@@ -2569,10 +2569,10 @@
         <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>2.14</v>
       </c>
       <c r="H17" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
         <v>4.1</v>
@@ -2830,19 +2830,19 @@
         <v>1.73</v>
       </c>
       <c r="G18" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="H18" t="n">
         <v>5.1</v>
       </c>
       <c r="I18" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>2.16</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q23" t="n">
         <v>1.73</v>
@@ -3598,13 +3598,13 @@
         <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM23" t="n">
         <v>230</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AO23" t="n">
         <v>380</v>
@@ -3649,7 +3649,7 @@
         <v>5.9</v>
       </c>
       <c r="J24" t="n">
-        <v>2.56</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
         <v>980</v>
@@ -3805,7 +3805,7 @@
         <v>2.16</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q26" t="n">
         <v>1.01</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q27" t="n">
         <v>1.01</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q28" t="n">
         <v>1.01</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q29" t="n">
         <v>1.01</v>
@@ -4450,19 +4450,19 @@
         <v>1.95</v>
       </c>
       <c r="G30" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="I30" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="K30" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="G31" t="n">
         <v>3.1</v>
@@ -4591,13 +4591,13 @@
         <v>2.7</v>
       </c>
       <c r="I31" t="n">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="J31" t="n">
         <v>3.15</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>1.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q32" t="n">
         <v>1.01</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="G33" t="n">
         <v>2.3</v>
@@ -4867,7 +4867,7 @@
         <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>1.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G34" t="n">
         <v>3.25</v>
       </c>
       <c r="H34" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I34" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J34" t="n">
         <v>3.1</v>
@@ -5014,7 +5014,7 @@
         <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P34" t="n">
         <v>1.66</v>
@@ -5065,7 +5065,7 @@
         <v>36</v>
       </c>
       <c r="AF34" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG34" t="n">
         <v>14</v>
@@ -5080,7 +5080,7 @@
         <v>60</v>
       </c>
       <c r="AK34" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL34" t="n">
         <v>75</v>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G35" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H35" t="n">
         <v>8.800000000000001</v>
@@ -5155,7 +5155,7 @@
         <v>2.18</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R35" t="n">
         <v>1.47</v>
@@ -5194,7 +5194,7 @@
         <v>11.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE35" t="n">
         <v>180</v>
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G36" t="n">
         <v>3.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I36" t="n">
         <v>2.58</v>
@@ -5272,7 +5272,7 @@
         <v>3.55</v>
       </c>
       <c r="K36" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5290,13 +5290,13 @@
         <v>2.12</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R36" t="n">
         <v>1.44</v>
       </c>
       <c r="S36" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T36" t="n">
         <v>1.69</v>
@@ -5347,7 +5347,7 @@
         <v>44</v>
       </c>
       <c r="AJ36" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AK36" t="n">
         <v>32</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.07</v>
+        <v>1.67</v>
       </c>
       <c r="Q37" t="n">
         <v>1.01</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H38" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I38" t="n">
         <v>4.4</v>
@@ -5611,7 +5611,7 @@
         <v>10.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI38" t="n">
         <v>65</v>
@@ -5623,7 +5623,7 @@
         <v>21</v>
       </c>
       <c r="AL38" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H39" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I39" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J39" t="n">
         <v>3.8</v>
       </c>
-      <c r="J39" t="n">
-        <v>3.9</v>
-      </c>
       <c r="K39" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,19 +5692,19 @@
         <v>1.23</v>
       </c>
       <c r="P39" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q39" t="n">
         <v>1.71</v>
       </c>
       <c r="R39" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S39" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T39" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U39" t="n">
         <v>2.52</v>
@@ -5731,10 +5731,10 @@
         <v>12</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE39" t="n">
         <v>42</v>
@@ -5746,7 +5746,7 @@
         <v>10.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI39" t="n">
         <v>44</v>
@@ -5800,7 +5800,7 @@
         <v>3.8</v>
       </c>
       <c r="G40" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H40" t="n">
         <v>2.08</v>
@@ -5836,7 +5836,7 @@
         <v>1.46</v>
       </c>
       <c r="S40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T40" t="n">
         <v>1.71</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="G43" t="n">
-        <v>1000</v>
+        <v>1.22</v>
       </c>
       <c r="H43" t="n">
-        <v>1.04</v>
+        <v>13.5</v>
       </c>
       <c r="I43" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="J43" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="K43" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>3.1</v>
@@ -6349,7 +6349,7 @@
         <v>2.48</v>
       </c>
       <c r="J44" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K44" t="n">
         <v>3.85</v>
@@ -6382,7 +6382,7 @@
         <v>1.53</v>
       </c>
       <c r="U44" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -6472,19 +6472,19 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G45" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H45" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="I45" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J45" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K45" t="n">
         <v>7</v>
@@ -6517,7 +6517,7 @@
         <v>2.2</v>
       </c>
       <c r="U45" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -6547,19 +6547,19 @@
         <v>55</v>
       </c>
       <c r="AE45" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AF45" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AG45" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH45" t="n">
         <v>980</v>
       </c>
       <c r="AI45" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AJ45" t="n">
         <v>9.6</v>
@@ -6577,7 +6577,7 @@
         <v>4.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>470</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G46" t="n">
         <v>3.4</v>
@@ -6622,7 +6622,7 @@
         <v>3.55</v>
       </c>
       <c r="K46" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6922,7 +6922,7 @@
         <v>2.04</v>
       </c>
       <c r="U48" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -6931,13 +6931,13 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y48" t="n">
         <v>130</v>
       </c>
       <c r="Z48" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
@@ -6946,7 +6946,7 @@
         <v>19.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AD48" t="n">
         <v>110</v>
@@ -6979,7 +6979,7 @@
         <v>190</v>
       </c>
       <c r="AN48" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="AO48" t="n">
         <v>450</v>
@@ -7015,7 +7015,7 @@
         <v>7.4</v>
       </c>
       <c r="G49" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="H49" t="n">
         <v>1.3</v>
@@ -7285,10 +7285,10 @@
         <v>2.24</v>
       </c>
       <c r="G51" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I51" t="n">
         <v>3.8</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q52" t="n">
         <v>1.01</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="G53" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="H53" t="n">
         <v>2.92</v>
       </c>
       <c r="I53" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J53" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K53" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7687,13 +7687,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G54" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H54" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="I54" t="n">
         <v>2.18</v>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="Q54" t="n">
         <v>1.47</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="Q55" t="n">
         <v>1.01</v>
@@ -7960,10 +7960,10 @@
         <v>1.87</v>
       </c>
       <c r="G56" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H56" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I56" t="n">
         <v>4.5</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q56" t="n">
         <v>1.69</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="Q57" t="n">
         <v>2.02</v>
@@ -8233,7 +8233,7 @@
         <v>2.58</v>
       </c>
       <c r="H58" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="I58" t="n">
         <v>3.4</v>
@@ -8242,7 +8242,7 @@
         <v>3.85</v>
       </c>
       <c r="K58" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G60" t="n">
         <v>5.3</v>
       </c>
       <c r="H60" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="I60" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="J60" t="n">
         <v>4</v>
@@ -8536,7 +8536,7 @@
         <v>1.48</v>
       </c>
       <c r="S60" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T60" t="n">
         <v>1.77</v>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G61" t="n">
         <v>1.94</v>
@@ -8656,7 +8656,7 @@
         <v>1.09</v>
       </c>
       <c r="N61" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O61" t="n">
         <v>1.39</v>
@@ -8692,7 +8692,7 @@
         <v>18</v>
       </c>
       <c r="Z61" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA61" t="n">
         <v>150</v>
@@ -8716,7 +8716,7 @@
         <v>10</v>
       </c>
       <c r="AH61" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI61" t="n">
         <v>80</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -8926,7 +8926,7 @@
         <v>1.05</v>
       </c>
       <c r="N63" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O63" t="n">
         <v>1.24</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y63" t="n">
         <v>24</v>
@@ -8974,7 +8974,7 @@
         <v>9.6</v>
       </c>
       <c r="AD63" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE63" t="n">
         <v>85</v>
@@ -9040,13 +9040,13 @@
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H64" t="n">
         <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J64" t="n">
         <v>3.8</v>
@@ -9070,19 +9070,19 @@
         <v>2.14</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R64" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S64" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T64" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U64" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>16.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF64" t="n">
         <v>13.5</v>
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q65" t="n">
         <v>1.01</v>
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q66" t="n">
         <v>1.01</v>
@@ -9454,10 +9454,10 @@
         <v>4.3</v>
       </c>
       <c r="J67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K67" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K67" t="n">
-        <v>3.3</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -9481,7 +9481,7 @@
         <v>1.2</v>
       </c>
       <c r="S67" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="T67" t="n">
         <v>2.24</v>
@@ -9529,7 +9529,7 @@
         <v>26</v>
       </c>
       <c r="AI67" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ67" t="n">
         <v>29</v>
@@ -9538,10 +9538,10 @@
         <v>32</v>
       </c>
       <c r="AL67" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM67" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN67" t="n">
         <v>29</v>
@@ -9592,7 +9592,7 @@
         <v>2.92</v>
       </c>
       <c r="K68" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -9847,13 +9847,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="G70" t="n">
         <v>1.48</v>
       </c>
       <c r="H70" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="I70" t="n">
         <v>12.5</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G71" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H71" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="I71" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="J71" t="n">
-        <v>1.89</v>
+        <v>3.45</v>
       </c>
       <c r="K71" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -10012,10 +10012,10 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.22</v>
+        <v>3.6</v>
       </c>
       <c r="G72" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="I72" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J72" t="n">
-        <v>1.12</v>
+        <v>2.78</v>
       </c>
       <c r="K72" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -10147,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10396,10 +10396,10 @@
         <v>1.17</v>
       </c>
       <c r="I74" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="J74" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="K74" t="n">
         <v>12</v>
@@ -10417,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -10555,7 +10555,7 @@
         <v>1.86</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R75" t="n">
         <v>1.31</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q76" t="n">
         <v>1.79</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10957,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>1.84</v>
       </c>
       <c r="G79" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H79" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I79" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J79" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K79" t="n">
         <v>3.9</v>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q80" t="n">
         <v>1.47</v>
@@ -11362,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="Q81" t="n">
         <v>1.01</v>
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="Q82" t="n">
         <v>1.01</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G83" t="n">
         <v>2.14</v>
@@ -11611,7 +11611,7 @@
         <v>3.75</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J83" t="n">
         <v>3.65</v>
@@ -11632,16 +11632,16 @@
         <v>1.28</v>
       </c>
       <c r="P83" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R83" t="n">
         <v>1.43</v>
       </c>
       <c r="S83" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T83" t="n">
         <v>1.73</v>
@@ -11743,16 +11743,16 @@
         <v>2.86</v>
       </c>
       <c r="H84" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J84" t="n">
         <v>3.1</v>
       </c>
       <c r="K84" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -11779,7 +11779,7 @@
         <v>4.3</v>
       </c>
       <c r="T84" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U84" t="n">
         <v>2.04</v>
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y84" t="n">
         <v>10.5</v>
@@ -11878,13 +11878,13 @@
         <v>3.15</v>
       </c>
       <c r="H85" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I85" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="J85" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K85" t="n">
         <v>3.25</v>
@@ -11896,10 +11896,10 @@
         <v>1.1</v>
       </c>
       <c r="N85" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O85" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P85" t="n">
         <v>1.72</v>
@@ -11917,7 +11917,7 @@
         <v>1.97</v>
       </c>
       <c r="U85" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V85" t="n">
         <v>0</v>
@@ -11938,7 +11938,7 @@
         <v>44</v>
       </c>
       <c r="AB85" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC85" t="n">
         <v>7</v>
@@ -11950,7 +11950,7 @@
         <v>36</v>
       </c>
       <c r="AF85" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG85" t="n">
         <v>14</v>
@@ -11965,7 +11965,7 @@
         <v>55</v>
       </c>
       <c r="AK85" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL85" t="n">
         <v>60</v>
@@ -11974,7 +11974,7 @@
         <v>150</v>
       </c>
       <c r="AN85" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO85" t="n">
         <v>36</v>
@@ -12007,19 +12007,19 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.31</v>
+        <v>2.16</v>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H86" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="I86" t="n">
         <v>4.2</v>
       </c>
       <c r="J86" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="K86" t="n">
         <v>980</v>
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="Q86" t="n">
         <v>1.01</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="G87" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
-        <v>2.66</v>
+        <v>8.6</v>
       </c>
       <c r="I87" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J87" t="n">
-        <v>2.66</v>
+        <v>4.7</v>
       </c>
       <c r="K87" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -12172,10 +12172,10 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G89" t="n">
         <v>2.22</v>
@@ -12442,10 +12442,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q90" t="n">
         <v>1.01</v>
@@ -12724,10 +12724,10 @@
         <v>2.74</v>
       </c>
       <c r="T91" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U91" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V91" t="n">
         <v>1.34</v>
@@ -12736,37 +12736,37 @@
         <v>1.6</v>
       </c>
       <c r="X91" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y91" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z91" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA91" t="n">
         <v>1000</v>
       </c>
       <c r="AB91" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC91" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD91" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE91" t="n">
         <v>1000</v>
       </c>
       <c r="AF91" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG91" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH91" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI91" t="n">
         <v>1000</v>
@@ -12775,7 +12775,7 @@
         <v>1000</v>
       </c>
       <c r="AK91" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL91" t="n">
         <v>1000</v>
@@ -12829,7 +12829,7 @@
         <v>9</v>
       </c>
       <c r="J92" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K92" t="n">
         <v>4</v>
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="Q94" t="n">
         <v>1.01</v>
@@ -13258,7 +13258,7 @@
         <v>1.02</v>
       </c>
       <c r="R95" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="S95" t="n">
         <v>1.02</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -805,10 +805,10 @@
         <v>2.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
         <v>3.95</v>
@@ -826,88 +826,88 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V3" t="n">
         <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G4" t="n">
         <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="I4" t="n">
         <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -967,10 +967,10 @@
         <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
         <v>1.35</v>
@@ -985,7 +985,7 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
         <v>1.41</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I5" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>980</v>
@@ -1111,16 +1111,16 @@
         <v>1.56</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="W5" t="n">
         <v>1.01</v>
@@ -1132,7 +1132,7 @@
         <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1144,7 +1144,7 @@
         <v>25</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G6" t="n">
         <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
         <v>2.8</v>
@@ -1231,31 +1231,31 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
         <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
         <v>1.4</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
         <v>4.9</v>
@@ -1351,7 +1351,7 @@
         <v>1.96</v>
       </c>
       <c r="I7" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
         <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G8" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
         <v>5.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,13 +1501,13 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="O8" t="n">
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q8" t="n">
         <v>1.71</v>
@@ -1528,7 +1528,7 @@
         <v>1.23</v>
       </c>
       <c r="W8" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="H9" t="n">
-        <v>1.09</v>
+        <v>1.77</v>
       </c>
       <c r="I9" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>2.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="10">
@@ -1762,97 +1762,97 @@
         <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
         <v>2.12</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.67</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
@@ -2035,7 +2035,7 @@
         <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
@@ -2047,7 +2047,7 @@
         <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="Q12" t="n">
         <v>2.26</v>
@@ -2059,70 +2059,70 @@
         <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="U12" t="n">
         <v>1.94</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC12" t="n">
         <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.81</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.01</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L14" t="n">
         <v>1.01</v>
       </c>
-      <c r="K14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="G15" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="n">
         <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="J15" t="n">
         <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
         <v>1.56</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="G16" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
         <v>4.5</v>
@@ -2581,7 +2581,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.21</v>
@@ -2590,25 +2590,25 @@
         <v>2.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R16" t="n">
         <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T16" t="n">
         <v>1.58</v>
       </c>
       <c r="U16" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2620,7 +2620,7 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
         <v>1000</v>
@@ -2656,7 +2656,7 @@
         <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
         <v>1000</v>
@@ -2695,31 +2695,31 @@
         <v>2.02</v>
       </c>
       <c r="G17" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
         <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.75</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P17" t="n">
         <v>1.94</v>
@@ -2728,76 +2728,76 @@
         <v>1.94</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.36</v>
+        <v>2.08</v>
       </c>
       <c r="G18" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
         <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="G19" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H19" t="n">
         <v>5.3</v>
@@ -2974,100 +2974,100 @@
         <v>5.8</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P19" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.42</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>110</v>
       </c>
       <c r="H20" t="n">
         <v>2.56</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="K20" t="n">
         <v>950</v>
@@ -3130,7 +3130,7 @@
         <v>1.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
@@ -3148,7 +3148,7 @@
         <v>1.45</v>
       </c>
       <c r="W20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3232,34 +3232,34 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G21" t="n">
         <v>4.7</v>
       </c>
       <c r="H21" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I21" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J21" t="n">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>6.4</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
         <v>1.75</v>
@@ -3268,76 +3268,76 @@
         <v>1.78</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G22" t="n">
         <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="I22" t="n">
         <v>3.85</v>
       </c>
       <c r="J22" t="n">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
         <v>2.06</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.52</v>
       </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G23" t="n">
         <v>2.24</v>
@@ -3511,103 +3511,103 @@
         <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J23" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
         <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
         <v>2.52</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G24" t="n">
         <v>1.33</v>
       </c>
       <c r="H24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I24" t="n">
         <v>13</v>
@@ -3661,7 +3661,7 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
@@ -3670,10 +3670,10 @@
         <v>2.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R24" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S24" t="n">
         <v>2.84</v>
@@ -3691,58 +3691,58 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y24" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AE24" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="n">
         <v>7.6</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN24" t="n">
         <v>5.3</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25">
@@ -3787,97 +3787,97 @@
         <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
         <v>1.64</v>
       </c>
       <c r="Q25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T25" t="n">
         <v>1.01</v>
       </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G26" t="n">
         <v>1.66</v>
       </c>
       <c r="H26" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I26" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="J26" t="n">
         <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.25</v>
+        <v>2.16</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4042,34 +4042,34 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
         <v>1.24</v>
@@ -4078,76 +4078,76 @@
         <v>1.01</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,34 +4177,34 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
         <v>1.24</v>
@@ -4213,76 +4213,76 @@
         <v>1.01</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4447,34 +4447,34 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P30" t="n">
         <v>1.24</v>
@@ -4483,76 +4483,76 @@
         <v>1.01</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G31" t="n">
         <v>3.1</v>
       </c>
-      <c r="G31" t="n">
-        <v>3.25</v>
-      </c>
       <c r="H31" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I31" t="n">
         <v>2.54</v>
       </c>
       <c r="J31" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4606,28 +4606,28 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O31" t="n">
         <v>1.28</v>
       </c>
       <c r="P31" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="R31" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S31" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="T31" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="U31" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -4636,58 +4636,58 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>42</v>
+        <v>17.5</v>
       </c>
       <c r="AA31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>980</v>
       </c>
-      <c r="AB31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI31" t="n">
+      <c r="AK31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL31" t="n">
         <v>980</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
-        <v>42</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="32">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G32" t="n">
         <v>2.06</v>
@@ -4732,7 +4732,7 @@
         <v>3.35</v>
       </c>
       <c r="K32" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q33" t="n">
         <v>2.08</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="G35" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
         <v>4.7</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H36" t="n">
         <v>2.7</v>
@@ -5281,7 +5281,7 @@
         <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
         <v>1.48</v>
@@ -5290,7 +5290,7 @@
         <v>1.65</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R36" t="n">
         <v>1.23</v>
@@ -5302,7 +5302,7 @@
         <v>2.02</v>
       </c>
       <c r="U36" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5311,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y36" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z36" t="n">
         <v>16</v>
@@ -5323,7 +5323,7 @@
         <v>42</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC36" t="n">
         <v>7</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G37" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H37" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I37" t="n">
         <v>9.4</v>
@@ -5419,19 +5419,19 @@
         <v>4.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P37" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q37" t="n">
         <v>1.81</v>
       </c>
       <c r="R37" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S37" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T37" t="n">
         <v>2.06</v>
@@ -5446,16 +5446,16 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z37" t="n">
         <v>85</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AB37" t="n">
         <v>8.6</v>
@@ -5464,10 +5464,10 @@
         <v>11</v>
       </c>
       <c r="AD37" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF37" t="n">
         <v>8.199999999999999</v>
@@ -5476,28 +5476,28 @@
         <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI37" t="n">
         <v>130</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL37" t="n">
         <v>40</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN37" t="n">
         <v>6.6</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38">
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="G38" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="H38" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J38" t="n">
         <v>3.65</v>
@@ -5581,28 +5581,28 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA38" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC38" t="n">
         <v>8</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AF38" t="n">
         <v>12</v>
@@ -5611,28 +5611,28 @@
         <v>10.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI38" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AJ38" t="n">
         <v>22</v>
       </c>
       <c r="AK38" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL38" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G39" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H39" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I39" t="n">
         <v>3.5</v>
@@ -5677,7 +5677,7 @@
         <v>3.15</v>
       </c>
       <c r="K39" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5800,7 +5800,7 @@
         <v>2.1</v>
       </c>
       <c r="G40" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H40" t="n">
         <v>3.8</v>
@@ -5809,10 +5809,10 @@
         <v>3.85</v>
       </c>
       <c r="J40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.85</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5824,22 +5824,22 @@
         <v>5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P40" t="n">
         <v>2.34</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R40" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S40" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T40" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U40" t="n">
         <v>2.56</v>
@@ -5851,16 +5851,16 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z40" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB40" t="n">
         <v>12</v>
@@ -5872,7 +5872,7 @@
         <v>15.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF40" t="n">
         <v>15.5</v>
@@ -5884,10 +5884,10 @@
         <v>14.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ40" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK40" t="n">
         <v>18.5</v>
@@ -5899,10 +5899,10 @@
         <v>60</v>
       </c>
       <c r="AN40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO40" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G41" t="n">
         <v>3.85</v>
       </c>
       <c r="H41" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I41" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J41" t="n">
         <v>3.85</v>
@@ -5959,7 +5959,7 @@
         <v>4.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P41" t="n">
         <v>2.16</v>
@@ -5977,7 +5977,7 @@
         <v>1.71</v>
       </c>
       <c r="U41" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -5986,19 +5986,19 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z41" t="n">
         <v>13</v>
       </c>
       <c r="AA41" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AB41" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AC41" t="n">
         <v>8.6</v>
@@ -6010,34 +6010,34 @@
         <v>19.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI41" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ41" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AK41" t="n">
         <v>40</v>
       </c>
       <c r="AL41" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="G42" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="H42" t="n">
-        <v>1.04</v>
+        <v>2.8</v>
       </c>
       <c r="I42" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>1.02</v>
+        <v>2.84</v>
       </c>
       <c r="K42" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="G43" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="H43" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="I43" t="n">
         <v>2.16</v>
       </c>
       <c r="J43" t="n">
-        <v>3.45</v>
+        <v>2.74</v>
       </c>
       <c r="K43" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6475,13 +6475,13 @@
         <v>3.05</v>
       </c>
       <c r="G45" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I45" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="J45" t="n">
         <v>3.7</v>
@@ -6499,13 +6499,13 @@
         <v>6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P45" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R45" t="n">
         <v>1.66</v>
@@ -6514,10 +6514,10 @@
         <v>2.42</v>
       </c>
       <c r="T45" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U45" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -6526,58 +6526,58 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AF45" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AG45" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AI45" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK45" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL45" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="46">
@@ -6637,19 +6637,19 @@
         <v>1.2</v>
       </c>
       <c r="P46" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="R46" t="n">
         <v>1.59</v>
       </c>
       <c r="S46" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T46" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U46" t="n">
         <v>1.74</v>
@@ -6676,7 +6676,7 @@
         <v>11.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD46" t="n">
         <v>65</v>
@@ -6685,10 +6685,10 @@
         <v>310</v>
       </c>
       <c r="AF46" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG46" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH46" t="n">
         <v>42</v>
@@ -6697,10 +6697,10 @@
         <v>230</v>
       </c>
       <c r="AJ46" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK46" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL46" t="n">
         <v>55</v>
@@ -6709,7 +6709,7 @@
         <v>240</v>
       </c>
       <c r="AN46" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AO46" t="n">
         <v>440</v>
@@ -6742,13 +6742,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G47" t="n">
         <v>3.4</v>
       </c>
       <c r="H47" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I47" t="n">
         <v>2.4</v>
@@ -6778,10 +6778,10 @@
         <v>1.81</v>
       </c>
       <c r="R47" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S47" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T47" t="n">
         <v>1.68</v>
@@ -6799,7 +6799,7 @@
         <v>970</v>
       </c>
       <c r="Y47" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z47" t="n">
         <v>19</v>
@@ -6826,10 +6826,10 @@
         <v>14.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ47" t="n">
         <v>55</v>
@@ -6844,7 +6844,7 @@
         <v>80</v>
       </c>
       <c r="AN47" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO47" t="n">
         <v>20</v>
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="G48" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J48" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.1</v>
       </c>
       <c r="K48" t="n">
         <v>3.5</v>
@@ -6907,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -7042,7 +7042,7 @@
         <v>1.08</v>
       </c>
       <c r="P49" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q49" t="n">
         <v>1.26</v>
@@ -7087,22 +7087,22 @@
         <v>110</v>
       </c>
       <c r="AE49" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AF49" t="n">
         <v>11.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AK49" t="n">
         <v>14.5</v>
@@ -7117,7 +7117,7 @@
         <v>2.24</v>
       </c>
       <c r="AO49" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50">
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="G50" t="n">
         <v>1000</v>
       </c>
       <c r="H50" t="n">
-        <v>1.26</v>
+        <v>1.04</v>
       </c>
       <c r="I50" t="n">
-        <v>1.47</v>
+        <v>1000</v>
       </c>
       <c r="J50" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="K50" t="n">
         <v>1000</v>
@@ -7177,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G51" t="n">
         <v>2.18</v>
@@ -7291,10 +7291,10 @@
         <v>3.8</v>
       </c>
       <c r="I51" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J51" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K51" t="n">
         <v>4.4</v>
@@ -7420,10 +7420,10 @@
         <v>2.24</v>
       </c>
       <c r="G52" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H52" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I52" t="n">
         <v>3.8</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q52" t="n">
         <v>1.98</v>
@@ -7690,7 +7690,7 @@
         <v>2.36</v>
       </c>
       <c r="G54" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H54" t="n">
         <v>2.96</v>
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G55" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="I55" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J55" t="n">
         <v>4.1</v>
@@ -7855,7 +7855,7 @@
         <v>2.42</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H56" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I56" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="J56" t="n">
         <v>6.8</v>
       </c>
       <c r="K56" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8095,7 +8095,7 @@
         <v>1.87</v>
       </c>
       <c r="G57" t="n">
-        <v>1000</v>
+        <v>1.96</v>
       </c>
       <c r="H57" t="n">
         <v>4.2</v>
@@ -8104,10 +8104,10 @@
         <v>4.5</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="K57" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.25</v>
+        <v>2.24</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="G58" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H58" t="n">
-        <v>1.7</v>
+        <v>2.78</v>
       </c>
       <c r="I58" t="n">
         <v>980</v>
       </c>
       <c r="J58" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="K58" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8260,7 +8260,7 @@
         <v>1.25</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8368,10 +8368,10 @@
         <v>2.58</v>
       </c>
       <c r="H59" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I59" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J59" t="n">
         <v>3.4</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q59" t="n">
         <v>1.5</v>
@@ -8500,19 +8500,19 @@
         <v>2.36</v>
       </c>
       <c r="G60" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="H60" t="n">
         <v>3.4</v>
       </c>
       <c r="I60" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J60" t="n">
         <v>3.05</v>
       </c>
       <c r="K60" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8632,10 +8632,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H61" t="n">
         <v>1.77</v>
@@ -8647,7 +8647,7 @@
         <v>4</v>
       </c>
       <c r="K61" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -8656,28 +8656,28 @@
         <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="O61" t="n">
         <v>1.26</v>
       </c>
       <c r="P61" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="R61" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S61" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T61" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="U61" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -8686,58 +8686,58 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y61" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB61" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="AC61" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE61" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AF61" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AG61" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AH61" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AI61" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK61" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM61" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN61" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="62">
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="G62" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H62" t="n">
         <v>4.9</v>
       </c>
       <c r="I62" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="J62" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K62" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8791,28 +8791,28 @@
         <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O62" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P62" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R62" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="S62" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="T62" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="U62" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -8821,58 +8821,58 @@
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA62" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB62" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC62" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD62" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AE62" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF62" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG62" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH62" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="AI62" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK62" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AL62" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM62" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN62" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO62" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63">
@@ -8917,7 +8917,7 @@
         <v>3.15</v>
       </c>
       <c r="K63" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -8932,22 +8932,22 @@
         <v>1.4</v>
       </c>
       <c r="P63" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R63" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S63" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T63" t="n">
         <v>1.86</v>
       </c>
       <c r="U63" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -8956,58 +8956,58 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y63" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA63" t="n">
         <v>980</v>
       </c>
       <c r="AB63" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD63" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE63" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF63" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG63" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI63" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ63" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK63" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL63" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM63" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO63" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64">
@@ -9046,7 +9046,7 @@
         <v>6.2</v>
       </c>
       <c r="I64" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J64" t="n">
         <v>4.2</v>
@@ -9061,10 +9061,10 @@
         <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O64" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P64" t="n">
         <v>2.28</v>
@@ -9094,10 +9094,10 @@
         <v>18</v>
       </c>
       <c r="Y64" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z64" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA64" t="n">
         <v>900</v>
@@ -9109,13 +9109,13 @@
         <v>9.4</v>
       </c>
       <c r="AD64" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE64" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AF64" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG64" t="n">
         <v>10</v>
@@ -9124,16 +9124,16 @@
         <v>20</v>
       </c>
       <c r="AI64" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AJ64" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK64" t="n">
         <v>14.5</v>
       </c>
       <c r="AL64" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM64" t="n">
         <v>100</v>
@@ -9187,7 +9187,7 @@
         <v>3.8</v>
       </c>
       <c r="K65" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9199,13 +9199,13 @@
         <v>4.3</v>
       </c>
       <c r="O65" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P65" t="n">
         <v>2.14</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R65" t="n">
         <v>1.44</v>
@@ -9214,7 +9214,7 @@
         <v>3.1</v>
       </c>
       <c r="T65" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U65" t="n">
         <v>2.28</v>
@@ -9226,58 +9226,58 @@
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y65" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z65" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA65" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC65" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD65" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE65" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AF65" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH65" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AJ65" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AK65" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL65" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AM65" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN65" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
@@ -9583,10 +9583,10 @@
         <v>2.14</v>
       </c>
       <c r="H68" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I68" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J68" t="n">
         <v>3.25</v>
@@ -9610,7 +9610,7 @@
         <v>1.57</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="R68" t="n">
         <v>1.2</v>
@@ -9619,10 +9619,10 @@
         <v>5.6</v>
       </c>
       <c r="T68" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U68" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -9631,58 +9631,58 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y68" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z68" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA68" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB68" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC68" t="n">
         <v>7.6</v>
       </c>
       <c r="AD68" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE68" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF68" t="n">
         <v>12</v>
       </c>
       <c r="AG68" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI68" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ68" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AK68" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL68" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM68" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN68" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO68" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69">
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="G69" t="n">
-        <v>1000</v>
+        <v>2.54</v>
       </c>
       <c r="H69" t="n">
-        <v>1.04</v>
+        <v>3.3</v>
       </c>
       <c r="I69" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J69" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="K69" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9742,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="G70" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="H70" t="n">
-        <v>1.04</v>
+        <v>2.58</v>
       </c>
       <c r="I70" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J70" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K70" t="n">
-        <v>980</v>
+        <v>5.4</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>1.89</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -9991,13 +9991,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="I71" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="J71" t="n">
         <v>4.8</v>
       </c>
       <c r="K71" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G72" t="n">
         <v>2.16</v>
       </c>
       <c r="H72" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="I72" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J72" t="n">
         <v>3.45</v>
       </c>
       <c r="K72" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>2.02</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10258,13 +10258,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="I73" t="n">
         <v>1.89</v>
       </c>
       <c r="J73" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K73" t="n">
         <v>5.1</v>
@@ -10663,7 +10663,7 @@
         <v>2.08</v>
       </c>
       <c r="H76" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I76" t="n">
         <v>4.3</v>
@@ -10681,7 +10681,7 @@
         <v>1.08</v>
       </c>
       <c r="N76" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O76" t="n">
         <v>1.37</v>
@@ -10693,10 +10693,10 @@
         <v>2.1</v>
       </c>
       <c r="R76" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S76" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T76" t="n">
         <v>1.91</v>
@@ -10825,7 +10825,7 @@
         <v>1.95</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10933,16 +10933,16 @@
         <v>1.18</v>
       </c>
       <c r="H78" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I78" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="J78" t="n">
         <v>8.6</v>
       </c>
       <c r="K78" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -10960,7 +10960,7 @@
         <v>2.54</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="G79" t="n">
         <v>1.68</v>
@@ -11071,13 +11071,13 @@
         <v>6.6</v>
       </c>
       <c r="I79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J79" t="n">
         <v>4</v>
       </c>
       <c r="K79" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11197,19 +11197,19 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="G80" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H80" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I80" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J80" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K80" t="n">
         <v>3.85</v>
@@ -11230,7 +11230,7 @@
         <v>1.68</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -11338,7 +11338,7 @@
         <v>1000</v>
       </c>
       <c r="H81" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I81" t="n">
         <v>1.72</v>
@@ -11740,16 +11740,16 @@
         <v>2.16</v>
       </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I84" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J84" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K84" t="n">
         <v>3.8</v>
@@ -11761,25 +11761,25 @@
         <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="O84" t="n">
         <v>1.28</v>
       </c>
       <c r="P84" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R84" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S84" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="T84" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U84" t="n">
         <v>2.28</v>
@@ -11791,58 +11791,58 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y84" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="Z84" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI84" t="n">
         <v>50</v>
       </c>
-      <c r="AA84" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ84" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AK84" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AL84" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM84" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN84" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO84" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85">
@@ -11872,10 +11872,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G85" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H85" t="n">
         <v>3</v>
@@ -11896,7 +11896,7 @@
         <v>1.1</v>
       </c>
       <c r="N85" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O85" t="n">
         <v>1.42</v>
@@ -11905,7 +11905,7 @@
         <v>1.73</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R85" t="n">
         <v>1.28</v>
@@ -11914,7 +11914,7 @@
         <v>4.3</v>
       </c>
       <c r="T85" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U85" t="n">
         <v>2.04</v>
@@ -11929,52 +11929,52 @@
         <v>11</v>
       </c>
       <c r="Y85" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z85" t="n">
         <v>19.5</v>
       </c>
       <c r="AA85" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB85" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC85" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AD85" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE85" t="n">
         <v>40</v>
       </c>
       <c r="AF85" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG85" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH85" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI85" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ85" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK85" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL85" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM85" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN85" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO85" t="n">
         <v>42</v>
@@ -12007,16 +12007,16 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H86" t="n">
         <v>2.82</v>
       </c>
       <c r="I86" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="J86" t="n">
         <v>3.15</v>
@@ -12034,7 +12034,7 @@
         <v>3.1</v>
       </c>
       <c r="O86" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P86" t="n">
         <v>1.72</v>
@@ -12052,7 +12052,7 @@
         <v>1.97</v>
       </c>
       <c r="U86" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
@@ -12064,16 +12064,16 @@
         <v>11</v>
       </c>
       <c r="Y86" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z86" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA86" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AB86" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC86" t="n">
         <v>7</v>
@@ -12082,7 +12082,7 @@
         <v>13</v>
       </c>
       <c r="AE86" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AF86" t="n">
         <v>19</v>
@@ -12094,13 +12094,13 @@
         <v>19.5</v>
       </c>
       <c r="AI86" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ86" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK86" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL86" t="n">
         <v>60</v>
@@ -12109,10 +12109,10 @@
         <v>150</v>
       </c>
       <c r="AN86" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO86" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
@@ -12142,19 +12142,19 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G87" t="n">
-        <v>2.62</v>
+        <v>980</v>
       </c>
       <c r="H87" t="n">
-        <v>2.58</v>
+        <v>1.3</v>
       </c>
       <c r="I87" t="n">
         <v>4.2</v>
       </c>
       <c r="J87" t="n">
-        <v>2.62</v>
+        <v>1.31</v>
       </c>
       <c r="K87" t="n">
         <v>4.3</v>
@@ -12307,10 +12307,10 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="G90" t="n">
-        <v>980</v>
+        <v>2.28</v>
       </c>
       <c r="H90" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="I90" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="J90" t="n">
-        <v>1.02</v>
+        <v>2.74</v>
       </c>
       <c r="K90" t="n">
-        <v>980</v>
+        <v>4.9</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12817,25 +12817,25 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G92" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H92" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I92" t="n">
         <v>4.1</v>
       </c>
       <c r="J92" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K92" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L92" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M92" t="n">
         <v>1.06</v>
@@ -12850,7 +12850,7 @@
         <v>1.91</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R92" t="n">
         <v>1.35</v>
@@ -12859,25 +12859,25 @@
         <v>3</v>
       </c>
       <c r="T92" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U92" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V92" t="n">
         <v>1.32</v>
       </c>
       <c r="W92" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X92" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y92" t="n">
         <v>970</v>
       </c>
       <c r="Z92" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA92" t="n">
         <v>75</v>
@@ -12889,40 +12889,40 @@
         <v>970</v>
       </c>
       <c r="AD92" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE92" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF92" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AG92" t="n">
         <v>970</v>
       </c>
       <c r="AH92" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI92" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ92" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK92" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AL92" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM92" t="n">
         <v>110</v>
       </c>
       <c r="AN92" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO92" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93">
@@ -12952,40 +12952,40 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H93" t="n">
-        <v>1.09</v>
+        <v>7.8</v>
       </c>
       <c r="I93" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J93" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K93" t="n">
+        <v>4</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q93" t="n">
         <v>2.58</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>1.01</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -13087,22 +13087,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="G94" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H94" t="n">
-        <v>1.91</v>
+        <v>4.6</v>
       </c>
       <c r="I94" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J94" t="n">
-        <v>1.89</v>
+        <v>2.84</v>
       </c>
       <c r="K94" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -13117,10 +13117,10 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -811,7 +811,7 @@
         <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>3.85</v>
@@ -826,19 +826,19 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
         <v>2.58</v>
@@ -862,10 +862,10 @@
         <v>18.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="n">
         <v>12.5</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="I5" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
         <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,31 +1096,31 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>5.1</v>
+        <v>2.44</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q5" t="n">
         <v>1.43</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="S5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U5" t="n">
         <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="W5" t="n">
         <v>1.04</v>
@@ -1129,37 +1129,37 @@
         <v>46</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>970</v>
       </c>
       <c r="AA5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AD5" t="n">
         <v>970</v>
       </c>
       <c r="AE5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1213,7 +1213,7 @@
         <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
         <v>3.3</v>
@@ -1222,7 +1222,7 @@
         <v>2.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1234,7 +1234,7 @@
         <v>1.59</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
         <v>1.59</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="I7" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1654,13 +1654,13 @@
         <v>2.34</v>
       </c>
       <c r="T9" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>2.66</v>
       </c>
       <c r="V9" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="W9" t="n">
         <v>1.27</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
@@ -1771,19 +1771,19 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q10" t="n">
         <v>1.24</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
         <v>2.58</v>
@@ -1798,7 +1798,7 @@
         <v>1.39</v>
       </c>
       <c r="W10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X10" t="n">
         <v>21</v>
@@ -1813,7 +1813,7 @@
         <v>70</v>
       </c>
       <c r="AB10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
         <v>11.5</v>
@@ -2425,19 +2425,19 @@
         <v>1.57</v>
       </c>
       <c r="G15" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="H15" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J15" t="n">
         <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2455,13 +2455,13 @@
         <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R15" t="n">
         <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,19 +2470,19 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W15" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2494,10 +2494,10 @@
         <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE15" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
@@ -2509,7 +2509,7 @@
         <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
         <v>23</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
         <v>3.15</v>
@@ -2572,7 +2572,7 @@
         <v>3.65</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.26</v>
@@ -2728,7 +2728,7 @@
         <v>1.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.55</v>
+        <v>1.19</v>
       </c>
       <c r="S17" t="n">
         <v>1.01</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G18" t="n">
         <v>2.08</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
         <v>4.5</v>
@@ -2842,7 +2842,7 @@
         <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L18" t="n">
         <v>1.38</v>
@@ -2881,7 +2881,7 @@
         <v>1.92</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
         <v>18</v>
@@ -2893,19 +2893,19 @@
         <v>95</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE18" t="n">
         <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
@@ -2914,22 +2914,22 @@
         <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
         <v>55</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
         <v>2.14</v>
@@ -2971,7 +2971,7 @@
         <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
         <v>3.9</v>
@@ -3001,7 +3001,7 @@
         <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T19" t="n">
         <v>1.51</v>
@@ -3010,22 +3010,22 @@
         <v>2.48</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="X19" t="n">
         <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
         <v>30</v>
       </c>
       <c r="AA19" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
         <v>13.5</v>
@@ -3067,7 +3067,7 @@
         <v>11.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -3133,7 +3133,7 @@
         <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S20" t="n">
         <v>2.82</v>
@@ -3151,7 +3151,7 @@
         <v>2.26</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
         <v>23</v>
@@ -3385,7 +3385,7 @@
         <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G25" t="n">
         <v>1.34</v>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J25" t="n">
         <v>6</v>
@@ -3796,13 +3796,13 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q25" t="n">
         <v>1.73</v>
@@ -3823,7 +3823,7 @@
         <v>1.08</v>
       </c>
       <c r="W25" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="X25" t="n">
         <v>20</v>
@@ -3844,7 +3844,7 @@
         <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE25" t="n">
         <v>220</v>
@@ -3859,10 +3859,10 @@
         <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
         <v>14</v>
@@ -4048,7 +4048,7 @@
         <v>1.66</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I27" t="n">
         <v>6.6</v>
@@ -4084,10 +4084,10 @@
         <v>2.84</v>
       </c>
       <c r="T27" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="U27" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V27" t="n">
         <v>1.17</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="G28" t="n">
         <v>1.86</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I28" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J28" t="n">
         <v>3.25</v>
       </c>
       <c r="K28" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,22 +4201,22 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="O28" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R28" t="n">
         <v>1.08</v>
       </c>
       <c r="S28" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G29" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H29" t="n">
         <v>4.5</v>
@@ -4324,10 +4324,10 @@
         <v>9.6</v>
       </c>
       <c r="J29" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K29" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,22 +4336,22 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="O29" t="n">
         <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.32</v>
+        <v>1.6</v>
       </c>
       <c r="R29" t="n">
         <v>1.07</v>
       </c>
       <c r="S29" t="n">
-        <v>2.34</v>
+        <v>1.6</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4363,7 +4363,7 @@
         <v>1.11</v>
       </c>
       <c r="W29" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="G30" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="H30" t="n">
-        <v>3.15</v>
+        <v>7.2</v>
       </c>
       <c r="I30" t="n">
         <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4477,16 +4477,16 @@
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="S30" t="n">
-        <v>3.2</v>
+        <v>1.98</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -4498,7 +4498,7 @@
         <v>1.01</v>
       </c>
       <c r="W30" t="n">
-        <v>3.05</v>
+        <v>2.58</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G31" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I31" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K31" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,34 +4606,34 @@
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P31" t="n">
         <v>1.47</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R31" t="n">
         <v>1.14</v>
       </c>
       <c r="S31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="U31" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="V31" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W31" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G32" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="H32" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J32" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="K32" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,22 +4741,22 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="O32" t="n">
         <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R32" t="n">
         <v>1.08</v>
       </c>
       <c r="S32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4768,7 +4768,7 @@
         <v>1.28</v>
       </c>
       <c r="W32" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G33" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I33" t="n">
         <v>5.1</v>
@@ -4900,10 +4900,10 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W33" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="X33" t="n">
         <v>14.5</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="G34" t="n">
         <v>3.25</v>
       </c>
       <c r="H34" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I34" t="n">
         <v>2.9</v>
@@ -5008,13 +5008,13 @@
         <v>1.49</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
         <v>1.68</v>
@@ -5023,16 +5023,16 @@
         <v>2.3</v>
       </c>
       <c r="R34" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V34" t="n">
         <v>1.52</v>
@@ -5041,58 +5041,58 @@
         <v>1.44</v>
       </c>
       <c r="X34" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD34" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y34" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>18</v>
-      </c>
       <c r="AE34" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AG34" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ34" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AL34" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
@@ -5164,10 +5164,10 @@
         <v>3.6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="V35" t="n">
         <v>1.31</v>
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G36" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H36" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I36" t="n">
         <v>4.6</v>
@@ -5272,10 +5272,10 @@
         <v>3.1</v>
       </c>
       <c r="K36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M36" t="n">
         <v>1.11</v>
@@ -5284,7 +5284,7 @@
         <v>2.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P36" t="n">
         <v>1.61</v>
@@ -5299,70 +5299,70 @@
         <v>4.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V36" t="n">
         <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ36" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AK36" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -5395,7 +5395,7 @@
         <v>3.2</v>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H37" t="n">
         <v>2.7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G38" t="n">
         <v>1.45</v>
@@ -5560,7 +5560,7 @@
         <v>2.2</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R38" t="n">
         <v>1.47</v>
@@ -5569,7 +5569,7 @@
         <v>3.05</v>
       </c>
       <c r="T38" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U38" t="n">
         <v>1.87</v>
@@ -5626,7 +5626,7 @@
         <v>38</v>
       </c>
       <c r="AM38" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN38" t="n">
         <v>6.6</v>
@@ -5800,16 +5800,16 @@
         <v>2.72</v>
       </c>
       <c r="G40" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H40" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="I40" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J40" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
         <v>3.2</v>
@@ -5845,64 +5845,64 @@
         <v>1.79</v>
       </c>
       <c r="V40" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W40" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41">
@@ -5935,7 +5935,7 @@
         <v>1.93</v>
       </c>
       <c r="G41" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H41" t="n">
         <v>4.5</v>
@@ -5962,7 +5962,7 @@
         <v>1.34</v>
       </c>
       <c r="P41" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q41" t="n">
         <v>2.02</v>
@@ -5974,7 +5974,7 @@
         <v>3.65</v>
       </c>
       <c r="T41" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U41" t="n">
         <v>2.08</v>
@@ -5983,7 +5983,7 @@
         <v>1.27</v>
       </c>
       <c r="W41" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X41" t="n">
         <v>13.5</v>
@@ -6076,7 +6076,7 @@
         <v>3.85</v>
       </c>
       <c r="I42" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J42" t="n">
         <v>3.8</v>
@@ -6103,22 +6103,22 @@
         <v>1.72</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S42" t="n">
         <v>2.8</v>
       </c>
       <c r="T42" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U42" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V42" t="n">
         <v>1.34</v>
       </c>
       <c r="W42" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X42" t="n">
         <v>19</v>
@@ -6172,7 +6172,7 @@
         <v>11.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -6232,7 +6232,7 @@
         <v>1.27</v>
       </c>
       <c r="P43" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q43" t="n">
         <v>1.83</v>
@@ -6340,7 +6340,7 @@
         <v>2.28</v>
       </c>
       <c r="G44" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
         <v>2.8</v>
@@ -6493,7 +6493,7 @@
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
         <v>1.93</v>
@@ -6754,7 +6754,7 @@
         <v>2.46</v>
       </c>
       <c r="J47" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K47" t="n">
         <v>3.9</v>
@@ -6778,22 +6778,22 @@
         <v>1.58</v>
       </c>
       <c r="R47" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S47" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T47" t="n">
         <v>1.52</v>
       </c>
       <c r="U47" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="V47" t="n">
         <v>1.68</v>
       </c>
       <c r="W47" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X47" t="n">
         <v>23</v>
@@ -6877,25 +6877,25 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H48" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I48" t="n">
         <v>2.38</v>
       </c>
       <c r="J48" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K48" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M48" t="n">
         <v>1.06</v>
@@ -6928,16 +6928,16 @@
         <v>1.72</v>
       </c>
       <c r="W48" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="X48" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y48" t="n">
         <v>12</v>
       </c>
       <c r="Z48" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="n">
         <v>32</v>
@@ -6952,16 +6952,16 @@
         <v>11.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AF48" t="n">
         <v>24</v>
       </c>
       <c r="AG48" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH48" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI48" t="n">
         <v>42</v>
@@ -6970,7 +6970,7 @@
         <v>55</v>
       </c>
       <c r="AK48" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AL48" t="n">
         <v>44</v>
@@ -6979,7 +6979,7 @@
         <v>80</v>
       </c>
       <c r="AN48" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO48" t="n">
         <v>16</v>
@@ -7078,7 +7078,7 @@
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC49" t="n">
         <v>18</v>
@@ -7090,10 +7090,10 @@
         <v>310</v>
       </c>
       <c r="AF49" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG49" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH49" t="n">
         <v>42</v>
@@ -7102,7 +7102,7 @@
         <v>230</v>
       </c>
       <c r="AJ49" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK49" t="n">
         <v>18</v>
@@ -7186,13 +7186,13 @@
         <v>1.27</v>
       </c>
       <c r="S50" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T50" t="n">
         <v>1.74</v>
       </c>
       <c r="U50" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
         <v>1.4</v>
@@ -7201,58 +7201,58 @@
         <v>1.64</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y50" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG50" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z50" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH50" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI50" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ50" t="n">
         <v>42</v>
       </c>
       <c r="AK50" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL50" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -7288,7 +7288,7 @@
         <v>1.14</v>
       </c>
       <c r="H51" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I51" t="n">
         <v>32</v>
@@ -7315,16 +7315,16 @@
         <v>4.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="R51" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="S51" t="n">
         <v>1.68</v>
       </c>
       <c r="T51" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U51" t="n">
         <v>1.85</v>
@@ -7333,7 +7333,7 @@
         <v>1.03</v>
       </c>
       <c r="W51" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X51" t="n">
         <v>70</v>
@@ -7342,7 +7342,7 @@
         <v>120</v>
       </c>
       <c r="Z51" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
@@ -7354,16 +7354,16 @@
         <v>30</v>
       </c>
       <c r="AD51" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AE51" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AF51" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH51" t="n">
         <v>50</v>
@@ -7378,13 +7378,13 @@
         <v>14.5</v>
       </c>
       <c r="AL51" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM51" t="n">
         <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="AO51" t="n">
         <v>500</v>
@@ -7423,7 +7423,7 @@
         <v>980</v>
       </c>
       <c r="H52" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="I52" t="n">
         <v>1.41</v>
@@ -7453,7 +7453,7 @@
         <v>1.48</v>
       </c>
       <c r="R52" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="S52" t="n">
         <v>2.12</v>
@@ -7462,13 +7462,13 @@
         <v>1.01</v>
       </c>
       <c r="U52" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="V52" t="n">
         <v>1.88</v>
       </c>
       <c r="W52" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7588,16 +7588,16 @@
         <v>1.94</v>
       </c>
       <c r="R53" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S53" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V53" t="n">
         <v>1.29</v>
@@ -7687,13 +7687,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G54" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I54" t="n">
         <v>3.8</v>
@@ -7702,7 +7702,7 @@
         <v>3.35</v>
       </c>
       <c r="K54" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L54" t="n">
         <v>1.44</v>
@@ -7717,16 +7717,16 @@
         <v>1.34</v>
       </c>
       <c r="P54" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="R54" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="S54" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="T54" t="n">
         <v>1.76</v>
@@ -7738,7 +7738,7 @@
         <v>1.36</v>
       </c>
       <c r="W54" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X54" t="n">
         <v>16.5</v>
@@ -7960,16 +7960,16 @@
         <v>2.4</v>
       </c>
       <c r="G56" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H56" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I56" t="n">
         <v>3.15</v>
       </c>
       <c r="J56" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K56" t="n">
         <v>4.1</v>
@@ -7978,7 +7978,7 @@
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N56" t="n">
         <v>1.03</v>
@@ -8008,7 +8008,7 @@
         <v>1.48</v>
       </c>
       <c r="W56" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8107,7 +8107,7 @@
         <v>4.1</v>
       </c>
       <c r="K57" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8116,16 +8116,16 @@
         <v>1.03</v>
       </c>
       <c r="N57" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O57" t="n">
         <v>1.16</v>
       </c>
       <c r="P57" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="R57" t="n">
         <v>1.61</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G58" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I58" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J58" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="K58" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="L58" t="n">
         <v>1.18</v>
@@ -8251,88 +8251,88 @@
         <v>1.02</v>
       </c>
       <c r="N58" t="n">
-        <v>7.2</v>
+        <v>1.06</v>
       </c>
       <c r="O58" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P58" t="n">
-        <v>3.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="S58" t="n">
-        <v>1.84</v>
+        <v>1.35</v>
       </c>
       <c r="T58" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="U58" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="V58" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W58" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X58" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y58" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AA58" t="n">
-        <v>500</v>
+        <v>710</v>
       </c>
       <c r="AB58" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AC58" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD58" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE58" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG58" t="n">
         <v>12</v>
       </c>
-      <c r="AG58" t="n">
+      <c r="AH58" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK58" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH58" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>14</v>
-      </c>
       <c r="AL58" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM58" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN58" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO58" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59">
@@ -8365,10 +8365,10 @@
         <v>1.93</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H59" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I59" t="n">
         <v>4.5</v>
@@ -8395,7 +8395,7 @@
         <v>2.22</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R59" t="n">
         <v>1.51</v>
@@ -8413,7 +8413,7 @@
         <v>1.28</v>
       </c>
       <c r="W59" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X59" t="n">
         <v>23</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.29</v>
+        <v>1.82</v>
       </c>
       <c r="G60" t="n">
         <v>2.36</v>
@@ -8506,10 +8506,10 @@
         <v>3.7</v>
       </c>
       <c r="I60" t="n">
-        <v>980</v>
+        <v>5.9</v>
       </c>
       <c r="J60" t="n">
-        <v>1.09</v>
+        <v>2.94</v>
       </c>
       <c r="K60" t="n">
         <v>4.6</v>
@@ -8545,7 +8545,7 @@
         <v>1.01</v>
       </c>
       <c r="V60" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W60" t="n">
         <v>1.73</v>
@@ -8635,7 +8635,7 @@
         <v>2.28</v>
       </c>
       <c r="G61" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H61" t="n">
         <v>2.72</v>
@@ -8656,7 +8656,7 @@
         <v>1.01</v>
       </c>
       <c r="N61" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="O61" t="n">
         <v>1.16</v>
@@ -8683,7 +8683,7 @@
         <v>1.43</v>
       </c>
       <c r="W61" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="G62" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I62" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="J62" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="K62" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8800,7 +8800,7 @@
         <v>1.54</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R62" t="n">
         <v>1.18</v>
@@ -8815,10 +8815,10 @@
         <v>1.71</v>
       </c>
       <c r="V62" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="W62" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="X62" t="n">
         <v>14.5</v>
@@ -8914,7 +8914,7 @@
         <v>1.79</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K63" t="n">
         <v>4.3</v>
@@ -9067,7 +9067,7 @@
         <v>1.38</v>
       </c>
       <c r="P64" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q64" t="n">
         <v>2.14</v>
@@ -9172,16 +9172,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H65" t="n">
         <v>2.84</v>
       </c>
       <c r="I65" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J65" t="n">
         <v>3.15</v>
@@ -9202,7 +9202,7 @@
         <v>1.4</v>
       </c>
       <c r="P65" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q65" t="n">
         <v>2.22</v>
@@ -9220,10 +9220,10 @@
         <v>2.06</v>
       </c>
       <c r="V65" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W65" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X65" t="n">
         <v>11</v>
@@ -9307,25 +9307,25 @@
         </is>
       </c>
       <c r="F66" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G66" t="n">
         <v>1.62</v>
       </c>
-      <c r="G66" t="n">
-        <v>1.63</v>
-      </c>
       <c r="H66" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I66" t="n">
         <v>6.6</v>
       </c>
-      <c r="I66" t="n">
-        <v>6.8</v>
-      </c>
       <c r="J66" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K66" t="n">
         <v>4.4</v>
       </c>
       <c r="L66" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M66" t="n">
         <v>1.05</v>
@@ -9334,19 +9334,19 @@
         <v>4.8</v>
       </c>
       <c r="O66" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P66" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="R66" t="n">
         <v>1.5</v>
       </c>
       <c r="S66" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="T66" t="n">
         <v>1.86</v>
@@ -9358,28 +9358,28 @@
         <v>1.17</v>
       </c>
       <c r="W66" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X66" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y66" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z66" t="n">
         <v>55</v>
       </c>
       <c r="AA66" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="AB66" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC66" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD66" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE66" t="n">
         <v>80</v>
@@ -9403,13 +9403,13 @@
         <v>15</v>
       </c>
       <c r="AL66" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM66" t="n">
         <v>100</v>
       </c>
       <c r="AN66" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO66" t="n">
         <v>85</v>
@@ -9460,7 +9460,7 @@
         <v>3.9</v>
       </c>
       <c r="L67" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M67" t="n">
         <v>1.06</v>
@@ -9469,19 +9469,19 @@
         <v>4.3</v>
       </c>
       <c r="O67" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P67" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R67" t="n">
         <v>1.44</v>
       </c>
       <c r="S67" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T67" t="n">
         <v>1.75</v>
@@ -9508,7 +9508,7 @@
         <v>85</v>
       </c>
       <c r="AB67" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC67" t="n">
         <v>8.6</v>
@@ -9853,7 +9853,7 @@
         <v>2.54</v>
       </c>
       <c r="H70" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I70" t="n">
         <v>4.6</v>
@@ -10030,7 +10030,7 @@
         <v>1.01</v>
       </c>
       <c r="V71" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W71" t="n">
         <v>1.43</v>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G72" t="n">
         <v>2.1</v>
@@ -10126,7 +10126,7 @@
         <v>4.5</v>
       </c>
       <c r="I72" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J72" t="n">
         <v>3.25</v>
@@ -10135,7 +10135,7 @@
         <v>3.3</v>
       </c>
       <c r="L72" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="M72" t="n">
         <v>1.12</v>
@@ -10144,19 +10144,19 @@
         <v>2.74</v>
       </c>
       <c r="O72" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P72" t="n">
         <v>1.57</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="R72" t="n">
         <v>1.2</v>
       </c>
       <c r="S72" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T72" t="n">
         <v>2.22</v>
@@ -10192,7 +10192,7 @@
         <v>19.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF72" t="n">
         <v>11</v>
@@ -10219,7 +10219,7 @@
         <v>210</v>
       </c>
       <c r="AN72" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO72" t="n">
         <v>130</v>
@@ -10264,7 +10264,7 @@
         <v>9.6</v>
       </c>
       <c r="J73" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K73" t="n">
         <v>5.2</v>
@@ -10393,10 +10393,10 @@
         <v>2.16</v>
       </c>
       <c r="H74" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I74" t="n">
-        <v>8.4</v>
+        <v>5.8</v>
       </c>
       <c r="J74" t="n">
         <v>3.5</v>
@@ -10435,7 +10435,7 @@
         <v>1.01</v>
       </c>
       <c r="V74" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="W74" t="n">
         <v>1.86</v>
@@ -10567,7 +10567,7 @@
         <v>1.01</v>
       </c>
       <c r="U75" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V75" t="n">
         <v>1.89</v>
@@ -10666,7 +10666,7 @@
         <v>4.1</v>
       </c>
       <c r="I76" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J76" t="n">
         <v>3.6</v>
@@ -10675,7 +10675,7 @@
         <v>3.65</v>
       </c>
       <c r="L76" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M76" t="n">
         <v>1.08</v>
@@ -10690,13 +10690,13 @@
         <v>1.86</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R76" t="n">
         <v>1.31</v>
       </c>
       <c r="S76" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T76" t="n">
         <v>1.91</v>
@@ -10792,19 +10792,19 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G77" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="I77" t="n">
         <v>1.89</v>
       </c>
       <c r="J77" t="n">
-        <v>2.78</v>
+        <v>1.09</v>
       </c>
       <c r="K77" t="n">
         <v>5.1</v>
@@ -10837,13 +10837,13 @@
         <v>1.98</v>
       </c>
       <c r="U77" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V77" t="n">
         <v>2.12</v>
       </c>
       <c r="W77" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X77" t="n">
         <v>1000</v>
@@ -10930,10 +10930,10 @@
         <v>2.42</v>
       </c>
       <c r="G78" t="n">
-        <v>980</v>
+        <v>3.05</v>
       </c>
       <c r="H78" t="n">
-        <v>1.09</v>
+        <v>2.5</v>
       </c>
       <c r="I78" t="n">
         <v>3.25</v>
@@ -11083,7 +11083,7 @@
         <v>1.01</v>
       </c>
       <c r="M79" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N79" t="n">
         <v>2.96</v>
@@ -11095,19 +11095,19 @@
         <v>2.94</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R79" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="S79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U79" t="n">
         <v>1.72</v>
-      </c>
-      <c r="T79" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U79" t="n">
-        <v>1.01</v>
       </c>
       <c r="V79" t="n">
         <v>4.5</v>
@@ -11206,7 +11206,7 @@
         <v>24</v>
       </c>
       <c r="I80" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="J80" t="n">
         <v>9.800000000000001</v>
@@ -11218,13 +11218,13 @@
         <v>1.26</v>
       </c>
       <c r="M80" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N80" t="n">
-        <v>2.58</v>
+        <v>5.8</v>
       </c>
       <c r="O80" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P80" t="n">
         <v>2.58</v>
@@ -11233,52 +11233,52 @@
         <v>1.52</v>
       </c>
       <c r="R80" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="S80" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="T80" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="U80" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="V80" t="n">
         <v>1.03</v>
       </c>
       <c r="W80" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X80" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y80" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Z80" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AA80" t="n">
         <v>1000</v>
       </c>
       <c r="AB80" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AC80" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AD80" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AE80" t="n">
         <v>1000</v>
       </c>
       <c r="AF80" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AG80" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AH80" t="n">
         <v>90</v>
@@ -11287,19 +11287,19 @@
         <v>1000</v>
       </c>
       <c r="AJ80" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AK80" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AL80" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AM80" t="n">
         <v>1000</v>
       </c>
       <c r="AN80" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="AO80" t="n">
         <v>1000</v>
@@ -11335,7 +11335,7 @@
         <v>1.6</v>
       </c>
       <c r="G81" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H81" t="n">
         <v>6.6</v>
@@ -11353,13 +11353,13 @@
         <v>1.45</v>
       </c>
       <c r="M81" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N81" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="O81" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P81" t="n">
         <v>1.79</v>
@@ -11374,16 +11374,16 @@
         <v>3.75</v>
       </c>
       <c r="T81" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U81" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="V81" t="n">
         <v>1.14</v>
       </c>
       <c r="W81" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="X81" t="n">
         <v>13.5</v>
@@ -11476,7 +11476,7 @@
         <v>4.3</v>
       </c>
       <c r="I82" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="J82" t="n">
         <v>3.3</v>
@@ -11500,13 +11500,13 @@
         <v>1.68</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R82" t="n">
         <v>1.24</v>
       </c>
       <c r="S82" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T82" t="n">
         <v>1.01</v>
@@ -11605,7 +11605,7 @@
         <v>5.1</v>
       </c>
       <c r="G83" t="n">
-        <v>25</v>
+        <v>9.6</v>
       </c>
       <c r="H83" t="n">
         <v>1.42</v>
@@ -11626,10 +11626,10 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>4.2</v>
+        <v>2.22</v>
       </c>
       <c r="O83" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P83" t="n">
         <v>2.22</v>
@@ -11638,7 +11638,7 @@
         <v>1.46</v>
       </c>
       <c r="R83" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S83" t="n">
         <v>2.16</v>
@@ -11653,7 +11653,7 @@
         <v>2.38</v>
       </c>
       <c r="W83" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11884,100 +11884,100 @@
         <v>1000</v>
       </c>
       <c r="J85" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K85" t="n">
         <v>1000</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P85" t="n">
         <v>1.25</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="86">
@@ -12007,112 +12007,112 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P86" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="X86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO86" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87">
@@ -12160,25 +12160,25 @@
         <v>3.1</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M87" t="n">
         <v>1.1</v>
       </c>
       <c r="N87" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O87" t="n">
         <v>1.42</v>
       </c>
       <c r="P87" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q87" t="n">
         <v>2.32</v>
       </c>
       <c r="R87" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S87" t="n">
         <v>4.3</v>
@@ -12190,64 +12190,64 @@
         <v>2.04</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X87" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y87" t="n">
         <v>10.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA87" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB87" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC87" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD87" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE87" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF87" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG87" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH87" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI87" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ87" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK87" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL87" t="n">
         <v>55</v>
       </c>
       <c r="AM87" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN87" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO87" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
@@ -12280,22 +12280,22 @@
         <v>2.16</v>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H88" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I88" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J88" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K88" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M88" t="n">
         <v>1.06</v>
@@ -12307,10 +12307,10 @@
         <v>1.29</v>
       </c>
       <c r="P88" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R88" t="n">
         <v>1.43</v>
@@ -12322,25 +12322,25 @@
         <v>1.72</v>
       </c>
       <c r="U88" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X88" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y88" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA88" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB88" t="n">
         <v>11</v>
@@ -12349,40 +12349,40 @@
         <v>8.4</v>
       </c>
       <c r="AD88" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF88" t="n">
         <v>14.5</v>
       </c>
       <c r="AG88" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH88" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI88" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ88" t="n">
         <v>28</v>
       </c>
       <c r="AK88" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL88" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM88" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN88" t="n">
         <v>15</v>
       </c>
       <c r="AO88" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89">
@@ -12418,10 +12418,10 @@
         <v>2.98</v>
       </c>
       <c r="H89" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I89" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J89" t="n">
         <v>3.1</v>
@@ -12430,10 +12430,10 @@
         <v>3.15</v>
       </c>
       <c r="L89" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M89" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N89" t="n">
         <v>3.05</v>
@@ -12445,7 +12445,7 @@
         <v>1.68</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R89" t="n">
         <v>1.25</v>
@@ -12457,25 +12457,25 @@
         <v>1.98</v>
       </c>
       <c r="U89" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V89" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W89" t="n">
         <v>1.5</v>
       </c>
       <c r="X89" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y89" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z89" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA89" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AB89" t="n">
         <v>9.6</v>
@@ -12490,31 +12490,31 @@
         <v>38</v>
       </c>
       <c r="AF89" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG89" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH89" t="n">
         <v>19.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ89" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK89" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL89" t="n">
         <v>60</v>
       </c>
       <c r="AM89" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN89" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO89" t="n">
         <v>40</v>
@@ -12547,112 +12547,112 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G90" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="H90" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="I90" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J90" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K90" t="n">
         <v>4.3</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P90" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V90" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="91">
@@ -12685,10 +12685,10 @@
         <v>1.41</v>
       </c>
       <c r="G91" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="H91" t="n">
-        <v>9.4</v>
+        <v>5.7</v>
       </c>
       <c r="I91" t="n">
         <v>13</v>
@@ -12697,7 +12697,7 @@
         <v>4.8</v>
       </c>
       <c r="K91" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -13105,7 +13105,7 @@
         <v>4.4</v>
       </c>
       <c r="L94" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M94" t="n">
         <v>1.06</v>
@@ -13135,7 +13135,7 @@
         <v>2.02</v>
       </c>
       <c r="V94" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W94" t="n">
         <v>1.65</v>
@@ -13252,10 +13252,10 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -13357,7 +13357,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G96" t="n">
         <v>2.12</v>
@@ -13366,13 +13366,13 @@
         <v>4.6</v>
       </c>
       <c r="I96" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J96" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="K96" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO98"/>
+  <dimension ref="A1:AO99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,10 +808,10 @@
         <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J3" t="n">
         <v>3.85</v>
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
         <v>2.4</v>
@@ -862,7 +862,7 @@
         <v>18.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
         <v>85</v>
@@ -874,7 +874,7 @@
         <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE3" t="n">
         <v>50</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H4" t="n">
         <v>2.38</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -967,16 +967,16 @@
         <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
         <v>1.35</v>
       </c>
       <c r="S4" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -985,10 +985,10 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1114,25 +1114,25 @@
         <v>2.04</v>
       </c>
       <c r="T5" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1141,10 +1141,10 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="I6" t="n">
         <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,25 +1231,25 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q6" t="n">
         <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
         <v>1.79</v>
@@ -1258,7 +1258,7 @@
         <v>1.43</v>
       </c>
       <c r="W6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>3.5</v>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
         <v>2.08</v>
@@ -1354,7 +1354,7 @@
         <v>2.36</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>4.3</v>
@@ -1375,13 +1375,13 @@
         <v>1.65</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1480,7 +1480,7 @@
         <v>1.75</v>
       </c>
       <c r="G8" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H8" t="n">
         <v>3.55</v>
@@ -1489,7 +1489,7 @@
         <v>5.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
         <v>7</v>
@@ -1501,13 +1501,13 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="O8" t="n">
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
         <v>1.71</v>
@@ -1516,7 +1516,7 @@
         <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1528,7 +1528,7 @@
         <v>1.23</v>
       </c>
       <c r="W8" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1660,7 +1660,7 @@
         <v>2.66</v>
       </c>
       <c r="V9" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W9" t="n">
         <v>1.27</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
         <v>2.46</v>
@@ -1756,7 +1756,7 @@
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
@@ -1786,7 +1786,7 @@
         <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1795,7 +1795,7 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W10" t="n">
         <v>1.68</v>
@@ -1804,13 +1804,13 @@
         <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z10" t="n">
         <v>32</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB10" t="n">
         <v>17</v>
@@ -1831,7 +1831,7 @@
         <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>55</v>
@@ -1885,16 +1885,16 @@
         <v>1.56</v>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
         <v>7.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
         <v>5.6</v>
@@ -2032,7 +2032,7 @@
         <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.49</v>
@@ -2431,10 +2431,10 @@
         <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
         <v>8.4</v>
@@ -2470,7 +2470,7 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
         <v>2.12</v>
@@ -2566,7 +2566,7 @@
         <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J16" t="n">
         <v>3.65</v>
@@ -2875,7 +2875,7 @@
         <v>2.14</v>
       </c>
       <c r="V18" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W18" t="n">
         <v>1.92</v>
@@ -2893,7 +2893,7 @@
         <v>95</v>
       </c>
       <c r="AB18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
         <v>8.800000000000001</v>
@@ -3004,7 +3004,7 @@
         <v>2.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U19" t="n">
         <v>2.48</v>
@@ -3019,7 +3019,7 @@
         <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Z19" t="n">
         <v>30</v>
@@ -3130,7 +3130,7 @@
         <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
         <v>1.48</v>
@@ -3139,7 +3139,7 @@
         <v>2.82</v>
       </c>
       <c r="T20" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="U20" t="n">
         <v>2.2</v>
@@ -3178,7 +3178,7 @@
         <v>12.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>18.5</v>
@@ -3238,7 +3238,7 @@
         <v>110</v>
       </c>
       <c r="H21" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="I21" t="n">
         <v>3.4</v>
@@ -3262,10 +3262,10 @@
         <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R21" t="n">
         <v>1.18</v>
@@ -3283,7 +3283,7 @@
         <v>1.45</v>
       </c>
       <c r="W21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3373,106 +3373,106 @@
         <v>2.24</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O22" t="n">
         <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S22" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="T22" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="U22" t="n">
         <v>2.62</v>
       </c>
       <c r="V22" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W22" t="n">
         <v>1.8</v>
       </c>
       <c r="X22" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z22" t="n">
         <v>29</v>
       </c>
-      <c r="Y22" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>34</v>
-      </c>
       <c r="AA22" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
         <v>18</v>
       </c>
       <c r="AE22" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
         <v>44</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM22" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AO22" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -3505,7 +3505,7 @@
         <v>2.14</v>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H23" t="n">
         <v>2.64</v>
@@ -3526,13 +3526,13 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q23" t="n">
         <v>1.53</v>
@@ -3553,7 +3553,7 @@
         <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G24" t="n">
         <v>4.7</v>
@@ -3646,13 +3646,13 @@
         <v>1.98</v>
       </c>
       <c r="I24" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,13 +3661,13 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O24" t="n">
         <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q24" t="n">
         <v>1.78</v>
@@ -3685,7 +3685,7 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W24" t="n">
         <v>1.27</v>
@@ -3952,7 +3952,7 @@
         <v>1.84</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V26" t="n">
         <v>1.25</v>
@@ -4087,7 +4087,7 @@
         <v>1.81</v>
       </c>
       <c r="U27" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V27" t="n">
         <v>1.17</v>
@@ -4117,7 +4117,7 @@
         <v>28</v>
       </c>
       <c r="AE27" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF27" t="n">
         <v>12</v>
@@ -4342,16 +4342,16 @@
         <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="S29" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="G30" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="H30" t="n">
-        <v>7.2</v>
+        <v>1.04</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K30" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,22 +4471,22 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>2.72</v>
+        <v>1.59</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P30" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="R30" t="n">
         <v>1.08</v>
       </c>
       <c r="S30" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -4498,7 +4498,7 @@
         <v>1.01</v>
       </c>
       <c r="W30" t="n">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4603,31 +4603,31 @@
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="O31" t="n">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="P31" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="Q31" t="n">
         <v>2.26</v>
       </c>
       <c r="R31" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="S31" t="n">
-        <v>4.3</v>
+        <v>2.86</v>
       </c>
       <c r="T31" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="U31" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
         <v>1.2</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G33" t="n">
         <v>2.04</v>
@@ -4876,10 +4876,10 @@
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="O33" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
         <v>1.8</v>
@@ -4894,7 +4894,7 @@
         <v>3.7</v>
       </c>
       <c r="T33" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="U33" t="n">
         <v>2</v>
@@ -4906,58 +4906,58 @@
         <v>1.97</v>
       </c>
       <c r="X33" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y33" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH33" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z33" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE33" t="n">
+      <c r="AI33" t="n">
         <v>75</v>
       </c>
-      <c r="AF33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH33" t="n">
+      <c r="AJ33" t="n">
         <v>24</v>
       </c>
-      <c r="AI33" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>26</v>
-      </c>
       <c r="AK33" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL33" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="n">
         <v>140</v>
       </c>
       <c r="AN33" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -4990,7 +4990,7 @@
         <v>2.9</v>
       </c>
       <c r="G34" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H34" t="n">
         <v>2.76</v>
@@ -5002,7 +5002,7 @@
         <v>3.05</v>
       </c>
       <c r="K34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L34" t="n">
         <v>1.49</v>
@@ -5017,28 +5017,28 @@
         <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q34" t="n">
         <v>2.3</v>
       </c>
       <c r="R34" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S34" t="n">
         <v>4.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U34" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V34" t="n">
         <v>1.52</v>
       </c>
       <c r="W34" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -5149,7 +5149,7 @@
         <v>1.54</v>
       </c>
       <c r="O35" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P35" t="n">
         <v>1.54</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G36" t="n">
         <v>2.18</v>
@@ -5266,16 +5266,16 @@
         <v>4.2</v>
       </c>
       <c r="I36" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
         <v>3.25</v>
       </c>
       <c r="L36" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
         <v>1.11</v>
@@ -5290,7 +5290,7 @@
         <v>1.61</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R36" t="n">
         <v>1.21</v>
@@ -5305,13 +5305,13 @@
         <v>1.8</v>
       </c>
       <c r="V36" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W36" t="n">
         <v>1.84</v>
       </c>
       <c r="X36" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y36" t="n">
         <v>13</v>
@@ -5332,7 +5332,7 @@
         <v>19.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF36" t="n">
         <v>12.5</v>
@@ -5347,7 +5347,7 @@
         <v>110</v>
       </c>
       <c r="AJ36" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK36" t="n">
         <v>29</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G38" t="n">
         <v>1.45</v>
@@ -5539,7 +5539,7 @@
         <v>9.4</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K38" t="n">
         <v>5.2</v>
@@ -5569,13 +5569,13 @@
         <v>3.05</v>
       </c>
       <c r="T38" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U38" t="n">
         <v>1.87</v>
       </c>
       <c r="V38" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W38" t="n">
         <v>3.25</v>
@@ -5626,7 +5626,7 @@
         <v>38</v>
       </c>
       <c r="AM38" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN38" t="n">
         <v>6.6</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G39" t="n">
         <v>3.1</v>
@@ -5686,7 +5686,7 @@
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O39" t="n">
         <v>1.29</v>
@@ -5752,19 +5752,19 @@
         <v>36</v>
       </c>
       <c r="AJ39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK39" t="n">
         <v>32</v>
       </c>
       <c r="AL39" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="n">
         <v>80</v>
       </c>
       <c r="AN39" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO39" t="n">
         <v>18.5</v>
@@ -5821,7 +5821,7 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O40" t="n">
         <v>1.45</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G41" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H41" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I41" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J41" t="n">
         <v>3.75</v>
@@ -5983,7 +5983,7 @@
         <v>1.27</v>
       </c>
       <c r="W41" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X41" t="n">
         <v>13.5</v>
@@ -6001,7 +6001,7 @@
         <v>8.6</v>
       </c>
       <c r="AC41" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD41" t="n">
         <v>18</v>
@@ -6025,7 +6025,7 @@
         <v>21</v>
       </c>
       <c r="AK41" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL41" t="n">
         <v>38</v>
@@ -6070,7 +6070,7 @@
         <v>2.08</v>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H42" t="n">
         <v>3.85</v>
@@ -6079,10 +6079,10 @@
         <v>3.95</v>
       </c>
       <c r="J42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K42" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.85</v>
       </c>
       <c r="L42" t="n">
         <v>1.33</v>
@@ -6115,10 +6115,10 @@
         <v>2.5</v>
       </c>
       <c r="V42" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W42" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="X42" t="n">
         <v>19</v>
@@ -6130,7 +6130,7 @@
         <v>29</v>
       </c>
       <c r="AA42" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB42" t="n">
         <v>12</v>
@@ -6172,7 +6172,7 @@
         <v>11.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
@@ -6340,7 +6340,7 @@
         <v>2.28</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H44" t="n">
         <v>2.8</v>
@@ -6349,7 +6349,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K44" t="n">
         <v>5.1</v>
@@ -6772,13 +6772,13 @@
         <v>1.19</v>
       </c>
       <c r="P47" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q47" t="n">
         <v>1.58</v>
       </c>
       <c r="R47" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S47" t="n">
         <v>2.44</v>
@@ -6787,10 +6787,10 @@
         <v>1.52</v>
       </c>
       <c r="U47" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="V47" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W47" t="n">
         <v>1.49</v>
@@ -6880,58 +6880,58 @@
         <v>3.4</v>
       </c>
       <c r="G48" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I48" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J48" t="n">
         <v>3.45</v>
       </c>
       <c r="K48" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L48" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M48" t="n">
         <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O48" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P48" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R48" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S48" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T48" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U48" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V48" t="n">
         <v>1.72</v>
       </c>
       <c r="W48" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X48" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y48" t="n">
         <v>12</v>
@@ -6943,7 +6943,7 @@
         <v>32</v>
       </c>
       <c r="AB48" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC48" t="n">
         <v>9.6</v>
@@ -6952,7 +6952,7 @@
         <v>11.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF48" t="n">
         <v>24</v>
@@ -6961,25 +6961,25 @@
         <v>14</v>
       </c>
       <c r="AH48" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AJ48" t="n">
         <v>55</v>
       </c>
       <c r="AK48" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL48" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AM48" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN48" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO48" t="n">
         <v>16</v>
@@ -7012,10 +7012,10 @@
         </is>
       </c>
       <c r="F49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G49" t="n">
         <v>1.27</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.28</v>
       </c>
       <c r="H49" t="n">
         <v>14</v>
@@ -7024,10 +7024,10 @@
         <v>16</v>
       </c>
       <c r="J49" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="K49" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L49" t="n">
         <v>1.28</v>
@@ -7036,88 +7036,88 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O49" t="n">
         <v>1.2</v>
       </c>
       <c r="P49" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R49" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S49" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="T49" t="n">
         <v>2.18</v>
       </c>
       <c r="U49" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V49" t="n">
         <v>1.06</v>
       </c>
       <c r="W49" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X49" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y49" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z49" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>660</v>
       </c>
       <c r="AB49" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AD49" t="n">
         <v>55</v>
       </c>
       <c r="AE49" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AF49" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG49" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH49" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AI49" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AJ49" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK49" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AL49" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM49" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN49" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AO49" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50">
@@ -7168,13 +7168,13 @@
         <v>1.46</v>
       </c>
       <c r="M50" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P50" t="n">
         <v>1.78</v>
@@ -7183,16 +7183,16 @@
         <v>2.18</v>
       </c>
       <c r="R50" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="S50" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="T50" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V50" t="n">
         <v>1.4</v>
@@ -7201,7 +7201,7 @@
         <v>1.64</v>
       </c>
       <c r="X50" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y50" t="n">
         <v>13</v>
@@ -7288,10 +7288,10 @@
         <v>1.14</v>
       </c>
       <c r="H51" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I51" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J51" t="n">
         <v>12</v>
@@ -7342,7 +7342,7 @@
         <v>120</v>
       </c>
       <c r="Z51" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
@@ -7357,7 +7357,7 @@
         <v>95</v>
       </c>
       <c r="AE51" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="AF51" t="n">
         <v>11.5</v>
@@ -7384,10 +7384,10 @@
         <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="AO51" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52">
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="G52" t="n">
         <v>980</v>
@@ -7450,7 +7450,7 @@
         <v>2.32</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.48</v>
+        <v>1.16</v>
       </c>
       <c r="R52" t="n">
         <v>1.57</v>
@@ -7459,13 +7459,13 @@
         <v>2.12</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>1.88</v>
+        <v>2.94</v>
       </c>
       <c r="W52" t="n">
         <v>1.03</v>
@@ -7594,10 +7594,10 @@
         <v>3.35</v>
       </c>
       <c r="T53" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="U53" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V53" t="n">
         <v>1.29</v>
@@ -7717,7 +7717,7 @@
         <v>1.34</v>
       </c>
       <c r="P54" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="Q54" t="n">
         <v>1.83</v>
@@ -7729,7 +7729,7 @@
         <v>3.1</v>
       </c>
       <c r="T54" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="U54" t="n">
         <v>2.1</v>
@@ -7738,7 +7738,7 @@
         <v>1.36</v>
       </c>
       <c r="W54" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X54" t="n">
         <v>16.5</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="G56" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="H56" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J56" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K56" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7987,16 +7987,16 @@
         <v>1.21</v>
       </c>
       <c r="P56" t="n">
-        <v>2.22</v>
+        <v>1.44</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R56" t="n">
         <v>1.44</v>
       </c>
       <c r="S56" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T56" t="n">
         <v>1.54</v>
@@ -8005,64 +8005,64 @@
         <v>1.01</v>
       </c>
       <c r="V56" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="W56" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="X56" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y56" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z56" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA56" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB56" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC56" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD56" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF56" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI56" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK56" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL56" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM56" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN56" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO56" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="G57" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="I57" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="J57" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="K57" t="n">
-        <v>4.8</v>
+        <v>950</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8116,16 +8116,16 @@
         <v>1.03</v>
       </c>
       <c r="N57" t="n">
-        <v>2.72</v>
+        <v>1.03</v>
       </c>
       <c r="O57" t="n">
         <v>1.16</v>
       </c>
       <c r="P57" t="n">
-        <v>2.72</v>
+        <v>1.61</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.48</v>
+        <v>1.16</v>
       </c>
       <c r="R57" t="n">
         <v>1.61</v>
@@ -8140,64 +8140,64 @@
         <v>1.01</v>
       </c>
       <c r="V57" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="W57" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X57" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y57" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA57" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB57" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC57" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD57" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE57" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF57" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG57" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI57" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK57" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL57" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM57" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO57" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="58">
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G58" t="n">
         <v>1.25</v>
       </c>
       <c r="H58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I58" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J58" t="n">
         <v>8</v>
       </c>
       <c r="K58" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L58" t="n">
         <v>1.18</v>
@@ -8257,31 +8257,31 @@
         <v>1.09</v>
       </c>
       <c r="P58" t="n">
-        <v>1.46</v>
+        <v>3.05</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="R58" t="n">
-        <v>1.46</v>
+        <v>1.87</v>
       </c>
       <c r="S58" t="n">
-        <v>1.35</v>
+        <v>1.76</v>
       </c>
       <c r="T58" t="n">
         <v>1.01</v>
       </c>
       <c r="U58" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="V58" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W58" t="n">
         <v>5</v>
       </c>
       <c r="X58" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y58" t="n">
         <v>80</v>
@@ -8293,16 +8293,16 @@
         <v>710</v>
       </c>
       <c r="AB58" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC58" t="n">
         <v>19</v>
       </c>
       <c r="AD58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE58" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF58" t="n">
         <v>11.5</v>
@@ -8311,10 +8311,10 @@
         <v>12</v>
       </c>
       <c r="AH58" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI58" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AJ58" t="n">
         <v>11.5</v>
@@ -8323,16 +8323,16 @@
         <v>12.5</v>
       </c>
       <c r="AL58" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM58" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN58" t="n">
         <v>3.2</v>
       </c>
       <c r="AO58" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
@@ -8365,16 +8365,16 @@
         <v>1.93</v>
       </c>
       <c r="G59" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H59" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I59" t="n">
         <v>4.5</v>
       </c>
       <c r="J59" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K59" t="n">
         <v>4.1</v>
@@ -8392,7 +8392,7 @@
         <v>1.23</v>
       </c>
       <c r="P59" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q59" t="n">
         <v>1.7</v>
@@ -8401,49 +8401,49 @@
         <v>1.51</v>
       </c>
       <c r="S59" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T59" t="n">
         <v>1.65</v>
       </c>
       <c r="U59" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="V59" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W59" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X59" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y59" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Z59" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA59" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB59" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC59" t="n">
         <v>9</v>
       </c>
       <c r="AD59" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE59" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AF59" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH59" t="n">
         <v>16</v>
@@ -8452,22 +8452,22 @@
         <v>50</v>
       </c>
       <c r="AJ59" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK59" t="n">
         <v>19</v>
       </c>
       <c r="AL59" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AM59" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN59" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO59" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60">
@@ -8500,7 +8500,7 @@
         <v>1.82</v>
       </c>
       <c r="G60" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="H60" t="n">
         <v>3.7</v>
@@ -8548,7 +8548,7 @@
         <v>1.2</v>
       </c>
       <c r="W60" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="G61" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="H61" t="n">
         <v>2.72</v>
       </c>
       <c r="I61" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="J61" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K61" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8656,16 +8656,16 @@
         <v>1.01</v>
       </c>
       <c r="N61" t="n">
-        <v>2.56</v>
+        <v>1.56</v>
       </c>
       <c r="O61" t="n">
         <v>1.16</v>
       </c>
       <c r="P61" t="n">
-        <v>2.56</v>
+        <v>1.56</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.51</v>
+        <v>1.16</v>
       </c>
       <c r="R61" t="n">
         <v>1.55</v>
@@ -8680,10 +8680,10 @@
         <v>1.01</v>
       </c>
       <c r="V61" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="W61" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8773,7 +8773,7 @@
         <v>2.82</v>
       </c>
       <c r="H62" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I62" t="n">
         <v>4.2</v>
@@ -8821,7 +8821,7 @@
         <v>1.54</v>
       </c>
       <c r="X62" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y62" t="n">
         <v>1000</v>
@@ -8929,7 +8929,7 @@
         <v>4.4</v>
       </c>
       <c r="O63" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P63" t="n">
         <v>2.18</v>
@@ -8941,10 +8941,10 @@
         <v>1.47</v>
       </c>
       <c r="S63" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T63" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U63" t="n">
         <v>2.18</v>
@@ -8986,7 +8986,7 @@
         <v>20</v>
       </c>
       <c r="AH63" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI63" t="n">
         <v>32</v>
@@ -8998,7 +8998,7 @@
         <v>65</v>
       </c>
       <c r="AL63" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM63" t="n">
         <v>95</v>
@@ -9175,7 +9175,7 @@
         <v>2.94</v>
       </c>
       <c r="G65" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>2.84</v>
@@ -9202,7 +9202,7 @@
         <v>1.4</v>
       </c>
       <c r="P65" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q65" t="n">
         <v>2.22</v>
@@ -9223,7 +9223,7 @@
         <v>1.52</v>
       </c>
       <c r="W65" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X65" t="n">
         <v>11</v>
@@ -9277,7 +9277,7 @@
         <v>36</v>
       </c>
       <c r="AO65" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -9319,10 +9319,10 @@
         <v>6.6</v>
       </c>
       <c r="J66" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K66" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L66" t="n">
         <v>1.34</v>
@@ -9340,7 +9340,7 @@
         <v>2.26</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R66" t="n">
         <v>1.5</v>
@@ -9361,19 +9361,19 @@
         <v>2.6</v>
       </c>
       <c r="X66" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y66" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z66" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA66" t="n">
         <v>170</v>
       </c>
       <c r="AB66" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC66" t="n">
         <v>9.6</v>
@@ -9442,10 +9442,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G67" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H67" t="n">
         <v>4.1</v>
@@ -9481,7 +9481,7 @@
         <v>1.44</v>
       </c>
       <c r="S67" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T67" t="n">
         <v>1.75</v>
@@ -9493,19 +9493,19 @@
         <v>1.3</v>
       </c>
       <c r="W67" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X67" t="n">
         <v>16.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z67" t="n">
         <v>32</v>
       </c>
       <c r="AA67" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB67" t="n">
         <v>10.5</v>
@@ -9541,7 +9541,7 @@
         <v>32</v>
       </c>
       <c r="AM67" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN67" t="n">
         <v>12.5</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H68" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
         <v>4.9</v>
       </c>
       <c r="J68" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="K68" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L68" t="n">
         <v>1.01</v>
@@ -9610,7 +9610,7 @@
         <v>1.54</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R68" t="n">
         <v>1.08</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G69" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H69" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I69" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J69" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="K69" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
@@ -9742,16 +9742,16 @@
         <v>1.01</v>
       </c>
       <c r="P69" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R69" t="n">
         <v>1.08</v>
       </c>
       <c r="S69" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T69" t="n">
         <v>1.01</v>
@@ -9760,10 +9760,10 @@
         <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W69" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9850,13 +9850,13 @@
         <v>2.26</v>
       </c>
       <c r="G70" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="H70" t="n">
         <v>3.35</v>
       </c>
       <c r="I70" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J70" t="n">
         <v>2.92</v>
@@ -9871,13 +9871,13 @@
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O70" t="n">
         <v>1.01</v>
       </c>
       <c r="P70" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Q70" t="n">
         <v>2.14</v>
@@ -9985,7 +9985,7 @@
         <v>2.38</v>
       </c>
       <c r="G71" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H71" t="n">
         <v>2.58</v>
@@ -10033,7 +10033,7 @@
         <v>1.37</v>
       </c>
       <c r="W71" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X71" t="n">
         <v>1000</v>
@@ -10138,13 +10138,13 @@
         <v>1.58</v>
       </c>
       <c r="M72" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N72" t="n">
         <v>2.74</v>
       </c>
       <c r="O72" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P72" t="n">
         <v>1.57</v>
@@ -10171,7 +10171,7 @@
         <v>1.9</v>
       </c>
       <c r="X72" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y72" t="n">
         <v>12</v>
@@ -10195,13 +10195,13 @@
         <v>80</v>
       </c>
       <c r="AF72" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG72" t="n">
         <v>11.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI72" t="n">
         <v>110</v>
@@ -10216,7 +10216,7 @@
         <v>60</v>
       </c>
       <c r="AM72" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN72" t="n">
         <v>26</v>
@@ -10276,22 +10276,22 @@
         <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="O73" t="n">
         <v>1.3</v>
       </c>
       <c r="P73" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.71</v>
+        <v>1.3</v>
       </c>
       <c r="R73" t="n">
         <v>1.3</v>
       </c>
       <c r="S73" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T73" t="n">
         <v>1.01</v>
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="G74" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I74" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="J74" t="n">
         <v>3.5</v>
       </c>
       <c r="K74" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -10414,19 +10414,19 @@
         <v>2.08</v>
       </c>
       <c r="O74" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P74" t="n">
         <v>2.08</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="R74" t="n">
         <v>1.39</v>
       </c>
       <c r="S74" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T74" t="n">
         <v>1.01</v>
@@ -10435,10 +10435,10 @@
         <v>1.01</v>
       </c>
       <c r="V74" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="W74" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -10564,10 +10564,10 @@
         <v>3</v>
       </c>
       <c r="T75" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U75" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V75" t="n">
         <v>1.89</v>
@@ -10657,25 +10657,25 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G76" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H76" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I76" t="n">
         <v>4.2</v>
       </c>
       <c r="J76" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K76" t="n">
         <v>3.6</v>
       </c>
-      <c r="K76" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L76" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M76" t="n">
         <v>1.08</v>
@@ -10699,7 +10699,7 @@
         <v>3.95</v>
       </c>
       <c r="T76" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U76" t="n">
         <v>2.04</v>
@@ -10708,7 +10708,7 @@
         <v>1.31</v>
       </c>
       <c r="W76" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="X76" t="n">
         <v>12.5</v>
@@ -10747,7 +10747,7 @@
         <v>65</v>
       </c>
       <c r="AJ76" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK76" t="n">
         <v>23</v>
@@ -10759,7 +10759,7 @@
         <v>130</v>
       </c>
       <c r="AN76" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO76" t="n">
         <v>65</v>
@@ -10801,10 +10801,10 @@
         <v>1.66</v>
       </c>
       <c r="I77" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="J77" t="n">
-        <v>1.09</v>
+        <v>2.86</v>
       </c>
       <c r="K77" t="n">
         <v>5.1</v>
@@ -10840,7 +10840,7 @@
         <v>1.63</v>
       </c>
       <c r="V77" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W77" t="n">
         <v>1.13</v>
@@ -10951,16 +10951,16 @@
         <v>1.01</v>
       </c>
       <c r="N78" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="O78" t="n">
         <v>1.25</v>
       </c>
       <c r="P78" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R78" t="n">
         <v>1.35</v>
@@ -11062,16 +11062,16 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G79" t="n">
         <v>800</v>
       </c>
       <c r="H79" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="I79" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="J79" t="n">
         <v>7.8</v>
@@ -11086,16 +11086,16 @@
         <v>1.02</v>
       </c>
       <c r="N79" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="O79" t="n">
         <v>1.09</v>
       </c>
       <c r="P79" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="R79" t="n">
         <v>1.86</v>
@@ -11110,7 +11110,7 @@
         <v>1.72</v>
       </c>
       <c r="V79" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="W79" t="n">
         <v>1.01</v>
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="G80" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H80" t="n">
         <v>24</v>
       </c>
       <c r="I80" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J80" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L80" t="n">
         <v>1.26</v>
@@ -11227,7 +11227,7 @@
         <v>1.17</v>
       </c>
       <c r="P80" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q80" t="n">
         <v>1.52</v>
@@ -11242,22 +11242,22 @@
         <v>2.74</v>
       </c>
       <c r="U80" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="V80" t="n">
         <v>1.03</v>
       </c>
       <c r="W80" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="X80" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y80" t="n">
         <v>75</v>
       </c>
       <c r="Z80" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="AA80" t="n">
         <v>1000</v>
@@ -11266,10 +11266,10 @@
         <v>9.6</v>
       </c>
       <c r="AC80" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD80" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AE80" t="n">
         <v>1000</v>
@@ -11281,7 +11281,7 @@
         <v>970</v>
       </c>
       <c r="AH80" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AI80" t="n">
         <v>1000</v>
@@ -11332,13 +11332,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="G81" t="n">
         <v>1.66</v>
       </c>
       <c r="H81" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I81" t="n">
         <v>8</v>
@@ -11347,7 +11347,7 @@
         <v>4</v>
       </c>
       <c r="K81" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L81" t="n">
         <v>1.45</v>
@@ -11362,16 +11362,16 @@
         <v>1.38</v>
       </c>
       <c r="P81" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="R81" t="n">
         <v>1.28</v>
       </c>
       <c r="S81" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T81" t="n">
         <v>2.14</v>
@@ -11386,7 +11386,7 @@
         <v>2.52</v>
       </c>
       <c r="X81" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y81" t="n">
         <v>21</v>
@@ -11416,7 +11416,7 @@
         <v>10.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI81" t="n">
         <v>150</v>
@@ -11476,10 +11476,10 @@
         <v>4.3</v>
       </c>
       <c r="I82" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="J82" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K82" t="n">
         <v>3.85</v>
@@ -11491,13 +11491,13 @@
         <v>1.01</v>
       </c>
       <c r="N82" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O82" t="n">
         <v>1.37</v>
       </c>
       <c r="P82" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q82" t="n">
         <v>1.94</v>
@@ -11518,7 +11518,7 @@
         <v>1.23</v>
       </c>
       <c r="W82" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="X82" t="n">
         <v>1000</v>
@@ -11608,7 +11608,7 @@
         <v>9.6</v>
       </c>
       <c r="H83" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="I83" t="n">
         <v>1.72</v>
@@ -11617,7 +11617,7 @@
         <v>4</v>
       </c>
       <c r="K83" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11626,16 +11626,16 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="O83" t="n">
         <v>1.16</v>
       </c>
       <c r="P83" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R83" t="n">
         <v>1.49</v>
@@ -11884,7 +11884,7 @@
         <v>1000</v>
       </c>
       <c r="J85" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K85" t="n">
         <v>1000</v>
@@ -12034,7 +12034,7 @@
         <v>1.43</v>
       </c>
       <c r="O86" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="P86" t="n">
         <v>1.42</v>
@@ -12160,16 +12160,16 @@
         <v>3.1</v>
       </c>
       <c r="L87" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M87" t="n">
         <v>1.1</v>
       </c>
       <c r="N87" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O87" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P87" t="n">
         <v>1.74</v>
@@ -12226,7 +12226,7 @@
         <v>12.5</v>
       </c>
       <c r="AH87" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI87" t="n">
         <v>55</v>
@@ -12280,7 +12280,7 @@
         <v>2.16</v>
       </c>
       <c r="G88" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H88" t="n">
         <v>3.55</v>
@@ -12292,7 +12292,7 @@
         <v>3.7</v>
       </c>
       <c r="K88" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L88" t="n">
         <v>1.36</v>
@@ -12301,13 +12301,13 @@
         <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O88" t="n">
         <v>1.29</v>
       </c>
       <c r="P88" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q88" t="n">
         <v>1.84</v>
@@ -12421,7 +12421,7 @@
         <v>2.92</v>
       </c>
       <c r="I89" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="J89" t="n">
         <v>3.1</v>
@@ -12430,28 +12430,28 @@
         <v>3.15</v>
       </c>
       <c r="L89" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M89" t="n">
         <v>1.11</v>
       </c>
       <c r="N89" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O89" t="n">
         <v>1.46</v>
       </c>
       <c r="P89" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R89" t="n">
         <v>1.25</v>
       </c>
       <c r="S89" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T89" t="n">
         <v>1.98</v>
@@ -12481,7 +12481,7 @@
         <v>9.6</v>
       </c>
       <c r="AC89" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD89" t="n">
         <v>13</v>
@@ -12568,22 +12568,22 @@
         <v>1.32</v>
       </c>
       <c r="M90" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="O90" t="n">
         <v>1.22</v>
       </c>
       <c r="P90" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q90" t="n">
         <v>1.22</v>
       </c>
       <c r="R90" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S90" t="n">
         <v>2.42</v>
@@ -12598,7 +12598,7 @@
         <v>1.32</v>
       </c>
       <c r="W90" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X90" t="n">
         <v>1000</v>
@@ -12688,7 +12688,7 @@
         <v>1.49</v>
       </c>
       <c r="H91" t="n">
-        <v>5.7</v>
+        <v>1.24</v>
       </c>
       <c r="I91" t="n">
         <v>13</v>
@@ -12817,118 +12817,118 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="G92" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="H92" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I92" t="n">
         <v>7.4</v>
       </c>
       <c r="J92" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K92" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P92" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -12943,127 +12943,127 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Platense FC</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="G93" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="H93" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="I93" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="J93" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="K93" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P93" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -13078,127 +13078,127 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="G94" t="n">
-        <v>2.52</v>
+        <v>1000</v>
       </c>
       <c r="H94" t="n">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="I94" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="J94" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="K94" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L94" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M94" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>3.65</v>
+        <v>1.24</v>
       </c>
       <c r="O94" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P94" t="n">
-        <v>1.91</v>
+        <v>1.24</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.81</v>
+        <v>1.22</v>
       </c>
       <c r="R94" t="n">
-        <v>1.35</v>
+        <v>1.07</v>
       </c>
       <c r="S94" t="n">
-        <v>3</v>
+        <v>1.22</v>
       </c>
       <c r="T94" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="U94" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="W94" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="X94" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y94" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z94" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA94" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB94" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC94" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD94" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE94" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF94" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG94" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH94" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI94" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ94" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK94" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL94" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM94" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN94" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO94" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -13208,132 +13208,132 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.58</v>
+        <v>2.16</v>
       </c>
       <c r="G95" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I95" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>5</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N95" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="n">
         <v>1.65</v>
       </c>
-      <c r="H95" t="n">
-        <v>8</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K95" t="n">
-        <v>4</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0</v>
-      </c>
-      <c r="P95" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0</v>
-      </c>
-      <c r="S95" t="n">
-        <v>0</v>
-      </c>
-      <c r="T95" t="n">
-        <v>0</v>
-      </c>
       <c r="U95" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V95" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X95" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y95" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z95" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA95" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB95" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC95" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD95" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE95" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF95" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG95" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH95" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI95" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ95" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK95" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL95" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM95" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN95" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO95" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -13343,132 +13343,132 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="G96" t="n">
-        <v>2.12</v>
+        <v>1.65</v>
       </c>
       <c r="H96" t="n">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="I96" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="J96" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="K96" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P96" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.97</v>
+        <v>2.58</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V96" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W96" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="X96" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y96" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z96" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB96" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC96" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD96" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF96" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG96" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH96" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ96" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK96" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL96" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -13478,36 +13478,36 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Lobos UPNFM</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="G97" t="n">
-        <v>1000</v>
+        <v>2.12</v>
       </c>
       <c r="H97" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="I97" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="J97" t="n">
-        <v>1.01</v>
+        <v>2.9</v>
       </c>
       <c r="K97" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -13522,10 +13522,10 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -13603,7 +13603,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -13618,120 +13618,255 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Rubio Nu</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L98" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
         <v>1.24</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Club Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Rubio Nu</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K99" t="n">
+        <v>980</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R99" t="n">
         <v>1.18</v>
       </c>
-      <c r="S98" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="T98" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U98" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V98" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W98" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO98" t="n">
+      <c r="S99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V99" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO99" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -895,7 +895,7 @@
         <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>38</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G4" t="n">
         <v>3.35</v>
       </c>
       <c r="H4" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -970,10 +970,10 @@
         <v>1.93</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
         <v>2.6</v>
@@ -985,7 +985,7 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
         <v>1.43</v>
@@ -1075,19 +1075,19 @@
         <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="H5" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="I5" t="n">
         <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="K5" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1108,7 +1108,7 @@
         <v>1.43</v>
       </c>
       <c r="R5" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S5" t="n">
         <v>2.04</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G6" t="n">
         <v>3.4</v>
@@ -1222,7 +1222,7 @@
         <v>2.84</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,19 +1231,19 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O6" t="n">
         <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q6" t="n">
         <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="S6" t="n">
         <v>3.6</v>
@@ -1252,7 +1252,7 @@
         <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
         <v>1.43</v>
@@ -1348,16 +1348,16 @@
         <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,13 +1366,13 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q7" t="n">
         <v>1.92</v>
@@ -1381,7 +1381,7 @@
         <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,7 +1390,7 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W7" t="n">
         <v>1.32</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="G8" t="n">
         <v>2.16</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J8" t="n">
         <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,19 +1501,19 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O8" t="n">
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
         <v>2.84</v>
@@ -1525,7 +1525,7 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W8" t="n">
         <v>1.86</v>
@@ -1621,7 +1621,7 @@
         <v>1.79</v>
       </c>
       <c r="I9" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J9" t="n">
         <v>4.2</v>
@@ -1642,7 +1642,7 @@
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q9" t="n">
         <v>1.54</v>
@@ -1660,7 +1660,7 @@
         <v>2.66</v>
       </c>
       <c r="V9" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="W9" t="n">
         <v>1.27</v>
@@ -1678,13 +1678,13 @@
         <v>25</v>
       </c>
       <c r="AB9" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
@@ -1705,7 +1705,7 @@
         <v>100</v>
       </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL9" t="n">
         <v>55</v>
@@ -1717,7 +1717,7 @@
         <v>40</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G10" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
         <v>3.65</v>
@@ -1771,22 +1771,22 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="O10" t="n">
         <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q10" t="n">
         <v>1.24</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1798,7 +1798,7 @@
         <v>1.38</v>
       </c>
       <c r="W10" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X10" t="n">
         <v>21</v>
@@ -1819,7 +1819,7 @@
         <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE10" t="n">
         <v>46</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>1.09</v>
       </c>
       <c r="I11" t="n">
         <v>7.2</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
         <v>1.75</v>
@@ -2059,7 +2059,7 @@
         <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
         <v>1.94</v>
@@ -2293,7 +2293,7 @@
         <v>2.42</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
         <v>6.4</v>
@@ -2302,7 +2302,7 @@
         <v>2.74</v>
       </c>
       <c r="K14" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,22 +2311,22 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.48</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P14" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R14" t="n">
         <v>1.08</v>
       </c>
       <c r="S14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="G15" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="H15" t="n">
         <v>4.2</v>
@@ -2434,10 +2434,10 @@
         <v>7.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2473,7 +2473,7 @@
         <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X15" t="n">
         <v>26</v>
@@ -2500,7 +2500,7 @@
         <v>85</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG15" t="n">
         <v>13.5</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G16" t="n">
         <v>2.38</v>
@@ -2596,19 +2596,19 @@
         <v>1.51</v>
       </c>
       <c r="S16" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U16" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2836,7 +2836,7 @@
         <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J18" t="n">
         <v>3.55</v>
@@ -2869,7 +2869,7 @@
         <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="U18" t="n">
         <v>2.14</v>
@@ -2926,7 +2926,7 @@
         <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
         <v>16</v>
@@ -2995,7 +2995,7 @@
         <v>2.42</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R19" t="n">
         <v>1.54</v>
@@ -3004,7 +3004,7 @@
         <v>2.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="U19" t="n">
         <v>2.48</v>
@@ -3037,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="AE19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="n">
         <v>15.5</v>
@@ -3058,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM19" t="n">
         <v>70</v>
@@ -3106,13 +3106,13 @@
         <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J20" t="n">
         <v>3.95</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.32</v>
@@ -3127,7 +3127,7 @@
         <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q20" t="n">
         <v>1.72</v>
@@ -3151,7 +3151,7 @@
         <v>2.26</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
         <v>23</v>
@@ -3367,52 +3367,52 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G22" t="n">
         <v>2.24</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R22" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="U22" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="V22" t="n">
         <v>1.4</v>
@@ -3442,7 +3442,7 @@
         <v>18</v>
       </c>
       <c r="AE22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
         <v>970</v>
@@ -3454,7 +3454,7 @@
         <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
         <v>2.86</v>
       </c>
       <c r="H23" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3541,7 +3541,7 @@
         <v>1.44</v>
       </c>
       <c r="S23" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3550,10 +3550,10 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
         <v>2.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3670,13 +3670,13 @@
         <v>1.76</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R24" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S24" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3685,7 +3685,7 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W24" t="n">
         <v>1.27</v>
@@ -3778,10 +3778,10 @@
         <v>1.34</v>
       </c>
       <c r="H25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
         <v>6</v>
@@ -3823,7 +3823,7 @@
         <v>1.08</v>
       </c>
       <c r="W25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="X25" t="n">
         <v>20</v>
@@ -3919,7 +3919,7 @@
         <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K26" t="n">
         <v>3.6</v>
@@ -3931,7 +3931,7 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
         <v>1.45</v>
@@ -3943,13 +3943,13 @@
         <v>1.45</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T26" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U26" t="n">
         <v>1.7</v>
@@ -4081,13 +4081,13 @@
         <v>1.47</v>
       </c>
       <c r="S27" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T27" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="U27" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="V27" t="n">
         <v>1.17</v>
@@ -4195,7 +4195,7 @@
         <v>5.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
@@ -4312,112 +4312,112 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="G29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W29" t="n">
         <v>2.04</v>
       </c>
-      <c r="H29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="X29" t="n">
         <v>9.6</v>
       </c>
-      <c r="J29" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K29" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30">
@@ -4600,7 +4600,7 @@
         <v>6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
@@ -4735,7 +4735,7 @@
         <v>5.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M32" t="n">
         <v>1.01</v>
@@ -4894,13 +4894,13 @@
         <v>3.7</v>
       </c>
       <c r="T33" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V33" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W33" t="n">
         <v>1.97</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G34" t="n">
         <v>3.15</v>
@@ -4996,13 +4996,13 @@
         <v>2.76</v>
       </c>
       <c r="I34" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J34" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L34" t="n">
         <v>1.49</v>
@@ -5029,13 +5029,13 @@
         <v>4.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="U34" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V34" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="W34" t="n">
         <v>1.46</v>
@@ -5065,10 +5065,10 @@
         <v>38</v>
       </c>
       <c r="AF34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG34" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH34" t="n">
         <v>20</v>
@@ -5125,16 +5125,16 @@
         <v>2.16</v>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H35" t="n">
         <v>2.92</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J35" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
         <v>5.3</v>
@@ -5155,7 +5155,7 @@
         <v>1.54</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R35" t="n">
         <v>1.19</v>
@@ -5170,10 +5170,10 @@
         <v>1.72</v>
       </c>
       <c r="V35" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W35" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5260,28 +5260,28 @@
         <v>2.06</v>
       </c>
       <c r="G36" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H36" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I36" t="n">
         <v>4.9</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K36" t="n">
         <v>3.25</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M36" t="n">
         <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O36" t="n">
         <v>1.48</v>
@@ -5308,7 +5308,7 @@
         <v>1.26</v>
       </c>
       <c r="W36" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X36" t="n">
         <v>10.5</v>
@@ -5323,7 +5323,7 @@
         <v>130</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC36" t="n">
         <v>7.8</v>
@@ -5398,7 +5398,7 @@
         <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I37" t="n">
         <v>2.74</v>
@@ -5422,10 +5422,10 @@
         <v>1.48</v>
       </c>
       <c r="P37" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G38" t="n">
         <v>1.45</v>
@@ -5539,7 +5539,7 @@
         <v>9.4</v>
       </c>
       <c r="J38" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
         <v>5.2</v>
@@ -5575,10 +5575,10 @@
         <v>1.87</v>
       </c>
       <c r="V38" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="X38" t="n">
         <v>18</v>
@@ -5626,7 +5626,7 @@
         <v>38</v>
       </c>
       <c r="AM38" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN38" t="n">
         <v>6.6</v>
@@ -5686,7 +5686,7 @@
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O39" t="n">
         <v>1.29</v>
@@ -5695,7 +5695,7 @@
         <v>2.08</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R39" t="n">
         <v>1.43</v>
@@ -5833,16 +5833,16 @@
         <v>1.45</v>
       </c>
       <c r="R40" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S40" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T40" t="n">
         <v>1.01</v>
       </c>
       <c r="U40" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V40" t="n">
         <v>1.46</v>
@@ -5935,7 +5935,7 @@
         <v>1.9</v>
       </c>
       <c r="G41" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H41" t="n">
         <v>4.6</v>
@@ -6013,7 +6013,7 @@
         <v>11</v>
       </c>
       <c r="AG41" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH41" t="n">
         <v>19</v>
@@ -6034,7 +6034,7 @@
         <v>110</v>
       </c>
       <c r="AN41" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO41" t="n">
         <v>65</v>
@@ -6100,7 +6100,7 @@
         <v>2.34</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R42" t="n">
         <v>1.54</v>
@@ -6118,7 +6118,7 @@
         <v>1.33</v>
       </c>
       <c r="W42" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X42" t="n">
         <v>19</v>
@@ -6151,7 +6151,7 @@
         <v>10.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI42" t="n">
         <v>42</v>
@@ -6160,7 +6160,7 @@
         <v>25</v>
       </c>
       <c r="AK42" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL42" t="n">
         <v>28</v>
@@ -6172,7 +6172,7 @@
         <v>11.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -6286,7 +6286,7 @@
         <v>15</v>
       </c>
       <c r="AH43" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI43" t="n">
         <v>32</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G44" t="n">
         <v>2.98</v>
       </c>
       <c r="H44" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J44" t="n">
         <v>2.88</v>
       </c>
       <c r="K44" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6388,7 +6388,7 @@
         <v>1.33</v>
       </c>
       <c r="W44" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G45" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H45" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I45" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="J45" t="n">
         <v>3.35</v>
       </c>
       <c r="K45" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,22 +6496,22 @@
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O45" t="n">
         <v>1.26</v>
       </c>
       <c r="P45" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R45" t="n">
         <v>1.35</v>
       </c>
       <c r="S45" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T45" t="n">
         <v>1.01</v>
@@ -6520,10 +6520,10 @@
         <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W45" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6787,7 +6787,7 @@
         <v>1.52</v>
       </c>
       <c r="U47" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="V47" t="n">
         <v>1.69</v>
@@ -6886,7 +6886,7 @@
         <v>2.36</v>
       </c>
       <c r="I48" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J48" t="n">
         <v>3.45</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G49" t="n">
         <v>1.27</v>
       </c>
       <c r="H49" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I49" t="n">
         <v>16</v>
@@ -7051,13 +7051,13 @@
         <v>1.61</v>
       </c>
       <c r="S49" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T49" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U49" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="V49" t="n">
         <v>1.06</v>
@@ -7069,7 +7069,7 @@
         <v>27</v>
       </c>
       <c r="Y49" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z49" t="n">
         <v>160</v>
@@ -7087,7 +7087,7 @@
         <v>55</v>
       </c>
       <c r="AE49" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AF49" t="n">
         <v>9.800000000000001</v>
@@ -7096,7 +7096,7 @@
         <v>11</v>
       </c>
       <c r="AH49" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AI49" t="n">
         <v>210</v>
@@ -7117,7 +7117,7 @@
         <v>4.9</v>
       </c>
       <c r="AO49" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50">
@@ -7168,13 +7168,13 @@
         <v>1.46</v>
       </c>
       <c r="M50" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N50" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O50" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P50" t="n">
         <v>1.78</v>
@@ -7183,10 +7183,10 @@
         <v>2.18</v>
       </c>
       <c r="R50" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S50" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T50" t="n">
         <v>1.81</v>
@@ -7291,10 +7291,10 @@
         <v>27</v>
       </c>
       <c r="I51" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J51" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="K51" t="n">
         <v>13</v>
@@ -7333,7 +7333,7 @@
         <v>1.03</v>
       </c>
       <c r="W51" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="X51" t="n">
         <v>70</v>
@@ -7423,7 +7423,7 @@
         <v>980</v>
       </c>
       <c r="H52" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="I52" t="n">
         <v>1.41</v>
@@ -7441,16 +7441,16 @@
         <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O52" t="n">
         <v>1.16</v>
       </c>
       <c r="P52" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.16</v>
+        <v>1.43</v>
       </c>
       <c r="R52" t="n">
         <v>1.57</v>
@@ -7468,7 +7468,7 @@
         <v>2.94</v>
       </c>
       <c r="W52" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7594,7 +7594,7 @@
         <v>3.35</v>
       </c>
       <c r="T53" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="U53" t="n">
         <v>2.08</v>
@@ -7729,7 +7729,7 @@
         <v>3.1</v>
       </c>
       <c r="T54" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="U54" t="n">
         <v>2.1</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G56" t="n">
         <v>2.5</v>
@@ -7972,7 +7972,7 @@
         <v>3.7</v>
       </c>
       <c r="K56" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7990,7 +7990,7 @@
         <v>1.44</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.69</v>
+        <v>1.21</v>
       </c>
       <c r="R56" t="n">
         <v>1.44</v>
@@ -8008,7 +8008,7 @@
         <v>1.46</v>
       </c>
       <c r="W56" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="X56" t="n">
         <v>21</v>
@@ -8101,13 +8101,13 @@
         <v>1.99</v>
       </c>
       <c r="I57" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="J57" t="n">
         <v>3.15</v>
       </c>
       <c r="K57" t="n">
-        <v>950</v>
+        <v>110</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8140,7 +8140,7 @@
         <v>1.01</v>
       </c>
       <c r="V57" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="W57" t="n">
         <v>1.36</v>
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G58" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H58" t="n">
         <v>13</v>
@@ -8272,22 +8272,22 @@
         <v>1.01</v>
       </c>
       <c r="U58" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="V58" t="n">
         <v>1.07</v>
       </c>
       <c r="W58" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="X58" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y58" t="n">
         <v>80</v>
       </c>
       <c r="Z58" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AA58" t="n">
         <v>710</v>
@@ -8311,7 +8311,7 @@
         <v>12</v>
       </c>
       <c r="AH58" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI58" t="n">
         <v>130</v>
@@ -8326,13 +8326,13 @@
         <v>30</v>
       </c>
       <c r="AM58" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN58" t="n">
         <v>3.2</v>
       </c>
       <c r="AO58" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59">
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G59" t="n">
         <v>1.95</v>
@@ -8500,19 +8500,19 @@
         <v>1.82</v>
       </c>
       <c r="G60" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H60" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="I60" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J60" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K60" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L60" t="n">
         <v>1.42</v>
@@ -8530,7 +8530,7 @@
         <v>1.26</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R60" t="n">
         <v>1.26</v>
@@ -8539,7 +8539,7 @@
         <v>3.1</v>
       </c>
       <c r="T60" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U60" t="n">
         <v>1.01</v>
@@ -8548,7 +8548,7 @@
         <v>1.2</v>
       </c>
       <c r="W60" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="G61" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="H61" t="n">
         <v>2.72</v>
       </c>
       <c r="I61" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J61" t="n">
         <v>3.55</v>
       </c>
       <c r="K61" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8656,88 +8656,88 @@
         <v>1.01</v>
       </c>
       <c r="N61" t="n">
-        <v>1.56</v>
+        <v>5.6</v>
       </c>
       <c r="O61" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P61" t="n">
-        <v>1.56</v>
+        <v>2.56</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.16</v>
+        <v>1.51</v>
       </c>
       <c r="R61" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="S61" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="T61" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="U61" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="V61" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="W61" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="X61" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y61" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB61" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC61" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE61" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF61" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG61" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK61" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM61" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN61" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="62">
@@ -8770,19 +8770,19 @@
         <v>2.24</v>
       </c>
       <c r="G62" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="H62" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I62" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="J62" t="n">
-        <v>2.82</v>
+        <v>1.01</v>
       </c>
       <c r="K62" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8815,10 +8815,10 @@
         <v>1.71</v>
       </c>
       <c r="V62" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W62" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X62" t="n">
         <v>1000</v>
@@ -8941,7 +8941,7 @@
         <v>1.47</v>
       </c>
       <c r="S63" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T63" t="n">
         <v>1.78</v>
@@ -9052,7 +9052,7 @@
         <v>3.6</v>
       </c>
       <c r="K64" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L64" t="n">
         <v>1.44</v>
@@ -9199,7 +9199,7 @@
         <v>3.25</v>
       </c>
       <c r="O65" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P65" t="n">
         <v>1.77</v>
@@ -9346,7 +9346,7 @@
         <v>1.5</v>
       </c>
       <c r="S66" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T66" t="n">
         <v>1.86</v>
@@ -9361,7 +9361,7 @@
         <v>2.6</v>
       </c>
       <c r="X66" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y66" t="n">
         <v>23</v>
@@ -9370,7 +9370,7 @@
         <v>50</v>
       </c>
       <c r="AA66" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB66" t="n">
         <v>10</v>
@@ -9379,7 +9379,7 @@
         <v>9.6</v>
       </c>
       <c r="AD66" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE66" t="n">
         <v>80</v>
@@ -9388,13 +9388,13 @@
         <v>9.6</v>
       </c>
       <c r="AG66" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH66" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI66" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ66" t="n">
         <v>14.5</v>
@@ -9406,7 +9406,7 @@
         <v>32</v>
       </c>
       <c r="AM66" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN66" t="n">
         <v>7.2</v>
@@ -9442,10 +9442,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G67" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H67" t="n">
         <v>4.1</v>
@@ -9493,7 +9493,7 @@
         <v>1.3</v>
       </c>
       <c r="W67" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X67" t="n">
         <v>16.5</v>
@@ -9505,7 +9505,7 @@
         <v>32</v>
       </c>
       <c r="AA67" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB67" t="n">
         <v>10.5</v>
@@ -9850,16 +9850,16 @@
         <v>2.26</v>
       </c>
       <c r="G70" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="H70" t="n">
         <v>3.35</v>
       </c>
       <c r="I70" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J70" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K70" t="n">
         <v>3.65</v>
@@ -9880,7 +9880,7 @@
         <v>1.65</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R70" t="n">
         <v>1.2</v>
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G71" t="n">
         <v>3.25</v>
       </c>
       <c r="H71" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I71" t="n">
         <v>3.75</v>
       </c>
       <c r="J71" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K71" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L71" t="n">
         <v>1.01</v>
@@ -10006,16 +10006,16 @@
         <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="O71" t="n">
         <v>1.26</v>
       </c>
       <c r="P71" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R71" t="n">
         <v>1.35</v>
@@ -10126,7 +10126,7 @@
         <v>4.5</v>
       </c>
       <c r="I72" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J72" t="n">
         <v>3.25</v>
@@ -10144,7 +10144,7 @@
         <v>2.74</v>
       </c>
       <c r="O72" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P72" t="n">
         <v>1.57</v>
@@ -10204,7 +10204,7 @@
         <v>25</v>
       </c>
       <c r="AI72" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="n">
         <v>25</v>
@@ -10288,7 +10288,7 @@
         <v>1.3</v>
       </c>
       <c r="R73" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S73" t="n">
         <v>2.92</v>
@@ -10387,13 +10387,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G74" t="n">
         <v>2.2</v>
       </c>
       <c r="H74" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I74" t="n">
         <v>5.1</v>
@@ -10402,7 +10402,7 @@
         <v>3.5</v>
       </c>
       <c r="K74" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -10666,7 +10666,7 @@
         <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J76" t="n">
         <v>3.55</v>
@@ -10705,7 +10705,7 @@
         <v>2.04</v>
       </c>
       <c r="V76" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W76" t="n">
         <v>1.89</v>
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="G77" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H77" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="I77" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="J77" t="n">
-        <v>2.86</v>
+        <v>1.03</v>
       </c>
       <c r="K77" t="n">
-        <v>5.1</v>
+        <v>980</v>
       </c>
       <c r="L77" t="n">
         <v>1.44</v>
@@ -10834,16 +10834,16 @@
         <v>3.4</v>
       </c>
       <c r="T77" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="U77" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V77" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="W77" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="X77" t="n">
         <v>1000</v>
@@ -11071,10 +11071,10 @@
         <v>1.04</v>
       </c>
       <c r="I79" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="J79" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K79" t="n">
         <v>800</v>
@@ -11110,7 +11110,7 @@
         <v>1.72</v>
       </c>
       <c r="V79" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="W79" t="n">
         <v>1.01</v>
@@ -11200,16 +11200,16 @@
         <v>1.14</v>
       </c>
       <c r="G80" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H80" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I80" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J80" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="K80" t="n">
         <v>11</v>
@@ -11242,22 +11242,22 @@
         <v>2.74</v>
       </c>
       <c r="U80" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="V80" t="n">
         <v>1.03</v>
       </c>
       <c r="W80" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="X80" t="n">
         <v>32</v>
       </c>
       <c r="Y80" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z80" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AA80" t="n">
         <v>1000</v>
@@ -11269,7 +11269,7 @@
         <v>25</v>
       </c>
       <c r="AD80" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AE80" t="n">
         <v>1000</v>
@@ -11281,7 +11281,7 @@
         <v>970</v>
       </c>
       <c r="AH80" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI80" t="n">
         <v>1000</v>
@@ -11365,7 +11365,7 @@
         <v>1.8</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="R81" t="n">
         <v>1.28</v>
@@ -11374,10 +11374,10 @@
         <v>3.8</v>
       </c>
       <c r="T81" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U81" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="V81" t="n">
         <v>1.14</v>
@@ -11479,7 +11479,7 @@
         <v>5.3</v>
       </c>
       <c r="J82" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K82" t="n">
         <v>3.85</v>
@@ -11635,7 +11635,7 @@
         <v>2.24</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R83" t="n">
         <v>1.49</v>
@@ -12007,46 +12007,46 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G86" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H86" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I86" t="n">
         <v>5.7</v>
       </c>
       <c r="J86" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K86" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L86" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M86" t="n">
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="O86" t="n">
         <v>1.01</v>
       </c>
       <c r="P86" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R86" t="n">
         <v>1.07</v>
       </c>
       <c r="S86" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T86" t="n">
         <v>1.01</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G87" t="n">
         <v>2.9</v>
@@ -12160,7 +12160,7 @@
         <v>3.1</v>
       </c>
       <c r="L87" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M87" t="n">
         <v>1.1</v>
@@ -12190,7 +12190,7 @@
         <v>2.04</v>
       </c>
       <c r="V87" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W87" t="n">
         <v>1.52</v>
@@ -12280,19 +12280,19 @@
         <v>2.16</v>
       </c>
       <c r="G88" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I88" t="n">
         <v>3.75</v>
       </c>
       <c r="J88" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K88" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L88" t="n">
         <v>1.36</v>
@@ -12301,7 +12301,7 @@
         <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O88" t="n">
         <v>1.29</v>
@@ -12328,7 +12328,7 @@
         <v>1.37</v>
       </c>
       <c r="W88" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X88" t="n">
         <v>16</v>
@@ -12337,7 +12337,7 @@
         <v>15.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA88" t="n">
         <v>70</v>
@@ -12463,7 +12463,7 @@
         <v>1.51</v>
       </c>
       <c r="W89" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X89" t="n">
         <v>9.800000000000001</v>
@@ -12478,7 +12478,7 @@
         <v>46</v>
       </c>
       <c r="AB89" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC89" t="n">
         <v>7</v>
@@ -12550,16 +12550,16 @@
         <v>2.2</v>
       </c>
       <c r="G90" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H90" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I90" t="n">
         <v>4.1</v>
       </c>
       <c r="J90" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="K90" t="n">
         <v>4.3</v>
@@ -12574,13 +12574,13 @@
         <v>1.42</v>
       </c>
       <c r="O90" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P90" t="n">
         <v>1.42</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="R90" t="n">
         <v>1.42</v>
@@ -12598,7 +12598,7 @@
         <v>1.32</v>
       </c>
       <c r="W90" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X90" t="n">
         <v>1000</v>
@@ -12688,7 +12688,7 @@
         <v>1.49</v>
       </c>
       <c r="H91" t="n">
-        <v>1.24</v>
+        <v>5.9</v>
       </c>
       <c r="I91" t="n">
         <v>13</v>
@@ -12715,7 +12715,7 @@
         <v>1.25</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.9</v>
+        <v>1.28</v>
       </c>
       <c r="G92" t="n">
         <v>2.18</v>
@@ -12829,10 +12829,10 @@
         <v>7.4</v>
       </c>
       <c r="J92" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K92" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -13270,7 +13270,7 @@
         <v>2.02</v>
       </c>
       <c r="V95" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W95" t="n">
         <v>1.64</v>
@@ -13366,10 +13366,10 @@
         <v>8</v>
       </c>
       <c r="I96" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="J96" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K96" t="n">
         <v>4</v>
@@ -13378,13 +13378,13 @@
         <v>1.01</v>
       </c>
       <c r="M96" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N96" t="n">
-        <v>1.56</v>
+        <v>2.66</v>
       </c>
       <c r="O96" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="P96" t="n">
         <v>1.56</v>
@@ -13393,76 +13393,76 @@
         <v>2.58</v>
       </c>
       <c r="R96" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="S96" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="T96" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="U96" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="V96" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W96" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="X96" t="n">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y96" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="Z96" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AA96" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB96" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>270</v>
+      </c>
+      <c r="AF96" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC96" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>11</v>
-      </c>
       <c r="AG96" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>430</v>
+      </c>
+      <c r="AN96" t="n">
         <v>16</v>
       </c>
-      <c r="AH96" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM96" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO96" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97">
@@ -13492,112 +13492,112 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="G97" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="H97" t="n">
         <v>4.8</v>
       </c>
       <c r="I97" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="J97" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="K97" t="n">
-        <v>4.7</v>
+        <v>95</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P97" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S97" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98">
@@ -13639,100 +13639,100 @@
         <v>1000</v>
       </c>
       <c r="J98" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K98" t="n">
         <v>1000</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P98" t="n">
         <v>1.24</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="S98" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="99">
@@ -13768,7 +13768,7 @@
         <v>2.4</v>
       </c>
       <c r="H99" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I99" t="n">
         <v>5.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>140</v>
+        <v>970</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>9.4</v>
+        <v>110</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="R2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S2" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -715,10 +715,10 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -811,13 +811,13 @@
         <v>2.84</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
         <v>1.61</v>
@@ -952,7 +952,7 @@
         <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>1.31</v>
@@ -970,22 +970,22 @@
         <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
         <v>2.4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W4" t="n">
         <v>1.9</v>
@@ -1021,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>55</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>22</v>
@@ -1222,7 +1222,7 @@
         <v>5.9</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,25 +1231,25 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q6" t="n">
         <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
         <v>2.06</v>
       </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="U6" t="n">
         <v>1.63</v>
@@ -1288,7 +1288,7 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7">
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="I10" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1783,7 +1783,7 @@
         <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
         <v>2.36</v>
@@ -1795,22 +1795,22 @@
         <v>2.66</v>
       </c>
       <c r="V10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X10" t="n">
         <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>980</v>
@@ -1831,25 +1831,25 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="n">
         <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN10" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
         <v>8.800000000000001</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G11" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1909,31 +1909,31 @@
         <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
         <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
         <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T11" t="n">
         <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V11" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1960,7 +1960,7 @@
         <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -1984,7 +1984,7 @@
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO11" t="n">
         <v>980</v>
@@ -2026,7 +2026,7 @@
         <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>7.2</v>
+        <v>60</v>
       </c>
       <c r="J12" t="n">
         <v>3.95</v>
@@ -2050,7 +2050,7 @@
         <v>2.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="G14" t="n">
         <v>1.75</v>
@@ -2296,37 +2296,37 @@
         <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R14" t="n">
         <v>1.08</v>
       </c>
       <c r="S14" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2335,7 +2335,7 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W14" t="n">
         <v>2.34</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H16" t="n">
         <v>4.8</v>
@@ -2569,7 +2569,7 @@
         <v>5.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>4.7</v>
@@ -2608,7 +2608,7 @@
         <v>1.2</v>
       </c>
       <c r="W16" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X16" t="n">
         <v>26</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G17" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.65</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.6</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
@@ -2716,7 +2716,7 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.21</v>
@@ -2740,10 +2740,10 @@
         <v>2.42</v>
       </c>
       <c r="V17" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X17" t="n">
         <v>980</v>
@@ -2830,19 +2830,19 @@
         <v>2.9</v>
       </c>
       <c r="G18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I18" t="n">
         <v>2.46</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2857,7 +2857,7 @@
         <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="Q18" t="n">
         <v>1.2</v>
@@ -2878,7 +2878,7 @@
         <v>1.68</v>
       </c>
       <c r="W18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
         <v>1.38</v>
@@ -2989,31 +2989,31 @@
         <v>3.85</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q19" t="n">
         <v>1.94</v>
       </c>
       <c r="R19" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S19" t="n">
         <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W19" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
@@ -3022,13 +3022,13 @@
         <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA19" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.800000000000001</v>
@@ -3037,7 +3037,7 @@
         <v>18.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF19" t="n">
         <v>13</v>
@@ -3052,22 +3052,22 @@
         <v>60</v>
       </c>
       <c r="AJ19" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AK19" t="n">
         <v>22</v>
       </c>
       <c r="AL19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM19" t="n">
         <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -3106,7 +3106,7 @@
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J20" t="n">
         <v>3.9</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G21" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
         <v>5.3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5.5</v>
       </c>
       <c r="J21" t="n">
         <v>3.95</v>
@@ -3250,25 +3250,25 @@
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q21" t="n">
         <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S21" t="n">
         <v>2.86</v>
@@ -3277,13 +3277,13 @@
         <v>1.73</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V21" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="X21" t="n">
         <v>20</v>
@@ -3295,7 +3295,7 @@
         <v>44</v>
       </c>
       <c r="AA21" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB21" t="n">
         <v>11</v>
@@ -3304,7 +3304,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>65</v>
@@ -3373,7 +3373,7 @@
         <v>3.05</v>
       </c>
       <c r="H22" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I22" t="n">
         <v>3.25</v>
@@ -3385,10 +3385,10 @@
         <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
         <v>2.9</v>
@@ -3400,19 +3400,19 @@
         <v>1.64</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R22" t="n">
         <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
         <v>1.79</v>
       </c>
       <c r="U22" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V22" t="n">
         <v>1.45</v>
@@ -3421,7 +3421,7 @@
         <v>1.49</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
         <v>11.5</v>
@@ -3454,7 +3454,7 @@
         <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
         <v>55</v>
@@ -3511,16 +3511,16 @@
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
         <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -3529,25 +3529,25 @@
         <v>5.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
         <v>2.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R23" t="n">
         <v>1.65</v>
       </c>
       <c r="S23" t="n">
-        <v>1.88</v>
+        <v>2.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U23" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="V23" t="n">
         <v>1.4</v>
@@ -3568,7 +3568,7 @@
         <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC23" t="n">
         <v>11</v>
@@ -3580,7 +3580,7 @@
         <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
         <v>970</v>
@@ -3598,7 +3598,7 @@
         <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
         <v>55</v>
@@ -3796,10 +3796,10 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P25" t="n">
         <v>1.76</v>
@@ -3940,13 +3940,13 @@
         <v>2.32</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R26" t="n">
         <v>1.51</v>
       </c>
       <c r="S26" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T26" t="n">
         <v>2.24</v>
@@ -3997,7 +3997,7 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G27" t="n">
         <v>2.1</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G28" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H28" t="n">
         <v>6.2</v>
@@ -4192,7 +4192,7 @@
         <v>4.2</v>
       </c>
       <c r="K28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.34</v>
@@ -4207,34 +4207,34 @@
         <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R28" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S28" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="U28" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X28" t="n">
         <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z28" t="n">
         <v>55</v>
@@ -4243,10 +4243,10 @@
         <v>180</v>
       </c>
       <c r="AB28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC28" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>11</v>
       </c>
       <c r="AD28" t="n">
         <v>26</v>
@@ -4255,34 +4255,34 @@
         <v>85</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG28" t="n">
         <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
         <v>85</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO28" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G29" t="n">
         <v>1.86</v>
       </c>
       <c r="H29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J29" t="n">
         <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="L29" t="n">
         <v>1.42</v>
@@ -4345,13 +4345,13 @@
         <v>1.53</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R29" t="n">
         <v>1.08</v>
       </c>
       <c r="S29" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4450,109 +4450,109 @@
         <v>1.7</v>
       </c>
       <c r="G30" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="H30" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="J30" t="n">
-        <v>2.54</v>
+        <v>3.15</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>1.49</v>
+        <v>2.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P30" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.6</v>
       </c>
-      <c r="R30" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W30" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG30" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ30" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL30" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31">
@@ -4582,109 +4582,109 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G31" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="H31" t="n">
-        <v>1.04</v>
+        <v>15</v>
       </c>
       <c r="I31" t="n">
-        <v>130</v>
+        <v>19.5</v>
       </c>
       <c r="J31" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="K31" t="n">
-        <v>12.5</v>
+        <v>5.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>1.59</v>
+        <v>2.98</v>
       </c>
       <c r="O31" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P31" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="S31" t="n">
-        <v>2.04</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="V31" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="W31" t="n">
-        <v>2.86</v>
+        <v>3.65</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4720,19 +4720,19 @@
         <v>1.86</v>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
         <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K32" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L32" t="n">
         <v>1.47</v>
@@ -4747,7 +4747,7 @@
         <v>1.51</v>
       </c>
       <c r="P32" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q32" t="n">
         <v>2.26</v>
@@ -4768,7 +4768,7 @@
         <v>1.2</v>
       </c>
       <c r="W32" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4864,7 +4864,7 @@
         <v>4.6</v>
       </c>
       <c r="J33" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K33" t="n">
         <v>5.2</v>
@@ -4876,7 +4876,7 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="O33" t="n">
         <v>1.01</v>
@@ -4885,13 +4885,13 @@
         <v>1.46</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R33" t="n">
         <v>1.08</v>
       </c>
       <c r="S33" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H34" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J34" t="n">
         <v>3.45</v>
@@ -5005,7 +5005,7 @@
         <v>3.55</v>
       </c>
       <c r="L34" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M34" t="n">
         <v>1.08</v>
@@ -5020,25 +5020,25 @@
         <v>1.8</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R34" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S34" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T34" t="n">
         <v>1.86</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V34" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W34" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="X34" t="n">
         <v>12.5</v>
@@ -5050,19 +5050,19 @@
         <v>34</v>
       </c>
       <c r="AA34" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB34" t="n">
         <v>8.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD34" t="n">
         <v>19.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF34" t="n">
         <v>12</v>
@@ -5074,16 +5074,16 @@
         <v>18.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="n">
         <v>24</v>
       </c>
       <c r="AK34" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL34" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="n">
         <v>140</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G35" t="n">
         <v>3.1</v>
@@ -5131,7 +5131,7 @@
         <v>2.76</v>
       </c>
       <c r="I35" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="J35" t="n">
         <v>3.1</v>
@@ -5149,7 +5149,7 @@
         <v>3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P35" t="n">
         <v>1.68</v>
@@ -5170,10 +5170,10 @@
         <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W35" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X35" t="n">
         <v>11</v>
@@ -5191,7 +5191,7 @@
         <v>10.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD35" t="n">
         <v>13.5</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J36" t="n">
         <v>2.88</v>
@@ -5275,25 +5275,25 @@
         <v>3.7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P36" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="R36" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S36" t="n">
         <v>3.9</v>
@@ -5305,37 +5305,37 @@
         <v>1.83</v>
       </c>
       <c r="V36" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W36" t="n">
         <v>1.6</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
         <v>13</v>
       </c>
       <c r="Z36" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA36" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB36" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AE36" t="n">
         <v>55</v>
       </c>
       <c r="AF36" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG36" t="n">
         <v>14</v>
@@ -5344,10 +5344,10 @@
         <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ36" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK36" t="n">
         <v>36</v>
@@ -5362,7 +5362,7 @@
         <v>34</v>
       </c>
       <c r="AO36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="G37" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H37" t="n">
         <v>4.4</v>
       </c>
       <c r="I37" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="J37" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
         <v>3.25</v>
@@ -5413,91 +5413,91 @@
         <v>1.46</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="O37" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P37" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R37" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S37" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="T37" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="U37" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="W37" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X37" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE37" t="n">
         <v>85</v>
       </c>
       <c r="AF37" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>28</v>
       </c>
-      <c r="AI37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>32</v>
-      </c>
       <c r="AK37" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AL37" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -5566,7 +5566,7 @@
         <v>1.23</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T38" t="n">
         <v>2.02</v>
@@ -5671,7 +5671,7 @@
         <v>9</v>
       </c>
       <c r="I39" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J39" t="n">
         <v>5</v>
@@ -5821,7 +5821,7 @@
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="O40" t="n">
         <v>1.45</v>
@@ -5872,7 +5872,7 @@
         <v>15.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AF40" t="n">
         <v>21</v>
@@ -5884,7 +5884,7 @@
         <v>23</v>
       </c>
       <c r="AI40" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ40" t="n">
         <v>60</v>
@@ -5896,13 +5896,13 @@
         <v>65</v>
       </c>
       <c r="AM40" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AO40" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
@@ -6070,7 +6070,7 @@
         <v>1.9</v>
       </c>
       <c r="G42" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H42" t="n">
         <v>4.7</v>
@@ -6163,7 +6163,7 @@
         <v>19.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM42" t="n">
         <v>110</v>
@@ -6217,7 +6217,7 @@
         <v>3.7</v>
       </c>
       <c r="K43" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L43" t="n">
         <v>1.33</v>
@@ -6508,7 +6508,7 @@
         <v>2.16</v>
       </c>
       <c r="R45" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="S45" t="n">
         <v>3.55</v>
@@ -6634,7 +6634,7 @@
         <v>4.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P46" t="n">
         <v>2.08</v>
@@ -6646,13 +6646,13 @@
         <v>1.43</v>
       </c>
       <c r="S46" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="T46" t="n">
         <v>1.63</v>
       </c>
       <c r="U46" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="V46" t="n">
         <v>1.98</v>
@@ -6682,10 +6682,10 @@
         <v>12</v>
       </c>
       <c r="AE46" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF46" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AG46" t="n">
         <v>21</v>
@@ -6745,19 +6745,19 @@
         <v>1.16</v>
       </c>
       <c r="G47" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="H47" t="n">
-        <v>14</v>
+        <v>1.1</v>
       </c>
       <c r="I47" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>1.09</v>
       </c>
       <c r="K47" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6907,13 +6907,13 @@
         <v>1.19</v>
       </c>
       <c r="P48" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q48" t="n">
         <v>1.58</v>
       </c>
       <c r="R48" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S48" t="n">
         <v>2.44</v>
@@ -6922,7 +6922,7 @@
         <v>1.52</v>
       </c>
       <c r="U48" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="V48" t="n">
         <v>1.69</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G49" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="H49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I49" t="n">
         <v>14.5</v>
       </c>
-      <c r="I49" t="n">
-        <v>16</v>
-      </c>
       <c r="J49" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K49" t="n">
         <v>7</v>
-      </c>
-      <c r="K49" t="n">
-        <v>7.6</v>
       </c>
       <c r="L49" t="n">
         <v>1.28</v>
@@ -7036,34 +7036,34 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O49" t="n">
         <v>1.2</v>
       </c>
       <c r="P49" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R49" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S49" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="T49" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="U49" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="V49" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W49" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="X49" t="n">
         <v>27</v>
@@ -7072,10 +7072,10 @@
         <v>55</v>
       </c>
       <c r="Z49" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AA49" t="n">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="AB49" t="n">
         <v>11.5</v>
@@ -7111,13 +7111,13 @@
         <v>40</v>
       </c>
       <c r="AM49" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN49" t="n">
         <v>4.7</v>
       </c>
       <c r="AO49" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G50" t="n">
         <v>3.5</v>
@@ -7162,7 +7162,7 @@
         <v>3.45</v>
       </c>
       <c r="K50" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L50" t="n">
         <v>1.33</v>
@@ -7204,7 +7204,7 @@
         <v>15</v>
       </c>
       <c r="Y50" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z50" t="n">
         <v>19</v>
@@ -7294,7 +7294,7 @@
         <v>30</v>
       </c>
       <c r="J51" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="K51" t="n">
         <v>13</v>
@@ -7327,13 +7327,13 @@
         <v>2.12</v>
       </c>
       <c r="U51" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V51" t="n">
         <v>1.03</v>
       </c>
       <c r="W51" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="X51" t="n">
         <v>70</v>
@@ -7348,7 +7348,7 @@
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC51" t="n">
         <v>30</v>
@@ -7363,7 +7363,7 @@
         <v>11.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH51" t="n">
         <v>50</v>
@@ -7417,13 +7417,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G52" t="n">
         <v>2.56</v>
       </c>
       <c r="H52" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I52" t="n">
         <v>3.45</v>
@@ -7465,7 +7465,7 @@
         <v>1.99</v>
       </c>
       <c r="V52" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W52" t="n">
         <v>1.64</v>
@@ -7495,7 +7495,7 @@
         <v>44</v>
       </c>
       <c r="AF52" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG52" t="n">
         <v>13.5</v>
@@ -7507,19 +7507,19 @@
         <v>60</v>
       </c>
       <c r="AJ52" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK52" t="n">
         <v>32</v>
       </c>
       <c r="AL52" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM52" t="n">
         <v>140</v>
       </c>
       <c r="AN52" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO52" t="n">
         <v>48</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="G53" t="n">
         <v>980</v>
       </c>
       <c r="H53" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="I53" t="n">
         <v>1.3</v>
@@ -7591,7 +7591,7 @@
         <v>1.59</v>
       </c>
       <c r="S53" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T53" t="n">
         <v>1.94</v>
@@ -7603,7 +7603,7 @@
         <v>4.3</v>
       </c>
       <c r="W53" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7693,10 +7693,10 @@
         <v>2.12</v>
       </c>
       <c r="H54" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I54" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J54" t="n">
         <v>3.5</v>
@@ -7711,7 +7711,7 @@
         <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="O54" t="n">
         <v>1.29</v>
@@ -7729,10 +7729,10 @@
         <v>3.35</v>
       </c>
       <c r="T54" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="U54" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="V54" t="n">
         <v>1.29</v>
@@ -7741,58 +7741,58 @@
         <v>1.89</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55">
@@ -7831,7 +7831,7 @@
         <v>3.65</v>
       </c>
       <c r="I55" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J55" t="n">
         <v>3.4</v>
@@ -7852,16 +7852,16 @@
         <v>1.34</v>
       </c>
       <c r="P55" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R55" t="n">
         <v>1.34</v>
       </c>
       <c r="S55" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T55" t="n">
         <v>1.75</v>
@@ -7927,7 +7927,7 @@
         <v>21</v>
       </c>
       <c r="AO55" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">
@@ -7960,7 +7960,7 @@
         <v>2.38</v>
       </c>
       <c r="G56" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H56" t="n">
         <v>3.05</v>
@@ -7975,7 +7975,7 @@
         <v>3.65</v>
       </c>
       <c r="L56" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M56" t="n">
         <v>1.08</v>
@@ -7999,16 +7999,16 @@
         <v>3.75</v>
       </c>
       <c r="T56" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V56" t="n">
         <v>1.39</v>
       </c>
       <c r="W56" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X56" t="n">
         <v>14.5</v>
@@ -8023,10 +8023,10 @@
         <v>70</v>
       </c>
       <c r="AB56" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD56" t="n">
         <v>16.5</v>
@@ -8107,7 +8107,7 @@
         <v>3.7</v>
       </c>
       <c r="K57" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8116,7 +8116,7 @@
         <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.23</v>
@@ -8125,7 +8125,7 @@
         <v>2.26</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R57" t="n">
         <v>1.5</v>
@@ -8242,7 +8242,7 @@
         <v>4.1</v>
       </c>
       <c r="K58" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
@@ -8260,10 +8260,10 @@
         <v>2.72</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="R58" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S58" t="n">
         <v>2.2</v>
@@ -8281,7 +8281,7 @@
         <v>1.37</v>
       </c>
       <c r="X58" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y58" t="n">
         <v>970</v>
@@ -8332,7 +8332,7 @@
         <v>23</v>
       </c>
       <c r="AO58" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -8371,7 +8371,7 @@
         <v>13</v>
       </c>
       <c r="I59" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J59" t="n">
         <v>8</v>
@@ -8386,7 +8386,7 @@
         <v>1.02</v>
       </c>
       <c r="N59" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="O59" t="n">
         <v>1.11</v>
@@ -8395,19 +8395,19 @@
         <v>3.55</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R59" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="T59" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U59" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V59" t="n">
         <v>1.07</v>
@@ -8422,7 +8422,7 @@
         <v>80</v>
       </c>
       <c r="Z59" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AA59" t="n">
         <v>710</v>
@@ -8437,7 +8437,7 @@
         <v>55</v>
       </c>
       <c r="AE59" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF59" t="n">
         <v>11.5</v>
@@ -8449,7 +8449,7 @@
         <v>28</v>
       </c>
       <c r="AI59" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ59" t="n">
         <v>11.5</v>
@@ -8536,7 +8536,7 @@
         <v>1.51</v>
       </c>
       <c r="S60" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T60" t="n">
         <v>1.65</v>
@@ -8551,7 +8551,7 @@
         <v>2.04</v>
       </c>
       <c r="X60" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y60" t="n">
         <v>19</v>
@@ -8599,7 +8599,7 @@
         <v>75</v>
       </c>
       <c r="AN60" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO60" t="n">
         <v>40</v>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G61" t="n">
         <v>2.24</v>
@@ -8656,7 +8656,7 @@
         <v>1.01</v>
       </c>
       <c r="N61" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="O61" t="n">
         <v>1.34</v>
@@ -8671,7 +8671,7 @@
         <v>1.28</v>
       </c>
       <c r="S61" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T61" t="n">
         <v>1.68</v>
@@ -8767,19 +8767,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G62" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H62" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I62" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J62" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K62" t="n">
         <v>5.1</v>
@@ -8788,7 +8788,7 @@
         <v>1.27</v>
       </c>
       <c r="M62" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N62" t="n">
         <v>5.6</v>
@@ -8800,10 +8800,10 @@
         <v>2.56</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R62" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S62" t="n">
         <v>2.28</v>
@@ -8815,37 +8815,37 @@
         <v>2.6</v>
       </c>
       <c r="V62" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W62" t="n">
         <v>1.64</v>
       </c>
       <c r="X62" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Y62" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="Z62" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA62" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB62" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD62" t="n">
         <v>17</v>
       </c>
-      <c r="AC62" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF62" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG62" t="n">
         <v>15</v>
@@ -8854,22 +8854,22 @@
         <v>18</v>
       </c>
       <c r="AI62" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL62" t="n">
         <v>34</v>
       </c>
-      <c r="AJ62" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>29</v>
-      </c>
       <c r="AM62" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN62" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO62" t="n">
         <v>20</v>
@@ -8902,16 +8902,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G63" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H63" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I63" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J63" t="n">
         <v>3.05</v>
@@ -8923,25 +8923,25 @@
         <v>1.01</v>
       </c>
       <c r="M63" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N63" t="n">
-        <v>1.54</v>
+        <v>2.82</v>
       </c>
       <c r="O63" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="P63" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="R63" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S63" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="T63" t="n">
         <v>1.98</v>
@@ -8953,61 +8953,61 @@
         <v>1.37</v>
       </c>
       <c r="W63" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X63" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y63" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z63" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA63" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB63" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC63" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD63" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE63" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF63" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI63" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK63" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL63" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM63" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO63" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
@@ -9061,7 +9061,7 @@
         <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O64" t="n">
         <v>1.26</v>
@@ -9079,16 +9079,16 @@
         <v>3</v>
       </c>
       <c r="T64" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U64" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V64" t="n">
         <v>2.26</v>
       </c>
       <c r="W64" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X64" t="n">
         <v>17</v>
@@ -9097,13 +9097,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z64" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA64" t="n">
         <v>18.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC64" t="n">
         <v>9</v>
@@ -9112,13 +9112,13 @@
         <v>10.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF64" t="n">
         <v>40</v>
       </c>
       <c r="AG64" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH64" t="n">
         <v>18.5</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G65" t="n">
         <v>1.92</v>
@@ -9232,7 +9232,7 @@
         <v>15.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA65" t="n">
         <v>150</v>
@@ -9241,10 +9241,10 @@
         <v>8</v>
       </c>
       <c r="AC65" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD65" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE65" t="n">
         <v>70</v>
@@ -9337,7 +9337,7 @@
         <v>1.41</v>
       </c>
       <c r="P66" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q66" t="n">
         <v>2.22</v>
@@ -9391,7 +9391,7 @@
         <v>13</v>
       </c>
       <c r="AH66" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI66" t="n">
         <v>55</v>
@@ -9481,7 +9481,7 @@
         <v>1.5</v>
       </c>
       <c r="S67" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T67" t="n">
         <v>1.86</v>
@@ -9508,7 +9508,7 @@
         <v>160</v>
       </c>
       <c r="AB67" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC67" t="n">
         <v>9.6</v>
@@ -9544,7 +9544,7 @@
         <v>90</v>
       </c>
       <c r="AN67" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AO67" t="n">
         <v>85</v>
@@ -9985,94 +9985,94 @@
         <v>2.26</v>
       </c>
       <c r="G71" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="H71" t="n">
         <v>3.3</v>
       </c>
       <c r="I71" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K71" t="n">
         <v>3.95</v>
       </c>
-      <c r="J71" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L71" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M71" t="n">
         <v>1.09</v>
       </c>
       <c r="N71" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="O71" t="n">
         <v>1.4</v>
       </c>
       <c r="P71" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R71" t="n">
         <v>1.26</v>
       </c>
       <c r="S71" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T71" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U71" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="V71" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W71" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X71" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Y71" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z71" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA71" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB71" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AC71" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD71" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AE71" t="n">
         <v>55</v>
       </c>
       <c r="AF71" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AG71" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH71" t="n">
         <v>23</v>
       </c>
       <c r="AI71" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ71" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK71" t="n">
         <v>34</v>
@@ -10084,7 +10084,7 @@
         <v>1000</v>
       </c>
       <c r="AN71" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO71" t="n">
         <v>65</v>
@@ -10153,10 +10153,10 @@
         <v>1.68</v>
       </c>
       <c r="R72" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S72" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="T72" t="n">
         <v>1.01</v>
@@ -10252,10 +10252,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H73" t="n">
         <v>4.6</v>
@@ -10279,7 +10279,7 @@
         <v>2.74</v>
       </c>
       <c r="O73" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P73" t="n">
         <v>1.57</v>
@@ -10387,16 +10387,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="G74" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="H74" t="n">
         <v>8.6</v>
       </c>
       <c r="I74" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="J74" t="n">
         <v>4.9</v>
@@ -10417,28 +10417,28 @@
         <v>1.3</v>
       </c>
       <c r="P74" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q74" t="n">
         <v>1.86</v>
       </c>
       <c r="R74" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S74" t="n">
         <v>3.25</v>
       </c>
       <c r="T74" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U74" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="V74" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W74" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X74" t="n">
         <v>21</v>
@@ -10450,7 +10450,7 @@
         <v>85</v>
       </c>
       <c r="AA74" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AB74" t="n">
         <v>7.6</v>
@@ -10462,7 +10462,7 @@
         <v>36</v>
       </c>
       <c r="AE74" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF74" t="n">
         <v>8.199999999999999</v>
@@ -10486,13 +10486,13 @@
         <v>50</v>
       </c>
       <c r="AM74" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN74" t="n">
         <v>7.8</v>
       </c>
       <c r="AO74" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75">
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G75" t="n">
         <v>2.12</v>
@@ -10546,7 +10546,7 @@
         <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O75" t="n">
         <v>1.21</v>
@@ -10681,28 +10681,28 @@
         <v>1.07</v>
       </c>
       <c r="N76" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="O76" t="n">
         <v>1.32</v>
       </c>
       <c r="P76" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R76" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S76" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T76" t="n">
         <v>1.78</v>
       </c>
       <c r="U76" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V76" t="n">
         <v>1.89</v>
@@ -10792,13 +10792,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>12</v>
+        <v>1.09</v>
       </c>
       <c r="G77" t="n">
         <v>800</v>
       </c>
       <c r="H77" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="I77" t="n">
         <v>1.26</v>
@@ -10828,13 +10828,13 @@
         <v>1.29</v>
       </c>
       <c r="R77" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="S77" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T77" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="U77" t="n">
         <v>1.72</v>
@@ -10969,7 +10969,7 @@
         <v>3.95</v>
       </c>
       <c r="T78" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U78" t="n">
         <v>2.04</v>
@@ -10978,7 +10978,7 @@
         <v>1.32</v>
       </c>
       <c r="W78" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X78" t="n">
         <v>12.5</v>
@@ -11026,7 +11026,7 @@
         <v>40</v>
       </c>
       <c r="AM78" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN78" t="n">
         <v>17.5</v>
@@ -11065,16 +11065,16 @@
         <v>6</v>
       </c>
       <c r="G79" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H79" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="I79" t="n">
         <v>1.77</v>
       </c>
       <c r="J79" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K79" t="n">
         <v>4.1</v>
@@ -11086,7 +11086,7 @@
         <v>1.08</v>
       </c>
       <c r="N79" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O79" t="n">
         <v>1.39</v>
@@ -11098,43 +11098,43 @@
         <v>2.16</v>
       </c>
       <c r="R79" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S79" t="n">
         <v>4</v>
       </c>
       <c r="T79" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U79" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V79" t="n">
         <v>2.3</v>
       </c>
       <c r="W79" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X79" t="n">
         <v>13.5</v>
       </c>
       <c r="Y79" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="Z79" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AA79" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AB79" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AC79" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD79" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AE79" t="n">
         <v>22</v>
@@ -11155,19 +11155,19 @@
         <v>1000</v>
       </c>
       <c r="AK79" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL79" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM79" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN79" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AO79" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
     </row>
     <row r="80">
@@ -11200,10 +11200,10 @@
         <v>2.42</v>
       </c>
       <c r="G80" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I80" t="n">
         <v>3.25</v>
@@ -11233,7 +11233,7 @@
         <v>1.71</v>
       </c>
       <c r="R80" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S80" t="n">
         <v>2.64</v>
@@ -11242,7 +11242,7 @@
         <v>1.63</v>
       </c>
       <c r="U80" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="V80" t="n">
         <v>1.48</v>
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G82" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H82" t="n">
         <v>6.4</v>
@@ -11500,7 +11500,7 @@
         <v>1.79</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="R82" t="n">
         <v>1.28</v>
@@ -11509,16 +11509,16 @@
         <v>3.8</v>
       </c>
       <c r="T82" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U82" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="V82" t="n">
         <v>1.15</v>
       </c>
       <c r="W82" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="X82" t="n">
         <v>16</v>
@@ -11608,7 +11608,7 @@
         <v>2.08</v>
       </c>
       <c r="H83" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I83" t="n">
         <v>5</v>
@@ -11635,10 +11635,10 @@
         <v>1.7</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R83" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S83" t="n">
         <v>3.2</v>
@@ -11653,7 +11653,7 @@
         <v>1.25</v>
       </c>
       <c r="W83" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11776,7 +11776,7 @@
         <v>1.49</v>
       </c>
       <c r="S84" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T84" t="n">
         <v>1.01</v>
@@ -11890,7 +11890,7 @@
         <v>4.3</v>
       </c>
       <c r="L85" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M85" t="n">
         <v>1.05</v>
@@ -11920,7 +11920,7 @@
         <v>2.34</v>
       </c>
       <c r="V85" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W85" t="n">
         <v>1.4</v>
@@ -11950,19 +11950,19 @@
         <v>27</v>
       </c>
       <c r="AF85" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG85" t="n">
         <v>17.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI85" t="n">
         <v>38</v>
       </c>
       <c r="AJ85" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK85" t="n">
         <v>42</v>
@@ -12025,22 +12025,22 @@
         <v>1000</v>
       </c>
       <c r="L86" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M86" t="n">
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O86" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P86" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="R86" t="n">
         <v>1.15</v>
@@ -12142,109 +12142,109 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="G87" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H87" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I87" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J87" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K87" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="L87" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M87" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N87" t="n">
-        <v>1.01</v>
+        <v>2.64</v>
       </c>
       <c r="O87" t="n">
         <v>1.51</v>
       </c>
       <c r="P87" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.8</v>
+        <v>2.52</v>
       </c>
       <c r="R87" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="S87" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="T87" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="U87" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="V87" t="n">
         <v>1.22</v>
       </c>
       <c r="W87" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="X87" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y87" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z87" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA87" t="n">
         <v>1000</v>
       </c>
       <c r="AB87" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC87" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD87" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE87" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF87" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG87" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH87" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI87" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ87" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK87" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL87" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM87" t="n">
         <v>1000</v>
       </c>
       <c r="AN87" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO87" t="n">
         <v>1000</v>
@@ -12301,7 +12301,7 @@
         <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O88" t="n">
         <v>1.29</v>
@@ -12310,10 +12310,10 @@
         <v>2.08</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R88" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S88" t="n">
         <v>3.15</v>
@@ -12361,7 +12361,7 @@
         <v>11</v>
       </c>
       <c r="AH88" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI88" t="n">
         <v>48</v>
@@ -12412,10 +12412,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H89" t="n">
         <v>3</v>
@@ -12430,7 +12430,7 @@
         <v>3.1</v>
       </c>
       <c r="L89" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M89" t="n">
         <v>1.1</v>
@@ -12439,7 +12439,7 @@
         <v>3.25</v>
       </c>
       <c r="O89" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P89" t="n">
         <v>1.74</v>
@@ -12460,7 +12460,7 @@
         <v>2.04</v>
       </c>
       <c r="V89" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W89" t="n">
         <v>1.52</v>
@@ -12553,10 +12553,10 @@
         <v>2.34</v>
       </c>
       <c r="H90" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I90" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J90" t="n">
         <v>3.65</v>
@@ -12589,13 +12589,13 @@
         <v>2.42</v>
       </c>
       <c r="T90" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U90" t="n">
         <v>1.01</v>
       </c>
       <c r="V90" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W90" t="n">
         <v>1.75</v>
@@ -12733,7 +12733,7 @@
         <v>1.51</v>
       </c>
       <c r="W91" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X91" t="n">
         <v>9.800000000000001</v>
@@ -12820,7 +12820,7 @@
         <v>1.41</v>
       </c>
       <c r="G92" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H92" t="n">
         <v>9.4</v>
@@ -12952,19 +12952,19 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G93" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H93" t="n">
         <v>4.4</v>
       </c>
       <c r="I93" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K93" t="n">
         <v>980</v>
@@ -13000,10 +13000,10 @@
         <v>1.01</v>
       </c>
       <c r="V93" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W93" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X93" t="n">
         <v>1000</v>
@@ -13360,7 +13360,7 @@
         <v>2.16</v>
       </c>
       <c r="G96" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H96" t="n">
         <v>3.35</v>
@@ -13372,7 +13372,7 @@
         <v>3.1</v>
       </c>
       <c r="K96" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L96" t="n">
         <v>1.34</v>
@@ -13384,25 +13384,25 @@
         <v>3.65</v>
       </c>
       <c r="O96" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P96" t="n">
         <v>1.91</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R96" t="n">
         <v>1.35</v>
       </c>
       <c r="S96" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T96" t="n">
         <v>1.65</v>
       </c>
       <c r="U96" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V96" t="n">
         <v>1.32</v>
@@ -13453,7 +13453,7 @@
         <v>28</v>
       </c>
       <c r="AL96" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM96" t="n">
         <v>110</v>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G97" t="n">
         <v>1.64</v>
@@ -13501,10 +13501,10 @@
         <v>8</v>
       </c>
       <c r="I97" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J97" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K97" t="n">
         <v>4</v>
@@ -13528,7 +13528,7 @@
         <v>2.58</v>
       </c>
       <c r="R97" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S97" t="n">
         <v>5.3</v>
@@ -13540,7 +13540,7 @@
         <v>1.56</v>
       </c>
       <c r="V97" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W97" t="n">
         <v>2.54</v>
@@ -13567,7 +13567,7 @@
         <v>36</v>
       </c>
       <c r="AE97" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AF97" t="n">
         <v>7.8</v>
@@ -13591,13 +13591,13 @@
         <v>70</v>
       </c>
       <c r="AM97" t="n">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="AN97" t="n">
         <v>16</v>
       </c>
       <c r="AO97" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98">
@@ -13801,7 +13801,7 @@
         <v>1.07</v>
       </c>
       <c r="S99" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="T99" t="n">
         <v>1.01</v>
@@ -13897,112 +13897,112 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I100" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J100" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K100" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
       </c>
       <c r="M100" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N100" t="n">
-        <v>1.51</v>
+        <v>2.86</v>
       </c>
       <c r="O100" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P100" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R100" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S100" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T100" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U100" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V100" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W100" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="X100" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y100" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z100" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA100" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB100" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC100" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD100" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE100" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF100" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG100" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH100" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI100" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK100" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL100" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM100" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN100" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO100" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101">
@@ -14035,19 +14035,19 @@
         <v>2.04</v>
       </c>
       <c r="G101" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H101" t="n">
         <v>4.6</v>
       </c>
       <c r="I101" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="J101" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K101" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L101" t="n">
         <v>1.01</v>
@@ -14080,10 +14080,10 @@
         <v>1.01</v>
       </c>
       <c r="V101" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W101" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X101" t="n">
         <v>9.4</v>
@@ -14206,7 +14206,7 @@
         <v>1.22</v>
       </c>
       <c r="S102" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="T102" t="n">
         <v>2.18</v>
@@ -14302,13 +14302,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G103" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H103" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I103" t="n">
         <v>3.9</v>
@@ -14323,7 +14323,7 @@
         <v>1.01</v>
       </c>
       <c r="M103" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N103" t="n">
         <v>2.9</v>
@@ -14335,7 +14335,7 @@
         <v>1.64</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R103" t="n">
         <v>1.24</v>
@@ -14344,25 +14344,25 @@
         <v>4.5</v>
       </c>
       <c r="T103" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U103" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="V103" t="n">
         <v>1.35</v>
       </c>
       <c r="W103" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X103" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z103" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA103" t="n">
         <v>95</v>
@@ -14470,7 +14470,7 @@
         <v>1.08</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="R104" t="n">
         <v>1.07</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -682,7 +682,7 @@
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>110</v>
+        <v>19.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -694,7 +694,7 @@
         <v>2.34</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
         <v>2.34</v>
@@ -805,16 +805,16 @@
         <v>1.92</v>
       </c>
       <c r="G3" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
         <v>2.84</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="K3" t="n">
         <v>12</v>
@@ -850,10 +850,10 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -961,28 +961,28 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
         <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V4" t="n">
         <v>1.33</v>
@@ -1219,7 +1219,7 @@
         <v>1.27</v>
       </c>
       <c r="J6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
         <v>11.5</v>
@@ -1255,7 +1255,7 @@
         <v>1.63</v>
       </c>
       <c r="V6" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="W6" t="n">
         <v>1.05</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G10" t="n">
         <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="I10" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1795,10 +1795,10 @@
         <v>2.66</v>
       </c>
       <c r="V10" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X10" t="n">
         <v>32</v>
@@ -1882,46 +1882,46 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G11" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
         <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>1.41</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="S11" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="T11" t="n">
         <v>1.64</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="G12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>60</v>
+        <v>7.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
         <v>1.49</v>
@@ -2221,7 +2221,7 @@
         <v>8</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
         <v>18</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="I14" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.31</v>
@@ -2311,13 +2311,13 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Q14" t="n">
         <v>1.76</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W14" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2590,13 +2590,13 @@
         <v>2.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R16" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="T16" t="n">
         <v>1.6</v>
@@ -2614,7 +2614,7 @@
         <v>26</v>
       </c>
       <c r="Y16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z16" t="n">
         <v>55</v>
@@ -2644,7 +2644,7 @@
         <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ16" t="n">
         <v>24</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2716,16 +2716,16 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R17" t="n">
         <v>1.52</v>
@@ -2965,10 +2965,10 @@
         <v>2.08</v>
       </c>
       <c r="G19" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
         <v>4.2</v>
@@ -3013,7 +3013,7 @@
         <v>1.31</v>
       </c>
       <c r="W19" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
@@ -3028,13 +3028,13 @@
         <v>80</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE19" t="n">
         <v>48</v>
@@ -3043,7 +3043,7 @@
         <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
         <v>20</v>
@@ -3052,7 +3052,7 @@
         <v>60</v>
       </c>
       <c r="AJ19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
         <v>22</v>
@@ -3064,7 +3064,7 @@
         <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO19" t="n">
         <v>48</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -3139,7 +3139,7 @@
         <v>2.6</v>
       </c>
       <c r="T20" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U20" t="n">
         <v>2.48</v>
@@ -3148,19 +3148,19 @@
         <v>1.37</v>
       </c>
       <c r="W20" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X20" t="n">
         <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z20" t="n">
         <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
         <v>13</v>
@@ -3172,10 +3172,10 @@
         <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG20" t="n">
         <v>11</v>
@@ -3202,7 +3202,7 @@
         <v>11.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G21" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I21" t="n">
         <v>5.3</v>
@@ -3250,7 +3250,7 @@
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -3259,31 +3259,31 @@
         <v>4.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U21" t="n">
         <v>2.18</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.22</v>
       </c>
       <c r="V21" t="n">
         <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="X21" t="n">
         <v>20</v>
@@ -3292,7 +3292,7 @@
         <v>22</v>
       </c>
       <c r="Z21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA21" t="n">
         <v>130</v>
@@ -3334,10 +3334,10 @@
         <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -3385,7 +3385,7 @@
         <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
@@ -3406,7 +3406,7 @@
         <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
         <v>1.79</v>
@@ -3526,13 +3526,13 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="Q23" t="n">
         <v>1.58</v>
@@ -3541,7 +3541,7 @@
         <v>1.65</v>
       </c>
       <c r="S23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T23" t="n">
         <v>1.54</v>
@@ -3556,7 +3556,7 @@
         <v>1.8</v>
       </c>
       <c r="X23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
         <v>970</v>
@@ -3568,10 +3568,10 @@
         <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD23" t="n">
         <v>18</v>
@@ -3580,7 +3580,7 @@
         <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
         <v>970</v>
@@ -3589,16 +3589,16 @@
         <v>970</v>
       </c>
       <c r="AI23" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
         <v>55</v>
@@ -3607,7 +3607,7 @@
         <v>970</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -3661,13 +3661,13 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="Q24" t="n">
         <v>1.53</v>
@@ -3922,7 +3922,7 @@
         <v>6</v>
       </c>
       <c r="K26" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.34</v>
@@ -3931,7 +3931,7 @@
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.25</v>
@@ -3940,7 +3940,7 @@
         <v>2.32</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R26" t="n">
         <v>1.51</v>
@@ -3994,7 +3994,7 @@
         <v>34</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ26" t="n">
         <v>9.800000000000001</v>
@@ -4051,7 +4051,7 @@
         <v>4.3</v>
       </c>
       <c r="I27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
@@ -4066,13 +4066,13 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P27" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q27" t="n">
         <v>2.32</v>
@@ -4087,13 +4087,13 @@
         <v>2.02</v>
       </c>
       <c r="U27" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V27" t="n">
         <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X27" t="n">
         <v>13</v>
@@ -4180,16 +4180,16 @@
         <v>1.62</v>
       </c>
       <c r="G28" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H28" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I28" t="n">
         <v>6.6</v>
       </c>
       <c r="J28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K28" t="n">
         <v>4.5</v>
@@ -4207,16 +4207,16 @@
         <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R28" t="n">
         <v>1.48</v>
       </c>
       <c r="S28" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T28" t="n">
         <v>1.82</v>
@@ -4225,10 +4225,10 @@
         <v>2.1</v>
       </c>
       <c r="V28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X28" t="n">
         <v>22</v>
@@ -4336,13 +4336,13 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q29" t="n">
         <v>2.14</v>
@@ -4462,7 +4462,7 @@
         <v>3.15</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L30" t="n">
         <v>1.49</v>
@@ -4477,7 +4477,7 @@
         <v>1.5</v>
       </c>
       <c r="P30" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q30" t="n">
         <v>2.5</v>
@@ -4624,7 +4624,7 @@
         <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="U31" t="n">
         <v>1.43</v>
@@ -4639,7 +4639,7 @@
         <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="n">
         <v>210</v>
@@ -4666,13 +4666,13 @@
         <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI31" t="n">
         <v>510</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK31" t="n">
         <v>24</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="G32" t="n">
         <v>2.46</v>
@@ -4732,7 +4732,7 @@
         <v>2.84</v>
       </c>
       <c r="K32" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L32" t="n">
         <v>1.47</v>
@@ -4747,16 +4747,16 @@
         <v>1.51</v>
       </c>
       <c r="P32" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R32" t="n">
         <v>1.08</v>
       </c>
       <c r="S32" t="n">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H33" t="n">
         <v>2.96</v>
@@ -4867,10 +4867,10 @@
         <v>2.74</v>
       </c>
       <c r="K33" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
@@ -4903,7 +4903,7 @@
         <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4987,31 +4987,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G34" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="H34" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I34" t="n">
         <v>4.9</v>
       </c>
       <c r="J34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K34" t="n">
         <v>3.45</v>
       </c>
-      <c r="K34" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L34" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O34" t="n">
         <v>1.37</v>
@@ -5023,10 +5023,10 @@
         <v>2.1</v>
       </c>
       <c r="R34" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S34" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T34" t="n">
         <v>1.86</v>
@@ -5038,13 +5038,13 @@
         <v>1.26</v>
       </c>
       <c r="W34" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="X34" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y34" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z34" t="n">
         <v>34</v>
@@ -5059,7 +5059,7 @@
         <v>7.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE34" t="n">
         <v>65</v>
@@ -5071,16 +5071,16 @@
         <v>10.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="n">
         <v>24</v>
       </c>
       <c r="AK34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL34" t="n">
         <v>40</v>
@@ -5089,7 +5089,7 @@
         <v>140</v>
       </c>
       <c r="AN34" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO34" t="n">
         <v>85</v>
@@ -5152,7 +5152,7 @@
         <v>1.45</v>
       </c>
       <c r="P35" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q35" t="n">
         <v>2.32</v>
@@ -5164,7 +5164,7 @@
         <v>4.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U35" t="n">
         <v>2</v>
@@ -5260,7 +5260,7 @@
         <v>2.4</v>
       </c>
       <c r="G36" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H36" t="n">
         <v>3.2</v>
@@ -5269,16 +5269,16 @@
         <v>3.95</v>
       </c>
       <c r="J36" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K36" t="n">
         <v>3.7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N36" t="n">
         <v>3.05</v>
@@ -5305,7 +5305,7 @@
         <v>1.83</v>
       </c>
       <c r="V36" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W36" t="n">
         <v>1.6</v>
@@ -5410,22 +5410,22 @@
         <v>3.25</v>
       </c>
       <c r="L37" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M37" t="n">
         <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O37" t="n">
         <v>1.5</v>
       </c>
       <c r="P37" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
@@ -5455,7 +5455,7 @@
         <v>34</v>
       </c>
       <c r="AA37" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB37" t="n">
         <v>7.4</v>
@@ -5572,7 +5572,7 @@
         <v>2.02</v>
       </c>
       <c r="U38" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V38" t="n">
         <v>1.57</v>
@@ -5581,7 +5581,7 @@
         <v>1.45</v>
       </c>
       <c r="X38" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y38" t="n">
         <v>8.800000000000001</v>
@@ -5665,16 +5665,16 @@
         <v>1.43</v>
       </c>
       <c r="G39" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H39" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I39" t="n">
         <v>9.4</v>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K39" t="n">
         <v>5.2</v>
@@ -5695,7 +5695,7 @@
         <v>2.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R39" t="n">
         <v>1.47</v>
@@ -5707,13 +5707,13 @@
         <v>2.08</v>
       </c>
       <c r="U39" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V39" t="n">
         <v>1.11</v>
       </c>
       <c r="W39" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X39" t="n">
         <v>18</v>
@@ -5761,7 +5761,7 @@
         <v>38</v>
       </c>
       <c r="AM39" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN39" t="n">
         <v>6.6</v>
@@ -5797,13 +5797,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G40" t="n">
         <v>3.05</v>
       </c>
       <c r="H40" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I40" t="n">
         <v>3.1</v>
@@ -5821,37 +5821,37 @@
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O40" t="n">
         <v>1.45</v>
       </c>
       <c r="P40" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="R40" t="n">
         <v>1.23</v>
       </c>
       <c r="S40" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="V40" t="n">
         <v>1.47</v>
       </c>
       <c r="W40" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y40" t="n">
         <v>11</v>
@@ -5866,7 +5866,7 @@
         <v>11</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD40" t="n">
         <v>15.5</v>
@@ -5899,10 +5899,10 @@
         <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO40" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -5941,7 +5941,7 @@
         <v>2.48</v>
       </c>
       <c r="I41" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J41" t="n">
         <v>3.55</v>
@@ -5995,7 +5995,7 @@
         <v>16.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB41" t="n">
         <v>14</v>
@@ -6010,7 +6010,7 @@
         <v>25</v>
       </c>
       <c r="AF41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG41" t="n">
         <v>13.5</v>
@@ -6022,7 +6022,7 @@
         <v>36</v>
       </c>
       <c r="AJ41" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK41" t="n">
         <v>32</v>
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G42" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H42" t="n">
         <v>4.7</v>
@@ -6097,7 +6097,7 @@
         <v>1.34</v>
       </c>
       <c r="P42" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q42" t="n">
         <v>2.02</v>
@@ -6109,7 +6109,7 @@
         <v>3.6</v>
       </c>
       <c r="T42" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U42" t="n">
         <v>2.08</v>
@@ -6211,10 +6211,10 @@
         <v>3.85</v>
       </c>
       <c r="I43" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J43" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K43" t="n">
         <v>3.8</v>
@@ -6235,10 +6235,10 @@
         <v>2.34</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R43" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S43" t="n">
         <v>2.8</v>
@@ -6247,13 +6247,13 @@
         <v>1.62</v>
       </c>
       <c r="U43" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V43" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W43" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X43" t="n">
         <v>19</v>
@@ -6265,7 +6265,7 @@
         <v>29</v>
       </c>
       <c r="AA43" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB43" t="n">
         <v>12</v>
@@ -6274,10 +6274,10 @@
         <v>8.6</v>
       </c>
       <c r="AD43" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF43" t="n">
         <v>14.5</v>
@@ -6340,7 +6340,7 @@
         <v>3.75</v>
       </c>
       <c r="G44" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
         <v>2.08</v>
@@ -6370,7 +6370,7 @@
         <v>2.18</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R44" t="n">
         <v>1.46</v>
@@ -6430,7 +6430,7 @@
         <v>70</v>
       </c>
       <c r="AK44" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL44" t="n">
         <v>46</v>
@@ -6625,7 +6625,7 @@
         <v>4.4</v>
       </c>
       <c r="L46" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M46" t="n">
         <v>1.05</v>
@@ -6646,7 +6646,7 @@
         <v>1.43</v>
       </c>
       <c r="S46" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T46" t="n">
         <v>1.63</v>
@@ -6745,16 +6745,16 @@
         <v>1.16</v>
       </c>
       <c r="G47" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H47" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="I47" t="n">
         <v>32</v>
       </c>
       <c r="J47" t="n">
-        <v>1.09</v>
+        <v>7.2</v>
       </c>
       <c r="K47" t="n">
         <v>11.5</v>
@@ -6910,7 +6910,7 @@
         <v>2.64</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R48" t="n">
         <v>1.67</v>
@@ -7015,7 +7015,7 @@
         <v>1.27</v>
       </c>
       <c r="G49" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>12.5</v>
@@ -7078,7 +7078,7 @@
         <v>630</v>
       </c>
       <c r="AB49" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AC49" t="n">
         <v>15</v>
@@ -7090,7 +7090,7 @@
         <v>280</v>
       </c>
       <c r="AF49" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AG49" t="n">
         <v>11</v>
@@ -7102,7 +7102,7 @@
         <v>210</v>
       </c>
       <c r="AJ49" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK49" t="n">
         <v>14</v>
@@ -7231,7 +7231,7 @@
         <v>14</v>
       </c>
       <c r="AH50" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI50" t="n">
         <v>36</v>
@@ -7291,7 +7291,7 @@
         <v>28</v>
       </c>
       <c r="I51" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J51" t="n">
         <v>12.5</v>
@@ -7318,7 +7318,7 @@
         <v>1.27</v>
       </c>
       <c r="R51" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="S51" t="n">
         <v>1.68</v>
@@ -7351,7 +7351,7 @@
         <v>18</v>
       </c>
       <c r="AC51" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD51" t="n">
         <v>95</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G52" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H52" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I52" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J52" t="n">
         <v>3.25</v>
       </c>
       <c r="K52" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L52" t="n">
         <v>1.46</v>
@@ -7444,31 +7444,31 @@
         <v>3.2</v>
       </c>
       <c r="O52" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P52" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q52" t="n">
         <v>2.18</v>
       </c>
       <c r="R52" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S52" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T52" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="U52" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V52" t="n">
         <v>1.4</v>
       </c>
       <c r="W52" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X52" t="n">
         <v>12.5</v>
@@ -7477,19 +7477,19 @@
         <v>13</v>
       </c>
       <c r="Z52" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA52" t="n">
         <v>65</v>
       </c>
       <c r="AB52" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC52" t="n">
         <v>8</v>
       </c>
       <c r="AD52" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE52" t="n">
         <v>44</v>
@@ -7501,7 +7501,7 @@
         <v>13.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI52" t="n">
         <v>60</v>
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G55" t="n">
         <v>2.3</v>
       </c>
       <c r="H55" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I55" t="n">
         <v>3.8</v>
@@ -7852,10 +7852,10 @@
         <v>1.34</v>
       </c>
       <c r="P55" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R55" t="n">
         <v>1.34</v>
@@ -7864,7 +7864,7 @@
         <v>3.55</v>
       </c>
       <c r="T55" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U55" t="n">
         <v>2.1</v>
@@ -7873,7 +7873,7 @@
         <v>1.35</v>
       </c>
       <c r="W55" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X55" t="n">
         <v>16.5</v>
@@ -7987,16 +7987,16 @@
         <v>1.36</v>
       </c>
       <c r="P56" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R56" t="n">
         <v>1.29</v>
       </c>
       <c r="S56" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="T56" t="n">
         <v>1.72</v>
@@ -8011,7 +8011,7 @@
         <v>1.6</v>
       </c>
       <c r="X56" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y56" t="n">
         <v>13.5</v>
@@ -8026,7 +8026,7 @@
         <v>11.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD56" t="n">
         <v>16.5</v>
@@ -8095,19 +8095,19 @@
         <v>2.36</v>
       </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I57" t="n">
         <v>3.2</v>
       </c>
       <c r="J57" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K57" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8122,13 +8122,13 @@
         <v>1.23</v>
       </c>
       <c r="P57" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R57" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S57" t="n">
         <v>2.74</v>
@@ -8140,10 +8140,10 @@
         <v>2.38</v>
       </c>
       <c r="V57" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W57" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X57" t="n">
         <v>21</v>
@@ -8194,7 +8194,7 @@
         <v>70</v>
       </c>
       <c r="AN57" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AO57" t="n">
         <v>24</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G58" t="n">
         <v>3.7</v>
@@ -8242,7 +8242,7 @@
         <v>4.1</v>
       </c>
       <c r="K58" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
@@ -8251,28 +8251,28 @@
         <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="O58" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P58" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="R58" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="S58" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T58" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="U58" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="V58" t="n">
         <v>1.89</v>
@@ -8323,16 +8323,16 @@
         <v>36</v>
       </c>
       <c r="AL58" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AM58" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN58" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO58" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -8371,13 +8371,13 @@
         <v>13</v>
       </c>
       <c r="I59" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="J59" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K59" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L59" t="n">
         <v>1.18</v>
@@ -8392,22 +8392,22 @@
         <v>1.11</v>
       </c>
       <c r="P59" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q59" t="n">
         <v>1.35</v>
       </c>
       <c r="R59" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="S59" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T59" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U59" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V59" t="n">
         <v>1.07</v>
@@ -8416,7 +8416,7 @@
         <v>4.9</v>
       </c>
       <c r="X59" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="Y59" t="n">
         <v>80</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="G60" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="H60" t="n">
+        <v>4</v>
+      </c>
+      <c r="I60" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4.5</v>
       </c>
       <c r="J60" t="n">
         <v>3.95</v>
@@ -8521,22 +8521,22 @@
         <v>1.05</v>
       </c>
       <c r="N60" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O60" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P60" t="n">
         <v>2.24</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R60" t="n">
         <v>1.51</v>
       </c>
       <c r="S60" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T60" t="n">
         <v>1.65</v>
@@ -8545,22 +8545,22 @@
         <v>2.34</v>
       </c>
       <c r="V60" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W60" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="X60" t="n">
         <v>20</v>
       </c>
       <c r="Y60" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA60" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB60" t="n">
         <v>12</v>
@@ -8572,10 +8572,10 @@
         <v>17</v>
       </c>
       <c r="AE60" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF60" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG60" t="n">
         <v>10.5</v>
@@ -8584,10 +8584,10 @@
         <v>16</v>
       </c>
       <c r="AI60" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ60" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK60" t="n">
         <v>19</v>
@@ -8599,10 +8599,10 @@
         <v>75</v>
       </c>
       <c r="AN60" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO60" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G61" t="n">
         <v>2.24</v>
@@ -8647,7 +8647,7 @@
         <v>2.98</v>
       </c>
       <c r="K61" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L61" t="n">
         <v>1.42</v>
@@ -8677,7 +8677,7 @@
         <v>1.68</v>
       </c>
       <c r="U61" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V61" t="n">
         <v>1.2</v>
@@ -8770,16 +8770,16 @@
         <v>2.26</v>
       </c>
       <c r="G62" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H62" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I62" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J62" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K62" t="n">
         <v>5.1</v>
@@ -8803,10 +8803,10 @@
         <v>1.53</v>
       </c>
       <c r="R62" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S62" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="T62" t="n">
         <v>1.5</v>
@@ -8815,7 +8815,7 @@
         <v>2.6</v>
       </c>
       <c r="V62" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="W62" t="n">
         <v>1.64</v>
@@ -8839,7 +8839,7 @@
         <v>12.5</v>
       </c>
       <c r="AD62" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE62" t="n">
         <v>34</v>
@@ -8902,64 +8902,64 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G63" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H63" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I63" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J63" t="n">
         <v>3.05</v>
       </c>
       <c r="K63" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
       </c>
       <c r="M63" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N63" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="O63" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="P63" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="R63" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S63" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="T63" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="U63" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V63" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W63" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X63" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z63" t="n">
         <v>29</v>
@@ -8968,7 +8968,7 @@
         <v>90</v>
       </c>
       <c r="AB63" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC63" t="n">
         <v>8.800000000000001</v>
@@ -8980,7 +8980,7 @@
         <v>65</v>
       </c>
       <c r="AF63" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG63" t="n">
         <v>14.5</v>
@@ -9067,7 +9067,7 @@
         <v>1.26</v>
       </c>
       <c r="P64" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q64" t="n">
         <v>1.8</v>
@@ -9076,7 +9076,7 @@
         <v>1.47</v>
       </c>
       <c r="S64" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T64" t="n">
         <v>1.79</v>
@@ -9136,7 +9136,7 @@
         <v>60</v>
       </c>
       <c r="AM64" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN64" t="n">
         <v>65</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G65" t="n">
         <v>1.92</v>
@@ -9181,13 +9181,13 @@
         <v>4.9</v>
       </c>
       <c r="I65" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J65" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K65" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3.65</v>
       </c>
       <c r="L65" t="n">
         <v>1.44</v>
@@ -9196,7 +9196,7 @@
         <v>1.08</v>
       </c>
       <c r="N65" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O65" t="n">
         <v>1.38</v>
@@ -9208,7 +9208,7 @@
         <v>2.14</v>
       </c>
       <c r="R65" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S65" t="n">
         <v>3.95</v>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -9322,7 +9322,7 @@
         <v>3.15</v>
       </c>
       <c r="K66" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L66" t="n">
         <v>1.46</v>
@@ -9337,7 +9337,7 @@
         <v>1.41</v>
       </c>
       <c r="P66" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q66" t="n">
         <v>2.22</v>
@@ -9442,13 +9442,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G67" t="n">
         <v>1.62</v>
       </c>
       <c r="H67" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I67" t="n">
         <v>6.6</v>
@@ -9472,16 +9472,16 @@
         <v>1.25</v>
       </c>
       <c r="P67" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R67" t="n">
         <v>1.5</v>
       </c>
       <c r="S67" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="T67" t="n">
         <v>1.86</v>
@@ -9517,16 +9517,16 @@
         <v>23</v>
       </c>
       <c r="AE67" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF67" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG67" t="n">
         <v>10</v>
       </c>
       <c r="AH67" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI67" t="n">
         <v>70</v>
@@ -9544,7 +9544,7 @@
         <v>90</v>
       </c>
       <c r="AN67" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO67" t="n">
         <v>85</v>
@@ -9601,16 +9601,16 @@
         <v>1.06</v>
       </c>
       <c r="N68" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O68" t="n">
         <v>1.28</v>
       </c>
       <c r="P68" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R68" t="n">
         <v>1.44</v>
@@ -9679,7 +9679,7 @@
         <v>85</v>
       </c>
       <c r="AN68" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO68" t="n">
         <v>44</v>
@@ -10021,10 +10021,10 @@
         <v>1.26</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T71" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="U71" t="n">
         <v>1.93</v>
@@ -10126,7 +10126,7 @@
         <v>2.62</v>
       </c>
       <c r="I72" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J72" t="n">
         <v>2.88</v>
@@ -10279,7 +10279,7 @@
         <v>2.74</v>
       </c>
       <c r="O73" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P73" t="n">
         <v>1.57</v>
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="G74" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="I74" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J74" t="n">
         <v>4.9</v>
       </c>
       <c r="K74" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L74" t="n">
         <v>1.39</v>
@@ -10411,49 +10411,49 @@
         <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="O74" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P74" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R74" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="S74" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T74" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U74" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="V74" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W74" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y74" t="n">
         <v>32</v>
       </c>
       <c r="Z74" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA74" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AB74" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC74" t="n">
         <v>11.5</v>
@@ -10465,22 +10465,22 @@
         <v>180</v>
       </c>
       <c r="AF74" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG74" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH74" t="n">
         <v>29</v>
       </c>
       <c r="AI74" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ74" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK74" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL74" t="n">
         <v>50</v>
@@ -10489,10 +10489,10 @@
         <v>210</v>
       </c>
       <c r="AN74" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AO74" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75">
@@ -10531,7 +10531,7 @@
         <v>3.65</v>
       </c>
       <c r="I75" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J75" t="n">
         <v>3.75</v>
@@ -10555,22 +10555,22 @@
         <v>2.08</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R75" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S75" t="n">
         <v>2.44</v>
       </c>
       <c r="T75" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U75" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V75" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W75" t="n">
         <v>1.89</v>
@@ -10657,19 +10657,19 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G76" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H76" t="n">
         <v>2.02</v>
       </c>
       <c r="I76" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="J76" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K76" t="n">
         <v>3.9</v>
@@ -10681,19 +10681,19 @@
         <v>1.07</v>
       </c>
       <c r="N76" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O76" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P76" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R76" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S76" t="n">
         <v>3.35</v>
@@ -10702,13 +10702,13 @@
         <v>1.78</v>
       </c>
       <c r="U76" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V76" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="W76" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X76" t="n">
         <v>17.5</v>
@@ -10747,10 +10747,10 @@
         <v>44</v>
       </c>
       <c r="AJ76" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL76" t="n">
         <v>60</v>
@@ -10759,10 +10759,10 @@
         <v>120</v>
       </c>
       <c r="AN76" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AO76" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="77">
@@ -10816,7 +10816,7 @@
         <v>1.02</v>
       </c>
       <c r="N77" t="n">
-        <v>3.05</v>
+        <v>5.5</v>
       </c>
       <c r="O77" t="n">
         <v>1.09</v>
@@ -10825,16 +10825,16 @@
         <v>3</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R77" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="S77" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="T77" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U77" t="n">
         <v>1.72</v>
@@ -10936,7 +10936,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J78" t="n">
         <v>3.55</v>
@@ -10963,19 +10963,19 @@
         <v>2.12</v>
       </c>
       <c r="R78" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S78" t="n">
         <v>3.95</v>
       </c>
       <c r="T78" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U78" t="n">
         <v>2.04</v>
       </c>
       <c r="V78" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W78" t="n">
         <v>1.89</v>
@@ -11065,37 +11065,37 @@
         <v>6</v>
       </c>
       <c r="G79" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H79" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="I79" t="n">
         <v>1.77</v>
       </c>
       <c r="J79" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K79" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L79" t="n">
         <v>1.44</v>
       </c>
       <c r="M79" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N79" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O79" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P79" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R79" t="n">
         <v>1.27</v>
@@ -11104,10 +11104,10 @@
         <v>4</v>
       </c>
       <c r="T79" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U79" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V79" t="n">
         <v>2.3</v>
@@ -11230,7 +11230,7 @@
         <v>1.94</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="R80" t="n">
         <v>1.37</v>
@@ -11239,7 +11239,7 @@
         <v>2.64</v>
       </c>
       <c r="T80" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U80" t="n">
         <v>2.14</v>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="G81" t="n">
         <v>1.17</v>
@@ -11341,16 +11341,16 @@
         <v>25</v>
       </c>
       <c r="I81" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J81" t="n">
         <v>9</v>
       </c>
       <c r="K81" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L81" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
@@ -11362,7 +11362,7 @@
         <v>1.17</v>
       </c>
       <c r="P81" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="Q81" t="n">
         <v>1.52</v>
@@ -11371,13 +11371,13 @@
         <v>1.64</v>
       </c>
       <c r="S81" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T81" t="n">
         <v>2.74</v>
       </c>
       <c r="U81" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="V81" t="n">
         <v>1.03</v>
@@ -11401,7 +11401,7 @@
         <v>9.6</v>
       </c>
       <c r="AC81" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD81" t="n">
         <v>110</v>
@@ -11413,7 +11413,7 @@
         <v>7.2</v>
       </c>
       <c r="AG81" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AH81" t="n">
         <v>70</v>
@@ -11431,7 +11431,7 @@
         <v>70</v>
       </c>
       <c r="AM81" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AN81" t="n">
         <v>3.55</v>
@@ -11467,22 +11467,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="G82" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H82" t="n">
         <v>6.4</v>
       </c>
       <c r="I82" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J82" t="n">
         <v>4</v>
       </c>
       <c r="K82" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L82" t="n">
         <v>1.45</v>
@@ -11491,28 +11491,28 @@
         <v>1.08</v>
       </c>
       <c r="N82" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O82" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P82" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="R82" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S82" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="T82" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U82" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V82" t="n">
         <v>1.15</v>
@@ -11563,7 +11563,7 @@
         <v>20</v>
       </c>
       <c r="AL82" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM82" t="n">
         <v>210</v>
@@ -11602,10 +11602,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G83" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H83" t="n">
         <v>4.3</v>
@@ -11614,10 +11614,10 @@
         <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K83" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11635,25 +11635,25 @@
         <v>1.7</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R83" t="n">
         <v>1.26</v>
       </c>
       <c r="S83" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T83" t="n">
         <v>1.01</v>
       </c>
       <c r="U83" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V83" t="n">
         <v>1.25</v>
       </c>
       <c r="W83" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11746,7 +11746,7 @@
         <v>1.44</v>
       </c>
       <c r="I84" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="J84" t="n">
         <v>4.1</v>
@@ -11773,7 +11773,7 @@
         <v>1.49</v>
       </c>
       <c r="R84" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S84" t="n">
         <v>2.2</v>
@@ -11785,7 +11785,7 @@
         <v>1.01</v>
       </c>
       <c r="V84" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W84" t="n">
         <v>1.12</v>
@@ -11878,7 +11878,7 @@
         <v>3.5</v>
       </c>
       <c r="H85" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I85" t="n">
         <v>2.38</v>
@@ -11902,16 +11902,16 @@
         <v>1.24</v>
       </c>
       <c r="P85" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R85" t="n">
         <v>1.48</v>
       </c>
       <c r="S85" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T85" t="n">
         <v>1.6</v>
@@ -12016,7 +12016,7 @@
         <v>1.04</v>
       </c>
       <c r="I86" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="J86" t="n">
         <v>1.01</v>
@@ -12145,13 +12145,13 @@
         <v>2.04</v>
       </c>
       <c r="G87" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H87" t="n">
         <v>3.85</v>
       </c>
       <c r="I87" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J87" t="n">
         <v>2.98</v>
@@ -12166,25 +12166,25 @@
         <v>1.1</v>
       </c>
       <c r="N87" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="O87" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P87" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R87" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S87" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T87" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U87" t="n">
         <v>1.67</v>
@@ -12193,7 +12193,7 @@
         <v>1.22</v>
       </c>
       <c r="W87" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="X87" t="n">
         <v>970</v>
@@ -12208,7 +12208,7 @@
         <v>1000</v>
       </c>
       <c r="AB87" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC87" t="n">
         <v>970</v>
@@ -12217,7 +12217,7 @@
         <v>23</v>
       </c>
       <c r="AE87" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF87" t="n">
         <v>970</v>
@@ -12280,7 +12280,7 @@
         <v>2.16</v>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H88" t="n">
         <v>3.6</v>
@@ -12301,37 +12301,37 @@
         <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O88" t="n">
         <v>1.29</v>
       </c>
       <c r="P88" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R88" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S88" t="n">
         <v>3.15</v>
       </c>
       <c r="T88" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U88" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V88" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W88" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y88" t="n">
         <v>15.5</v>
@@ -12346,7 +12346,7 @@
         <v>11</v>
       </c>
       <c r="AC88" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD88" t="n">
         <v>15.5</v>
@@ -12355,7 +12355,7 @@
         <v>42</v>
       </c>
       <c r="AF88" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG88" t="n">
         <v>11</v>
@@ -12367,7 +12367,7 @@
         <v>48</v>
       </c>
       <c r="AJ88" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK88" t="n">
         <v>22</v>
@@ -12421,7 +12421,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J89" t="n">
         <v>3.05</v>
@@ -12439,7 +12439,7 @@
         <v>3.25</v>
       </c>
       <c r="O89" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P89" t="n">
         <v>1.74</v>
@@ -12547,13 +12547,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G90" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H90" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I90" t="n">
         <v>3.6</v>
@@ -12562,7 +12562,7 @@
         <v>3.65</v>
       </c>
       <c r="K90" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L90" t="n">
         <v>1.32</v>
@@ -12571,25 +12571,25 @@
         <v>1.03</v>
       </c>
       <c r="N90" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="O90" t="n">
         <v>1.23</v>
       </c>
       <c r="P90" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q90" t="n">
         <v>1.23</v>
       </c>
       <c r="R90" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S90" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="T90" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U90" t="n">
         <v>1.01</v>
@@ -12736,7 +12736,7 @@
         <v>1.5</v>
       </c>
       <c r="X91" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y91" t="n">
         <v>9.4</v>
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G92" t="n">
         <v>1.45</v>
@@ -12832,7 +12832,7 @@
         <v>4.8</v>
       </c>
       <c r="K92" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>1.25</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12952,10 +12952,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="G93" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H93" t="n">
         <v>4.4</v>
@@ -12985,7 +12985,7 @@
         <v>1.55</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R93" t="n">
         <v>1.18</v>
@@ -13003,7 +13003,7 @@
         <v>1.16</v>
       </c>
       <c r="W93" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X93" t="n">
         <v>1000</v>
@@ -13225,19 +13225,19 @@
         <v>1.04</v>
       </c>
       <c r="G95" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H95" t="n">
         <v>1.04</v>
       </c>
       <c r="I95" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J95" t="n">
         <v>1.02</v>
       </c>
       <c r="K95" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="L95" t="n">
         <v>1.01</v>
@@ -13405,7 +13405,7 @@
         <v>2.04</v>
       </c>
       <c r="V96" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W96" t="n">
         <v>1.69</v>
@@ -13900,13 +13900,13 @@
         <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H100" t="n">
         <v>4.2</v>
       </c>
       <c r="I100" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J100" t="n">
         <v>3.15</v>
@@ -13915,7 +13915,7 @@
         <v>3.85</v>
       </c>
       <c r="L100" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M100" t="n">
         <v>1.1</v>
@@ -13930,7 +13930,7 @@
         <v>1.63</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="R100" t="n">
         <v>1.23</v>
@@ -13939,16 +13939,16 @@
         <v>4.1</v>
       </c>
       <c r="T100" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="U100" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V100" t="n">
         <v>1.23</v>
       </c>
       <c r="W100" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="X100" t="n">
         <v>12</v>
@@ -13975,7 +13975,7 @@
         <v>85</v>
       </c>
       <c r="AF100" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG100" t="n">
         <v>13</v>
@@ -14056,16 +14056,16 @@
         <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="O101" t="n">
         <v>1.01</v>
       </c>
       <c r="P101" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="R101" t="n">
         <v>1.12</v>
@@ -14089,46 +14089,46 @@
         <v>9.4</v>
       </c>
       <c r="Y101" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z101" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA101" t="n">
         <v>1000</v>
       </c>
       <c r="AB101" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC101" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD101" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE101" t="n">
         <v>1000</v>
       </c>
       <c r="AF101" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG101" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH101" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI101" t="n">
         <v>1000</v>
       </c>
       <c r="AJ101" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK101" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL101" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM101" t="n">
         <v>1000</v>
@@ -14200,7 +14200,7 @@
         <v>1.61</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="R102" t="n">
         <v>1.22</v>
@@ -14347,7 +14347,7 @@
         <v>2</v>
       </c>
       <c r="U103" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V103" t="n">
         <v>1.35</v>
@@ -14380,10 +14380,10 @@
         <v>65</v>
       </c>
       <c r="AF103" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG103" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH103" t="n">
         <v>21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="I2" t="n">
         <v>970</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,34 +691,34 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="Q2" t="n">
         <v>1.39</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="S2" t="n">
         <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="R3" t="n">
         <v>1.05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -940,7 +940,7 @@
         <v>2.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H4" t="n">
         <v>3.7</v>
@@ -949,10 +949,10 @@
         <v>3.95</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.31</v>
@@ -961,40 +961,40 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V4" t="n">
         <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z4" t="n">
         <v>32</v>
@@ -1006,10 +1006,10 @@
         <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>50</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G5" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
         <v>2.42</v>
@@ -1087,7 +1087,7 @@
         <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>2.6</v>
+        <v>2.94</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1123,7 +1123,7 @@
         <v>1.46</v>
       </c>
       <c r="W5" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1216,10 +1216,10 @@
         <v>1.21</v>
       </c>
       <c r="I6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K6" t="n">
         <v>11.5</v>
@@ -1234,28 +1234,28 @@
         <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
         <v>2.66</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R6" t="n">
         <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="T6" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="U6" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="W6" t="n">
         <v>1.05</v>
@@ -1267,7 +1267,7 @@
         <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1345,19 +1345,19 @@
         <v>2.54</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J7" t="n">
         <v>2.84</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,25 +1366,25 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R7" t="n">
         <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
         <v>1.84</v>
@@ -1393,7 +1393,7 @@
         <v>1.43</v>
       </c>
       <c r="W7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1489,7 +1489,7 @@
         <v>2.32</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
         <v>2.16</v>
@@ -1624,10 +1624,10 @@
         <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,25 +1636,25 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="O9" t="n">
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="R9" t="n">
         <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
         <v>1.01</v>
@@ -1753,13 +1753,13 @@
         <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I10" t="n">
         <v>1.9</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
         <v>4.6</v>
@@ -1777,7 +1777,7 @@
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
         <v>1.56</v>
@@ -1789,10 +1789,10 @@
         <v>2.36</v>
       </c>
       <c r="T10" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U10" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="V10" t="n">
         <v>2.1</v>
@@ -1828,7 +1828,7 @@
         <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
@@ -1846,7 +1846,7 @@
         <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
         <v>980</v>
@@ -1891,7 +1891,7 @@
         <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1903,25 +1903,25 @@
         <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
         <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.41</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="T11" t="n">
         <v>1.64</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G13" t="n">
         <v>2.04</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.06</v>
-      </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2173,13 +2173,13 @@
         <v>1.49</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
         <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
         <v>1.74</v>
@@ -2203,7 +2203,7 @@
         <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -2218,7 +2218,7 @@
         <v>110</v>
       </c>
       <c r="AB13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="G14" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
         <v>6.6</v>
@@ -2320,13 +2320,13 @@
         <v>1.87</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R14" t="n">
         <v>1.08</v>
       </c>
       <c r="S14" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2587,7 +2587,7 @@
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
         <v>1.59</v>
@@ -2695,7 +2695,7 @@
         <v>2.16</v>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H17" t="n">
         <v>3.15</v>
@@ -2716,16 +2716,16 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="R17" t="n">
         <v>1.52</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
         <v>4.2</v>
@@ -2986,7 +2986,7 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
@@ -3013,7 +3013,7 @@
         <v>1.31</v>
       </c>
       <c r="W19" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
@@ -3028,13 +3028,13 @@
         <v>80</v>
       </c>
       <c r="AB19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
         <v>8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE19" t="n">
         <v>48</v>
@@ -3049,10 +3049,10 @@
         <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK19" t="n">
         <v>22</v>
@@ -3064,7 +3064,7 @@
         <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO19" t="n">
         <v>48</v>
@@ -3100,7 +3100,7 @@
         <v>2.08</v>
       </c>
       <c r="G20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
@@ -3121,7 +3121,7 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
@@ -3130,25 +3130,25 @@
         <v>2.42</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
         <v>1.55</v>
       </c>
       <c r="S20" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T20" t="n">
         <v>1.6</v>
       </c>
       <c r="U20" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X20" t="n">
         <v>21</v>
@@ -3172,7 +3172,7 @@
         <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AF20" t="n">
         <v>15.5</v>
@@ -3235,7 +3235,7 @@
         <v>1.78</v>
       </c>
       <c r="G21" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="H21" t="n">
         <v>4.9</v>
@@ -3265,13 +3265,13 @@
         <v>2.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R21" t="n">
         <v>1.46</v>
       </c>
       <c r="S21" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T21" t="n">
         <v>1.74</v>
@@ -3283,7 +3283,7 @@
         <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X21" t="n">
         <v>20</v>
@@ -3313,7 +3313,7 @@
         <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
         <v>18.5</v>
@@ -3367,46 +3367,46 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G22" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H22" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R22" t="n">
         <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T22" t="n">
         <v>1.79</v>
@@ -3415,10 +3415,10 @@
         <v>1.93</v>
       </c>
       <c r="V22" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W22" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="X22" t="n">
         <v>12.5</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G23" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I23" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K23" t="n">
         <v>4.2</v>
@@ -3532,28 +3532,28 @@
         <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R23" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="S23" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="T23" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U23" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="V23" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W23" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X23" t="n">
         <v>25</v>
@@ -3565,10 +3565,10 @@
         <v>29</v>
       </c>
       <c r="AA23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
         <v>970</v>
@@ -3577,10 +3577,10 @@
         <v>18</v>
       </c>
       <c r="AE23" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG23" t="n">
         <v>970</v>
@@ -3589,7 +3589,7 @@
         <v>970</v>
       </c>
       <c r="AI23" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ23" t="n">
         <v>28</v>
@@ -3607,7 +3607,7 @@
         <v>970</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
         <v>2.86</v>
@@ -3652,7 +3652,7 @@
         <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3670,7 +3670,7 @@
         <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="R24" t="n">
         <v>1.46</v>
@@ -3781,13 +3781,13 @@
         <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="J25" t="n">
         <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,13 +3796,13 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="O25" t="n">
         <v>1.32</v>
       </c>
       <c r="P25" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="Q25" t="n">
         <v>1.81</v>
@@ -3814,13 +3814,13 @@
         <v>2.98</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U25" t="n">
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="W25" t="n">
         <v>1.28</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G26" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H26" t="n">
         <v>12</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J26" t="n">
         <v>6</v>
@@ -3970,7 +3970,7 @@
         <v>120</v>
       </c>
       <c r="AA26" t="n">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="AB26" t="n">
         <v>8.4</v>
@@ -4045,7 +4045,7 @@
         <v>2.02</v>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H27" t="n">
         <v>4.3</v>
@@ -4060,7 +4060,7 @@
         <v>3.55</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
@@ -4069,22 +4069,22 @@
         <v>3.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P27" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="R27" t="n">
         <v>1.25</v>
       </c>
       <c r="S27" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="U27" t="n">
         <v>1.89</v>
@@ -4129,7 +4129,7 @@
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="n">
         <v>27</v>
@@ -4147,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -4210,13 +4210,13 @@
         <v>2.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R28" t="n">
         <v>1.48</v>
       </c>
       <c r="S28" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T28" t="n">
         <v>1.82</v>
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="G29" t="n">
         <v>1.86</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I29" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
@@ -4360,7 +4360,7 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W29" t="n">
         <v>2.16</v>
@@ -4582,94 +4582,94 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="G31" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I31" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="J31" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K31" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>2.98</v>
+        <v>2.74</v>
       </c>
       <c r="O31" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="P31" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="R31" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="T31" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="U31" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="V31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W31" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="X31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z31" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG31" t="n">
         <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI31" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
         <v>11.5</v>
@@ -4678,7 +4678,7 @@
         <v>24</v>
       </c>
       <c r="AL31" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G34" t="n">
         <v>2.14</v>
@@ -4996,7 +4996,7 @@
         <v>4.3</v>
       </c>
       <c r="I34" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J34" t="n">
         <v>3.25</v>
@@ -5044,13 +5044,13 @@
         <v>12</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z34" t="n">
         <v>34</v>
       </c>
       <c r="AA34" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB34" t="n">
         <v>8.4</v>
@@ -5074,10 +5074,10 @@
         <v>19</v>
       </c>
       <c r="AI34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK34" t="n">
         <v>26</v>
@@ -5092,7 +5092,7 @@
         <v>18</v>
       </c>
       <c r="AO34" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -5131,7 +5131,7 @@
         <v>2.76</v>
       </c>
       <c r="I35" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J35" t="n">
         <v>3.1</v>
@@ -5266,19 +5266,19 @@
         <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J36" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K36" t="n">
         <v>3.7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
         <v>3.05</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G37" t="n">
         <v>2.12</v>
@@ -5410,7 +5410,7 @@
         <v>3.25</v>
       </c>
       <c r="L37" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="M37" t="n">
         <v>1.11</v>
@@ -5425,7 +5425,7 @@
         <v>1.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
@@ -5440,7 +5440,7 @@
         <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W37" t="n">
         <v>1.89</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G39" t="n">
         <v>1.44</v>
@@ -5695,7 +5695,7 @@
         <v>2.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R39" t="n">
         <v>1.47</v>
@@ -5761,7 +5761,7 @@
         <v>38</v>
       </c>
       <c r="AM39" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN39" t="n">
         <v>6.6</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I40" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
@@ -5815,22 +5815,22 @@
         <v>3.2</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M40" t="n">
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O40" t="n">
         <v>1.45</v>
       </c>
       <c r="P40" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R40" t="n">
         <v>1.23</v>
@@ -5842,13 +5842,13 @@
         <v>1.81</v>
       </c>
       <c r="U40" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="V40" t="n">
         <v>1.47</v>
       </c>
       <c r="W40" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X40" t="n">
         <v>11.5</v>
@@ -5863,7 +5863,7 @@
         <v>60</v>
       </c>
       <c r="AB40" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC40" t="n">
         <v>8.199999999999999</v>
@@ -5956,7 +5956,7 @@
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O41" t="n">
         <v>1.29</v>
@@ -5965,7 +5965,7 @@
         <v>2.08</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R41" t="n">
         <v>1.43</v>
@@ -6067,13 +6067,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G42" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H42" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I42" t="n">
         <v>4.8</v>
@@ -6118,7 +6118,7 @@
         <v>1.26</v>
       </c>
       <c r="W42" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X42" t="n">
         <v>13.5</v>
@@ -6301,7 +6301,7 @@
         <v>28</v>
       </c>
       <c r="AM43" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN43" t="n">
         <v>11.5</v>
@@ -6403,7 +6403,7 @@
         <v>25</v>
       </c>
       <c r="AB44" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC44" t="n">
         <v>8.4</v>
@@ -6430,7 +6430,7 @@
         <v>70</v>
       </c>
       <c r="AK44" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL44" t="n">
         <v>46</v>
@@ -6475,16 +6475,16 @@
         <v>2.32</v>
       </c>
       <c r="G45" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H45" t="n">
         <v>2.84</v>
       </c>
       <c r="I45" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K45" t="n">
         <v>4.8</v>
@@ -6523,7 +6523,7 @@
         <v>1.33</v>
       </c>
       <c r="W45" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6646,7 +6646,7 @@
         <v>1.43</v>
       </c>
       <c r="S46" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="T46" t="n">
         <v>1.63</v>
@@ -6745,19 +6745,19 @@
         <v>1.16</v>
       </c>
       <c r="G47" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H47" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="I47" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J47" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K47" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G48" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I48" t="n">
         <v>2.46</v>
       </c>
       <c r="J48" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K48" t="n">
         <v>3.9</v>
@@ -6910,7 +6910,7 @@
         <v>2.64</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R48" t="n">
         <v>1.67</v>
@@ -6928,7 +6928,7 @@
         <v>1.69</v>
       </c>
       <c r="W48" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X48" t="n">
         <v>23</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="H49" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I49" t="n">
         <v>14.5</v>
@@ -7027,7 +7027,7 @@
         <v>6.2</v>
       </c>
       <c r="K49" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L49" t="n">
         <v>1.28</v>
@@ -7042,7 +7042,7 @@
         <v>1.2</v>
       </c>
       <c r="P49" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q49" t="n">
         <v>1.6</v>
@@ -7051,10 +7051,10 @@
         <v>1.58</v>
       </c>
       <c r="S49" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T49" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U49" t="n">
         <v>1.79</v>
@@ -7072,7 +7072,7 @@
         <v>55</v>
       </c>
       <c r="Z49" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA49" t="n">
         <v>630</v>
@@ -7081,16 +7081,16 @@
         <v>10</v>
       </c>
       <c r="AC49" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AD49" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE49" t="n">
         <v>280</v>
       </c>
       <c r="AF49" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG49" t="n">
         <v>11</v>
@@ -7099,7 +7099,7 @@
         <v>42</v>
       </c>
       <c r="AI49" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AJ49" t="n">
         <v>12.5</v>
@@ -7111,13 +7111,13 @@
         <v>40</v>
       </c>
       <c r="AM49" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN49" t="n">
         <v>4.7</v>
       </c>
       <c r="AO49" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50">
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I50" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J50" t="n">
         <v>3.45</v>
@@ -7183,7 +7183,7 @@
         <v>1.87</v>
       </c>
       <c r="R50" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S50" t="n">
         <v>3.15</v>
@@ -7195,10 +7195,10 @@
         <v>2.3</v>
       </c>
       <c r="V50" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W50" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X50" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         <v>11.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AA50" t="n">
         <v>32</v>
@@ -7219,7 +7219,7 @@
         <v>9.6</v>
       </c>
       <c r="AD50" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE50" t="n">
         <v>24</v>
@@ -7231,7 +7231,7 @@
         <v>14</v>
       </c>
       <c r="AH50" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
         <v>36</v>
@@ -7240,7 +7240,7 @@
         <v>55</v>
       </c>
       <c r="AK50" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL50" t="n">
         <v>50</v>
@@ -7327,7 +7327,7 @@
         <v>2.12</v>
       </c>
       <c r="U51" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V51" t="n">
         <v>1.03</v>
@@ -7336,7 +7336,7 @@
         <v>8.6</v>
       </c>
       <c r="X51" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Y51" t="n">
         <v>120</v>
@@ -7366,7 +7366,7 @@
         <v>15.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI51" t="n">
         <v>1000</v>
@@ -7558,7 +7558,7 @@
         <v>980</v>
       </c>
       <c r="H53" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="I53" t="n">
         <v>1.3</v>
@@ -7576,13 +7576,13 @@
         <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="O53" t="n">
         <v>1.16</v>
       </c>
       <c r="P53" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q53" t="n">
         <v>1.43</v>
@@ -7603,7 +7603,7 @@
         <v>4.3</v>
       </c>
       <c r="W53" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7729,10 +7729,10 @@
         <v>3.35</v>
       </c>
       <c r="T54" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="U54" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="V54" t="n">
         <v>1.29</v>
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H55" t="n">
         <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J55" t="n">
         <v>3.4</v>
@@ -7846,43 +7846,43 @@
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O55" t="n">
         <v>1.34</v>
       </c>
       <c r="P55" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R55" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S55" t="n">
         <v>3.55</v>
       </c>
       <c r="T55" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W55" t="n">
         <v>1.79</v>
-      </c>
-      <c r="U55" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1.78</v>
       </c>
       <c r="X55" t="n">
         <v>16.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA55" t="n">
         <v>70</v>
@@ -7891,13 +7891,13 @@
         <v>10.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD55" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AF55" t="n">
         <v>15</v>
@@ -7987,16 +7987,16 @@
         <v>1.36</v>
       </c>
       <c r="P56" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R56" t="n">
         <v>1.29</v>
       </c>
       <c r="S56" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="T56" t="n">
         <v>1.72</v>
@@ -8011,7 +8011,7 @@
         <v>1.6</v>
       </c>
       <c r="X56" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y56" t="n">
         <v>13.5</v>
@@ -8020,7 +8020,7 @@
         <v>26</v>
       </c>
       <c r="AA56" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB56" t="n">
         <v>11.5</v>
@@ -8095,7 +8095,7 @@
         <v>2.36</v>
       </c>
       <c r="G57" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H57" t="n">
         <v>3.15</v>
@@ -8104,7 +8104,7 @@
         <v>3.2</v>
       </c>
       <c r="J57" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K57" t="n">
         <v>3.9</v>
@@ -8143,7 +8143,7 @@
         <v>1.45</v>
       </c>
       <c r="W57" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X57" t="n">
         <v>21</v>
@@ -8161,7 +8161,7 @@
         <v>14</v>
       </c>
       <c r="AC57" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD57" t="n">
         <v>970</v>
@@ -8260,13 +8260,13 @@
         <v>2.56</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R58" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S58" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="T58" t="n">
         <v>1.53</v>
@@ -8287,7 +8287,7 @@
         <v>970</v>
       </c>
       <c r="Z58" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AA58" t="n">
         <v>27</v>
@@ -8323,7 +8323,7 @@
         <v>36</v>
       </c>
       <c r="AL58" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM58" t="n">
         <v>60</v>
@@ -8377,7 +8377,7 @@
         <v>7.8</v>
       </c>
       <c r="K59" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="L59" t="n">
         <v>1.18</v>
@@ -8392,7 +8392,7 @@
         <v>1.11</v>
       </c>
       <c r="P59" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q59" t="n">
         <v>1.35</v>
@@ -8401,22 +8401,22 @@
         <v>2.04</v>
       </c>
       <c r="S59" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T59" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U59" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V59" t="n">
         <v>1.07</v>
       </c>
       <c r="W59" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="X59" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y59" t="n">
         <v>80</v>
@@ -8446,7 +8446,7 @@
         <v>12</v>
       </c>
       <c r="AH59" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AI59" t="n">
         <v>130</v>
@@ -8497,25 +8497,25 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="G60" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="H60" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K60" t="n">
         <v>4</v>
       </c>
-      <c r="I60" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L60" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M60" t="n">
         <v>1.05</v>
@@ -8527,37 +8527,37 @@
         <v>1.24</v>
       </c>
       <c r="P60" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R60" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S60" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T60" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U60" t="n">
         <v>2.34</v>
       </c>
       <c r="V60" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W60" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="X60" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA60" t="n">
         <v>80</v>
@@ -8566,43 +8566,43 @@
         <v>12</v>
       </c>
       <c r="AC60" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE60" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF60" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG60" t="n">
         <v>10.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI60" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ60" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK60" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL60" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM60" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN60" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO60" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="G61" t="n">
         <v>2.24</v>
       </c>
       <c r="H61" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="I61" t="n">
         <v>5.8</v>
@@ -8647,10 +8647,10 @@
         <v>2.98</v>
       </c>
       <c r="K61" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L61" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M61" t="n">
         <v>1.01</v>
@@ -8659,7 +8659,7 @@
         <v>1.01</v>
       </c>
       <c r="O61" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P61" t="n">
         <v>1.28</v>
@@ -8680,7 +8680,7 @@
         <v>1.87</v>
       </c>
       <c r="V61" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="W61" t="n">
         <v>1.8</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G62" t="n">
         <v>2.56</v>
@@ -8776,7 +8776,7 @@
         <v>2.74</v>
       </c>
       <c r="I62" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J62" t="n">
         <v>3.85</v>
@@ -8785,7 +8785,7 @@
         <v>5.1</v>
       </c>
       <c r="L62" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="M62" t="n">
         <v>1.02</v>
@@ -8806,7 +8806,7 @@
         <v>1.63</v>
       </c>
       <c r="S62" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="T62" t="n">
         <v>1.5</v>
@@ -8905,7 +8905,7 @@
         <v>2.38</v>
       </c>
       <c r="G63" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H63" t="n">
         <v>3.55</v>
@@ -8914,19 +8914,19 @@
         <v>3.8</v>
       </c>
       <c r="J63" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
       </c>
       <c r="M63" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N63" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="O63" t="n">
         <v>1.51</v>
@@ -8956,7 +8956,7 @@
         <v>1.67</v>
       </c>
       <c r="X63" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y63" t="n">
         <v>12.5</v>
@@ -9043,19 +9043,19 @@
         <v>5.2</v>
       </c>
       <c r="H64" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I64" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J64" t="n">
         <v>4.1</v>
       </c>
       <c r="K64" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L64" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M64" t="n">
         <v>1.05</v>
@@ -9073,10 +9073,10 @@
         <v>1.8</v>
       </c>
       <c r="R64" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S64" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T64" t="n">
         <v>1.79</v>
@@ -9085,7 +9085,7 @@
         <v>2.2</v>
       </c>
       <c r="V64" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W64" t="n">
         <v>1.24</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G65" t="n">
         <v>1.92</v>
@@ -9181,13 +9181,13 @@
         <v>4.9</v>
       </c>
       <c r="I65" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J65" t="n">
         <v>3.55</v>
       </c>
       <c r="K65" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L65" t="n">
         <v>1.44</v>
@@ -9208,7 +9208,7 @@
         <v>2.14</v>
       </c>
       <c r="R65" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S65" t="n">
         <v>3.95</v>
@@ -9226,34 +9226,34 @@
         <v>2.08</v>
       </c>
       <c r="X65" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y65" t="n">
         <v>15.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA65" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB65" t="n">
         <v>8</v>
       </c>
       <c r="AC65" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD65" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE65" t="n">
         <v>70</v>
       </c>
       <c r="AF65" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH65" t="n">
         <v>21</v>
@@ -9262,22 +9262,22 @@
         <v>80</v>
       </c>
       <c r="AJ65" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK65" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL65" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM65" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN65" t="n">
         <v>15</v>
       </c>
       <c r="AO65" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
@@ -9340,7 +9340,7 @@
         <v>1.76</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R66" t="n">
         <v>1.29</v>
@@ -9442,16 +9442,16 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G67" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H67" t="n">
         <v>6.2</v>
       </c>
       <c r="I67" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J67" t="n">
         <v>4.4</v>
@@ -9460,7 +9460,7 @@
         <v>4.5</v>
       </c>
       <c r="L67" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M67" t="n">
         <v>1.05</v>
@@ -9472,31 +9472,31 @@
         <v>1.25</v>
       </c>
       <c r="P67" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R67" t="n">
         <v>1.5</v>
       </c>
       <c r="S67" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="T67" t="n">
         <v>1.86</v>
       </c>
       <c r="U67" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V67" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W67" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="X67" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y67" t="n">
         <v>23</v>
@@ -9508,7 +9508,7 @@
         <v>160</v>
       </c>
       <c r="AB67" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC67" t="n">
         <v>9.6</v>
@@ -9532,7 +9532,7 @@
         <v>70</v>
       </c>
       <c r="AJ67" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK67" t="n">
         <v>15</v>
@@ -9547,7 +9547,7 @@
         <v>7.4</v>
       </c>
       <c r="AO67" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
@@ -9712,13 +9712,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="G69" t="n">
         <v>2.86</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I69" t="n">
         <v>4.9</v>
@@ -9727,7 +9727,7 @@
         <v>2.68</v>
       </c>
       <c r="K69" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
@@ -9745,13 +9745,13 @@
         <v>1.54</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R69" t="n">
         <v>1.08</v>
       </c>
       <c r="S69" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="T69" t="n">
         <v>1.01</v>
@@ -9850,43 +9850,43 @@
         <v>2.3</v>
       </c>
       <c r="G70" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H70" t="n">
         <v>2.88</v>
       </c>
       <c r="I70" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="K70" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L70" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M70" t="n">
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="O70" t="n">
         <v>1.01</v>
       </c>
       <c r="P70" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R70" t="n">
         <v>1.08</v>
       </c>
       <c r="S70" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T70" t="n">
         <v>1.01</v>
@@ -9895,10 +9895,10 @@
         <v>1.01</v>
       </c>
       <c r="V70" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W70" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -9988,22 +9988,22 @@
         <v>2.62</v>
       </c>
       <c r="H71" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I71" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J71" t="n">
         <v>3.05</v>
       </c>
       <c r="K71" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L71" t="n">
         <v>1.42</v>
       </c>
       <c r="M71" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N71" t="n">
         <v>3.05</v>
@@ -10021,7 +10021,7 @@
         <v>1.26</v>
       </c>
       <c r="S71" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="T71" t="n">
         <v>1.78</v>
@@ -10030,7 +10030,7 @@
         <v>1.93</v>
       </c>
       <c r="V71" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W71" t="n">
         <v>1.63</v>
@@ -10129,7 +10129,7 @@
         <v>3.7</v>
       </c>
       <c r="J72" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K72" t="n">
         <v>5.1</v>
@@ -10258,16 +10258,16 @@
         <v>2.12</v>
       </c>
       <c r="H73" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I73" t="n">
         <v>4.6</v>
       </c>
-      <c r="I73" t="n">
-        <v>4.7</v>
-      </c>
       <c r="J73" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K73" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L73" t="n">
         <v>1.58</v>
@@ -10390,7 +10390,7 @@
         <v>1.47</v>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H74" t="n">
         <v>8</v>
@@ -10417,10 +10417,10 @@
         <v>1.33</v>
       </c>
       <c r="P74" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R74" t="n">
         <v>1.36</v>
@@ -10555,13 +10555,13 @@
         <v>2.08</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R75" t="n">
         <v>1.42</v>
       </c>
       <c r="S75" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="T75" t="n">
         <v>1.53</v>
@@ -10657,16 +10657,16 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H76" t="n">
         <v>2.02</v>
       </c>
       <c r="I76" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J76" t="n">
         <v>3.6</v>
@@ -10687,7 +10687,7 @@
         <v>1.31</v>
       </c>
       <c r="P76" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q76" t="n">
         <v>1.87</v>
@@ -10705,10 +10705,10 @@
         <v>2.14</v>
       </c>
       <c r="V76" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W76" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X76" t="n">
         <v>17.5</v>
@@ -10720,7 +10720,7 @@
         <v>15.5</v>
       </c>
       <c r="AA76" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB76" t="n">
         <v>18</v>
@@ -10729,7 +10729,7 @@
         <v>10</v>
       </c>
       <c r="AD76" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE76" t="n">
         <v>26</v>
@@ -10738,13 +10738,13 @@
         <v>38</v>
       </c>
       <c r="AG76" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH76" t="n">
         <v>22</v>
       </c>
       <c r="AI76" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ76" t="n">
         <v>100</v>
@@ -10762,7 +10762,7 @@
         <v>55</v>
       </c>
       <c r="AO76" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -10792,13 +10792,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.09</v>
+        <v>12</v>
       </c>
       <c r="G77" t="n">
         <v>800</v>
       </c>
       <c r="H77" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="I77" t="n">
         <v>1.26</v>
@@ -10816,25 +10816,25 @@
         <v>1.02</v>
       </c>
       <c r="N77" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O77" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P77" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q77" t="n">
         <v>1.3</v>
       </c>
       <c r="R77" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S77" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="T77" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U77" t="n">
         <v>1.72</v>
@@ -10930,10 +10930,10 @@
         <v>2.08</v>
       </c>
       <c r="G78" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I78" t="n">
         <v>4.2</v>
@@ -10978,7 +10978,7 @@
         <v>1.31</v>
       </c>
       <c r="W78" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X78" t="n">
         <v>12.5</v>
@@ -11026,7 +11026,7 @@
         <v>40</v>
       </c>
       <c r="AM78" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN78" t="n">
         <v>17.5</v>
@@ -11089,7 +11089,7 @@
         <v>3.1</v>
       </c>
       <c r="O79" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P79" t="n">
         <v>1.71</v>
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
       </c>
       <c r="H80" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="I80" t="n">
         <v>3.25</v>
       </c>
       <c r="J80" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K80" t="n">
-        <v>980</v>
+        <v>5.6</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
@@ -11221,16 +11221,16 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="O80" t="n">
         <v>1.27</v>
       </c>
       <c r="P80" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R80" t="n">
         <v>1.37</v>
@@ -11245,10 +11245,10 @@
         <v>2.14</v>
       </c>
       <c r="V80" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="W80" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="X80" t="n">
         <v>970</v>
@@ -11341,10 +11341,10 @@
         <v>25</v>
       </c>
       <c r="I81" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J81" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="K81" t="n">
         <v>10.5</v>
@@ -11368,7 +11368,7 @@
         <v>1.52</v>
       </c>
       <c r="R81" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S81" t="n">
         <v>2.38</v>
@@ -11431,10 +11431,10 @@
         <v>70</v>
       </c>
       <c r="AM81" t="n">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="AN81" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AO81" t="n">
         <v>1000</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G82" t="n">
         <v>1.65</v>
@@ -11494,13 +11494,13 @@
         <v>3.35</v>
       </c>
       <c r="O82" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P82" t="n">
         <v>1.81</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R82" t="n">
         <v>1.3</v>
@@ -11509,7 +11509,7 @@
         <v>3.95</v>
       </c>
       <c r="T82" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U82" t="n">
         <v>1.8</v>
@@ -11518,7 +11518,7 @@
         <v>1.15</v>
       </c>
       <c r="W82" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="X82" t="n">
         <v>16</v>
@@ -11602,16 +11602,16 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G83" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H83" t="n">
         <v>4.3</v>
       </c>
       <c r="I83" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J83" t="n">
         <v>3.35</v>
@@ -11626,7 +11626,7 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="O83" t="n">
         <v>1.37</v>
@@ -11647,13 +11647,13 @@
         <v>1.01</v>
       </c>
       <c r="U83" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V83" t="n">
         <v>1.25</v>
       </c>
       <c r="W83" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11743,7 +11743,7 @@
         <v>9</v>
       </c>
       <c r="H84" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="I84" t="n">
         <v>1.71</v>
@@ -11752,7 +11752,7 @@
         <v>4.1</v>
       </c>
       <c r="K84" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L84" t="n">
         <v>1.01</v>
@@ -11761,16 +11761,16 @@
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O84" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P84" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R84" t="n">
         <v>1.51</v>
@@ -12016,13 +12016,13 @@
         <v>1.04</v>
       </c>
       <c r="I86" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="J86" t="n">
         <v>1.01</v>
       </c>
       <c r="K86" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="L86" t="n">
         <v>1.34</v>
@@ -12145,13 +12145,13 @@
         <v>2.04</v>
       </c>
       <c r="G87" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H87" t="n">
         <v>3.85</v>
       </c>
       <c r="I87" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J87" t="n">
         <v>2.98</v>
@@ -12190,10 +12190,10 @@
         <v>1.67</v>
       </c>
       <c r="V87" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W87" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="X87" t="n">
         <v>970</v>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G88" t="n">
         <v>2.18</v>
@@ -12289,10 +12289,10 @@
         <v>3.75</v>
       </c>
       <c r="J88" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K88" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L88" t="n">
         <v>1.36</v>
@@ -12307,10 +12307,10 @@
         <v>1.29</v>
       </c>
       <c r="P88" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R88" t="n">
         <v>1.43</v>
@@ -12319,7 +12319,7 @@
         <v>3.15</v>
       </c>
       <c r="T88" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U88" t="n">
         <v>2.28</v>
@@ -12412,16 +12412,16 @@
         </is>
       </c>
       <c r="F89" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G89" t="n">
         <v>2.88</v>
-      </c>
-      <c r="G89" t="n">
-        <v>2.92</v>
       </c>
       <c r="H89" t="n">
         <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J89" t="n">
         <v>3.05</v>
@@ -12448,7 +12448,7 @@
         <v>2.32</v>
       </c>
       <c r="R89" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S89" t="n">
         <v>4.3</v>
@@ -12463,7 +12463,7 @@
         <v>1.48</v>
       </c>
       <c r="W89" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X89" t="n">
         <v>10</v>
@@ -12547,58 +12547,58 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G90" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H90" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I90" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J90" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K90" t="n">
         <v>3.75</v>
       </c>
       <c r="L90" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M90" t="n">
         <v>1.03</v>
       </c>
       <c r="N90" t="n">
-        <v>1.44</v>
+        <v>2.34</v>
       </c>
       <c r="O90" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P90" t="n">
-        <v>1.44</v>
+        <v>2.34</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="R90" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="S90" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="T90" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="U90" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="V90" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W90" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X90" t="n">
         <v>1000</v>
@@ -12688,16 +12688,16 @@
         <v>2.98</v>
       </c>
       <c r="H91" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I91" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J91" t="n">
         <v>3.1</v>
       </c>
       <c r="K91" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L91" t="n">
         <v>1.52</v>
@@ -12850,7 +12850,7 @@
         <v>1.25</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="G93" t="n">
         <v>2.14</v>
@@ -12961,7 +12961,7 @@
         <v>4.4</v>
       </c>
       <c r="I93" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J93" t="n">
         <v>2.84</v>
@@ -12976,13 +12976,13 @@
         <v>1.01</v>
       </c>
       <c r="N93" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="O93" t="n">
         <v>1.01</v>
       </c>
       <c r="P93" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q93" t="n">
         <v>2.2</v>
@@ -12991,7 +12991,7 @@
         <v>1.18</v>
       </c>
       <c r="S93" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T93" t="n">
         <v>1.01</v>
@@ -13087,16 +13087,16 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G94" t="n">
         <v>3.3</v>
       </c>
       <c r="H94" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="I94" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J94" t="n">
         <v>2.78</v>
@@ -13111,22 +13111,22 @@
         <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>1.4</v>
+        <v>2.32</v>
       </c>
       <c r="O94" t="n">
         <v>1.01</v>
       </c>
       <c r="P94" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R94" t="n">
         <v>1.08</v>
       </c>
       <c r="S94" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T94" t="n">
         <v>1.01</v>
@@ -13135,10 +13135,10 @@
         <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W94" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X94" t="n">
         <v>1000</v>
@@ -13360,10 +13360,10 @@
         <v>2.16</v>
       </c>
       <c r="G96" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H96" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I96" t="n">
         <v>4.1</v>
@@ -13372,7 +13372,7 @@
         <v>3.1</v>
       </c>
       <c r="K96" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L96" t="n">
         <v>1.34</v>
@@ -13381,22 +13381,22 @@
         <v>1.06</v>
       </c>
       <c r="N96" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O96" t="n">
         <v>1.29</v>
       </c>
       <c r="P96" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R96" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S96" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T96" t="n">
         <v>1.65</v>
@@ -13405,7 +13405,7 @@
         <v>2.04</v>
       </c>
       <c r="V96" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W96" t="n">
         <v>1.69</v>
@@ -13447,7 +13447,7 @@
         <v>60</v>
       </c>
       <c r="AJ96" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK96" t="n">
         <v>28</v>
@@ -13495,7 +13495,7 @@
         <v>1.57</v>
       </c>
       <c r="G97" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H97" t="n">
         <v>8</v>
@@ -13504,7 +13504,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J97" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K97" t="n">
         <v>4</v>
@@ -13543,7 +13543,7 @@
         <v>1.12</v>
       </c>
       <c r="W97" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="X97" t="n">
         <v>9.4</v>
@@ -13627,22 +13627,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G98" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H98" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I98" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="J98" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K98" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L98" t="n">
         <v>1.01</v>
@@ -13660,13 +13660,13 @@
         <v>1.67</v>
       </c>
       <c r="Q98" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R98" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S98" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T98" t="n">
         <v>1.01</v>
@@ -13675,10 +13675,10 @@
         <v>1.01</v>
       </c>
       <c r="V98" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W98" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="X98" t="n">
         <v>1000</v>
@@ -13900,7 +13900,7 @@
         <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>4.2</v>
@@ -13930,25 +13930,25 @@
         <v>1.63</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="R100" t="n">
         <v>1.23</v>
       </c>
       <c r="S100" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T100" t="n">
         <v>2.02</v>
       </c>
       <c r="U100" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V100" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W100" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="X100" t="n">
         <v>12</v>
@@ -13960,7 +13960,7 @@
         <v>38</v>
       </c>
       <c r="AA100" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB100" t="n">
         <v>8.4</v>
@@ -13978,7 +13978,7 @@
         <v>13.5</v>
       </c>
       <c r="AG100" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH100" t="n">
         <v>26</v>
@@ -13987,7 +13987,7 @@
         <v>100</v>
       </c>
       <c r="AJ100" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK100" t="n">
         <v>32</v>
@@ -14068,16 +14068,16 @@
         <v>2.56</v>
       </c>
       <c r="R101" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="S101" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="T101" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U101" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="V101" t="n">
         <v>1.23</v>
@@ -14086,7 +14086,7 @@
         <v>1.83</v>
       </c>
       <c r="X101" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y101" t="n">
         <v>17</v>
@@ -14185,7 +14185,7 @@
         <v>4.5</v>
       </c>
       <c r="L102" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M102" t="n">
         <v>1.09</v>
@@ -14197,16 +14197,16 @@
         <v>1.46</v>
       </c>
       <c r="P102" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R102" t="n">
         <v>1.22</v>
       </c>
       <c r="S102" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T102" t="n">
         <v>2.18</v>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G103" t="n">
         <v>2.5</v>
@@ -14323,19 +14323,19 @@
         <v>1.01</v>
       </c>
       <c r="M103" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N103" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O103" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="P103" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="R103" t="n">
         <v>1.24</v>
@@ -14344,10 +14344,10 @@
         <v>4.5</v>
       </c>
       <c r="T103" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U103" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="V103" t="n">
         <v>1.35</v>
@@ -14359,7 +14359,7 @@
         <v>11.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z103" t="n">
         <v>29</v>
@@ -14368,16 +14368,16 @@
         <v>95</v>
       </c>
       <c r="AB103" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC103" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD103" t="n">
         <v>19</v>
       </c>
       <c r="AE103" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF103" t="n">
         <v>16.5</v>
@@ -14398,10 +14398,10 @@
         <v>38</v>
       </c>
       <c r="AL103" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM103" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN103" t="n">
         <v>36</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="I2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.46</v>
+        <v>1.67</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="P2" t="n">
-        <v>2.46</v>
+        <v>1.67</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.39</v>
+        <v>1.13</v>
       </c>
       <c r="R2" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="T2" t="n">
         <v>1.74</v>
@@ -718,7 +718,7 @@
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="H3" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="J3" t="n">
-        <v>2.48</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,88 +826,88 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.09</v>
+        <v>5.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>1.09</v>
+        <v>2.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.05</v>
+        <v>1.61</v>
       </c>
       <c r="S3" t="n">
-        <v>1.21</v>
+        <v>2.12</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -937,82 +937,82 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="H4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.95</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
         <v>1.51</v>
       </c>
       <c r="S4" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
         <v>17.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="n">
         <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
         <v>14.5</v>
@@ -1021,28 +1021,28 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO4" t="n">
         <v>32</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="5">
@@ -1081,10 +1081,10 @@
         <v>2.42</v>
       </c>
       <c r="I5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>4.9</v>
@@ -1102,10 +1102,10 @@
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R5" t="n">
         <v>1.29</v>
@@ -1120,7 +1120,7 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
         <v>1.45</v>
@@ -1219,16 +1219,16 @@
         <v>1.26</v>
       </c>
       <c r="J6" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="K6" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
         <v>5</v>
@@ -1243,19 +1243,19 @@
         <v>1.51</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="S6" t="n">
         <v>2.26</v>
       </c>
       <c r="T6" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="W6" t="n">
         <v>1.05</v>
@@ -1267,7 +1267,7 @@
         <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G7" t="n">
         <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
         <v>2.84</v>
       </c>
       <c r="K7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,25 +1366,25 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q7" t="n">
         <v>2.06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
         <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
         <v>1.84</v>
@@ -1483,7 +1483,7 @@
         <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I8" t="n">
         <v>2.32</v>
@@ -1492,37 +1492,37 @@
         <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
         <v>1.75</v>
@@ -1531,58 +1531,58 @@
         <v>1.32</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -1618,16 +1618,16 @@
         <v>2.16</v>
       </c>
       <c r="H9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,19 +1636,19 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="O9" t="n">
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="S9" t="n">
         <v>2.94</v>
@@ -1750,19 +1750,19 @@
         <v>4.1</v>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
         <v>1.85</v>
       </c>
       <c r="I10" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.27</v>
@@ -1777,25 +1777,25 @@
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q10" t="n">
         <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S10" t="n">
         <v>2.36</v>
       </c>
       <c r="T10" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U10" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W10" t="n">
         <v>1.29</v>
@@ -1807,7 +1807,7 @@
         <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AA10" t="n">
         <v>21</v>
@@ -1831,13 +1831,13 @@
         <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
         <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="n">
         <v>980</v>
@@ -1852,7 +1852,7 @@
         <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>2.42</v>
       </c>
       <c r="G11" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H11" t="n">
         <v>3.05</v>
@@ -1894,7 +1894,7 @@
         <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>3.6</v>
@@ -1921,13 +1921,13 @@
         <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V11" t="n">
         <v>1.44</v>
@@ -2020,10 +2020,10 @@
         <v>1.62</v>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
         <v>7.4</v>
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H13" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.45</v>
       </c>
       <c r="L13" t="n">
         <v>1.49</v>
@@ -2182,7 +2182,7 @@
         <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q13" t="n">
         <v>2.3</v>
@@ -2191,25 +2191,25 @@
         <v>1.28</v>
       </c>
       <c r="S13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
         <v>32</v>
@@ -2218,7 +2218,7 @@
         <v>110</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
@@ -2230,10 +2230,10 @@
         <v>65</v>
       </c>
       <c r="AF13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
@@ -2242,7 +2242,7 @@
         <v>80</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
         <v>24</v>
@@ -2254,7 +2254,7 @@
         <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO13" t="n">
         <v>85</v>
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.31</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>1.87</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R14" t="n">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>1.79</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W14" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="G15" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>6.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,22 +2446,22 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.5</v>
+        <v>2.92</v>
       </c>
       <c r="O15" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="R15" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S15" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,10 +2470,10 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="W15" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2581,7 +2581,7 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
@@ -2599,7 +2599,7 @@
         <v>2.44</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U16" t="n">
         <v>1.01</v>
@@ -2611,7 +2611,7 @@
         <v>2.28</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y16" t="n">
         <v>28</v>
@@ -2623,7 +2623,7 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>13</v>
@@ -2644,7 +2644,7 @@
         <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
         <v>24</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G17" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H17" t="n">
         <v>3.15</v>
@@ -2704,7 +2704,7 @@
         <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
@@ -2722,7 +2722,7 @@
         <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q17" t="n">
         <v>1.61</v>
@@ -2731,13 +2731,13 @@
         <v>1.52</v>
       </c>
       <c r="S17" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T17" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U17" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V17" t="n">
         <v>1.4</v>
@@ -2836,7 +2836,7 @@
         <v>2.22</v>
       </c>
       <c r="I18" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J18" t="n">
         <v>3.8</v>
@@ -2851,7 +2851,7 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
@@ -2863,19 +2863,19 @@
         <v>1.2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="U18" t="n">
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W18" t="n">
         <v>1.43</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G19" t="n">
         <v>2.1</v>
       </c>
-      <c r="G19" t="n">
-        <v>2.16</v>
-      </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -2986,13 +2986,13 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q19" t="n">
         <v>1.94</v>
@@ -3004,16 +3004,16 @@
         <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="n">
         <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
@@ -3022,10 +3022,10 @@
         <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA19" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="n">
         <v>12</v>
@@ -3064,7 +3064,7 @@
         <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AO19" t="n">
         <v>48</v>
@@ -3112,7 +3112,7 @@
         <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
         <v>1.31</v>
@@ -3130,10 +3130,10 @@
         <v>2.42</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R20" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S20" t="n">
         <v>2.62</v>
@@ -3154,7 +3154,7 @@
         <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z20" t="n">
         <v>29</v>
@@ -3172,7 +3172,7 @@
         <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF20" t="n">
         <v>15.5</v>
@@ -3187,7 +3187,7 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
         <v>20</v>
@@ -3238,7 +3238,7 @@
         <v>1.82</v>
       </c>
       <c r="H21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
         <v>5.3</v>
@@ -3274,10 +3274,10 @@
         <v>2.96</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
         <v>1.23</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G22" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H22" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I22" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
@@ -3385,43 +3385,43 @@
         <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
         <v>1.65</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
         <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U22" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="V22" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W22" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="X22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
         <v>11.5</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G23" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="H23" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J23" t="n">
         <v>3.9</v>
@@ -3526,13 +3526,13 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q23" t="n">
         <v>1.61</v>
@@ -3541,19 +3541,19 @@
         <v>1.61</v>
       </c>
       <c r="S23" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U23" t="n">
         <v>2.62</v>
       </c>
       <c r="V23" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W23" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="X23" t="n">
         <v>25</v>
@@ -3562,22 +3562,22 @@
         <v>970</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
         <v>60</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AD23" t="n">
         <v>18</v>
       </c>
       <c r="AE23" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
         <v>20</v>
@@ -3601,13 +3601,13 @@
         <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AN23" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G24" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H24" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I24" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W24" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="G25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J25" t="n">
         <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,19 +3796,19 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="O25" t="n">
         <v>1.32</v>
       </c>
       <c r="P25" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R25" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="S25" t="n">
         <v>2.98</v>
@@ -3823,7 +3823,7 @@
         <v>1.61</v>
       </c>
       <c r="W25" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3913,16 +3913,16 @@
         <v>1.34</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K26" t="n">
         <v>6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>6.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.34</v>
@@ -3937,7 +3937,7 @@
         <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q26" t="n">
         <v>1.73</v>
@@ -3970,7 +3970,7 @@
         <v>120</v>
       </c>
       <c r="AA26" t="n">
-        <v>530</v>
+        <v>650</v>
       </c>
       <c r="AB26" t="n">
         <v>8.4</v>
@@ -3994,19 +3994,19 @@
         <v>34</v>
       </c>
       <c r="AI26" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL26" t="n">
         <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN26" t="n">
         <v>5.3</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>2.08</v>
@@ -4057,7 +4057,7 @@
         <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.49</v>
@@ -4066,22 +4066,22 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.43</v>
       </c>
       <c r="P27" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q27" t="n">
         <v>2.26</v>
       </c>
       <c r="R27" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
         <v>1.99</v>
@@ -4105,7 +4105,7 @@
         <v>36</v>
       </c>
       <c r="AA27" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB27" t="n">
         <v>7.8</v>
@@ -4141,10 +4141,10 @@
         <v>50</v>
       </c>
       <c r="AM27" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>110</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G28" t="n">
         <v>1.64</v>
@@ -4192,40 +4192,40 @@
         <v>4.3</v>
       </c>
       <c r="K28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P28" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q28" t="n">
         <v>1.76</v>
       </c>
       <c r="R28" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S28" t="n">
         <v>2.92</v>
       </c>
       <c r="T28" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U28" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
         <v>2.56</v>
@@ -4315,19 +4315,19 @@
         <v>1.7</v>
       </c>
       <c r="G29" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="H29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I29" t="n">
         <v>6.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L29" t="n">
         <v>1.41</v>
@@ -4339,7 +4339,7 @@
         <v>1.55</v>
       </c>
       <c r="O29" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="P29" t="n">
         <v>1.55</v>
@@ -4363,7 +4363,7 @@
         <v>1.17</v>
       </c>
       <c r="W29" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4450,7 +4450,7 @@
         <v>1.7</v>
       </c>
       <c r="G30" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="H30" t="n">
         <v>6</v>
@@ -4465,13 +4465,13 @@
         <v>3.85</v>
       </c>
       <c r="L30" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M30" t="n">
         <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="O30" t="n">
         <v>1.5</v>
@@ -4480,7 +4480,7 @@
         <v>1.51</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="R30" t="n">
         <v>1.18</v>
@@ -4489,16 +4489,16 @@
         <v>5.2</v>
       </c>
       <c r="T30" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="U30" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V30" t="n">
         <v>1.15</v>
       </c>
       <c r="W30" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X30" t="n">
         <v>10.5</v>
@@ -4510,10 +4510,10 @@
         <v>60</v>
       </c>
       <c r="AA30" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB30" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AC30" t="n">
         <v>8.800000000000001</v>
@@ -4534,7 +4534,7 @@
         <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ30" t="n">
         <v>22</v>
@@ -4543,16 +4543,16 @@
         <v>29</v>
       </c>
       <c r="AL30" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO30" t="n">
         <v>310</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>330</v>
       </c>
     </row>
     <row r="31">
@@ -4597,7 +4597,7 @@
         <v>4.7</v>
       </c>
       <c r="K31" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4609,13 +4609,13 @@
         <v>2.74</v>
       </c>
       <c r="O31" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="P31" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="R31" t="n">
         <v>1.21</v>
@@ -4624,10 +4624,10 @@
         <v>4.7</v>
       </c>
       <c r="T31" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="U31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V31" t="n">
         <v>1.06</v>
@@ -4642,25 +4642,25 @@
         <v>32</v>
       </c>
       <c r="Z31" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
         <v>13.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="n">
         <v>14</v>
@@ -4678,13 +4678,13 @@
         <v>24</v>
       </c>
       <c r="AL31" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="G32" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="J32" t="n">
         <v>2.84</v>
       </c>
       <c r="K32" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="L32" t="n">
         <v>1.47</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="N32" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="O32" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P32" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="S32" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="V32" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W32" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33">
@@ -4999,10 +4999,10 @@
         <v>4.8</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K34" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.45</v>
@@ -5017,10 +5017,10 @@
         <v>1.37</v>
       </c>
       <c r="P34" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R34" t="n">
         <v>1.3</v>
@@ -5038,7 +5038,7 @@
         <v>1.26</v>
       </c>
       <c r="W34" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X34" t="n">
         <v>12</v>
@@ -5050,7 +5050,7 @@
         <v>34</v>
       </c>
       <c r="AA34" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB34" t="n">
         <v>8.4</v>
@@ -5074,7 +5074,7 @@
         <v>19</v>
       </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="n">
         <v>25</v>
@@ -5089,10 +5089,10 @@
         <v>140</v>
       </c>
       <c r="AN34" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H35" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I35" t="n">
         <v>2.88</v>
@@ -5152,7 +5152,7 @@
         <v>1.45</v>
       </c>
       <c r="P35" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q35" t="n">
         <v>2.32</v>
@@ -5164,7 +5164,7 @@
         <v>4.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U35" t="n">
         <v>2</v>
@@ -5266,7 +5266,7 @@
         <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="J36" t="n">
         <v>2.88</v>
@@ -5275,7 +5275,7 @@
         <v>3.7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
@@ -5302,10 +5302,10 @@
         <v>1.79</v>
       </c>
       <c r="U36" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V36" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W36" t="n">
         <v>1.6</v>
@@ -5416,7 +5416,7 @@
         <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O37" t="n">
         <v>1.5</v>
@@ -5425,7 +5425,7 @@
         <v>1.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
@@ -5557,7 +5557,7 @@
         <v>1.48</v>
       </c>
       <c r="P38" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q38" t="n">
         <v>2.5</v>
@@ -5581,7 +5581,7 @@
         <v>1.45</v>
       </c>
       <c r="X38" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y38" t="n">
         <v>8.800000000000001</v>
@@ -5632,7 +5632,7 @@
         <v>50</v>
       </c>
       <c r="AO38" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G39" t="n">
         <v>1.44</v>
@@ -5674,7 +5674,7 @@
         <v>9.4</v>
       </c>
       <c r="J39" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
         <v>5.2</v>
@@ -5686,19 +5686,19 @@
         <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O39" t="n">
         <v>1.26</v>
       </c>
       <c r="P39" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R39" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S39" t="n">
         <v>3.05</v>
@@ -5800,7 +5800,7 @@
         <v>2.72</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H40" t="n">
         <v>2.88</v>
@@ -5818,10 +5818,10 @@
         <v>1.5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O40" t="n">
         <v>1.45</v>
@@ -5830,7 +5830,7 @@
         <v>1.64</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R40" t="n">
         <v>1.23</v>
@@ -5839,16 +5839,16 @@
         <v>4.5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="U40" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="V40" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W40" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X40" t="n">
         <v>11.5</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
         <v>3.1</v>
@@ -5998,7 +5998,7 @@
         <v>34</v>
       </c>
       <c r="AB41" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC41" t="n">
         <v>8</v>
@@ -6136,7 +6136,7 @@
         <v>8.6</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD42" t="n">
         <v>18</v>
@@ -6160,7 +6160,7 @@
         <v>21</v>
       </c>
       <c r="AK42" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL42" t="n">
         <v>36</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G43" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H43" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I43" t="n">
         <v>3.85</v>
       </c>
-      <c r="I43" t="n">
-        <v>3.9</v>
-      </c>
       <c r="J43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K43" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.8</v>
       </c>
       <c r="L43" t="n">
         <v>1.33</v>
@@ -6235,10 +6235,10 @@
         <v>2.34</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R43" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S43" t="n">
         <v>2.8</v>
@@ -6250,10 +6250,10 @@
         <v>2.52</v>
       </c>
       <c r="V43" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W43" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X43" t="n">
         <v>19</v>
@@ -6262,7 +6262,7 @@
         <v>18</v>
       </c>
       <c r="Z43" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA43" t="n">
         <v>70</v>
@@ -6271,7 +6271,7 @@
         <v>12</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD43" t="n">
         <v>15.5</v>
@@ -6307,7 +6307,7 @@
         <v>11.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
@@ -6385,13 +6385,13 @@
         <v>2.3</v>
       </c>
       <c r="V44" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W44" t="n">
         <v>1.35</v>
       </c>
       <c r="X44" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y44" t="n">
         <v>11</v>
@@ -6421,7 +6421,7 @@
         <v>15</v>
       </c>
       <c r="AH44" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI44" t="n">
         <v>32</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G45" t="n">
         <v>2.94</v>
       </c>
       <c r="H45" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K45" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6646,7 +6646,7 @@
         <v>1.43</v>
       </c>
       <c r="S46" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="T46" t="n">
         <v>1.63</v>
@@ -6745,16 +6745,16 @@
         <v>1.16</v>
       </c>
       <c r="G47" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="H47" t="n">
-        <v>1.1</v>
+        <v>20</v>
       </c>
       <c r="I47" t="n">
         <v>30</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K47" t="n">
         <v>11</v>
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
         <v>3.1</v>
       </c>
       <c r="H48" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I48" t="n">
         <v>2.46</v>
@@ -6925,7 +6925,7 @@
         <v>2.78</v>
       </c>
       <c r="V48" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W48" t="n">
         <v>1.48</v>
@@ -6934,7 +6934,7 @@
         <v>23</v>
       </c>
       <c r="Y48" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z48" t="n">
         <v>19.5</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G49" t="n">
         <v>1.31</v>
@@ -7039,25 +7039,25 @@
         <v>5.2</v>
       </c>
       <c r="O49" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P49" t="n">
         <v>2.46</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R49" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S49" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T49" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U49" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V49" t="n">
         <v>1.07</v>
@@ -7069,13 +7069,13 @@
         <v>27</v>
       </c>
       <c r="Y49" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z49" t="n">
         <v>130</v>
       </c>
       <c r="AA49" t="n">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="AB49" t="n">
         <v>10</v>
@@ -7087,7 +7087,7 @@
         <v>48</v>
       </c>
       <c r="AE49" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="AF49" t="n">
         <v>9.800000000000001</v>
@@ -7114,7 +7114,7 @@
         <v>180</v>
       </c>
       <c r="AN49" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AO49" t="n">
         <v>330</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H50" t="n">
         <v>2.36</v>
       </c>
       <c r="I50" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J50" t="n">
         <v>3.45</v>
       </c>
       <c r="K50" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L50" t="n">
         <v>1.33</v>
@@ -7174,10 +7174,10 @@
         <v>4.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P50" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q50" t="n">
         <v>1.87</v>
@@ -7195,10 +7195,10 @@
         <v>2.3</v>
       </c>
       <c r="V50" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W50" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X50" t="n">
         <v>15</v>
@@ -7249,7 +7249,7 @@
         <v>85</v>
       </c>
       <c r="AN50" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO50" t="n">
         <v>16</v>
@@ -7282,16 +7282,16 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G51" t="n">
         <v>1.13</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1.14</v>
       </c>
       <c r="H51" t="n">
         <v>28</v>
       </c>
       <c r="I51" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J51" t="n">
         <v>12.5</v>
@@ -7360,7 +7360,7 @@
         <v>450</v>
       </c>
       <c r="AF51" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG51" t="n">
         <v>15.5</v>
@@ -7381,7 +7381,7 @@
         <v>42</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN51" t="n">
         <v>2.26</v>
@@ -7435,7 +7435,7 @@
         <v>3.4</v>
       </c>
       <c r="L52" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M52" t="n">
         <v>1.09</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="H53" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="I53" t="n">
         <v>1.3</v>
       </c>
       <c r="J53" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7585,7 +7585,7 @@
         <v>2.4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="R53" t="n">
         <v>1.59</v>
@@ -7594,16 +7594,16 @@
         <v>2.18</v>
       </c>
       <c r="T53" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U53" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V53" t="n">
         <v>4.3</v>
       </c>
       <c r="W53" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7687,40 +7687,40 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G54" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H54" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I54" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J54" t="n">
         <v>3.5</v>
       </c>
       <c r="K54" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="O54" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P54" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R54" t="n">
         <v>1.34</v>
@@ -7729,22 +7729,22 @@
         <v>3.35</v>
       </c>
       <c r="T54" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U54" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V54" t="n">
         <v>1.29</v>
       </c>
       <c r="W54" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X54" t="n">
         <v>17</v>
       </c>
       <c r="Y54" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z54" t="n">
         <v>36</v>
@@ -7759,7 +7759,7 @@
         <v>9.6</v>
       </c>
       <c r="AD54" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE54" t="n">
         <v>60</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G55" t="n">
         <v>2.28</v>
@@ -7846,7 +7846,7 @@
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O55" t="n">
         <v>1.34</v>
@@ -7864,16 +7864,16 @@
         <v>3.55</v>
       </c>
       <c r="T55" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U55" t="n">
         <v>2.12</v>
       </c>
       <c r="V55" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W55" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X55" t="n">
         <v>16.5</v>
@@ -7885,7 +7885,7 @@
         <v>29</v>
       </c>
       <c r="AA55" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB55" t="n">
         <v>10.5</v>
@@ -7987,10 +7987,10 @@
         <v>1.36</v>
       </c>
       <c r="P56" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R56" t="n">
         <v>1.29</v>
@@ -7999,10 +7999,10 @@
         <v>3.75</v>
       </c>
       <c r="T56" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="U56" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>1.39</v>
@@ -8020,13 +8020,13 @@
         <v>26</v>
       </c>
       <c r="AA56" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB56" t="n">
         <v>11.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD56" t="n">
         <v>16.5</v>
@@ -8092,10 +8092,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G57" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H57" t="n">
         <v>3.15</v>
@@ -8107,7 +8107,7 @@
         <v>3.6</v>
       </c>
       <c r="K57" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8233,7 +8233,7 @@
         <v>3.7</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I58" t="n">
         <v>2.12</v>
@@ -8275,7 +8275,7 @@
         <v>2.5</v>
       </c>
       <c r="V58" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W58" t="n">
         <v>1.37</v>
@@ -8395,13 +8395,13 @@
         <v>3.55</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R59" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S59" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T59" t="n">
         <v>1.83</v>
@@ -8500,19 +8500,19 @@
         <v>2.06</v>
       </c>
       <c r="G60" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H60" t="n">
         <v>3.7</v>
       </c>
       <c r="I60" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K60" t="n">
         <v>3.95</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4</v>
       </c>
       <c r="L60" t="n">
         <v>1.32</v>
@@ -8533,10 +8533,10 @@
         <v>1.72</v>
       </c>
       <c r="R60" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S60" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T60" t="n">
         <v>1.64</v>
@@ -8545,10 +8545,10 @@
         <v>2.34</v>
       </c>
       <c r="V60" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W60" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="X60" t="n">
         <v>19.5</v>
@@ -8581,7 +8581,7 @@
         <v>10.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI60" t="n">
         <v>46</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="G61" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H61" t="n">
         <v>3.6</v>
       </c>
       <c r="I61" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="J61" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K61" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L61" t="n">
         <v>1.41</v>
@@ -8674,16 +8674,16 @@
         <v>3.2</v>
       </c>
       <c r="T61" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="U61" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V61" t="n">
         <v>1.26</v>
       </c>
       <c r="W61" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G62" t="n">
         <v>2.56</v>
@@ -8776,13 +8776,13 @@
         <v>2.74</v>
       </c>
       <c r="I62" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J62" t="n">
         <v>3.85</v>
       </c>
       <c r="K62" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L62" t="n">
         <v>1.23</v>
@@ -8800,13 +8800,13 @@
         <v>2.56</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R62" t="n">
         <v>1.63</v>
       </c>
       <c r="S62" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="T62" t="n">
         <v>1.5</v>
@@ -8815,7 +8815,7 @@
         <v>2.6</v>
       </c>
       <c r="V62" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W62" t="n">
         <v>1.64</v>
@@ -8905,10 +8905,10 @@
         <v>2.38</v>
       </c>
       <c r="G63" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H63" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I63" t="n">
         <v>3.8</v>
@@ -8917,13 +8917,13 @@
         <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
       </c>
       <c r="M63" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N63" t="n">
         <v>2.72</v>
@@ -8932,7 +8932,7 @@
         <v>1.51</v>
       </c>
       <c r="P63" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q63" t="n">
         <v>2.56</v>
@@ -8944,7 +8944,7 @@
         <v>5.1</v>
       </c>
       <c r="T63" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U63" t="n">
         <v>1.83</v>
@@ -8953,10 +8953,10 @@
         <v>1.36</v>
       </c>
       <c r="W63" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="X63" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y63" t="n">
         <v>12.5</v>
@@ -9073,10 +9073,10 @@
         <v>1.8</v>
       </c>
       <c r="R64" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S64" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T64" t="n">
         <v>1.79</v>
@@ -9181,7 +9181,7 @@
         <v>4.9</v>
       </c>
       <c r="I65" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J65" t="n">
         <v>3.55</v>
@@ -9193,7 +9193,7 @@
         <v>1.44</v>
       </c>
       <c r="M65" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N65" t="n">
         <v>3.45</v>
@@ -9208,7 +9208,7 @@
         <v>2.14</v>
       </c>
       <c r="R65" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S65" t="n">
         <v>3.95</v>
@@ -9325,7 +9325,7 @@
         <v>3.2</v>
       </c>
       <c r="L66" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M66" t="n">
         <v>1.09</v>
@@ -9337,10 +9337,10 @@
         <v>1.41</v>
       </c>
       <c r="P66" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R66" t="n">
         <v>1.29</v>
@@ -9466,16 +9466,16 @@
         <v>1.05</v>
       </c>
       <c r="N67" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O67" t="n">
         <v>1.25</v>
       </c>
       <c r="P67" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R67" t="n">
         <v>1.5</v>
@@ -9484,10 +9484,10 @@
         <v>2.94</v>
       </c>
       <c r="T67" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U67" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V67" t="n">
         <v>1.18</v>
@@ -9496,7 +9496,7 @@
         <v>2.58</v>
       </c>
       <c r="X67" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y67" t="n">
         <v>23</v>
@@ -9529,7 +9529,7 @@
         <v>20</v>
       </c>
       <c r="AI67" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ67" t="n">
         <v>15</v>
@@ -9547,7 +9547,7 @@
         <v>7.4</v>
       </c>
       <c r="AO67" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
@@ -9580,7 +9580,7 @@
         <v>1.97</v>
       </c>
       <c r="G68" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H68" t="n">
         <v>4.1</v>
@@ -9589,7 +9589,7 @@
         <v>4.3</v>
       </c>
       <c r="J68" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K68" t="n">
         <v>3.9</v>
@@ -9601,7 +9601,7 @@
         <v>1.06</v>
       </c>
       <c r="N68" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O68" t="n">
         <v>1.28</v>
@@ -9628,7 +9628,7 @@
         <v>1.3</v>
       </c>
       <c r="W68" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X68" t="n">
         <v>16.5</v>
@@ -9712,13 +9712,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="G69" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="I69" t="n">
         <v>4.9</v>
@@ -9727,7 +9727,7 @@
         <v>2.68</v>
       </c>
       <c r="K69" t="n">
-        <v>4.9</v>
+        <v>7.4</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
@@ -9736,13 +9736,13 @@
         <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O69" t="n">
         <v>1.01</v>
       </c>
       <c r="P69" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q69" t="n">
         <v>2.1</v>
@@ -9763,7 +9763,7 @@
         <v>1.25</v>
       </c>
       <c r="W69" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9847,31 +9847,31 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="G70" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="I70" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="K70" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="L70" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M70" t="n">
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="O70" t="n">
         <v>1.01</v>
@@ -9883,10 +9883,10 @@
         <v>2.32</v>
       </c>
       <c r="R70" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="S70" t="n">
-        <v>2.32</v>
+        <v>4.5</v>
       </c>
       <c r="T70" t="n">
         <v>1.01</v>
@@ -9895,10 +9895,10 @@
         <v>1.01</v>
       </c>
       <c r="V70" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W70" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -9988,19 +9988,19 @@
         <v>2.62</v>
       </c>
       <c r="H71" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I71" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J71" t="n">
         <v>3.05</v>
       </c>
       <c r="K71" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L71" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M71" t="n">
         <v>1.08</v>
@@ -10012,10 +10012,10 @@
         <v>1.4</v>
       </c>
       <c r="P71" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R71" t="n">
         <v>1.26</v>
@@ -10024,13 +10024,13 @@
         <v>3.85</v>
       </c>
       <c r="T71" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="U71" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="V71" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W71" t="n">
         <v>1.63</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G72" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H72" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I72" t="n">
         <v>3.7</v>
       </c>
       <c r="J72" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K72" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -10141,16 +10141,16 @@
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="O72" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P72" t="n">
         <v>1.9</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R72" t="n">
         <v>1.37</v>
@@ -10168,7 +10168,7 @@
         <v>1.37</v>
       </c>
       <c r="W72" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
@@ -10270,16 +10270,16 @@
         <v>3.3</v>
       </c>
       <c r="L73" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M73" t="n">
         <v>1.13</v>
       </c>
       <c r="N73" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O73" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P73" t="n">
         <v>1.57</v>
@@ -10291,13 +10291,13 @@
         <v>1.2</v>
       </c>
       <c r="S73" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="T73" t="n">
         <v>2.22</v>
       </c>
       <c r="U73" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V73" t="n">
         <v>1.27</v>
@@ -10324,7 +10324,7 @@
         <v>7.4</v>
       </c>
       <c r="AD73" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE73" t="n">
         <v>80</v>
@@ -10339,7 +10339,7 @@
         <v>25</v>
       </c>
       <c r="AI73" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="n">
         <v>25</v>
@@ -10423,7 +10423,7 @@
         <v>1.92</v>
       </c>
       <c r="R74" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S74" t="n">
         <v>3.4</v>
@@ -10576,58 +10576,58 @@
         <v>1.89</v>
       </c>
       <c r="X75" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y75" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z75" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA75" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB75" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC75" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE75" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF75" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH75" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI75" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK75" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL75" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM75" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN75" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO75" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76">
@@ -10657,22 +10657,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G76" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H76" t="n">
         <v>2.02</v>
       </c>
       <c r="I76" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="J76" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K76" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L76" t="n">
         <v>1.41</v>
@@ -10681,10 +10681,10 @@
         <v>1.07</v>
       </c>
       <c r="N76" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O76" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P76" t="n">
         <v>2.02</v>
@@ -10693,7 +10693,7 @@
         <v>1.87</v>
       </c>
       <c r="R76" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="S76" t="n">
         <v>3.35</v>
@@ -10705,46 +10705,46 @@
         <v>2.14</v>
       </c>
       <c r="V76" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W76" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X76" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z76" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA76" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB76" t="n">
         <v>18</v>
       </c>
       <c r="AC76" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD76" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE76" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF76" t="n">
         <v>38</v>
       </c>
       <c r="AG76" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH76" t="n">
         <v>20</v>
       </c>
-      <c r="AH76" t="n">
-        <v>22</v>
-      </c>
       <c r="AI76" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ76" t="n">
         <v>100</v>
@@ -10756,7 +10756,7 @@
         <v>60</v>
       </c>
       <c r="AM76" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN76" t="n">
         <v>55</v>
@@ -10822,7 +10822,7 @@
         <v>1.1</v>
       </c>
       <c r="P77" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="Q77" t="n">
         <v>1.3</v>
@@ -10837,7 +10837,7 @@
         <v>1.89</v>
       </c>
       <c r="U77" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="V77" t="n">
         <v>4.8</v>
@@ -10927,10 +10927,10 @@
         </is>
       </c>
       <c r="F78" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G78" t="n">
         <v>2.08</v>
-      </c>
-      <c r="G78" t="n">
-        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>4.1</v>
@@ -10957,10 +10957,10 @@
         <v>1.37</v>
       </c>
       <c r="P78" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R78" t="n">
         <v>1.32</v>
@@ -10978,7 +10978,7 @@
         <v>1.31</v>
       </c>
       <c r="W78" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X78" t="n">
         <v>12.5</v>
@@ -11014,7 +11014,7 @@
         <v>19.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ78" t="n">
         <v>25</v>
@@ -11023,10 +11023,10 @@
         <v>23</v>
       </c>
       <c r="AL78" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM78" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN78" t="n">
         <v>17.5</v>
@@ -11068,7 +11068,7 @@
         <v>7</v>
       </c>
       <c r="H79" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I79" t="n">
         <v>1.77</v>
@@ -11095,13 +11095,13 @@
         <v>1.71</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R79" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S79" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T79" t="n">
         <v>2.12</v>
@@ -11110,13 +11110,13 @@
         <v>1.77</v>
       </c>
       <c r="V79" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="W79" t="n">
         <v>1.16</v>
       </c>
       <c r="X79" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y79" t="n">
         <v>970</v>
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H80" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I80" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J80" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K80" t="n">
-        <v>5.6</v>
+        <v>980</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
@@ -11239,16 +11239,16 @@
         <v>2.64</v>
       </c>
       <c r="T80" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="U80" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="V80" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W80" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X80" t="n">
         <v>970</v>
@@ -11365,7 +11365,7 @@
         <v>2.64</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R81" t="n">
         <v>1.65</v>
@@ -11377,7 +11377,7 @@
         <v>2.74</v>
       </c>
       <c r="U81" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="V81" t="n">
         <v>1.03</v>
@@ -11473,7 +11473,7 @@
         <v>1.65</v>
       </c>
       <c r="H82" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I82" t="n">
         <v>7.6</v>
@@ -11500,13 +11500,13 @@
         <v>1.81</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R82" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S82" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T82" t="n">
         <v>2.12</v>
@@ -11563,7 +11563,7 @@
         <v>20</v>
       </c>
       <c r="AL82" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM82" t="n">
         <v>210</v>
@@ -11623,31 +11623,31 @@
         <v>1.01</v>
       </c>
       <c r="M83" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="O83" t="n">
         <v>1.37</v>
       </c>
       <c r="P83" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Q83" t="n">
         <v>2</v>
       </c>
       <c r="R83" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S83" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="T83" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U83" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="V83" t="n">
         <v>1.25</v>
@@ -11656,58 +11656,58 @@
         <v>1.94</v>
       </c>
       <c r="X83" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y83" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA83" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB83" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC83" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD83" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE83" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF83" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG83" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH83" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI83" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ83" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK83" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL83" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM83" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN83" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO83" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84">
@@ -11779,7 +11779,7 @@
         <v>2.2</v>
       </c>
       <c r="T84" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U84" t="n">
         <v>1.01</v>
@@ -12145,25 +12145,25 @@
         <v>2.04</v>
       </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="H87" t="n">
         <v>3.85</v>
       </c>
       <c r="I87" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J87" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K87" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L87" t="n">
         <v>1.48</v>
       </c>
       <c r="M87" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N87" t="n">
         <v>2.62</v>
@@ -12175,13 +12175,13 @@
         <v>1.54</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="R87" t="n">
         <v>1.19</v>
       </c>
       <c r="S87" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T87" t="n">
         <v>1.98</v>
@@ -12190,10 +12190,10 @@
         <v>1.67</v>
       </c>
       <c r="V87" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W87" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="X87" t="n">
         <v>970</v>
@@ -12415,7 +12415,7 @@
         <v>2.86</v>
       </c>
       <c r="G89" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H89" t="n">
         <v>3</v>
@@ -12433,13 +12433,13 @@
         <v>1.5</v>
       </c>
       <c r="M89" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N89" t="n">
         <v>3.25</v>
       </c>
       <c r="O89" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P89" t="n">
         <v>1.74</v>
@@ -12448,13 +12448,13 @@
         <v>2.32</v>
       </c>
       <c r="R89" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S89" t="n">
         <v>4.3</v>
       </c>
       <c r="T89" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U89" t="n">
         <v>2.04</v>
@@ -12463,7 +12463,7 @@
         <v>1.48</v>
       </c>
       <c r="W89" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X89" t="n">
         <v>10</v>
@@ -12547,16 +12547,16 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G90" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H90" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I90" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J90" t="n">
         <v>3.7</v>
@@ -12568,28 +12568,28 @@
         <v>1.29</v>
       </c>
       <c r="M90" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>2.34</v>
+        <v>4.9</v>
       </c>
       <c r="O90" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P90" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="R90" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="S90" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="T90" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="U90" t="n">
         <v>2.46</v>
@@ -12598,61 +12598,61 @@
         <v>1.4</v>
       </c>
       <c r="W90" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X90" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y90" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z90" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA90" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB90" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC90" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF90" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG90" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH90" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI90" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ90" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK90" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL90" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM90" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN90" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO90" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
@@ -12682,22 +12682,22 @@
         </is>
       </c>
       <c r="F91" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G91" t="n">
         <v>2.94</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>2.98</v>
       </c>
-      <c r="H91" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I91" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
         <v>3.1</v>
       </c>
       <c r="K91" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L91" t="n">
         <v>1.52</v>
@@ -12706,16 +12706,16 @@
         <v>1.11</v>
       </c>
       <c r="N91" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O91" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P91" t="n">
         <v>1.67</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R91" t="n">
         <v>1.25</v>
@@ -12730,16 +12730,16 @@
         <v>1.96</v>
       </c>
       <c r="V91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W91" t="n">
         <v>1.51</v>
-      </c>
-      <c r="W91" t="n">
-        <v>1.5</v>
       </c>
       <c r="X91" t="n">
         <v>9.4</v>
       </c>
       <c r="Y91" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z91" t="n">
         <v>17.5</v>
@@ -12847,10 +12847,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>1.25</v>
+        <v>1.92</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12997,7 +12997,7 @@
         <v>1.01</v>
       </c>
       <c r="U93" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V93" t="n">
         <v>1.16</v>
@@ -13360,19 +13360,19 @@
         <v>2.16</v>
       </c>
       <c r="G96" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H96" t="n">
         <v>3.4</v>
       </c>
       <c r="I96" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K96" t="n">
         <v>4.1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K96" t="n">
-        <v>4</v>
       </c>
       <c r="L96" t="n">
         <v>1.34</v>
@@ -13396,7 +13396,7 @@
         <v>1.36</v>
       </c>
       <c r="S96" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T96" t="n">
         <v>1.65</v>
@@ -13405,10 +13405,10 @@
         <v>2.04</v>
       </c>
       <c r="V96" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W96" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X96" t="n">
         <v>970</v>
@@ -13453,7 +13453,7 @@
         <v>28</v>
       </c>
       <c r="AL96" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM96" t="n">
         <v>110</v>
@@ -13462,7 +13462,7 @@
         <v>21</v>
       </c>
       <c r="AO96" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97">
@@ -13516,7 +13516,7 @@
         <v>1.12</v>
       </c>
       <c r="N97" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O97" t="n">
         <v>1.53</v>
@@ -13627,19 +13627,19 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G98" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>4.5</v>
       </c>
       <c r="I98" t="n">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="J98" t="n">
-        <v>3.25</v>
+        <v>1.09</v>
       </c>
       <c r="K98" t="n">
         <v>3.95</v>
@@ -13651,22 +13651,22 @@
         <v>1.01</v>
       </c>
       <c r="N98" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="O98" t="n">
         <v>1.37</v>
       </c>
       <c r="P98" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q98" t="n">
         <v>2.02</v>
       </c>
       <c r="R98" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S98" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T98" t="n">
         <v>1.01</v>
@@ -13675,10 +13675,10 @@
         <v>1.01</v>
       </c>
       <c r="V98" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W98" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X98" t="n">
         <v>1000</v>
@@ -13900,7 +13900,7 @@
         <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="H100" t="n">
         <v>4.2</v>
@@ -13915,7 +13915,7 @@
         <v>3.85</v>
       </c>
       <c r="L100" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="M100" t="n">
         <v>1.1</v>
@@ -13927,28 +13927,28 @@
         <v>1.45</v>
       </c>
       <c r="P100" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="R100" t="n">
         <v>1.23</v>
       </c>
       <c r="S100" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="T100" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="U100" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="V100" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W100" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X100" t="n">
         <v>12</v>
@@ -13960,7 +13960,7 @@
         <v>38</v>
       </c>
       <c r="AA100" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB100" t="n">
         <v>8.4</v>
@@ -13975,10 +13975,10 @@
         <v>85</v>
       </c>
       <c r="AF100" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG100" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH100" t="n">
         <v>26</v>
@@ -13987,7 +13987,7 @@
         <v>100</v>
       </c>
       <c r="AJ100" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK100" t="n">
         <v>32</v>
@@ -13999,7 +13999,7 @@
         <v>190</v>
       </c>
       <c r="AN100" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO100" t="n">
         <v>120</v>
@@ -14032,13 +14032,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G101" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="H101" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I101" t="n">
         <v>5.2</v>
@@ -14053,19 +14053,19 @@
         <v>1.01</v>
       </c>
       <c r="M101" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N101" t="n">
-        <v>1.47</v>
+        <v>2.4</v>
       </c>
       <c r="O101" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="P101" t="n">
         <v>1.47</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="R101" t="n">
         <v>1.16</v>
@@ -14074,19 +14074,19 @@
         <v>6.2</v>
       </c>
       <c r="T101" t="n">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="U101" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="V101" t="n">
         <v>1.23</v>
       </c>
       <c r="W101" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X101" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y101" t="n">
         <v>17</v>
@@ -14170,7 +14170,7 @@
         <v>1.51</v>
       </c>
       <c r="G102" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H102" t="n">
         <v>8.6</v>
@@ -14188,7 +14188,7 @@
         <v>1.5</v>
       </c>
       <c r="M102" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N102" t="n">
         <v>2.9</v>
@@ -14197,10 +14197,10 @@
         <v>1.46</v>
       </c>
       <c r="P102" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R102" t="n">
         <v>1.22</v>
@@ -14209,16 +14209,16 @@
         <v>4.5</v>
       </c>
       <c r="T102" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="U102" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="V102" t="n">
         <v>1.1</v>
       </c>
       <c r="W102" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="X102" t="n">
         <v>11.5</v>
@@ -14302,112 +14302,112 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G103" t="n">
         <v>2.5</v>
       </c>
       <c r="H103" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I103" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J103" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K103" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L103" t="n">
         <v>1.01</v>
       </c>
       <c r="M103" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N103" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O103" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="P103" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V103" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W103" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q103" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R103" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S103" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T103" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U103" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V103" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W103" t="n">
-        <v>1.66</v>
-      </c>
       <c r="X103" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z103" t="n">
         <v>29</v>
       </c>
       <c r="AA103" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AB103" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="AC103" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD103" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE103" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI103" t="n">
         <v>60</v>
       </c>
-      <c r="AF103" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ103" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK103" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL103" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM103" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN103" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AO103" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="H2" t="n">
         <v>7.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="J2" t="n">
         <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -700,7 +700,7 @@
         <v>1.67</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="R2" t="n">
         <v>1.67</v>
@@ -718,7 +718,7 @@
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G3" t="n">
         <v>2.32</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
         <v>3.95</v>
@@ -817,10 +817,10 @@
         <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -844,10 +844,10 @@
         <v>2.12</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U3" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="V3" t="n">
         <v>1.34</v>
@@ -952,25 +952,25 @@
         <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R4" t="n">
         <v>1.51</v>
@@ -991,7 +991,7 @@
         <v>1.88</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>17.5</v>
@@ -1000,7 +1000,7 @@
         <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
         <v>12.5</v>
@@ -1042,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1084,10 +1084,10 @@
         <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="S5" t="n">
-        <v>2.94</v>
+        <v>1.86</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1216,7 +1216,7 @@
         <v>1.21</v>
       </c>
       <c r="I6" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="J6" t="n">
         <v>6.2</v>
@@ -1225,7 +1225,7 @@
         <v>13.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1357,7 +1357,7 @@
         <v>2.84</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1492,10 +1492,10 @@
         <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1519,10 +1519,10 @@
         <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>1.75</v>
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G9" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>1.93</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.28</v>
@@ -1648,76 +1648,76 @@
         <v>1.77</v>
       </c>
       <c r="R9" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
         <v>2.94</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1753,7 +1753,7 @@
         <v>4.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I10" t="n">
         <v>1.89</v>
@@ -1765,7 +1765,7 @@
         <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1777,13 +1777,13 @@
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
         <v>2.36</v>
@@ -1792,7 +1792,7 @@
         <v>1.59</v>
       </c>
       <c r="U10" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V10" t="n">
         <v>2.12</v>
@@ -1816,13 +1816,13 @@
         <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF10" t="n">
         <v>980</v>
@@ -1831,10 +1831,10 @@
         <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
         <v>100</v>
@@ -1852,7 +1852,7 @@
         <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1927,7 +1927,7 @@
         <v>1.65</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
         <v>1.44</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I12" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H13" t="n">
         <v>4.4</v>
@@ -2170,40 +2170,40 @@
         <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U13" t="n">
         <v>1.94</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -2218,7 +2218,7 @@
         <v>110</v>
       </c>
       <c r="AB13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
@@ -2245,16 +2245,16 @@
         <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>85</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G14" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H14" t="n">
         <v>4.9</v>
@@ -2302,7 +2302,7 @@
         <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.31</v>
@@ -2338,19 +2338,19 @@
         <v>1.19</v>
       </c>
       <c r="W14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X14" t="n">
         <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA14" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB14" t="n">
         <v>11</v>
@@ -2374,7 +2374,7 @@
         <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
@@ -2392,7 +2392,7 @@
         <v>13</v>
       </c>
       <c r="AO14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -2425,13 +2425,13 @@
         <v>1.64</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H15" t="n">
         <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2446,22 +2446,22 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="O15" t="n">
         <v>1.42</v>
       </c>
       <c r="P15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.09</v>
-      </c>
       <c r="S15" t="n">
-        <v>2.04</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,10 +2470,10 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W15" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2575,10 +2575,10 @@
         <v>4.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>4.5</v>
@@ -2587,22 +2587,22 @@
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
         <v>1.2</v>
@@ -2611,58 +2611,58 @@
         <v>2.28</v>
       </c>
       <c r="X16" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z16" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AF16" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H17" t="n">
         <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
         <v>3.7</v>
@@ -2731,7 +2731,7 @@
         <v>1.52</v>
       </c>
       <c r="S17" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="T17" t="n">
         <v>1.58</v>
@@ -2740,10 +2740,10 @@
         <v>2.44</v>
       </c>
       <c r="V17" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W17" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X17" t="n">
         <v>980</v>
@@ -2755,7 +2755,7 @@
         <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
         <v>1000</v>
@@ -2833,7 +2833,7 @@
         <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I18" t="n">
         <v>2.44</v>
@@ -2842,34 +2842,34 @@
         <v>3.8</v>
       </c>
       <c r="K18" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>1.02</v>
+        <v>5.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="S18" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="T18" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
         <v>1.01</v>
@@ -2878,7 +2878,7 @@
         <v>1.69</v>
       </c>
       <c r="W18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2917,16 +2917,16 @@
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
@@ -2965,7 +2965,7 @@
         <v>2.06</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H19" t="n">
         <v>4.1</v>
@@ -2980,19 +2980,19 @@
         <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O19" t="n">
         <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q19" t="n">
         <v>1.94</v>
@@ -3001,19 +3001,19 @@
         <v>1.39</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
         <v>1.8</v>
       </c>
       <c r="U19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V19" t="n">
         <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
@@ -3031,13 +3031,13 @@
         <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>16.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF19" t="n">
         <v>13</v>
@@ -3049,7 +3049,7 @@
         <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ19" t="n">
         <v>26</v>
@@ -3064,10 +3064,10 @@
         <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -3100,7 +3100,7 @@
         <v>2.08</v>
       </c>
       <c r="G20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
@@ -3112,10 +3112,10 @@
         <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3130,13 +3130,13 @@
         <v>2.42</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S20" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T20" t="n">
         <v>1.6</v>
@@ -3148,13 +3148,13 @@
         <v>1.35</v>
       </c>
       <c r="W20" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X20" t="n">
         <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z20" t="n">
         <v>29</v>
@@ -3241,7 +3241,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J21" t="n">
         <v>3.95</v>
@@ -3280,37 +3280,37 @@
         <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W21" t="n">
         <v>2.2</v>
       </c>
       <c r="X21" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="n">
         <v>42</v>
       </c>
       <c r="AA21" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
         <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
         <v>9.800000000000001</v>
@@ -3322,22 +3322,22 @@
         <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL21" t="n">
         <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN21" t="n">
         <v>10.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G22" t="n">
         <v>3.05</v>
@@ -3376,7 +3376,7 @@
         <v>2.84</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
@@ -3388,13 +3388,13 @@
         <v>1.49</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
         <v>2.92</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P22" t="n">
         <v>1.65</v>
@@ -3406,22 +3406,22 @@
         <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U22" t="n">
         <v>1.81</v>
       </c>
       <c r="V22" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W22" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Y22" t="n">
         <v>11.5</v>
@@ -3508,16 +3508,16 @@
         <v>2.24</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J23" t="n">
         <v>3.9</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
         <v>1.28</v>
@@ -3526,22 +3526,22 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="R23" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="S23" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T23" t="n">
         <v>1.56</v>
@@ -3550,28 +3550,28 @@
         <v>2.62</v>
       </c>
       <c r="V23" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W23" t="n">
         <v>1.81</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
         <v>970</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
         <v>16.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
         <v>18</v>
@@ -3589,7 +3589,7 @@
         <v>970</v>
       </c>
       <c r="AI23" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AJ23" t="n">
         <v>28</v>
@@ -3601,13 +3601,13 @@
         <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN23" t="n">
-        <v>11.5</v>
+        <v>110</v>
       </c>
       <c r="AO23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -3673,10 +3673,10 @@
         <v>1.56</v>
       </c>
       <c r="R24" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S24" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3784,7 +3784,7 @@
         <v>2.62</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
         <v>5.8</v>
@@ -3796,22 +3796,22 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="O25" t="n">
         <v>1.32</v>
       </c>
       <c r="P25" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R25" t="n">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="T25" t="n">
         <v>1.63</v>
@@ -3910,7 +3910,7 @@
         <v>1.32</v>
       </c>
       <c r="G26" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H26" t="n">
         <v>12.5</v>
@@ -3922,34 +3922,34 @@
         <v>5.9</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R26" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S26" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="T26" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U26" t="n">
         <v>1.78</v>
@@ -3970,7 +3970,7 @@
         <v>120</v>
       </c>
       <c r="AA26" t="n">
-        <v>650</v>
+        <v>530</v>
       </c>
       <c r="AB26" t="n">
         <v>8.4</v>
@@ -3994,7 +3994,7 @@
         <v>34</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ26" t="n">
         <v>9.800000000000001</v>
@@ -4006,13 +4006,13 @@
         <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO26" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G27" t="n">
         <v>2.08</v>
@@ -4054,7 +4054,7 @@
         <v>4.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
         <v>3.6</v>
@@ -4066,25 +4066,25 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R27" t="n">
         <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="U27" t="n">
         <v>1.89</v>
@@ -4093,7 +4093,7 @@
         <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X27" t="n">
         <v>13</v>
@@ -4102,7 +4102,7 @@
         <v>14</v>
       </c>
       <c r="Z27" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="n">
         <v>130</v>
@@ -4117,7 +4117,7 @@
         <v>19.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF27" t="n">
         <v>12.5</v>
@@ -4126,16 +4126,16 @@
         <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>95</v>
       </c>
       <c r="AJ27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
         <v>50</v>
@@ -4213,7 +4213,7 @@
         <v>1.76</v>
       </c>
       <c r="R28" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S28" t="n">
         <v>2.92</v>
@@ -4234,7 +4234,7 @@
         <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z28" t="n">
         <v>55</v>
@@ -4246,7 +4246,7 @@
         <v>9.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD28" t="n">
         <v>26</v>
@@ -4264,7 +4264,7 @@
         <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="n">
         <v>16</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G29" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="H29" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="I29" t="n">
         <v>6.8</v>
@@ -4327,97 +4327,97 @@
         <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="L29" t="n">
         <v>1.41</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>1.55</v>
+        <v>2.78</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P29" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="R29" t="n">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>2.16</v>
+        <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V29" t="n">
         <v>1.17</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="G30" t="n">
         <v>1.86</v>
@@ -4465,7 +4465,7 @@
         <v>3.85</v>
       </c>
       <c r="L30" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M30" t="n">
         <v>1.12</v>
@@ -4489,7 +4489,7 @@
         <v>5.2</v>
       </c>
       <c r="T30" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U30" t="n">
         <v>1.62</v>
@@ -4519,7 +4519,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE30" t="n">
         <v>170</v>
@@ -4528,19 +4528,19 @@
         <v>9.6</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI30" t="n">
         <v>180</v>
       </c>
       <c r="AJ30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL30" t="n">
         <v>65</v>
@@ -4549,7 +4549,7 @@
         <v>290</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
         <v>310</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G31" t="n">
         <v>1.4</v>
       </c>
       <c r="H31" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="I31" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="J31" t="n">
         <v>4.7</v>
@@ -4600,28 +4600,28 @@
         <v>5.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="O31" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="P31" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="R31" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S31" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="T31" t="n">
         <v>2.88</v>
@@ -4642,13 +4642,13 @@
         <v>32</v>
       </c>
       <c r="Z31" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC31" t="n">
         <v>13.5</v>
@@ -4669,7 +4669,7 @@
         <v>65</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AJ31" t="n">
         <v>11.5</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G32" t="n">
         <v>2.26</v>
@@ -4732,28 +4732,28 @@
         <v>2.84</v>
       </c>
       <c r="K32" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L32" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="M32" t="n">
         <v>1.12</v>
       </c>
       <c r="N32" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P32" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q32" t="n">
         <v>2.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
         <v>5.2</v>
@@ -4762,10 +4762,10 @@
         <v>2</v>
       </c>
       <c r="U32" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="V32" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W32" t="n">
         <v>1.79</v>
@@ -4777,10 +4777,10 @@
         <v>14.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA32" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB32" t="n">
         <v>7.8</v>
@@ -4789,10 +4789,10 @@
         <v>9</v>
       </c>
       <c r="AD32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF32" t="n">
         <v>14</v>
@@ -4801,28 +4801,28 @@
         <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI32" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ32" t="n">
         <v>34</v>
       </c>
       <c r="AK32" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL32" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM32" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AN32" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO32" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33">
@@ -4891,7 +4891,7 @@
         <v>1.08</v>
       </c>
       <c r="S33" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4990,7 +4990,7 @@
         <v>2.04</v>
       </c>
       <c r="G34" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H34" t="n">
         <v>4.3</v>
@@ -5020,13 +5020,13 @@
         <v>1.78</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R34" t="n">
         <v>1.3</v>
       </c>
       <c r="S34" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T34" t="n">
         <v>1.86</v>
@@ -5038,7 +5038,7 @@
         <v>1.26</v>
       </c>
       <c r="W34" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X34" t="n">
         <v>12</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G35" t="n">
         <v>3.05</v>
@@ -5137,10 +5137,10 @@
         <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
@@ -5152,7 +5152,7 @@
         <v>1.45</v>
       </c>
       <c r="P35" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q35" t="n">
         <v>2.32</v>
@@ -5164,7 +5164,7 @@
         <v>4.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U35" t="n">
         <v>2</v>
@@ -5263,19 +5263,19 @@
         <v>2.64</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J36" t="n">
         <v>2.88</v>
       </c>
       <c r="K36" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L36" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
@@ -5299,7 +5299,7 @@
         <v>3.9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="U36" t="n">
         <v>1.85</v>
@@ -5311,7 +5311,7 @@
         <v>1.6</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y36" t="n">
         <v>13</v>
@@ -5332,7 +5332,7 @@
         <v>970</v>
       </c>
       <c r="AE36" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF36" t="n">
         <v>970</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G37" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H37" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I37" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J37" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
         <v>3.25</v>
@@ -5422,10 +5422,10 @@
         <v>1.5</v>
       </c>
       <c r="P37" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
@@ -5443,13 +5443,13 @@
         <v>1.27</v>
       </c>
       <c r="W37" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="X37" t="n">
         <v>10.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z37" t="n">
         <v>34</v>
@@ -5461,13 +5461,13 @@
         <v>7.4</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF37" t="n">
         <v>12</v>
@@ -5479,7 +5479,7 @@
         <v>24</v>
       </c>
       <c r="AI37" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="n">
         <v>28</v>
@@ -5491,7 +5491,7 @@
         <v>55</v>
       </c>
       <c r="AM37" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN37" t="n">
         <v>25</v>
@@ -5536,7 +5536,7 @@
         <v>2.72</v>
       </c>
       <c r="I38" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J38" t="n">
         <v>3.1</v>
@@ -5566,7 +5566,7 @@
         <v>1.23</v>
       </c>
       <c r="S38" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T38" t="n">
         <v>2.02</v>
@@ -5575,7 +5575,7 @@
         <v>1.94</v>
       </c>
       <c r="V38" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W38" t="n">
         <v>1.45</v>
@@ -5593,7 +5593,7 @@
         <v>40</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC38" t="n">
         <v>6.8</v>
@@ -5665,13 +5665,13 @@
         <v>1.43</v>
       </c>
       <c r="G39" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H39" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J39" t="n">
         <v>5</v>
@@ -5698,13 +5698,13 @@
         <v>1.83</v>
       </c>
       <c r="R39" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S39" t="n">
         <v>3.05</v>
       </c>
       <c r="T39" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U39" t="n">
         <v>1.89</v>
@@ -5713,7 +5713,7 @@
         <v>1.11</v>
       </c>
       <c r="W39" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="X39" t="n">
         <v>18</v>
@@ -5728,7 +5728,7 @@
         <v>330</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC39" t="n">
         <v>11</v>
@@ -5746,7 +5746,7 @@
         <v>10</v>
       </c>
       <c r="AH39" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI39" t="n">
         <v>130</v>
@@ -5797,40 +5797,40 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G40" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H40" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I40" t="n">
         <v>3.15</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K40" t="n">
         <v>3.2</v>
       </c>
       <c r="L40" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M40" t="n">
         <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="O40" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P40" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R40" t="n">
         <v>1.23</v>
@@ -5839,7 +5839,7 @@
         <v>4.5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U40" t="n">
         <v>1.9</v>
@@ -5872,7 +5872,7 @@
         <v>15.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF40" t="n">
         <v>21</v>
@@ -5902,7 +5902,7 @@
         <v>42</v>
       </c>
       <c r="AO40" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
@@ -5941,7 +5941,7 @@
         <v>2.48</v>
       </c>
       <c r="I41" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="J41" t="n">
         <v>3.55</v>
@@ -5950,7 +5950,7 @@
         <v>3.65</v>
       </c>
       <c r="L41" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M41" t="n">
         <v>1.06</v>
@@ -5965,7 +5965,7 @@
         <v>2.08</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R41" t="n">
         <v>1.43</v>
@@ -5974,13 +5974,13 @@
         <v>3.15</v>
       </c>
       <c r="T41" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U41" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V41" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W41" t="n">
         <v>1.47</v>
@@ -5995,7 +5995,7 @@
         <v>16.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB41" t="n">
         <v>13.5</v>
@@ -6007,7 +6007,7 @@
         <v>11.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF41" t="n">
         <v>21</v>
@@ -6028,7 +6028,7 @@
         <v>32</v>
       </c>
       <c r="AL41" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM41" t="n">
         <v>80</v>
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G42" t="n">
         <v>1.92</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1.93</v>
       </c>
       <c r="H42" t="n">
         <v>4.6</v>
       </c>
       <c r="I42" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J42" t="n">
         <v>3.75</v>
@@ -6088,7 +6088,7 @@
         <v>1.43</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
         <v>3.85</v>
@@ -6097,7 +6097,7 @@
         <v>1.34</v>
       </c>
       <c r="P42" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q42" t="n">
         <v>2.02</v>
@@ -6115,10 +6115,10 @@
         <v>2.08</v>
       </c>
       <c r="V42" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W42" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X42" t="n">
         <v>13.5</v>
@@ -6139,7 +6139,7 @@
         <v>8</v>
       </c>
       <c r="AD42" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE42" t="n">
         <v>60</v>
@@ -6148,7 +6148,7 @@
         <v>11</v>
       </c>
       <c r="AG42" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH42" t="n">
         <v>19</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="F43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G43" t="n">
         <v>2.12</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2.16</v>
       </c>
       <c r="H43" t="n">
         <v>3.8</v>
@@ -6214,37 +6214,37 @@
         <v>3.85</v>
       </c>
       <c r="J43" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K43" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L43" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M43" t="n">
         <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O43" t="n">
         <v>1.24</v>
       </c>
       <c r="P43" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q43" t="n">
         <v>1.73</v>
       </c>
       <c r="R43" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S43" t="n">
         <v>2.8</v>
       </c>
       <c r="T43" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U43" t="n">
         <v>2.52</v>
@@ -6253,7 +6253,7 @@
         <v>1.35</v>
       </c>
       <c r="W43" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="X43" t="n">
         <v>19</v>
@@ -6277,7 +6277,7 @@
         <v>15.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF43" t="n">
         <v>14.5</v>
@@ -6286,7 +6286,7 @@
         <v>10.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI43" t="n">
         <v>42</v>
@@ -6298,7 +6298,7 @@
         <v>19</v>
       </c>
       <c r="AL43" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM43" t="n">
         <v>65</v>
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H44" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I44" t="n">
         <v>2.08</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.1</v>
       </c>
       <c r="J44" t="n">
         <v>3.85</v>
@@ -6355,7 +6355,7 @@
         <v>3.9</v>
       </c>
       <c r="L44" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
@@ -6370,7 +6370,7 @@
         <v>2.18</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R44" t="n">
         <v>1.46</v>
@@ -6382,10 +6382,10 @@
         <v>1.71</v>
       </c>
       <c r="U44" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V44" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W44" t="n">
         <v>1.35</v>
@@ -6430,7 +6430,7 @@
         <v>70</v>
       </c>
       <c r="AK44" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="n">
         <v>46</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G45" t="n">
         <v>2.94</v>
       </c>
       <c r="H45" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J45" t="n">
         <v>2.92</v>
       </c>
       <c r="K45" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,22 +6496,22 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="O45" t="n">
         <v>1.01</v>
       </c>
       <c r="P45" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="S45" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="T45" t="n">
         <v>1.01</v>
@@ -6520,7 +6520,7 @@
         <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W45" t="n">
         <v>1.52</v>
@@ -6613,16 +6613,16 @@
         <v>4.8</v>
       </c>
       <c r="H46" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I46" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K46" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L46" t="n">
         <v>1.31</v>
@@ -6649,13 +6649,13 @@
         <v>2.86</v>
       </c>
       <c r="T46" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="U46" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V46" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W46" t="n">
         <v>1.26</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="G47" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="H47" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I47" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J47" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="G48" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="H48" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I48" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="J48" t="n">
         <v>3.8</v>
@@ -6901,34 +6901,34 @@
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O48" t="n">
         <v>1.19</v>
       </c>
       <c r="P48" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R48" t="n">
         <v>1.67</v>
       </c>
       <c r="S48" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T48" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U48" t="n">
         <v>2.78</v>
       </c>
       <c r="V48" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="W48" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="X48" t="n">
         <v>23</v>
@@ -6940,7 +6940,7 @@
         <v>19.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB48" t="n">
         <v>18</v>
@@ -6955,10 +6955,10 @@
         <v>22</v>
       </c>
       <c r="AF48" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG48" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH48" t="n">
         <v>14</v>
@@ -6970,19 +6970,19 @@
         <v>46</v>
       </c>
       <c r="AK48" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL48" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM48" t="n">
         <v>50</v>
       </c>
       <c r="AN48" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="49">
@@ -7018,10 +7018,10 @@
         <v>1.31</v>
       </c>
       <c r="H49" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I49" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="J49" t="n">
         <v>6.2</v>
@@ -7030,7 +7030,7 @@
         <v>6.8</v>
       </c>
       <c r="L49" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -7045,13 +7045,13 @@
         <v>2.46</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R49" t="n">
         <v>1.57</v>
       </c>
       <c r="S49" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T49" t="n">
         <v>2.14</v>
@@ -7060,22 +7060,22 @@
         <v>1.78</v>
       </c>
       <c r="V49" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W49" t="n">
         <v>4.2</v>
       </c>
       <c r="X49" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y49" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z49" t="n">
         <v>130</v>
       </c>
       <c r="AA49" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="AB49" t="n">
         <v>10</v>
@@ -7084,10 +7084,10 @@
         <v>18</v>
       </c>
       <c r="AD49" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE49" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF49" t="n">
         <v>9.800000000000001</v>
@@ -7096,7 +7096,7 @@
         <v>11</v>
       </c>
       <c r="AH49" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AI49" t="n">
         <v>170</v>
@@ -7117,7 +7117,7 @@
         <v>4.8</v>
       </c>
       <c r="AO49" t="n">
-        <v>330</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50">
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G50" t="n">
         <v>3.45</v>
       </c>
       <c r="H50" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I50" t="n">
         <v>2.36</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.38</v>
       </c>
       <c r="J50" t="n">
         <v>3.45</v>
@@ -7165,7 +7165,7 @@
         <v>3.55</v>
       </c>
       <c r="L50" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M50" t="n">
         <v>1.06</v>
@@ -7177,10 +7177,10 @@
         <v>1.28</v>
       </c>
       <c r="P50" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R50" t="n">
         <v>1.41</v>
@@ -7195,13 +7195,13 @@
         <v>2.3</v>
       </c>
       <c r="V50" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W50" t="n">
         <v>1.4</v>
       </c>
       <c r="X50" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y50" t="n">
         <v>11.5</v>
@@ -7213,16 +7213,16 @@
         <v>32</v>
       </c>
       <c r="AB50" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AD50" t="n">
         <v>11</v>
       </c>
       <c r="AE50" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF50" t="n">
         <v>24</v>
@@ -7231,7 +7231,7 @@
         <v>14</v>
       </c>
       <c r="AH50" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI50" t="n">
         <v>36</v>
@@ -7243,10 +7243,10 @@
         <v>980</v>
       </c>
       <c r="AL50" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM50" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="n">
         <v>980</v>
@@ -7342,7 +7342,7 @@
         <v>120</v>
       </c>
       <c r="Z51" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
@@ -7357,7 +7357,7 @@
         <v>95</v>
       </c>
       <c r="AE51" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="AF51" t="n">
         <v>11</v>
@@ -7372,22 +7372,22 @@
         <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK51" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL51" t="n">
         <v>42</v>
       </c>
       <c r="AM51" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN51" t="n">
         <v>2.26</v>
       </c>
       <c r="AO51" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52">
@@ -7435,7 +7435,7 @@
         <v>3.4</v>
       </c>
       <c r="L52" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M52" t="n">
         <v>1.09</v>
@@ -7459,7 +7459,7 @@
         <v>4</v>
       </c>
       <c r="T52" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U52" t="n">
         <v>2.02</v>
@@ -7519,7 +7519,7 @@
         <v>140</v>
       </c>
       <c r="AN52" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO52" t="n">
         <v>48</v>
@@ -7555,7 +7555,7 @@
         <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="H53" t="n">
         <v>1.26</v>
@@ -7567,7 +7567,7 @@
         <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7576,28 +7576,28 @@
         <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="O53" t="n">
         <v>1.16</v>
       </c>
       <c r="P53" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="R53" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="S53" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T53" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U53" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V53" t="n">
         <v>4.3</v>
@@ -7606,58 +7606,58 @@
         <v>1.07</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y53" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC53" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI53" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AK53" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="54">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
         <v>2.14</v>
@@ -7696,16 +7696,16 @@
         <v>3.9</v>
       </c>
       <c r="I54" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J54" t="n">
         <v>3.5</v>
       </c>
       <c r="K54" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M54" t="n">
         <v>1.07</v>
@@ -7729,16 +7729,16 @@
         <v>3.35</v>
       </c>
       <c r="T54" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U54" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V54" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W54" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X54" t="n">
         <v>17</v>
@@ -7831,7 +7831,7 @@
         <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J55" t="n">
         <v>3.4</v>
@@ -7864,7 +7864,7 @@
         <v>3.55</v>
       </c>
       <c r="T55" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U55" t="n">
         <v>2.12</v>
@@ -7969,19 +7969,19 @@
         <v>3.55</v>
       </c>
       <c r="J56" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="K56" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L56" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M56" t="n">
         <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O56" t="n">
         <v>1.36</v>
@@ -7993,16 +7993,16 @@
         <v>2.08</v>
       </c>
       <c r="R56" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S56" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="T56" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V56" t="n">
         <v>1.39</v>
@@ -8011,7 +8011,7 @@
         <v>1.6</v>
       </c>
       <c r="X56" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y56" t="n">
         <v>13.5</v>
@@ -8023,7 +8023,7 @@
         <v>70</v>
       </c>
       <c r="AB56" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC56" t="n">
         <v>8.800000000000001</v>
@@ -8038,7 +8038,7 @@
         <v>18.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH56" t="n">
         <v>21</v>
@@ -8062,7 +8062,7 @@
         <v>30</v>
       </c>
       <c r="AO56" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57">
@@ -8092,10 +8092,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G57" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H57" t="n">
         <v>3.15</v>
@@ -8107,10 +8107,10 @@
         <v>3.6</v>
       </c>
       <c r="K57" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M57" t="n">
         <v>1.05</v>
@@ -8131,7 +8131,7 @@
         <v>1.48</v>
       </c>
       <c r="S57" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T57" t="n">
         <v>1.61</v>
@@ -8236,7 +8236,7 @@
         <v>2.02</v>
       </c>
       <c r="I58" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J58" t="n">
         <v>4.1</v>
@@ -8245,7 +8245,7 @@
         <v>4.4</v>
       </c>
       <c r="L58" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M58" t="n">
         <v>1.03</v>
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G59" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H59" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I59" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J59" t="n">
         <v>7.8</v>
@@ -8380,34 +8380,34 @@
         <v>8</v>
       </c>
       <c r="L59" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M59" t="n">
         <v>1.02</v>
       </c>
       <c r="N59" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O59" t="n">
         <v>1.11</v>
       </c>
       <c r="P59" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q59" t="n">
         <v>1.36</v>
       </c>
       <c r="R59" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T59" t="n">
         <v>1.83</v>
       </c>
       <c r="U59" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V59" t="n">
         <v>1.07</v>
@@ -8422,22 +8422,22 @@
         <v>80</v>
       </c>
       <c r="Z59" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA59" t="n">
         <v>710</v>
       </c>
       <c r="AB59" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC59" t="n">
         <v>19</v>
       </c>
       <c r="AD59" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE59" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF59" t="n">
         <v>11.5</v>
@@ -8446,7 +8446,7 @@
         <v>12</v>
       </c>
       <c r="AH59" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI59" t="n">
         <v>130</v>
@@ -8461,7 +8461,7 @@
         <v>30</v>
       </c>
       <c r="AM59" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN59" t="n">
         <v>3.2</v>
@@ -8497,13 +8497,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G60" t="n">
         <v>2.12</v>
       </c>
       <c r="H60" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I60" t="n">
         <v>3.9</v>
@@ -8515,7 +8515,7 @@
         <v>3.95</v>
       </c>
       <c r="L60" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M60" t="n">
         <v>1.05</v>
@@ -8530,7 +8530,7 @@
         <v>2.22</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R60" t="n">
         <v>1.49</v>
@@ -8542,7 +8542,7 @@
         <v>1.64</v>
       </c>
       <c r="U60" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V60" t="n">
         <v>1.35</v>
@@ -8602,7 +8602,7 @@
         <v>12</v>
       </c>
       <c r="AO60" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -8632,112 +8632,112 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="G61" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H61" t="n">
+        <v>4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K61" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3.7</v>
       </c>
       <c r="L61" t="n">
         <v>1.41</v>
       </c>
       <c r="M61" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="O61" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V61" t="n">
         <v>1.28</v>
       </c>
-      <c r="Q61" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S61" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U61" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V61" t="n">
-        <v>1.26</v>
-      </c>
       <c r="W61" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="X61" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y61" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB61" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC61" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE61" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF61" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK61" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM61" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN61" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
@@ -8770,22 +8770,22 @@
         <v>2.26</v>
       </c>
       <c r="G62" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H62" t="n">
         <v>2.74</v>
       </c>
       <c r="I62" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J62" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K62" t="n">
         <v>5.2</v>
       </c>
       <c r="L62" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M62" t="n">
         <v>1.02</v>
@@ -8815,10 +8815,10 @@
         <v>2.6</v>
       </c>
       <c r="V62" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W62" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X62" t="n">
         <v>34</v>
@@ -8905,10 +8905,10 @@
         <v>2.38</v>
       </c>
       <c r="G63" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H63" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I63" t="n">
         <v>3.8</v>
@@ -8932,25 +8932,25 @@
         <v>1.51</v>
       </c>
       <c r="P63" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R63" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S63" t="n">
         <v>5.1</v>
       </c>
       <c r="T63" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U63" t="n">
         <v>1.83</v>
       </c>
       <c r="V63" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W63" t="n">
         <v>1.65</v>
@@ -8968,10 +8968,10 @@
         <v>90</v>
       </c>
       <c r="AB63" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC63" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD63" t="n">
         <v>19</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G64" t="n">
         <v>5.2</v>
@@ -9076,7 +9076,7 @@
         <v>1.47</v>
       </c>
       <c r="S64" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T64" t="n">
         <v>1.79</v>
@@ -9178,16 +9178,16 @@
         <v>1.92</v>
       </c>
       <c r="H65" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
         <v>5.2</v>
       </c>
       <c r="J65" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K65" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L65" t="n">
         <v>1.44</v>
@@ -9208,7 +9208,7 @@
         <v>2.14</v>
       </c>
       <c r="R65" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S65" t="n">
         <v>3.95</v>
@@ -9217,7 +9217,7 @@
         <v>1.97</v>
       </c>
       <c r="U65" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V65" t="n">
         <v>1.24</v>
@@ -9274,7 +9274,7 @@
         <v>130</v>
       </c>
       <c r="AN65" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO65" t="n">
         <v>85</v>
@@ -9307,13 +9307,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
       </c>
       <c r="H66" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I66" t="n">
         <v>2.9</v>
@@ -9325,7 +9325,7 @@
         <v>3.2</v>
       </c>
       <c r="L66" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M66" t="n">
         <v>1.09</v>
@@ -9355,7 +9355,7 @@
         <v>2.06</v>
       </c>
       <c r="V66" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W66" t="n">
         <v>1.5</v>
@@ -9385,7 +9385,7 @@
         <v>34</v>
       </c>
       <c r="AF66" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG66" t="n">
         <v>13</v>
@@ -9460,22 +9460,22 @@
         <v>4.5</v>
       </c>
       <c r="L67" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M67" t="n">
         <v>1.05</v>
       </c>
       <c r="N67" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O67" t="n">
         <v>1.25</v>
       </c>
       <c r="P67" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R67" t="n">
         <v>1.5</v>
@@ -9487,7 +9487,7 @@
         <v>1.84</v>
       </c>
       <c r="U67" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V67" t="n">
         <v>1.18</v>
@@ -9496,10 +9496,10 @@
         <v>2.58</v>
       </c>
       <c r="X67" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y67" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z67" t="n">
         <v>50</v>
@@ -9547,7 +9547,7 @@
         <v>7.4</v>
       </c>
       <c r="AO67" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68">
@@ -9580,7 +9580,7 @@
         <v>1.97</v>
       </c>
       <c r="G68" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H68" t="n">
         <v>4.1</v>
@@ -9610,7 +9610,7 @@
         <v>2.16</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R68" t="n">
         <v>1.44</v>
@@ -9622,13 +9622,13 @@
         <v>1.75</v>
       </c>
       <c r="U68" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V68" t="n">
         <v>1.3</v>
       </c>
       <c r="W68" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X68" t="n">
         <v>16.5</v>
@@ -9736,22 +9736,22 @@
         <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="O69" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P69" t="n">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.1</v>
+        <v>1.43</v>
       </c>
       <c r="R69" t="n">
         <v>1.08</v>
       </c>
       <c r="S69" t="n">
-        <v>2.1</v>
+        <v>1.43</v>
       </c>
       <c r="T69" t="n">
         <v>1.01</v>
@@ -9850,13 +9850,13 @@
         <v>2.42</v>
       </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="H70" t="n">
         <v>3.3</v>
       </c>
       <c r="I70" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J70" t="n">
         <v>2.96</v>
@@ -9865,22 +9865,22 @@
         <v>3.55</v>
       </c>
       <c r="L70" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M70" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N70" t="n">
-        <v>1.46</v>
+        <v>2.68</v>
       </c>
       <c r="O70" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P70" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="R70" t="n">
         <v>1.2</v>
@@ -9889,70 +9889,70 @@
         <v>4.5</v>
       </c>
       <c r="T70" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U70" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V70" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W70" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="X70" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA70" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB70" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC70" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD70" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE70" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF70" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG70" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI70" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK70" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL70" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM70" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN70" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO70" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G71" t="n">
         <v>2.62</v>
@@ -9997,7 +9997,7 @@
         <v>3.05</v>
       </c>
       <c r="K71" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L71" t="n">
         <v>1.46</v>
@@ -10021,16 +10021,16 @@
         <v>1.26</v>
       </c>
       <c r="S71" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T71" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U71" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="V71" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W71" t="n">
         <v>1.63</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G72" t="n">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="H72" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I72" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="K72" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -10141,22 +10141,22 @@
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>1.9</v>
+        <v>1.37</v>
       </c>
       <c r="O72" t="n">
         <v>1.01</v>
       </c>
       <c r="P72" t="n">
-        <v>1.9</v>
+        <v>1.37</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="R72" t="n">
         <v>1.37</v>
       </c>
       <c r="S72" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T72" t="n">
         <v>1.01</v>
@@ -10165,10 +10165,10 @@
         <v>1.01</v>
       </c>
       <c r="V72" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="W72" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G73" t="n">
         <v>2.12</v>
@@ -10270,34 +10270,34 @@
         <v>3.3</v>
       </c>
       <c r="L73" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="M73" t="n">
         <v>1.13</v>
       </c>
       <c r="N73" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="O73" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P73" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="R73" t="n">
         <v>1.2</v>
       </c>
       <c r="S73" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T73" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="U73" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="V73" t="n">
         <v>1.27</v>
@@ -10309,7 +10309,7 @@
         <v>8.4</v>
       </c>
       <c r="Y73" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z73" t="n">
         <v>32</v>
@@ -10324,7 +10324,7 @@
         <v>7.4</v>
       </c>
       <c r="AD73" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE73" t="n">
         <v>80</v>
@@ -10336,22 +10336,22 @@
         <v>11.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI73" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ73" t="n">
         <v>25</v>
       </c>
       <c r="AK73" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL73" t="n">
         <v>60</v>
       </c>
       <c r="AM73" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN73" t="n">
         <v>26</v>
@@ -10390,7 +10390,7 @@
         <v>1.47</v>
       </c>
       <c r="G74" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>8</v>
@@ -10399,7 +10399,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J74" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K74" t="n">
         <v>5</v>
@@ -10429,13 +10429,13 @@
         <v>3.4</v>
       </c>
       <c r="T74" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U74" t="n">
         <v>1.82</v>
       </c>
       <c r="V74" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W74" t="n">
         <v>3</v>
@@ -10444,13 +10444,13 @@
         <v>19</v>
       </c>
       <c r="Y74" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z74" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA74" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AB74" t="n">
         <v>7.2</v>
@@ -10462,7 +10462,7 @@
         <v>36</v>
       </c>
       <c r="AE74" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF74" t="n">
         <v>8.800000000000001</v>
@@ -10471,7 +10471,7 @@
         <v>9.6</v>
       </c>
       <c r="AH74" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI74" t="n">
         <v>150</v>
@@ -10480,7 +10480,7 @@
         <v>15</v>
       </c>
       <c r="AK74" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL74" t="n">
         <v>50</v>
@@ -10492,7 +10492,7 @@
         <v>8.6</v>
       </c>
       <c r="AO74" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75">
@@ -10537,37 +10537,37 @@
         <v>3.75</v>
       </c>
       <c r="K75" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L75" t="n">
         <v>1.01</v>
       </c>
       <c r="M75" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N75" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O75" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P75" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="R75" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="S75" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="T75" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="U75" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="V75" t="n">
         <v>1.31</v>
@@ -10591,7 +10591,7 @@
         <v>14</v>
       </c>
       <c r="AC75" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD75" t="n">
         <v>19.5</v>
@@ -10600,7 +10600,7 @@
         <v>55</v>
       </c>
       <c r="AF75" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG75" t="n">
         <v>13</v>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G76" t="n">
         <v>4.2</v>
@@ -10666,13 +10666,13 @@
         <v>2.02</v>
       </c>
       <c r="I76" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J76" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K76" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L76" t="n">
         <v>1.41</v>
@@ -10681,10 +10681,10 @@
         <v>1.07</v>
       </c>
       <c r="N76" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O76" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P76" t="n">
         <v>2.02</v>
@@ -10693,25 +10693,25 @@
         <v>1.87</v>
       </c>
       <c r="R76" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="S76" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T76" t="n">
         <v>1.78</v>
       </c>
       <c r="U76" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V76" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W76" t="n">
         <v>1.31</v>
       </c>
       <c r="X76" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y76" t="n">
         <v>11</v>
@@ -10720,7 +10720,7 @@
         <v>13.5</v>
       </c>
       <c r="AA76" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB76" t="n">
         <v>18</v>
@@ -10732,25 +10732,25 @@
         <v>11</v>
       </c>
       <c r="AE76" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF76" t="n">
         <v>38</v>
       </c>
       <c r="AG76" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH76" t="n">
         <v>20</v>
       </c>
       <c r="AI76" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ76" t="n">
         <v>100</v>
       </c>
       <c r="AK76" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL76" t="n">
         <v>60</v>
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G77" t="n">
-        <v>800</v>
+        <v>25</v>
       </c>
       <c r="H77" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="I77" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="J77" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="K77" t="n">
-        <v>800</v>
+        <v>11.5</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10816,34 +10816,34 @@
         <v>1.02</v>
       </c>
       <c r="N77" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="O77" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P77" t="n">
         <v>2.78</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R77" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="S77" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="T77" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="U77" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="V77" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="W77" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="X77" t="n">
         <v>1000</v>
@@ -10930,7 +10930,7 @@
         <v>2.06</v>
       </c>
       <c r="G78" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>4.1</v>
@@ -10954,13 +10954,13 @@
         <v>3.55</v>
       </c>
       <c r="O78" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P78" t="n">
         <v>1.84</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R78" t="n">
         <v>1.32</v>
@@ -10972,7 +10972,7 @@
         <v>1.92</v>
       </c>
       <c r="U78" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V78" t="n">
         <v>1.31</v>
@@ -11014,7 +11014,7 @@
         <v>19.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ78" t="n">
         <v>25</v>
@@ -11065,19 +11065,19 @@
         <v>6</v>
       </c>
       <c r="G79" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H79" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="I79" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="J79" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K79" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L79" t="n">
         <v>1.44</v>
@@ -11086,19 +11086,19 @@
         <v>1.09</v>
       </c>
       <c r="N79" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O79" t="n">
         <v>1.42</v>
       </c>
       <c r="P79" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R79" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S79" t="n">
         <v>4.1</v>
@@ -11119,7 +11119,7 @@
         <v>13</v>
       </c>
       <c r="Y79" t="n">
-        <v>970</v>
+        <v>7</v>
       </c>
       <c r="Z79" t="n">
         <v>970</v>
@@ -11131,7 +11131,7 @@
         <v>970</v>
       </c>
       <c r="AC79" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AD79" t="n">
         <v>970</v>
@@ -11197,70 +11197,70 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="G80" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="H80" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="I80" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J80" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K80" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
       </c>
       <c r="M80" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>1.96</v>
+        <v>3.8</v>
       </c>
       <c r="O80" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P80" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R80" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S80" t="n">
-        <v>2.64</v>
+        <v>3.1</v>
       </c>
       <c r="T80" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="U80" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="V80" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="W80" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="X80" t="n">
         <v>970</v>
       </c>
       <c r="Y80" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA80" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB80" t="n">
         <v>13.5</v>
@@ -11302,7 +11302,7 @@
         <v>24</v>
       </c>
       <c r="AO80" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -11335,7 +11335,7 @@
         <v>1.15</v>
       </c>
       <c r="G81" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H81" t="n">
         <v>25</v>
@@ -11344,10 +11344,10 @@
         <v>32</v>
       </c>
       <c r="J81" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="K81" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L81" t="n">
         <v>1.27</v>
@@ -11383,7 +11383,7 @@
         <v>1.03</v>
       </c>
       <c r="W81" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="X81" t="n">
         <v>32</v>
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G82" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H82" t="n">
         <v>6.6</v>
@@ -11482,7 +11482,7 @@
         <v>4</v>
       </c>
       <c r="K82" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L82" t="n">
         <v>1.45</v>
@@ -11503,7 +11503,7 @@
         <v>2.1</v>
       </c>
       <c r="R82" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S82" t="n">
         <v>3.9</v>
@@ -11518,7 +11518,7 @@
         <v>1.15</v>
       </c>
       <c r="W82" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="X82" t="n">
         <v>16</v>
@@ -11617,7 +11617,7 @@
         <v>3.35</v>
       </c>
       <c r="K83" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11626,16 +11626,16 @@
         <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>1.75</v>
+        <v>3.15</v>
       </c>
       <c r="O83" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P83" t="n">
         <v>1.74</v>
       </c>
       <c r="Q83" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R83" t="n">
         <v>1.28</v>
@@ -11737,22 +11737,22 @@
         </is>
       </c>
       <c r="F84" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G84" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K84" t="n">
         <v>5.3</v>
-      </c>
-      <c r="G84" t="n">
-        <v>9</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J84" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K84" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="L84" t="n">
         <v>1.01</v>
@@ -11761,34 +11761,34 @@
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="O84" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P84" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="R84" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="S84" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U84" t="n">
         <v>2.2</v>
       </c>
-      <c r="T84" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U84" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V84" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="W84" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="X84" t="n">
         <v>1000</v>
@@ -11881,13 +11881,13 @@
         <v>2.2</v>
       </c>
       <c r="I85" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J85" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K85" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L85" t="n">
         <v>1.28</v>
@@ -12007,112 +12007,112 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G86" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="H86" t="n">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="I86" t="n">
-        <v>970</v>
+        <v>1.54</v>
       </c>
       <c r="J86" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="K86" t="n">
-        <v>110</v>
+        <v>5.7</v>
       </c>
       <c r="L86" t="n">
         <v>1.34</v>
       </c>
       <c r="M86" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N86" t="n">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="O86" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P86" t="n">
-        <v>1.25</v>
+        <v>2.02</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="R86" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="S86" t="n">
-        <v>1.25</v>
+        <v>2.82</v>
       </c>
       <c r="T86" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="U86" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V86" t="n">
-        <v>1.01</v>
+        <v>2.76</v>
       </c>
       <c r="W86" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="X86" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z86" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AA86" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AB86" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AC86" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE86" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF86" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG86" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH86" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI86" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ86" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AK86" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL86" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM86" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN86" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AO86" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="87">
@@ -12148,16 +12148,16 @@
         <v>2.18</v>
       </c>
       <c r="H87" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="I87" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="J87" t="n">
         <v>3.1</v>
       </c>
       <c r="K87" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L87" t="n">
         <v>1.48</v>
@@ -12280,7 +12280,7 @@
         <v>2.14</v>
       </c>
       <c r="G88" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>3.6</v>
@@ -12412,16 +12412,16 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H89" t="n">
         <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J89" t="n">
         <v>3.05</v>
@@ -12433,13 +12433,13 @@
         <v>1.5</v>
       </c>
       <c r="M89" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N89" t="n">
         <v>3.25</v>
       </c>
       <c r="O89" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P89" t="n">
         <v>1.74</v>
@@ -12550,7 +12550,7 @@
         <v>2.24</v>
       </c>
       <c r="G90" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H90" t="n">
         <v>3.25</v>
@@ -12565,7 +12565,7 @@
         <v>3.75</v>
       </c>
       <c r="L90" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M90" t="n">
         <v>1.04</v>
@@ -12598,7 +12598,7 @@
         <v>1.4</v>
       </c>
       <c r="W90" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X90" t="n">
         <v>26</v>
@@ -12613,13 +12613,13 @@
         <v>65</v>
       </c>
       <c r="AB90" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC90" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD90" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE90" t="n">
         <v>40</v>
@@ -12628,7 +12628,7 @@
         <v>21</v>
       </c>
       <c r="AG90" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH90" t="n">
         <v>18.5</v>
@@ -12649,7 +12649,7 @@
         <v>70</v>
       </c>
       <c r="AN90" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO90" t="n">
         <v>29</v>
@@ -12682,10 +12682,10 @@
         </is>
       </c>
       <c r="F91" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G91" t="n">
         <v>2.92</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2.94</v>
       </c>
       <c r="H91" t="n">
         <v>2.98</v>
@@ -12715,7 +12715,7 @@
         <v>1.67</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R91" t="n">
         <v>1.25</v>
@@ -12727,13 +12727,13 @@
         <v>1.99</v>
       </c>
       <c r="U91" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V91" t="n">
         <v>1.5</v>
       </c>
       <c r="W91" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X91" t="n">
         <v>9.4</v>
@@ -12745,7 +12745,7 @@
         <v>17.5</v>
       </c>
       <c r="AA91" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB91" t="n">
         <v>9.4</v>
@@ -12787,7 +12787,7 @@
         <v>42</v>
       </c>
       <c r="AO91" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92">
@@ -12817,16 +12817,16 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G92" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H92" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J92" t="n">
         <v>4.8</v>
@@ -12847,10 +12847,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12952,22 +12952,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="G93" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="H93" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I93" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="J93" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="K93" t="n">
-        <v>980</v>
+        <v>3.6</v>
       </c>
       <c r="L93" t="n">
         <v>1.01</v>
@@ -13000,10 +13000,10 @@
         <v>1.63</v>
       </c>
       <c r="V93" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="W93" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="X93" t="n">
         <v>1000</v>
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G94" t="n">
         <v>3.3</v>
@@ -13102,7 +13102,7 @@
         <v>2.78</v>
       </c>
       <c r="K94" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="L94" t="n">
         <v>1.01</v>
@@ -13111,10 +13111,10 @@
         <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="O94" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="P94" t="n">
         <v>1.43</v>
@@ -13123,10 +13123,10 @@
         <v>2.3</v>
       </c>
       <c r="R94" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="S94" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="T94" t="n">
         <v>1.01</v>
@@ -13366,10 +13366,10 @@
         <v>3.4</v>
       </c>
       <c r="I96" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J96" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K96" t="n">
         <v>4.1</v>
@@ -13396,7 +13396,7 @@
         <v>1.36</v>
       </c>
       <c r="S96" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T96" t="n">
         <v>1.65</v>
@@ -13405,10 +13405,10 @@
         <v>2.04</v>
       </c>
       <c r="V96" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W96" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X96" t="n">
         <v>970</v>
@@ -13453,7 +13453,7 @@
         <v>28</v>
       </c>
       <c r="AL96" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM96" t="n">
         <v>110</v>
@@ -13462,7 +13462,7 @@
         <v>21</v>
       </c>
       <c r="AO96" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97">
@@ -13507,7 +13507,7 @@
         <v>3.65</v>
       </c>
       <c r="K97" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L97" t="n">
         <v>1.01</v>
@@ -13630,19 +13630,19 @@
         <v>1.9</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H98" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I98" t="n">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="J98" t="n">
-        <v>1.09</v>
+        <v>3.4</v>
       </c>
       <c r="K98" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L98" t="n">
         <v>1.01</v>
@@ -13669,16 +13669,16 @@
         <v>3.45</v>
       </c>
       <c r="T98" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="U98" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V98" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W98" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X98" t="n">
         <v>1000</v>
@@ -13927,16 +13927,16 @@
         <v>1.45</v>
       </c>
       <c r="P100" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R100" t="n">
         <v>1.23</v>
       </c>
       <c r="S100" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T100" t="n">
         <v>1.89</v>
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G101" t="n">
         <v>2.16</v>
@@ -14170,7 +14170,7 @@
         <v>1.51</v>
       </c>
       <c r="G102" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H102" t="n">
         <v>8.6</v>
@@ -14188,13 +14188,13 @@
         <v>1.5</v>
       </c>
       <c r="M102" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N102" t="n">
-        <v>2.9</v>
+        <v>2.54</v>
       </c>
       <c r="O102" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P102" t="n">
         <v>1.61</v>
@@ -14203,10 +14203,10 @@
         <v>2.34</v>
       </c>
       <c r="R102" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="S102" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="T102" t="n">
         <v>2.4</v>
@@ -14218,10 +14218,10 @@
         <v>1.1</v>
       </c>
       <c r="W102" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X102" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y102" t="n">
         <v>26</v>
@@ -14305,7 +14305,7 @@
         <v>2.34</v>
       </c>
       <c r="G103" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H103" t="n">
         <v>3.35</v>
@@ -14317,10 +14317,10 @@
         <v>3.2</v>
       </c>
       <c r="K103" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L103" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M103" t="n">
         <v>1.07</v>
@@ -14332,10 +14332,10 @@
         <v>1.32</v>
       </c>
       <c r="P103" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R103" t="n">
         <v>1.28</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G2" t="n">
         <v>1.41</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.67</v>
+        <v>2.52</v>
       </c>
       <c r="O2" t="n">
         <v>1.12</v>
       </c>
       <c r="P2" t="n">
-        <v>1.67</v>
+        <v>2.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="R2" t="n">
         <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T2" t="n">
         <v>1.74</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="R3" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
         <v>2.58</v>
       </c>
       <c r="V3" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="W3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE3" t="n">
         <v>34</v>
       </c>
-      <c r="AA3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AF3" t="n">
         <v>18</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AG3" t="n">
         <v>12</v>
       </c>
-      <c r="AD3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AH3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK3" t="n">
         <v>21</v>
       </c>
-      <c r="AG3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>23</v>
-      </c>
       <c r="AL3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN3" t="n">
         <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -952,7 +952,7 @@
         <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -1081,7 +1081,7 @@
         <v>2.42</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.15</v>
@@ -1108,19 +1108,19 @@
         <v>1.86</v>
       </c>
       <c r="R5" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>1.86</v>
+        <v>2.94</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U5" t="n">
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W5" t="n">
         <v>1.45</v>
@@ -1210,16 +1210,16 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="n">
         <v>1.21</v>
       </c>
       <c r="I6" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="J6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K6" t="n">
         <v>13.5</v>
@@ -1231,31 +1231,31 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S6" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="T6" t="n">
         <v>2.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="V6" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="W6" t="n">
         <v>1.05</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1519,7 @@
         <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
@@ -1615,13 +1615,13 @@
         <v>1.81</v>
       </c>
       <c r="G9" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
@@ -1630,40 +1630,40 @@
         <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
         <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X9" t="n">
         <v>970</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
         <v>1.84</v>
       </c>
       <c r="I10" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1765,7 +1765,7 @@
         <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1774,10 +1774,10 @@
         <v>5.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q10" t="n">
         <v>1.57</v>
@@ -1786,7 +1786,7 @@
         <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T10" t="n">
         <v>1.59</v>
@@ -1822,7 +1822,7 @@
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF10" t="n">
         <v>980</v>
@@ -1846,7 +1846,7 @@
         <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
         <v>980</v>
@@ -1912,10 +1912,10 @@
         <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R11" t="n">
         <v>1.46</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H13" t="n">
         <v>4.4</v>
@@ -2200,10 +2200,10 @@
         <v>1.94</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -2218,10 +2218,10 @@
         <v>110</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
         <v>18</v>
@@ -2245,7 +2245,7 @@
         <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL13" t="n">
         <v>48</v>
@@ -2254,7 +2254,7 @@
         <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO13" t="n">
         <v>85</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H14" t="n">
         <v>4.9</v>
@@ -2314,34 +2314,34 @@
         <v>3.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
         <v>1.96</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
         <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>1.19</v>
       </c>
       <c r="W14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
         <v>22</v>
@@ -2353,7 +2353,7 @@
         <v>160</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
@@ -2362,7 +2362,7 @@
         <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="n">
         <v>12.5</v>
@@ -2371,7 +2371,7 @@
         <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
         <v>85</v>
@@ -2386,7 +2386,7 @@
         <v>44</v>
       </c>
       <c r="AM14" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
         <v>13</v>
@@ -2422,28 +2422,28 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="G15" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="I15" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>5.9</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
         <v>2.88</v>
@@ -2455,7 +2455,7 @@
         <v>1.64</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="R15" t="n">
         <v>1.24</v>
@@ -2464,70 +2464,70 @@
         <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
         <v>1.16</v>
       </c>
       <c r="W15" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G16" t="n">
         <v>1.78</v>
@@ -2566,7 +2566,7 @@
         <v>4.8</v>
       </c>
       <c r="I16" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -2575,7 +2575,7 @@
         <v>4.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2596,16 +2596,16 @@
         <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T16" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W16" t="n">
         <v>2.28</v>
@@ -2635,31 +2635,31 @@
         <v>70</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
         <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
         <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO16" t="n">
         <v>75</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G17" t="n">
         <v>2.36</v>
@@ -2701,7 +2701,7 @@
         <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J17" t="n">
         <v>3.7</v>
@@ -2725,7 +2725,7 @@
         <v>2.28</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
         <v>1.52</v>
@@ -2734,16 +2734,16 @@
         <v>2.52</v>
       </c>
       <c r="T17" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="U17" t="n">
         <v>2.44</v>
       </c>
       <c r="V17" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="W17" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X17" t="n">
         <v>980</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G18" t="n">
         <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I18" t="n">
         <v>2.44</v>
@@ -2842,13 +2842,13 @@
         <v>3.8</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>5.1</v>
@@ -2857,82 +2857,82 @@
         <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="V18" t="n">
         <v>1.69</v>
       </c>
       <c r="W18" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ18" t="n">
         <v>60</v>
       </c>
       <c r="AK18" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM18" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -2968,7 +2968,7 @@
         <v>2.12</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
         <v>4.3</v>
@@ -2986,22 +2986,22 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P19" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R19" t="n">
         <v>1.39</v>
       </c>
       <c r="S19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
         <v>1.8</v>
@@ -3028,7 +3028,7 @@
         <v>85</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC19" t="n">
         <v>9.800000000000001</v>
@@ -3103,10 +3103,10 @@
         <v>2.16</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J20" t="n">
         <v>3.8</v>
@@ -3121,25 +3121,25 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R20" t="n">
         <v>1.55</v>
       </c>
       <c r="S20" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U20" t="n">
         <v>2.5</v>
@@ -3148,7 +3148,7 @@
         <v>1.35</v>
       </c>
       <c r="W20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X20" t="n">
         <v>21</v>
@@ -3172,7 +3172,7 @@
         <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="n">
         <v>15.5</v>
@@ -3184,7 +3184,7 @@
         <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G21" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
         <v>3.95</v>
@@ -3259,7 +3259,7 @@
         <v>4.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P21" t="n">
         <v>2.16</v>
@@ -3283,7 +3283,7 @@
         <v>1.22</v>
       </c>
       <c r="W21" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X21" t="n">
         <v>17.5</v>
@@ -3292,10 +3292,10 @@
         <v>21</v>
       </c>
       <c r="Z21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA21" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB21" t="n">
         <v>10</v>
@@ -3370,13 +3370,13 @@
         <v>2.7</v>
       </c>
       <c r="G22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I22" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
@@ -3400,22 +3400,22 @@
         <v>1.65</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R22" t="n">
         <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U22" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="V22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W22" t="n">
         <v>1.5</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
         <v>2.24</v>
@@ -3514,7 +3514,7 @@
         <v>3.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
         <v>4.1</v>
@@ -3532,28 +3532,28 @@
         <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q23" t="n">
         <v>1.64</v>
       </c>
       <c r="R23" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S23" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U23" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V23" t="n">
         <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X23" t="n">
         <v>23</v>
@@ -3565,7 +3565,7 @@
         <v>27</v>
       </c>
       <c r="AA23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB23" t="n">
         <v>16.5</v>
@@ -3586,7 +3586,7 @@
         <v>970</v>
       </c>
       <c r="AH23" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AI23" t="n">
         <v>36</v>
@@ -3601,13 +3601,13 @@
         <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN23" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -3661,7 +3661,7 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.38</v>
+        <v>4.7</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
@@ -3673,13 +3673,13 @@
         <v>1.56</v>
       </c>
       <c r="R24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="U24" t="n">
         <v>1.01</v>
@@ -3796,16 +3796,16 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O25" t="n">
         <v>1.32</v>
       </c>
       <c r="P25" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R25" t="n">
         <v>1.27</v>
@@ -3817,7 +3817,7 @@
         <v>1.63</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V25" t="n">
         <v>1.61</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G26" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="I26" t="n">
         <v>13</v>
@@ -3937,31 +3937,31 @@
         <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q26" t="n">
         <v>1.71</v>
       </c>
       <c r="R26" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S26" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T26" t="n">
         <v>2.2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
         <v>1.08</v>
       </c>
       <c r="W26" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="X26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
         <v>36</v>
@@ -3970,10 +3970,10 @@
         <v>120</v>
       </c>
       <c r="AA26" t="n">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC26" t="n">
         <v>13</v>
@@ -3988,7 +3988,7 @@
         <v>7.6</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
         <v>34</v>
@@ -4006,13 +4006,13 @@
         <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN26" t="n">
         <v>5.2</v>
       </c>
       <c r="AO26" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27">
@@ -4042,58 +4042,58 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G27" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L27" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="O27" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T27" t="n">
         <v>1.94</v>
       </c>
       <c r="U27" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="V27" t="n">
         <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X27" t="n">
         <v>13</v>
@@ -4108,13 +4108,13 @@
         <v>130</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AC27" t="n">
         <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE27" t="n">
         <v>70</v>
@@ -4129,7 +4129,7 @@
         <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ27" t="n">
         <v>26</v>
@@ -4138,13 +4138,13 @@
         <v>26</v>
       </c>
       <c r="AL27" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM27" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>110</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G28" t="n">
         <v>1.64</v>
@@ -4192,7 +4192,7 @@
         <v>4.3</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.35</v>
@@ -4210,7 +4210,7 @@
         <v>2.18</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="R28" t="n">
         <v>1.47</v>
@@ -4246,10 +4246,10 @@
         <v>9.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>85</v>
@@ -4264,7 +4264,7 @@
         <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="n">
         <v>16</v>
@@ -4315,7 +4315,7 @@
         <v>1.71</v>
       </c>
       <c r="G29" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H29" t="n">
         <v>5.3</v>
@@ -4327,7 +4327,7 @@
         <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L29" t="n">
         <v>1.41</v>
@@ -4363,7 +4363,7 @@
         <v>1.17</v>
       </c>
       <c r="W29" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X29" t="n">
         <v>12</v>
@@ -4471,7 +4471,7 @@
         <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="O30" t="n">
         <v>1.5</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H31" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="I31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J31" t="n">
         <v>4.7</v>
       </c>
       <c r="K31" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L31" t="n">
         <v>1.47</v>
@@ -4606,43 +4606,43 @@
         <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O31" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="P31" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R31" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
         <v>4.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="U31" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="V31" t="n">
         <v>1.06</v>
       </c>
       <c r="W31" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z31" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
@@ -4651,40 +4651,40 @@
         <v>6.2</v>
       </c>
       <c r="AC31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>490</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AG31" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>14</v>
-      </c>
       <c r="AH31" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI31" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G32" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H32" t="n">
         <v>4.3</v>
@@ -4729,7 +4729,7 @@
         <v>5.4</v>
       </c>
       <c r="J32" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
         <v>3.55</v>
@@ -4768,7 +4768,7 @@
         <v>1.23</v>
       </c>
       <c r="W32" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X32" t="n">
         <v>10</v>
@@ -4852,46 +4852,46 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="G33" t="n">
-        <v>2.86</v>
+        <v>2.66</v>
       </c>
       <c r="H33" t="n">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="I33" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>1.47</v>
+        <v>2.58</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="S33" t="n">
-        <v>2.34</v>
+        <v>4.7</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4900,64 +4900,64 @@
         <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="W33" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G34" t="n">
         <v>2.12</v>
@@ -5026,7 +5026,7 @@
         <v>1.3</v>
       </c>
       <c r="S34" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T34" t="n">
         <v>1.86</v>
@@ -5035,7 +5035,7 @@
         <v>2.02</v>
       </c>
       <c r="V34" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W34" t="n">
         <v>1.89</v>
@@ -5050,7 +5050,7 @@
         <v>34</v>
       </c>
       <c r="AA34" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB34" t="n">
         <v>8.4</v>
@@ -5074,13 +5074,13 @@
         <v>19</v>
       </c>
       <c r="AI34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="n">
         <v>25</v>
       </c>
       <c r="AK34" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL34" t="n">
         <v>40</v>
@@ -5092,7 +5092,7 @@
         <v>18.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G35" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I35" t="n">
         <v>2.88</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L35" t="n">
         <v>1.51</v>
@@ -5149,7 +5149,7 @@
         <v>3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P35" t="n">
         <v>1.69</v>
@@ -5164,7 +5164,7 @@
         <v>4.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U35" t="n">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>1.53</v>
       </c>
       <c r="W35" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X35" t="n">
         <v>11</v>
@@ -5263,16 +5263,16 @@
         <v>2.64</v>
       </c>
       <c r="H36" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J36" t="n">
         <v>2.88</v>
       </c>
       <c r="K36" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L36" t="n">
         <v>1.43</v>
@@ -5290,7 +5290,7 @@
         <v>1.69</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R36" t="n">
         <v>1.26</v>
@@ -5308,7 +5308,7 @@
         <v>1.38</v>
       </c>
       <c r="W36" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X36" t="n">
         <v>12.5</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G37" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I37" t="n">
         <v>4.7</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L37" t="n">
         <v>1.46</v>
@@ -5416,13 +5416,13 @@
         <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O37" t="n">
         <v>1.5</v>
       </c>
       <c r="P37" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q37" t="n">
         <v>2.48</v>
@@ -5437,13 +5437,13 @@
         <v>2.1</v>
       </c>
       <c r="U37" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V37" t="n">
         <v>1.27</v>
       </c>
       <c r="W37" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X37" t="n">
         <v>10.5</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I38" t="n">
         <v>2.72</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.76</v>
       </c>
       <c r="J38" t="n">
         <v>3.1</v>
@@ -5554,16 +5554,16 @@
         <v>3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P38" t="n">
         <v>1.64</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="R38" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5575,16 +5575,16 @@
         <v>1.94</v>
       </c>
       <c r="V38" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W38" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X38" t="n">
         <v>9.4</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z38" t="n">
         <v>15.5</v>
@@ -5593,7 +5593,7 @@
         <v>40</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC38" t="n">
         <v>6.8</v>
@@ -5617,7 +5617,7 @@
         <v>60</v>
       </c>
       <c r="AJ38" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="n">
         <v>44</v>
@@ -5629,7 +5629,7 @@
         <v>150</v>
       </c>
       <c r="AN38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO38" t="n">
         <v>38</v>
@@ -5671,7 +5671,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J39" t="n">
         <v>5</v>
@@ -5689,7 +5689,7 @@
         <v>4.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P39" t="n">
         <v>2.18</v>
@@ -5698,13 +5698,13 @@
         <v>1.83</v>
       </c>
       <c r="R39" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S39" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T39" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U39" t="n">
         <v>1.89</v>
@@ -5716,7 +5716,7 @@
         <v>3.2</v>
       </c>
       <c r="X39" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y39" t="n">
         <v>29</v>
@@ -5731,7 +5731,7 @@
         <v>8.4</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD39" t="n">
         <v>34</v>
@@ -5740,7 +5740,7 @@
         <v>150</v>
       </c>
       <c r="AF39" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG39" t="n">
         <v>10</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="G40" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H40" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I40" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
         <v>3.2</v>
@@ -5821,7 +5821,7 @@
         <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O40" t="n">
         <v>1.46</v>
@@ -5845,10 +5845,10 @@
         <v>1.9</v>
       </c>
       <c r="V40" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W40" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X40" t="n">
         <v>11.5</v>
@@ -5875,7 +5875,7 @@
         <v>42</v>
       </c>
       <c r="AF40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG40" t="n">
         <v>15</v>
@@ -5938,7 +5938,7 @@
         <v>3.1</v>
       </c>
       <c r="H41" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I41" t="n">
         <v>2.56</v>
@@ -5965,10 +5965,10 @@
         <v>2.08</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R41" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S41" t="n">
         <v>3.15</v>
@@ -5977,7 +5977,7 @@
         <v>1.7</v>
       </c>
       <c r="U41" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V41" t="n">
         <v>1.64</v>
@@ -6022,13 +6022,13 @@
         <v>36</v>
       </c>
       <c r="AJ41" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK41" t="n">
         <v>32</v>
       </c>
       <c r="AL41" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM41" t="n">
         <v>80</v>
@@ -6070,13 +6070,13 @@
         <v>1.9</v>
       </c>
       <c r="G42" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H42" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I42" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J42" t="n">
         <v>3.75</v>
@@ -6097,7 +6097,7 @@
         <v>1.34</v>
       </c>
       <c r="P42" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q42" t="n">
         <v>2.02</v>
@@ -6115,7 +6115,7 @@
         <v>2.08</v>
       </c>
       <c r="V42" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W42" t="n">
         <v>2.08</v>
@@ -6136,7 +6136,7 @@
         <v>8.6</v>
       </c>
       <c r="AC42" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD42" t="n">
         <v>18.5</v>
@@ -6157,10 +6157,10 @@
         <v>70</v>
       </c>
       <c r="AJ42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK42" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL42" t="n">
         <v>36</v>
@@ -6214,10 +6214,10 @@
         <v>3.85</v>
       </c>
       <c r="J43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K43" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.85</v>
       </c>
       <c r="L43" t="n">
         <v>1.34</v>
@@ -6226,7 +6226,7 @@
         <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O43" t="n">
         <v>1.24</v>
@@ -6241,7 +6241,7 @@
         <v>1.53</v>
       </c>
       <c r="S43" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T43" t="n">
         <v>1.63</v>
@@ -6253,13 +6253,13 @@
         <v>1.35</v>
       </c>
       <c r="W43" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X43" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z43" t="n">
         <v>28</v>
@@ -6271,7 +6271,7 @@
         <v>12</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD43" t="n">
         <v>15.5</v>
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J44" t="n">
         <v>3.8</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.85</v>
       </c>
       <c r="K44" t="n">
         <v>3.9</v>
@@ -6379,19 +6379,19 @@
         <v>3.05</v>
       </c>
       <c r="T44" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U44" t="n">
         <v>2.32</v>
       </c>
       <c r="V44" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W44" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X44" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y44" t="n">
         <v>11</v>
@@ -6412,10 +6412,10 @@
         <v>10.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF44" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG44" t="n">
         <v>15</v>
@@ -6478,7 +6478,7 @@
         <v>2.94</v>
       </c>
       <c r="H45" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I45" t="n">
         <v>3.9</v>
@@ -6496,19 +6496,19 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.53</v>
+        <v>2.78</v>
       </c>
       <c r="O45" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P45" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R45" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="S45" t="n">
         <v>4</v>
@@ -6520,7 +6520,7 @@
         <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W45" t="n">
         <v>1.52</v>
@@ -6646,7 +6646,7 @@
         <v>1.43</v>
       </c>
       <c r="S46" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="T46" t="n">
         <v>1.68</v>
@@ -6712,7 +6712,7 @@
         <v>55</v>
       </c>
       <c r="AO46" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="47">
@@ -6754,7 +6754,7 @@
         <v>40</v>
       </c>
       <c r="J47" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K47" t="n">
         <v>13.5</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="G48" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="H48" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="I48" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="J48" t="n">
         <v>3.8</v>
       </c>
       <c r="K48" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L48" t="n">
         <v>1.29</v>
@@ -6904,7 +6904,7 @@
         <v>5.9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P48" t="n">
         <v>2.62</v>
@@ -6922,28 +6922,28 @@
         <v>1.53</v>
       </c>
       <c r="U48" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="V48" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="W48" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="X48" t="n">
         <v>23</v>
       </c>
       <c r="Y48" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z48" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB48" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC48" t="n">
         <v>9.199999999999999</v>
@@ -6955,10 +6955,10 @@
         <v>22</v>
       </c>
       <c r="AF48" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH48" t="n">
         <v>14</v>
@@ -6967,22 +6967,22 @@
         <v>28</v>
       </c>
       <c r="AJ48" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL48" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM48" t="n">
         <v>50</v>
       </c>
       <c r="AN48" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AO48" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G49" t="n">
         <v>1.31</v>
       </c>
       <c r="H49" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="I49" t="n">
         <v>13.5</v>
@@ -7039,13 +7039,13 @@
         <v>5.2</v>
       </c>
       <c r="O49" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P49" t="n">
         <v>2.46</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R49" t="n">
         <v>1.57</v>
@@ -7057,7 +7057,7 @@
         <v>2.14</v>
       </c>
       <c r="U49" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V49" t="n">
         <v>1.08</v>
@@ -7069,7 +7069,7 @@
         <v>26</v>
       </c>
       <c r="Y49" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="n">
         <v>130</v>
@@ -7078,7 +7078,7 @@
         <v>610</v>
       </c>
       <c r="AB49" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC49" t="n">
         <v>18</v>
@@ -7096,10 +7096,10 @@
         <v>11</v>
       </c>
       <c r="AH49" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AI49" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ49" t="n">
         <v>12.5</v>
@@ -7111,7 +7111,7 @@
         <v>40</v>
       </c>
       <c r="AM49" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN49" t="n">
         <v>4.8</v>
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G50" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I50" t="n">
         <v>2.34</v>
       </c>
-      <c r="I50" t="n">
-        <v>2.36</v>
-      </c>
       <c r="J50" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K50" t="n">
         <v>3.55</v>
@@ -7171,7 +7171,7 @@
         <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O50" t="n">
         <v>1.28</v>
@@ -7183,19 +7183,19 @@
         <v>1.86</v>
       </c>
       <c r="R50" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S50" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T50" t="n">
         <v>1.72</v>
       </c>
       <c r="U50" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V50" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W50" t="n">
         <v>1.4</v>
@@ -7240,7 +7240,7 @@
         <v>55</v>
       </c>
       <c r="AK50" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL50" t="n">
         <v>980</v>
@@ -7249,7 +7249,7 @@
         <v>80</v>
       </c>
       <c r="AN50" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AO50" t="n">
         <v>16</v>
@@ -7291,13 +7291,13 @@
         <v>28</v>
       </c>
       <c r="I51" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J51" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="K51" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="L51" t="n">
         <v>1.17</v>
@@ -7318,22 +7318,22 @@
         <v>1.27</v>
       </c>
       <c r="R51" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="S51" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="T51" t="n">
         <v>2.12</v>
       </c>
       <c r="U51" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V51" t="n">
         <v>1.03</v>
       </c>
       <c r="W51" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X51" t="n">
         <v>75</v>
@@ -7348,10 +7348,10 @@
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AD51" t="n">
         <v>95</v>
@@ -7384,7 +7384,7 @@
         <v>220</v>
       </c>
       <c r="AN51" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="AO51" t="n">
         <v>480</v>
@@ -7423,7 +7423,7 @@
         <v>2.52</v>
       </c>
       <c r="H52" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I52" t="n">
         <v>3.5</v>
@@ -7474,7 +7474,7 @@
         <v>12.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z52" t="n">
         <v>24</v>
@@ -7495,10 +7495,10 @@
         <v>44</v>
       </c>
       <c r="AF52" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG52" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH52" t="n">
         <v>19.5</v>
@@ -7582,7 +7582,7 @@
         <v>1.16</v>
       </c>
       <c r="P53" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q53" t="n">
         <v>1.5</v>
@@ -7609,28 +7609,28 @@
         <v>34</v>
       </c>
       <c r="Y53" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z53" t="n">
         <v>10.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB53" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC53" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AD53" t="n">
         <v>13</v>
       </c>
       <c r="AE53" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF53" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AG53" t="n">
         <v>55</v>
@@ -7639,7 +7639,7 @@
         <v>32</v>
       </c>
       <c r="AI53" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ53" t="n">
         <v>540</v>
@@ -7657,7 +7657,7 @@
         <v>270</v>
       </c>
       <c r="AO53" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="54">
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G54" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H54" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I54" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J54" t="n">
         <v>3.5</v>
@@ -7705,7 +7705,7 @@
         <v>3.8</v>
       </c>
       <c r="L54" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="M54" t="n">
         <v>1.07</v>
@@ -7717,10 +7717,10 @@
         <v>1.31</v>
       </c>
       <c r="P54" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R54" t="n">
         <v>1.34</v>
@@ -7729,37 +7729,37 @@
         <v>3.35</v>
       </c>
       <c r="T54" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U54" t="n">
         <v>2.08</v>
       </c>
       <c r="V54" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W54" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="X54" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA54" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB54" t="n">
         <v>11</v>
       </c>
       <c r="AC54" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD54" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE54" t="n">
         <v>60</v>
@@ -7774,7 +7774,7 @@
         <v>21</v>
       </c>
       <c r="AI54" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ54" t="n">
         <v>28</v>
@@ -7792,7 +7792,7 @@
         <v>17.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
@@ -7822,61 +7822,61 @@
         </is>
       </c>
       <c r="F55" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G55" t="n">
         <v>2.22</v>
       </c>
-      <c r="G55" t="n">
-        <v>2.28</v>
-      </c>
       <c r="H55" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I55" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K55" t="n">
         <v>3.55</v>
       </c>
       <c r="L55" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M55" t="n">
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O55" t="n">
         <v>1.34</v>
       </c>
       <c r="P55" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R55" t="n">
         <v>1.35</v>
       </c>
       <c r="S55" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T55" t="n">
         <v>1.79</v>
       </c>
       <c r="U55" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V55" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W55" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X55" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y55" t="n">
         <v>14.5</v>
@@ -7888,7 +7888,7 @@
         <v>75</v>
       </c>
       <c r="AB55" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC55" t="n">
         <v>8.199999999999999</v>
@@ -7900,10 +7900,10 @@
         <v>50</v>
       </c>
       <c r="AF55" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH55" t="n">
         <v>18.5</v>
@@ -7912,19 +7912,19 @@
         <v>55</v>
       </c>
       <c r="AJ55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK55" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL55" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM55" t="n">
         <v>120</v>
       </c>
       <c r="AN55" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AO55" t="n">
         <v>48</v>
@@ -7999,10 +7999,10 @@
         <v>3.55</v>
       </c>
       <c r="T56" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U56" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>1.39</v>
@@ -8038,7 +8038,7 @@
         <v>18.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH56" t="n">
         <v>21</v>
@@ -8095,7 +8095,7 @@
         <v>2.34</v>
       </c>
       <c r="G57" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H57" t="n">
         <v>3.15</v>
@@ -8110,7 +8110,7 @@
         <v>3.85</v>
       </c>
       <c r="L57" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M57" t="n">
         <v>1.05</v>
@@ -8122,7 +8122,7 @@
         <v>1.23</v>
       </c>
       <c r="P57" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q57" t="n">
         <v>1.72</v>
@@ -8143,10 +8143,10 @@
         <v>1.45</v>
       </c>
       <c r="W57" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X57" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y57" t="n">
         <v>970</v>
@@ -8158,7 +8158,7 @@
         <v>50</v>
       </c>
       <c r="AB57" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC57" t="n">
         <v>9.199999999999999</v>
@@ -8176,7 +8176,7 @@
         <v>970</v>
       </c>
       <c r="AH57" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI57" t="n">
         <v>40</v>
@@ -8233,10 +8233,10 @@
         <v>3.7</v>
       </c>
       <c r="H58" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J58" t="n">
         <v>4.1</v>
@@ -8269,10 +8269,10 @@
         <v>2.4</v>
       </c>
       <c r="T58" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U58" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V58" t="n">
         <v>1.9</v>
@@ -8281,22 +8281,22 @@
         <v>1.37</v>
       </c>
       <c r="X58" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y58" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Z58" t="n">
         <v>17</v>
       </c>
       <c r="AA58" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB58" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC58" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD58" t="n">
         <v>970</v>
@@ -8368,16 +8368,16 @@
         <v>1.27</v>
       </c>
       <c r="H59" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="I59" t="n">
         <v>14</v>
       </c>
       <c r="J59" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K59" t="n">
         <v>7.8</v>
-      </c>
-      <c r="K59" t="n">
-        <v>8</v>
       </c>
       <c r="L59" t="n">
         <v>1.2</v>
@@ -8386,25 +8386,25 @@
         <v>1.02</v>
       </c>
       <c r="N59" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O59" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P59" t="n">
         <v>3.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R59" t="n">
         <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T59" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U59" t="n">
         <v>2.1</v>
@@ -8413,10 +8413,10 @@
         <v>1.07</v>
       </c>
       <c r="W59" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X59" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y59" t="n">
         <v>80</v>
@@ -8434,7 +8434,7 @@
         <v>19</v>
       </c>
       <c r="AD59" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE59" t="n">
         <v>170</v>
@@ -8446,7 +8446,7 @@
         <v>12</v>
       </c>
       <c r="AH59" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI59" t="n">
         <v>130</v>
@@ -8464,10 +8464,10 @@
         <v>120</v>
       </c>
       <c r="AN59" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO59" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -8497,13 +8497,13 @@
         </is>
       </c>
       <c r="F60" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G60" t="n">
         <v>2.08</v>
       </c>
-      <c r="G60" t="n">
-        <v>2.12</v>
-      </c>
       <c r="H60" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I60" t="n">
         <v>3.9</v>
@@ -8515,55 +8515,55 @@
         <v>3.95</v>
       </c>
       <c r="L60" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M60" t="n">
         <v>1.05</v>
       </c>
       <c r="N60" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O60" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P60" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R60" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S60" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T60" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U60" t="n">
         <v>2.38</v>
       </c>
       <c r="V60" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W60" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X60" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y60" t="n">
         <v>17.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA60" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB60" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC60" t="n">
         <v>9.199999999999999</v>
@@ -8593,16 +8593,16 @@
         <v>20</v>
       </c>
       <c r="AL60" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM60" t="n">
         <v>85</v>
       </c>
       <c r="AN60" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO60" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -8632,19 +8632,19 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J61" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K61" t="n">
         <v>3.6</v>
@@ -8656,40 +8656,40 @@
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O61" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P61" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R61" t="n">
         <v>1.3</v>
       </c>
       <c r="S61" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T61" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U61" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V61" t="n">
         <v>1.28</v>
       </c>
       <c r="W61" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X61" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z61" t="n">
         <v>38</v>
@@ -8704,13 +8704,13 @@
         <v>8.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE61" t="n">
         <v>60</v>
       </c>
       <c r="AF61" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG61" t="n">
         <v>13</v>
@@ -8773,10 +8773,10 @@
         <v>2.54</v>
       </c>
       <c r="H62" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I62" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J62" t="n">
         <v>3.9</v>
@@ -8785,13 +8785,13 @@
         <v>5.2</v>
       </c>
       <c r="L62" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="M62" t="n">
         <v>1.02</v>
       </c>
       <c r="N62" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O62" t="n">
         <v>1.17</v>
@@ -8803,13 +8803,13 @@
         <v>1.52</v>
       </c>
       <c r="R62" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S62" t="n">
         <v>2.28</v>
       </c>
       <c r="T62" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="U62" t="n">
         <v>2.6</v>
@@ -8824,16 +8824,16 @@
         <v>34</v>
       </c>
       <c r="Y62" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z62" t="n">
         <v>30</v>
       </c>
       <c r="AA62" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB62" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC62" t="n">
         <v>12.5</v>
@@ -8872,7 +8872,7 @@
         <v>14.5</v>
       </c>
       <c r="AO62" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
@@ -8902,13 +8902,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G63" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H63" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I63" t="n">
         <v>3.8</v>
@@ -8926,13 +8926,13 @@
         <v>1.12</v>
       </c>
       <c r="N63" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="O63" t="n">
         <v>1.51</v>
       </c>
       <c r="P63" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q63" t="n">
         <v>2.58</v>
@@ -8953,7 +8953,7 @@
         <v>1.35</v>
       </c>
       <c r="W63" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X63" t="n">
         <v>11.5</v>
@@ -8971,7 +8971,7 @@
         <v>9</v>
       </c>
       <c r="AC63" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD63" t="n">
         <v>19</v>
@@ -9037,16 +9037,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G64" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H64" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="I64" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="J64" t="n">
         <v>4.1</v>
@@ -9061,10 +9061,10 @@
         <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O64" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P64" t="n">
         <v>2.2</v>
@@ -9073,10 +9073,10 @@
         <v>1.8</v>
       </c>
       <c r="R64" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S64" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T64" t="n">
         <v>1.79</v>
@@ -9085,7 +9085,7 @@
         <v>2.2</v>
       </c>
       <c r="V64" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="W64" t="n">
         <v>1.24</v>
@@ -9109,7 +9109,7 @@
         <v>9</v>
       </c>
       <c r="AD64" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE64" t="n">
         <v>17</v>
@@ -9142,7 +9142,7 @@
         <v>65</v>
       </c>
       <c r="AO64" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="65">
@@ -9175,7 +9175,7 @@
         <v>1.89</v>
       </c>
       <c r="G65" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H65" t="n">
         <v>5</v>
@@ -9193,7 +9193,7 @@
         <v>1.44</v>
       </c>
       <c r="M65" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N65" t="n">
         <v>3.45</v>
@@ -9232,7 +9232,7 @@
         <v>15.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA65" t="n">
         <v>130</v>
@@ -9268,7 +9268,7 @@
         <v>21</v>
       </c>
       <c r="AL65" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM65" t="n">
         <v>130</v>
@@ -9277,7 +9277,7 @@
         <v>14.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
@@ -9307,28 +9307,28 @@
         </is>
       </c>
       <c r="F66" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G66" t="n">
         <v>2.92</v>
-      </c>
-      <c r="G66" t="n">
-        <v>3</v>
       </c>
       <c r="H66" t="n">
         <v>2.86</v>
       </c>
       <c r="I66" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J66" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K66" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L66" t="n">
         <v>1.48</v>
       </c>
       <c r="M66" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N66" t="n">
         <v>3.3</v>
@@ -9337,10 +9337,10 @@
         <v>1.41</v>
       </c>
       <c r="P66" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R66" t="n">
         <v>1.29</v>
@@ -9355,10 +9355,10 @@
         <v>2.06</v>
       </c>
       <c r="V66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W66" t="n">
         <v>1.52</v>
-      </c>
-      <c r="W66" t="n">
-        <v>1.5</v>
       </c>
       <c r="X66" t="n">
         <v>11</v>
@@ -9376,7 +9376,7 @@
         <v>10.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD66" t="n">
         <v>13</v>
@@ -9385,7 +9385,7 @@
         <v>34</v>
       </c>
       <c r="AF66" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AG66" t="n">
         <v>13</v>
@@ -9394,7 +9394,7 @@
         <v>18</v>
       </c>
       <c r="AI66" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ66" t="n">
         <v>48</v>
@@ -9403,7 +9403,7 @@
         <v>36</v>
       </c>
       <c r="AL66" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM66" t="n">
         <v>120</v>
@@ -9466,25 +9466,25 @@
         <v>1.05</v>
       </c>
       <c r="N67" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O67" t="n">
         <v>1.25</v>
       </c>
       <c r="P67" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R67" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S67" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="T67" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U67" t="n">
         <v>2.14</v>
@@ -9517,7 +9517,7 @@
         <v>23</v>
       </c>
       <c r="AE67" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF67" t="n">
         <v>9.800000000000001</v>
@@ -9529,10 +9529,10 @@
         <v>20</v>
       </c>
       <c r="AI67" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ67" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK67" t="n">
         <v>15</v>
@@ -9580,7 +9580,7 @@
         <v>1.97</v>
       </c>
       <c r="G68" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>4.1</v>
@@ -9589,7 +9589,7 @@
         <v>4.3</v>
       </c>
       <c r="J68" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K68" t="n">
         <v>3.9</v>
@@ -9619,7 +9619,7 @@
         <v>3.15</v>
       </c>
       <c r="T68" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U68" t="n">
         <v>2.28</v>
@@ -9661,7 +9661,7 @@
         <v>10</v>
       </c>
       <c r="AH68" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI68" t="n">
         <v>55</v>
@@ -9712,10 +9712,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="G69" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H69" t="n">
         <v>2.96</v>
@@ -9727,7 +9727,7 @@
         <v>2.68</v>
       </c>
       <c r="K69" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
@@ -9736,22 +9736,22 @@
         <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="O69" t="n">
         <v>1.42</v>
       </c>
       <c r="P69" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R69" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S69" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="T69" t="n">
         <v>1.01</v>
@@ -9763,7 +9763,7 @@
         <v>1.25</v>
       </c>
       <c r="W69" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9856,7 +9856,7 @@
         <v>3.3</v>
       </c>
       <c r="I70" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J70" t="n">
         <v>2.96</v>
@@ -9880,7 +9880,7 @@
         <v>1.56</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="R70" t="n">
         <v>1.2</v>
@@ -9889,7 +9889,7 @@
         <v>4.5</v>
       </c>
       <c r="T70" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U70" t="n">
         <v>1.73</v>
@@ -9919,13 +9919,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD70" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AE70" t="n">
         <v>65</v>
       </c>
       <c r="AF70" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG70" t="n">
         <v>14.5</v>
@@ -9985,25 +9985,25 @@
         <v>2.28</v>
       </c>
       <c r="G71" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="H71" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I71" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J71" t="n">
         <v>3.05</v>
       </c>
       <c r="K71" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L71" t="n">
         <v>1.46</v>
       </c>
       <c r="M71" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N71" t="n">
         <v>3.05</v>
@@ -10021,19 +10021,19 @@
         <v>1.26</v>
       </c>
       <c r="S71" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="T71" t="n">
         <v>1.88</v>
       </c>
       <c r="U71" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V71" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W71" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X71" t="n">
         <v>970</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G72" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H72" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I72" t="n">
         <v>3.1</v>
       </c>
       <c r="J72" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K72" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -10141,19 +10141,19 @@
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>1.37</v>
+        <v>3.6</v>
       </c>
       <c r="O72" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P72" t="n">
-        <v>1.37</v>
+        <v>1.88</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R72" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S72" t="n">
         <v>2.68</v>
@@ -10252,16 +10252,16 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G73" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="H73" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I73" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J73" t="n">
         <v>3.25</v>
@@ -10270,22 +10270,22 @@
         <v>3.3</v>
       </c>
       <c r="L73" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="M73" t="n">
         <v>1.13</v>
       </c>
       <c r="N73" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O73" t="n">
         <v>1.57</v>
       </c>
       <c r="P73" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="R73" t="n">
         <v>1.2</v>
@@ -10297,37 +10297,37 @@
         <v>2.28</v>
       </c>
       <c r="U73" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V73" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W73" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X73" t="n">
         <v>8.4</v>
       </c>
       <c r="Y73" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z73" t="n">
         <v>32</v>
       </c>
       <c r="AA73" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB73" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC73" t="n">
         <v>7.4</v>
       </c>
       <c r="AD73" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE73" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF73" t="n">
         <v>10.5</v>
@@ -10345,7 +10345,7 @@
         <v>25</v>
       </c>
       <c r="AK73" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL73" t="n">
         <v>60</v>
@@ -10357,7 +10357,7 @@
         <v>26</v>
       </c>
       <c r="AO73" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H74" t="n">
         <v>8</v>
       </c>
       <c r="I74" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J74" t="n">
         <v>4.8</v>
       </c>
       <c r="K74" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L74" t="n">
         <v>1.39</v>
@@ -10411,13 +10411,13 @@
         <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O74" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P74" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q74" t="n">
         <v>1.92</v>
@@ -10429,7 +10429,7 @@
         <v>3.4</v>
       </c>
       <c r="T74" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U74" t="n">
         <v>1.82</v>
@@ -10438,10 +10438,10 @@
         <v>1.12</v>
       </c>
       <c r="W74" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X74" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y74" t="n">
         <v>30</v>
@@ -10456,10 +10456,10 @@
         <v>7.2</v>
       </c>
       <c r="AC74" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD74" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE74" t="n">
         <v>170</v>
@@ -10489,7 +10489,7 @@
         <v>210</v>
       </c>
       <c r="AN74" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO74" t="n">
         <v>250</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G75" t="n">
         <v>2.12</v>
@@ -10555,22 +10555,22 @@
         <v>2.2</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R75" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S75" t="n">
         <v>2.68</v>
       </c>
       <c r="T75" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U75" t="n">
         <v>2.3</v>
       </c>
       <c r="V75" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W75" t="n">
         <v>1.89</v>
@@ -10657,25 +10657,25 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G76" t="n">
         <v>4.2</v>
       </c>
       <c r="H76" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I76" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J76" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K76" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L76" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M76" t="n">
         <v>1.07</v>
@@ -10690,7 +10690,7 @@
         <v>2.02</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R76" t="n">
         <v>1.38</v>
@@ -10705,7 +10705,7 @@
         <v>2.16</v>
       </c>
       <c r="V76" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="W76" t="n">
         <v>1.31</v>
@@ -10720,7 +10720,7 @@
         <v>13.5</v>
       </c>
       <c r="AA76" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AB76" t="n">
         <v>18</v>
@@ -10732,10 +10732,10 @@
         <v>11</v>
       </c>
       <c r="AE76" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AF76" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AG76" t="n">
         <v>20</v>
@@ -10747,19 +10747,19 @@
         <v>36</v>
       </c>
       <c r="AJ76" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK76" t="n">
         <v>50</v>
       </c>
       <c r="AL76" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM76" t="n">
         <v>110</v>
       </c>
       <c r="AN76" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO76" t="n">
         <v>17</v>
@@ -10792,10 +10792,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G77" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H77" t="n">
         <v>1.17</v>
@@ -10804,10 +10804,10 @@
         <v>1.22</v>
       </c>
       <c r="J77" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10816,88 +10816,88 @@
         <v>1.02</v>
       </c>
       <c r="N77" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O77" t="n">
         <v>1.13</v>
       </c>
       <c r="P77" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="R77" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="S77" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T77" t="n">
         <v>2.1</v>
       </c>
       <c r="U77" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V77" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="W77" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="X77" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y77" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z77" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA77" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AB77" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AC77" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AD77" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF77" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AG77" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH77" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI77" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ77" t="n">
         <v>1000</v>
       </c>
       <c r="AK77" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AL77" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AM77" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN77" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AO77" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="78">
@@ -10936,10 +10936,10 @@
         <v>4.1</v>
       </c>
       <c r="I78" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J78" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K78" t="n">
         <v>3.6</v>
@@ -10975,10 +10975,10 @@
         <v>2.06</v>
       </c>
       <c r="V78" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W78" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X78" t="n">
         <v>12.5</v>
@@ -11011,10 +11011,10 @@
         <v>10.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI78" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ78" t="n">
         <v>25</v>
@@ -11065,19 +11065,19 @@
         <v>6</v>
       </c>
       <c r="G79" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H79" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="I79" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J79" t="n">
         <v>3.65</v>
       </c>
       <c r="K79" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L79" t="n">
         <v>1.44</v>
@@ -11092,7 +11092,7 @@
         <v>1.42</v>
       </c>
       <c r="P79" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q79" t="n">
         <v>2.22</v>
@@ -11101,10 +11101,10 @@
         <v>1.25</v>
       </c>
       <c r="S79" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T79" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U79" t="n">
         <v>1.77</v>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G80" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H80" t="n">
         <v>2.74</v>
@@ -11221,7 +11221,7 @@
         <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O80" t="n">
         <v>1.28</v>
@@ -11233,7 +11233,7 @@
         <v>1.83</v>
       </c>
       <c r="R80" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S80" t="n">
         <v>3.1</v>
@@ -11242,7 +11242,7 @@
         <v>1.61</v>
       </c>
       <c r="U80" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="V80" t="n">
         <v>1.47</v>
@@ -11263,7 +11263,7 @@
         <v>50</v>
       </c>
       <c r="AB80" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC80" t="n">
         <v>9.4</v>
@@ -11287,7 +11287,7 @@
         <v>46</v>
       </c>
       <c r="AJ80" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK80" t="n">
         <v>32</v>
@@ -11299,7 +11299,7 @@
         <v>90</v>
       </c>
       <c r="AN80" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO80" t="n">
         <v>28</v>
@@ -11335,19 +11335,19 @@
         <v>1.15</v>
       </c>
       <c r="G81" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H81" t="n">
         <v>25</v>
       </c>
       <c r="I81" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J81" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L81" t="n">
         <v>1.27</v>
@@ -11368,7 +11368,7 @@
         <v>1.54</v>
       </c>
       <c r="R81" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S81" t="n">
         <v>2.38</v>
@@ -11377,13 +11377,13 @@
         <v>2.74</v>
       </c>
       <c r="U81" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="V81" t="n">
         <v>1.03</v>
       </c>
       <c r="W81" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="X81" t="n">
         <v>32</v>
@@ -11401,7 +11401,7 @@
         <v>9.6</v>
       </c>
       <c r="AC81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD81" t="n">
         <v>110</v>
@@ -11476,7 +11476,7 @@
         <v>6.6</v>
       </c>
       <c r="I82" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J82" t="n">
         <v>4</v>
@@ -11500,34 +11500,34 @@
         <v>1.81</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R82" t="n">
         <v>1.3</v>
       </c>
       <c r="S82" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T82" t="n">
         <v>2.12</v>
       </c>
       <c r="U82" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V82" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W82" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X82" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y82" t="n">
         <v>20</v>
       </c>
       <c r="Z82" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA82" t="n">
         <v>270</v>
@@ -11536,10 +11536,10 @@
         <v>7.2</v>
       </c>
       <c r="AC82" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD82" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE82" t="n">
         <v>150</v>
@@ -11602,19 +11602,19 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G83" t="n">
         <v>2.06</v>
       </c>
       <c r="H83" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I83" t="n">
         <v>4.9</v>
       </c>
       <c r="J83" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K83" t="n">
         <v>3.75</v>
@@ -11626,13 +11626,13 @@
         <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O83" t="n">
         <v>1.38</v>
       </c>
       <c r="P83" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q83" t="n">
         <v>2.1</v>
@@ -11644,7 +11644,7 @@
         <v>3.85</v>
       </c>
       <c r="T83" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U83" t="n">
         <v>1.92</v>
@@ -11692,7 +11692,7 @@
         <v>95</v>
       </c>
       <c r="AJ83" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK83" t="n">
         <v>28</v>
@@ -11749,7 +11749,7 @@
         <v>1.64</v>
       </c>
       <c r="J84" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K84" t="n">
         <v>5.3</v>
@@ -11761,28 +11761,28 @@
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O84" t="n">
         <v>1.16</v>
       </c>
       <c r="P84" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R84" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S84" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="T84" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U84" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V84" t="n">
         <v>2.56</v>
@@ -11872,16 +11872,16 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G85" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H85" t="n">
         <v>2.2</v>
       </c>
       <c r="I85" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J85" t="n">
         <v>3.7</v>
@@ -12007,10 +12007,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.09</v>
+        <v>7</v>
       </c>
       <c r="G86" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="H86" t="n">
         <v>1.42</v>
@@ -12019,10 +12019,10 @@
         <v>1.54</v>
       </c>
       <c r="J86" t="n">
-        <v>1.09</v>
+        <v>3.7</v>
       </c>
       <c r="K86" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L86" t="n">
         <v>1.34</v>
@@ -12031,7 +12031,7 @@
         <v>1.05</v>
       </c>
       <c r="N86" t="n">
-        <v>1.03</v>
+        <v>3.55</v>
       </c>
       <c r="O86" t="n">
         <v>1.27</v>
@@ -12049,16 +12049,16 @@
         <v>2.82</v>
       </c>
       <c r="T86" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="U86" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="V86" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="W86" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X86" t="n">
         <v>18.5</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G87" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="H87" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I87" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="J87" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="K87" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L87" t="n">
         <v>1.48</v>
@@ -12193,10 +12193,10 @@
         <v>1.26</v>
       </c>
       <c r="W87" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="X87" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Y87" t="n">
         <v>970</v>
@@ -12211,13 +12211,13 @@
         <v>7.8</v>
       </c>
       <c r="AC87" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="AD87" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE87" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF87" t="n">
         <v>970</v>
@@ -12277,22 +12277,22 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I88" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K88" t="n">
         <v>3.75</v>
-      </c>
-      <c r="J88" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K88" t="n">
-        <v>3.8</v>
       </c>
       <c r="L88" t="n">
         <v>1.36</v>
@@ -12313,10 +12313,10 @@
         <v>1.87</v>
       </c>
       <c r="R88" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="S88" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="T88" t="n">
         <v>1.74</v>
@@ -12325,64 +12325,64 @@
         <v>2.28</v>
       </c>
       <c r="V88" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W88" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="X88" t="n">
         <v>15</v>
       </c>
       <c r="Y88" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA88" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB88" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC88" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD88" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF88" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG88" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH88" t="n">
         <v>16.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ88" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AK88" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL88" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM88" t="n">
         <v>85</v>
       </c>
       <c r="AN88" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO88" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
@@ -12412,16 +12412,16 @@
         </is>
       </c>
       <c r="F89" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G89" t="n">
         <v>2.88</v>
-      </c>
-      <c r="G89" t="n">
-        <v>2.92</v>
       </c>
       <c r="H89" t="n">
         <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J89" t="n">
         <v>3.05</v>
@@ -12433,7 +12433,7 @@
         <v>1.5</v>
       </c>
       <c r="M89" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N89" t="n">
         <v>3.25</v>
@@ -12451,7 +12451,7 @@
         <v>1.27</v>
       </c>
       <c r="S89" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T89" t="n">
         <v>1.92</v>
@@ -12463,7 +12463,7 @@
         <v>1.48</v>
       </c>
       <c r="W89" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X89" t="n">
         <v>10</v>
@@ -12553,7 +12553,7 @@
         <v>2.32</v>
       </c>
       <c r="H90" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I90" t="n">
         <v>3.45</v>
@@ -12562,7 +12562,7 @@
         <v>3.7</v>
       </c>
       <c r="K90" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L90" t="n">
         <v>1.3</v>
@@ -12571,13 +12571,13 @@
         <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O90" t="n">
         <v>1.22</v>
       </c>
       <c r="P90" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="Q90" t="n">
         <v>1.66</v>
@@ -12586,31 +12586,31 @@
         <v>1.54</v>
       </c>
       <c r="S90" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T90" t="n">
         <v>1.59</v>
       </c>
       <c r="U90" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V90" t="n">
         <v>1.4</v>
       </c>
       <c r="W90" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X90" t="n">
         <v>26</v>
       </c>
       <c r="Y90" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z90" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA90" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB90" t="n">
         <v>15.5</v>
@@ -12619,13 +12619,13 @@
         <v>11</v>
       </c>
       <c r="AD90" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE90" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF90" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG90" t="n">
         <v>13.5</v>
@@ -12634,22 +12634,22 @@
         <v>18.5</v>
       </c>
       <c r="AI90" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ90" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK90" t="n">
         <v>23</v>
       </c>
       <c r="AL90" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM90" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN90" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO90" t="n">
         <v>29</v>
@@ -12682,16 +12682,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G91" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H91" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I91" t="n">
         <v>2.98</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3</v>
       </c>
       <c r="J91" t="n">
         <v>3.1</v>
@@ -12727,13 +12727,13 @@
         <v>1.99</v>
       </c>
       <c r="U91" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V91" t="n">
         <v>1.5</v>
       </c>
       <c r="W91" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X91" t="n">
         <v>9.4</v>
@@ -12751,7 +12751,7 @@
         <v>9.4</v>
       </c>
       <c r="AC91" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD91" t="n">
         <v>13</v>
@@ -12847,10 +12847,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12955,7 +12955,7 @@
         <v>1.85</v>
       </c>
       <c r="G93" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H93" t="n">
         <v>4.7</v>
@@ -12964,10 +12964,10 @@
         <v>5.7</v>
       </c>
       <c r="J93" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L93" t="n">
         <v>1.01</v>
@@ -12985,7 +12985,7 @@
         <v>1.56</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R93" t="n">
         <v>1.18</v>
@@ -13003,7 +13003,7 @@
         <v>1.21</v>
       </c>
       <c r="W93" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X93" t="n">
         <v>1000</v>
@@ -13087,28 +13087,28 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="G94" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I94" t="n">
         <v>3.3</v>
       </c>
-      <c r="H94" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3.75</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="K94" t="n">
-        <v>5.3</v>
+        <v>3.25</v>
       </c>
       <c r="L94" t="n">
         <v>1.01</v>
       </c>
       <c r="M94" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N94" t="n">
         <v>2.62</v>
@@ -13117,82 +13117,82 @@
         <v>1.52</v>
       </c>
       <c r="P94" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="R94" t="n">
         <v>1.2</v>
       </c>
       <c r="S94" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="T94" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U94" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V94" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="W94" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="X94" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y94" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z94" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA94" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB94" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC94" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD94" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE94" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF94" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG94" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI94" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ94" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK94" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL94" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM94" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN94" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO94" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95">
@@ -13237,7 +13237,7 @@
         <v>1.02</v>
       </c>
       <c r="K95" t="n">
-        <v>110</v>
+        <v>950</v>
       </c>
       <c r="L95" t="n">
         <v>1.01</v>
@@ -13405,7 +13405,7 @@
         <v>2.04</v>
       </c>
       <c r="V96" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W96" t="n">
         <v>1.7</v>
@@ -13459,7 +13459,7 @@
         <v>110</v>
       </c>
       <c r="AN96" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO96" t="n">
         <v>44</v>
@@ -13504,13 +13504,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J97" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K97" t="n">
         <v>3.95</v>
       </c>
       <c r="L97" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M97" t="n">
         <v>1.12</v>
@@ -13537,7 +13537,7 @@
         <v>2.52</v>
       </c>
       <c r="U97" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V97" t="n">
         <v>1.12</v>
@@ -13594,7 +13594,7 @@
         <v>410</v>
       </c>
       <c r="AN97" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO97" t="n">
         <v>580</v>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="G98" t="n">
         <v>1.98</v>
@@ -13648,91 +13648,91 @@
         <v>1.01</v>
       </c>
       <c r="M98" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N98" t="n">
-        <v>1.69</v>
+        <v>3.15</v>
       </c>
       <c r="O98" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P98" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="R98" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V98" t="n">
         <v>1.23</v>
-      </c>
-      <c r="S98" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T98" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U98" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V98" t="n">
-        <v>1.25</v>
       </c>
       <c r="W98" t="n">
         <v>2.02</v>
       </c>
       <c r="X98" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y98" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z98" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA98" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB98" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC98" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD98" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE98" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF98" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG98" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH98" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI98" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK98" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL98" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM98" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN98" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO98" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
@@ -13777,7 +13777,7 @@
         <v>1.02</v>
       </c>
       <c r="K99" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L99" t="n">
         <v>1.01</v>
@@ -13900,10 +13900,10 @@
         <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H100" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I100" t="n">
         <v>5.3</v>
@@ -13912,10 +13912,10 @@
         <v>3.15</v>
       </c>
       <c r="K100" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L100" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="M100" t="n">
         <v>1.1</v>
@@ -13930,25 +13930,25 @@
         <v>1.63</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="R100" t="n">
         <v>1.23</v>
       </c>
       <c r="S100" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="T100" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="U100" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="V100" t="n">
         <v>1.23</v>
       </c>
       <c r="W100" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X100" t="n">
         <v>12</v>
@@ -14074,52 +14074,52 @@
         <v>6.2</v>
       </c>
       <c r="T101" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="U101" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="V101" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W101" t="n">
         <v>1.86</v>
       </c>
       <c r="X101" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y101" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z101" t="n">
         <v>980</v>
       </c>
       <c r="AA101" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB101" t="n">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="AC101" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD101" t="n">
         <v>980</v>
       </c>
       <c r="AE101" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF101" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AG101" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH101" t="n">
         <v>980</v>
       </c>
       <c r="AI101" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ101" t="n">
         <v>980</v>
@@ -14128,16 +14128,16 @@
         <v>980</v>
       </c>
       <c r="AL101" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AM101" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AN101" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO101" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102">
@@ -14188,13 +14188,13 @@
         <v>1.5</v>
       </c>
       <c r="M102" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N102" t="n">
-        <v>2.54</v>
+        <v>2.9</v>
       </c>
       <c r="O102" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P102" t="n">
         <v>1.61</v>
@@ -14203,10 +14203,10 @@
         <v>2.34</v>
       </c>
       <c r="R102" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S102" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="T102" t="n">
         <v>2.4</v>
@@ -14320,7 +14320,7 @@
         <v>3.45</v>
       </c>
       <c r="L103" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="M103" t="n">
         <v>1.07</v>
@@ -14344,7 +14344,7 @@
         <v>4</v>
       </c>
       <c r="T103" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U103" t="n">
         <v>2.04</v>
@@ -14368,7 +14368,7 @@
         <v>70</v>
       </c>
       <c r="AB103" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC103" t="n">
         <v>8.800000000000001</v>
@@ -14383,7 +14383,7 @@
         <v>17.5</v>
       </c>
       <c r="AG103" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH103" t="n">
         <v>23</v>
@@ -14452,7 +14452,7 @@
         <v>1.02</v>
       </c>
       <c r="K104" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L104" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -667,67 +667,67 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="n">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="H2" t="n">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="J2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N2" t="n">
         <v>5.1</v>
       </c>
-      <c r="K2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.8</v>
-      </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>2.84</v>
+        <v>2.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="R2" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="S2" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>3.65</v>
+        <v>2.64</v>
       </c>
       <c r="X2" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -739,10 +739,10 @@
         <v>970</v>
       </c>
       <c r="AD2" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="n">
         <v>970</v>
@@ -751,10 +751,10 @@
         <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
         <v>970</v>
@@ -763,16 +763,16 @@
         <v>970</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>970</v>
+        <v>6.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -829,13 +829,13 @@
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R3" t="n">
         <v>1.66</v>
@@ -847,13 +847,13 @@
         <v>1.54</v>
       </c>
       <c r="U3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V3" t="n">
         <v>1.38</v>
       </c>
       <c r="W3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X3" t="n">
         <v>27</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G4" t="n">
         <v>2.12</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.14</v>
-      </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>1.34</v>
@@ -961,37 +961,37 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V4" t="n">
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>17.5</v>
@@ -1003,13 +1003,13 @@
         <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>38</v>
@@ -1018,31 +1018,31 @@
         <v>14.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
         <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL4" t="n">
         <v>30</v>
       </c>
       <c r="AM4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
         <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="H5" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>1.82</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="W5" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
-        <v>90</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1207,73 +1207,73 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="I6" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K6" t="n">
         <v>10.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="S6" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X6" t="n">
         <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC6" t="n">
         <v>980</v>
@@ -1285,10 +1285,10 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AG6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
@@ -1303,16 +1303,16 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="7">
@@ -1348,13 +1348,13 @@
         <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="K7" t="n">
         <v>3.6</v>
@@ -1366,13 +1366,13 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.63</v>
+        <v>2.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q7" t="n">
         <v>2.06</v>
@@ -1381,13 +1381,13 @@
         <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
         <v>1.43</v>
@@ -1396,58 +1396,58 @@
         <v>1.44</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G9" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>4.3</v>
@@ -1642,7 +1642,7 @@
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
         <v>1.81</v>
@@ -1651,7 +1651,7 @@
         <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
         <v>1.78</v>
@@ -1660,10 +1660,10 @@
         <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
         <v>970</v>
@@ -1672,10 +1672,10 @@
         <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AA9" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AB9" t="n">
         <v>11</v>
@@ -1684,10 +1684,10 @@
         <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AF9" t="n">
         <v>970</v>
@@ -1696,28 +1696,28 @@
         <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AN9" t="n">
         <v>14.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10">
@@ -1750,13 +1750,13 @@
         <v>4.1</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="I10" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
@@ -1771,31 +1771,31 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S10" t="n">
         <v>2.48</v>
       </c>
       <c r="T10" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U10" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W10" t="n">
         <v>1.3</v>
@@ -1804,46 +1804,46 @@
         <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
         <v>14.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF10" t="n">
         <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK10" t="n">
         <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
         <v>65</v>
@@ -1852,7 +1852,7 @@
         <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="G11" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
         <v>1.35</v>
@@ -1906,16 +1906,16 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
         <v>1.46</v>
@@ -1927,67 +1927,67 @@
         <v>1.65</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V11" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W11" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X11" t="n">
-        <v>90</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
         <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -2158,10 +2158,10 @@
         <v>2.12</v>
       </c>
       <c r="H13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I13" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.35</v>
@@ -2170,7 +2170,7 @@
         <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
@@ -2182,19 +2182,19 @@
         <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="R13" t="n">
         <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>1.94</v>
@@ -2203,7 +2203,7 @@
         <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -2218,13 +2218,13 @@
         <v>110</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC13" t="n">
         <v>7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>65</v>
@@ -2242,19 +2242,19 @@
         <v>80</v>
       </c>
       <c r="AJ13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK13" t="n">
         <v>24</v>
       </c>
-      <c r="AK13" t="n">
-        <v>25</v>
-      </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO13" t="n">
         <v>85</v>
@@ -2320,7 +2320,7 @@
         <v>1.96</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R14" t="n">
         <v>1.37</v>
@@ -2329,13 +2329,13 @@
         <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
         <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W14" t="n">
         <v>2.2</v>
@@ -2371,7 +2371,7 @@
         <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>85</v>
@@ -2431,10 +2431,10 @@
         <v>5.3</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
         <v>3.95</v>
@@ -2452,10 +2452,10 @@
         <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
         <v>1.24</v>
@@ -2470,7 +2470,7 @@
         <v>1.79</v>
       </c>
       <c r="V15" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W15" t="n">
         <v>2.08</v>
@@ -2485,13 +2485,13 @@
         <v>55</v>
       </c>
       <c r="AA15" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="AB15" t="n">
         <v>7.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
         <v>27</v>
@@ -2506,7 +2506,7 @@
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>130</v>
@@ -2521,13 +2521,13 @@
         <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="AN15" t="n">
         <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16">
@@ -2587,7 +2587,7 @@
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q16" t="n">
         <v>1.68</v>
@@ -2599,7 +2599,7 @@
         <v>2.68</v>
       </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U16" t="n">
         <v>2.14</v>
@@ -2662,7 +2662,7 @@
         <v>9</v>
       </c>
       <c r="AO16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G17" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H17" t="n">
         <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
         <v>1.26</v>
@@ -2725,13 +2725,13 @@
         <v>2.28</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R17" t="n">
         <v>1.52</v>
       </c>
       <c r="S17" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T17" t="n">
         <v>1.66</v>
@@ -2743,7 +2743,7 @@
         <v>1.41</v>
       </c>
       <c r="W17" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X17" t="n">
         <v>980</v>
@@ -2755,13 +2755,13 @@
         <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AB17" t="n">
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2791,7 +2791,7 @@
         <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AN17" t="n">
         <v>1000</v>
@@ -2845,7 +2845,7 @@
         <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -2896,7 +2896,7 @@
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
         <v>14.5</v>
@@ -2926,7 +2926,7 @@
         <v>42</v>
       </c>
       <c r="AM18" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="n">
         <v>24</v>
@@ -2971,10 +2971,10 @@
         <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
         <v>3.6</v>
@@ -2986,16 +2986,16 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
         <v>1.32</v>
       </c>
       <c r="P19" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R19" t="n">
         <v>1.39</v>
@@ -3010,7 +3010,7 @@
         <v>2.18</v>
       </c>
       <c r="V19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W19" t="n">
         <v>1.92</v>
@@ -3031,7 +3031,7 @@
         <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
         <v>16.5</v>
@@ -3046,7 +3046,7 @@
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
         <v>60</v>
@@ -3064,10 +3064,10 @@
         <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
     </row>
     <row r="20">
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H20" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
         <v>3.85</v>
@@ -3118,61 +3118,61 @@
         <v>1.32</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q20" t="n">
         <v>1.67</v>
       </c>
       <c r="R20" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="T20" t="n">
         <v>1.61</v>
       </c>
       <c r="U20" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V20" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="Z20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
         <v>15.5</v>
@@ -3181,28 +3181,28 @@
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AK20" t="n">
-        <v>19.5</v>
+        <v>50</v>
       </c>
       <c r="AL20" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G21" t="n">
         <v>1.81</v>
@@ -3241,7 +3241,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J21" t="n">
         <v>4</v>
@@ -3256,7 +3256,7 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>
@@ -3265,28 +3265,28 @@
         <v>2.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
         <v>1.46</v>
       </c>
       <c r="S21" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
         <v>1.76</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V21" t="n">
         <v>1.22</v>
       </c>
       <c r="W21" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
         <v>21</v>
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
         <v>20</v>
@@ -3334,7 +3334,7 @@
         <v>95</v>
       </c>
       <c r="AN21" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO21" t="n">
         <v>65</v>
@@ -3367,34 +3367,34 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="G22" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
         <v>1.48</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
         <v>2.86</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P22" t="n">
         <v>1.62</v>
@@ -3415,61 +3415,61 @@
         <v>1.89</v>
       </c>
       <c r="V22" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W22" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X22" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
         <v>23</v>
       </c>
       <c r="AA22" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AK22" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AL22" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AM22" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN22" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AO22" t="n">
         <v>55</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H23" t="n">
         <v>3.3</v>
@@ -3514,7 +3514,7 @@
         <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K23" t="n">
         <v>4</v>
@@ -3526,7 +3526,7 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.2</v>
@@ -3538,28 +3538,28 @@
         <v>1.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S23" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T23" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U23" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V23" t="n">
         <v>1.41</v>
       </c>
       <c r="W23" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X23" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="n">
         <v>27</v>
@@ -3568,22 +3568,22 @@
         <v>60</v>
       </c>
       <c r="AB23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC23" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
         <v>14.5</v>
@@ -3592,10 +3592,10 @@
         <v>36</v>
       </c>
       <c r="AJ23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -3604,10 +3604,10 @@
         <v>60</v>
       </c>
       <c r="AN23" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G24" t="n">
         <v>2.78</v>
       </c>
       <c r="H24" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I24" t="n">
         <v>3.65</v>
@@ -3670,7 +3670,7 @@
         <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
         <v>1.5</v>
@@ -3691,58 +3691,58 @@
         <v>1.56</v>
       </c>
       <c r="X24" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G25" t="n">
         <v>4.6</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I25" t="n">
         <v>2.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
         <v>3.9</v>
@@ -3814,70 +3814,70 @@
         <v>2.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U25" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V25" t="n">
         <v>1.63</v>
       </c>
       <c r="W25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X25" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G26" t="n">
         <v>1.34</v>
@@ -3916,13 +3916,13 @@
         <v>12</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J26" t="n">
         <v>5.9</v>
       </c>
       <c r="K26" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
         <v>1.33</v>
@@ -3931,28 +3931,28 @@
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R26" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S26" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="T26" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V26" t="n">
         <v>1.08</v>
@@ -3970,10 +3970,10 @@
         <v>120</v>
       </c>
       <c r="AA26" t="n">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC26" t="n">
         <v>13</v>
@@ -3997,10 +3997,10 @@
         <v>170</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>38</v>
@@ -4009,7 +4009,7 @@
         <v>190</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AO26" t="n">
         <v>270</v>
@@ -4048,7 +4048,7 @@
         <v>2.1</v>
       </c>
       <c r="H27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I27" t="n">
         <v>4.8</v>
@@ -4066,10 +4066,10 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P27" t="n">
         <v>1.73</v>
@@ -4096,7 +4096,7 @@
         <v>1.91</v>
       </c>
       <c r="X27" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
         <v>14</v>
@@ -4111,7 +4111,7 @@
         <v>8</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
         <v>18.5</v>
@@ -4123,7 +4123,7 @@
         <v>12.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH27" t="n">
         <v>22</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G28" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H28" t="n">
         <v>6.2</v>
@@ -4216,10 +4216,10 @@
         <v>1.47</v>
       </c>
       <c r="S28" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U28" t="n">
         <v>2.08</v>
@@ -4228,7 +4228,7 @@
         <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X28" t="n">
         <v>21</v>
@@ -4252,7 +4252,7 @@
         <v>24</v>
       </c>
       <c r="AE28" t="n">
-        <v>85</v>
+        <v>420</v>
       </c>
       <c r="AF28" t="n">
         <v>10.5</v>
@@ -4276,7 +4276,7 @@
         <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN28" t="n">
         <v>8.199999999999999</v>
@@ -4315,19 +4315,19 @@
         <v>1.37</v>
       </c>
       <c r="G29" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I29" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J29" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K29" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L29" t="n">
         <v>1.47</v>
@@ -4339,10 +4339,10 @@
         <v>2.96</v>
       </c>
       <c r="O29" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q29" t="n">
         <v>2.26</v>
@@ -4357,19 +4357,19 @@
         <v>2.84</v>
       </c>
       <c r="U29" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V29" t="n">
         <v>1.07</v>
       </c>
       <c r="W29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X29" t="n">
         <v>12</v>
       </c>
       <c r="Y29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z29" t="n">
         <v>150</v>
@@ -4381,37 +4381,37 @@
         <v>6.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD29" t="n">
         <v>60</v>
       </c>
       <c r="AE29" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="AF29" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AI29" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="AM29" t="n">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="AN29" t="n">
         <v>9.6</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G30" t="n">
         <v>2.28</v>
@@ -4456,10 +4456,10 @@
         <v>4.3</v>
       </c>
       <c r="I30" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K30" t="n">
         <v>3.5</v>
@@ -4498,7 +4498,7 @@
         <v>1.23</v>
       </c>
       <c r="W30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X30" t="n">
         <v>10</v>
@@ -4507,10 +4507,10 @@
         <v>970</v>
       </c>
       <c r="Z30" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AA30" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AB30" t="n">
         <v>7.8</v>
@@ -4519,10 +4519,10 @@
         <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AE30" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -4531,28 +4531,28 @@
         <v>970</v>
       </c>
       <c r="AH30" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AI30" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AJ30" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AK30" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AL30" t="n">
         <v>75</v>
       </c>
       <c r="AM30" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="AN30" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AO30" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G31" t="n">
         <v>1.92</v>
@@ -4600,7 +4600,7 @@
         <v>3.95</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
@@ -4666,7 +4666,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
         <v>130</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G32" t="n">
         <v>2.66</v>
@@ -4747,7 +4747,7 @@
         <v>1.49</v>
       </c>
       <c r="P32" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q32" t="n">
         <v>2.38</v>
@@ -4762,7 +4762,7 @@
         <v>1.05</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V32" t="n">
         <v>1.33</v>
@@ -4777,16 +4777,16 @@
         <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AA32" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AB32" t="n">
         <v>9</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD32" t="n">
         <v>970</v>
@@ -4801,28 +4801,28 @@
         <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI32" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AJ32" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AK32" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AL32" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AM32" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AN32" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AO32" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33">
@@ -4864,28 +4864,28 @@
         <v>7.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L33" t="n">
         <v>1.52</v>
       </c>
       <c r="M33" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
         <v>2.56</v>
       </c>
       <c r="O33" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P33" t="n">
         <v>1.51</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R33" t="n">
         <v>1.18</v>
@@ -4906,7 +4906,7 @@
         <v>2.16</v>
       </c>
       <c r="X33" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y33" t="n">
         <v>16.5</v>
@@ -4990,16 +4990,16 @@
         <v>2.08</v>
       </c>
       <c r="G34" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I34" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
         <v>3.45</v>
@@ -5011,52 +5011,52 @@
         <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P34" t="n">
         <v>1.78</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R34" t="n">
         <v>1.3</v>
       </c>
       <c r="S34" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="T34" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U34" t="n">
         <v>2.02</v>
       </c>
       <c r="V34" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W34" t="n">
         <v>1.89</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y34" t="n">
         <v>15</v>
       </c>
       <c r="Z34" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA34" t="n">
         <v>100</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD34" t="n">
         <v>18.5</v>
@@ -5068,7 +5068,7 @@
         <v>12</v>
       </c>
       <c r="AG34" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
         <v>19</v>
@@ -5083,16 +5083,16 @@
         <v>24</v>
       </c>
       <c r="AL34" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM34" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO34" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H35" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="I35" t="n">
         <v>2.88</v>
@@ -5170,64 +5170,64 @@
         <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W35" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X35" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z35" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB35" t="n">
         <v>10.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG35" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>14</v>
       </c>
       <c r="AH35" t="n">
         <v>20</v>
       </c>
       <c r="AI35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK35" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL35" t="n">
         <v>60</v>
       </c>
       <c r="AM35" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN35" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO35" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -5260,10 +5260,10 @@
         <v>2.4</v>
       </c>
       <c r="G36" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H36" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I36" t="n">
         <v>3.7</v>
@@ -5308,7 +5308,7 @@
         <v>1.38</v>
       </c>
       <c r="W36" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X36" t="n">
         <v>12.5</v>
@@ -5317,7 +5317,7 @@
         <v>13</v>
       </c>
       <c r="Z36" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AA36" t="n">
         <v>75</v>
@@ -5326,7 +5326,7 @@
         <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD36" t="n">
         <v>17</v>
@@ -5341,25 +5341,25 @@
         <v>14</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI36" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AJ36" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AK36" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AL36" t="n">
         <v>60</v>
       </c>
       <c r="AM36" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN36" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AO36" t="n">
         <v>60</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G37" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H37" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I37" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L37" t="n">
         <v>1.46</v>
@@ -5416,7 +5416,7 @@
         <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O37" t="n">
         <v>1.5</v>
@@ -5425,43 +5425,43 @@
         <v>1.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
       </c>
       <c r="S37" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T37" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W37" t="n">
         <v>1.84</v>
       </c>
-      <c r="V37" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.86</v>
-      </c>
       <c r="X37" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y37" t="n">
         <v>13</v>
       </c>
       <c r="Z37" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA37" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB37" t="n">
         <v>7.4</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD37" t="n">
         <v>19.5</v>
@@ -5473,13 +5473,13 @@
         <v>12</v>
       </c>
       <c r="AG37" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI37" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ37" t="n">
         <v>28</v>
@@ -5494,10 +5494,10 @@
         <v>190</v>
       </c>
       <c r="AN37" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO37" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G38" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
         <v>2.68</v>
       </c>
       <c r="I38" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K38" t="n">
         <v>3.15</v>
@@ -5551,7 +5551,7 @@
         <v>1.12</v>
       </c>
       <c r="N38" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O38" t="n">
         <v>1.5</v>
@@ -5572,13 +5572,13 @@
         <v>2.02</v>
       </c>
       <c r="U38" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V38" t="n">
         <v>1.58</v>
       </c>
       <c r="W38" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X38" t="n">
         <v>9.4</v>
@@ -5602,7 +5602,7 @@
         <v>12.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF38" t="n">
         <v>19.5</v>
@@ -5662,49 +5662,49 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G39" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H39" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I39" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J39" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K39" t="n">
         <v>5</v>
       </c>
-      <c r="K39" t="n">
-        <v>5.1</v>
-      </c>
       <c r="L39" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P39" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R39" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S39" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T39" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U39" t="n">
         <v>1.89</v>
@@ -5713,25 +5713,25 @@
         <v>1.12</v>
       </c>
       <c r="W39" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="X39" t="n">
         <v>18</v>
       </c>
       <c r="Y39" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z39" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD39" t="n">
         <v>32</v>
@@ -5740,16 +5740,16 @@
         <v>140</v>
       </c>
       <c r="AF39" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG39" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH39" t="n">
         <v>27</v>
       </c>
       <c r="AI39" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ39" t="n">
         <v>12</v>
@@ -5761,10 +5761,10 @@
         <v>38</v>
       </c>
       <c r="AM39" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN39" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AO39" t="n">
         <v>190</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="G40" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="I40" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
@@ -5821,16 +5821,16 @@
         <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O40" t="n">
         <v>1.46</v>
       </c>
       <c r="P40" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R40" t="n">
         <v>1.23</v>
@@ -5839,16 +5839,16 @@
         <v>4.5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U40" t="n">
         <v>1.9</v>
       </c>
       <c r="V40" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W40" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="X40" t="n">
         <v>11.5</v>
@@ -5857,40 +5857,40 @@
         <v>10.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA40" t="n">
         <v>60</v>
       </c>
       <c r="AB40" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC40" t="n">
         <v>8</v>
       </c>
       <c r="AD40" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AF40" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI40" t="n">
         <v>60</v>
       </c>
       <c r="AJ40" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK40" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AL40" t="n">
         <v>60</v>
@@ -5899,10 +5899,10 @@
         <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AO40" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
     </row>
     <row r="41">
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
         <v>3.05</v>
       </c>
       <c r="H41" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I41" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J41" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K41" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.65</v>
       </c>
       <c r="L41" t="n">
         <v>1.37</v>
@@ -5962,7 +5962,7 @@
         <v>1.29</v>
       </c>
       <c r="P41" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q41" t="n">
         <v>1.85</v>
@@ -5980,16 +5980,16 @@
         <v>2.36</v>
       </c>
       <c r="V41" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W41" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X41" t="n">
         <v>15.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z41" t="n">
         <v>17</v>
@@ -6067,94 +6067,94 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G42" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I42" t="n">
         <v>4.6</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.7</v>
       </c>
       <c r="J42" t="n">
         <v>3.7</v>
       </c>
       <c r="K42" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L42" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S42" t="n">
         <v>3.6</v>
       </c>
       <c r="T42" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U42" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V42" t="n">
         <v>1.27</v>
       </c>
       <c r="W42" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X42" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y42" t="n">
         <v>16</v>
       </c>
       <c r="Z42" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA42" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD42" t="n">
         <v>18</v>
       </c>
       <c r="AE42" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF42" t="n">
         <v>11</v>
       </c>
       <c r="AG42" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH42" t="n">
         <v>19</v>
       </c>
       <c r="AI42" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ42" t="n">
         <v>21</v>
@@ -6166,13 +6166,13 @@
         <v>36</v>
       </c>
       <c r="AM42" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN42" t="n">
         <v>13.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G43" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H43" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I43" t="n">
         <v>3.85</v>
       </c>
       <c r="J43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K43" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.8</v>
       </c>
       <c r="L43" t="n">
         <v>1.35</v>
@@ -6232,7 +6232,7 @@
         <v>1.24</v>
       </c>
       <c r="P43" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q43" t="n">
         <v>1.73</v>
@@ -6244,7 +6244,7 @@
         <v>2.8</v>
       </c>
       <c r="T43" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U43" t="n">
         <v>2.52</v>
@@ -6256,10 +6256,10 @@
         <v>1.87</v>
       </c>
       <c r="X43" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z43" t="n">
         <v>28</v>
@@ -6268,13 +6268,13 @@
         <v>70</v>
       </c>
       <c r="AB43" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE43" t="n">
         <v>38</v>
@@ -6304,7 +6304,7 @@
         <v>55</v>
       </c>
       <c r="AN43" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO43" t="n">
         <v>30</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J44" t="n">
         <v>3.85</v>
       </c>
-      <c r="G44" t="n">
+      <c r="K44" t="n">
         <v>3.9</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.85</v>
       </c>
       <c r="L44" t="n">
         <v>1.37</v>
@@ -6361,37 +6361,37 @@
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O44" t="n">
         <v>1.27</v>
       </c>
       <c r="P44" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R44" t="n">
         <v>1.47</v>
       </c>
       <c r="S44" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U44" t="n">
         <v>2.32</v>
       </c>
       <c r="V44" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W44" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X44" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y44" t="n">
         <v>11</v>
@@ -6400,19 +6400,19 @@
         <v>13.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB44" t="n">
         <v>16.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD44" t="n">
         <v>10.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF44" t="n">
         <v>28</v>
@@ -6424,7 +6424,7 @@
         <v>16.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ44" t="n">
         <v>70</v>
@@ -6433,7 +6433,7 @@
         <v>40</v>
       </c>
       <c r="AL44" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM44" t="n">
         <v>70</v>
@@ -6442,7 +6442,7 @@
         <v>36</v>
       </c>
       <c r="AO44" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="45">
@@ -6475,7 +6475,7 @@
         <v>2.48</v>
       </c>
       <c r="G45" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H45" t="n">
         <v>3.05</v>
@@ -6484,7 +6484,7 @@
         <v>3.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
         <v>3.4</v>
@@ -6496,13 +6496,13 @@
         <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O45" t="n">
         <v>1.45</v>
       </c>
       <c r="P45" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q45" t="n">
         <v>2.32</v>
@@ -6511,7 +6511,7 @@
         <v>1.22</v>
       </c>
       <c r="S45" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T45" t="n">
         <v>1.94</v>
@@ -6523,10 +6523,10 @@
         <v>1.4</v>
       </c>
       <c r="W45" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X45" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y45" t="n">
         <v>11.5</v>
@@ -6556,7 +6556,7 @@
         <v>14.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI45" t="n">
         <v>75</v>
@@ -6637,7 +6637,7 @@
         <v>1.26</v>
       </c>
       <c r="P46" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q46" t="n">
         <v>1.74</v>
@@ -6646,7 +6646,7 @@
         <v>1.43</v>
       </c>
       <c r="S46" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="T46" t="n">
         <v>1.68</v>
@@ -6661,7 +6661,7 @@
         <v>1.26</v>
       </c>
       <c r="X46" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y46" t="n">
         <v>12</v>
@@ -6670,13 +6670,13 @@
         <v>15</v>
       </c>
       <c r="AA46" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AB46" t="n">
         <v>21</v>
       </c>
       <c r="AC46" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD46" t="n">
         <v>12</v>
@@ -6685,7 +6685,7 @@
         <v>22</v>
       </c>
       <c r="AF46" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AG46" t="n">
         <v>21</v>
@@ -6694,10 +6694,10 @@
         <v>21</v>
       </c>
       <c r="AI46" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AJ46" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AK46" t="n">
         <v>60</v>
@@ -6706,10 +6706,10 @@
         <v>65</v>
       </c>
       <c r="AM46" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AN46" t="n">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="AO46" t="n">
         <v>13</v>
@@ -6748,7 +6748,7 @@
         <v>1.17</v>
       </c>
       <c r="H47" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="I47" t="n">
         <v>34</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G48" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H48" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="I48" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J48" t="n">
         <v>3.8</v>
@@ -6904,7 +6904,7 @@
         <v>5.8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P48" t="n">
         <v>2.62</v>
@@ -6916,31 +6916,31 @@
         <v>1.66</v>
       </c>
       <c r="S48" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T48" t="n">
         <v>1.53</v>
       </c>
       <c r="U48" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="V48" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W48" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y48" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z48" t="n">
         <v>18</v>
       </c>
       <c r="AA48" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB48" t="n">
         <v>19</v>
@@ -6952,7 +6952,7 @@
         <v>11.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF48" t="n">
         <v>26</v>
@@ -6961,7 +6961,7 @@
         <v>14</v>
       </c>
       <c r="AH48" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI48" t="n">
         <v>26</v>
@@ -6976,10 +6976,10 @@
         <v>34</v>
       </c>
       <c r="AM48" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN48" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO48" t="n">
         <v>11.5</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G49" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H49" t="n">
         <v>13</v>
       </c>
       <c r="I49" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J49" t="n">
         <v>6.6</v>
       </c>
       <c r="K49" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L49" t="n">
         <v>1.3</v>
@@ -7036,7 +7036,7 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O49" t="n">
         <v>1.21</v>
@@ -7045,25 +7045,25 @@
         <v>2.48</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R49" t="n">
         <v>1.57</v>
       </c>
       <c r="S49" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T49" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U49" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V49" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W49" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="X49" t="n">
         <v>26</v>
@@ -7075,22 +7075,22 @@
         <v>160</v>
       </c>
       <c r="AA49" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="AB49" t="n">
         <v>9.6</v>
       </c>
       <c r="AC49" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD49" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE49" t="n">
         <v>270</v>
       </c>
       <c r="AF49" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG49" t="n">
         <v>10.5</v>
@@ -7099,16 +7099,16 @@
         <v>42</v>
       </c>
       <c r="AI49" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AJ49" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AK49" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL49" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM49" t="n">
         <v>220</v>
@@ -7117,7 +7117,7 @@
         <v>4.7</v>
       </c>
       <c r="AO49" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50">
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I50" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J50" t="n">
         <v>3.55</v>
@@ -7171,55 +7171,55 @@
         <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O50" t="n">
         <v>1.28</v>
       </c>
       <c r="P50" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R50" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S50" t="n">
         <v>3.1</v>
       </c>
       <c r="T50" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U50" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V50" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W50" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X50" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y50" t="n">
         <v>11.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB50" t="n">
         <v>15</v>
       </c>
       <c r="AC50" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE50" t="n">
         <v>23</v>
@@ -7228,7 +7228,7 @@
         <v>24</v>
       </c>
       <c r="AG50" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH50" t="n">
         <v>16</v>
@@ -7240,7 +7240,7 @@
         <v>55</v>
       </c>
       <c r="AK50" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL50" t="n">
         <v>46</v>
@@ -7249,7 +7249,7 @@
         <v>80</v>
       </c>
       <c r="AN50" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO50" t="n">
         <v>15.5</v>
@@ -7288,16 +7288,16 @@
         <v>1.14</v>
       </c>
       <c r="H51" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I51" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J51" t="n">
+        <v>12</v>
+      </c>
+      <c r="K51" t="n">
         <v>12.5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>13</v>
       </c>
       <c r="L51" t="n">
         <v>1.17</v>
@@ -7306,34 +7306,34 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="O51" t="n">
         <v>1.08</v>
       </c>
       <c r="P51" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Q51" t="n">
         <v>1.27</v>
       </c>
       <c r="R51" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="S51" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="T51" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U51" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="V51" t="n">
         <v>1.03</v>
       </c>
       <c r="W51" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="X51" t="n">
         <v>75</v>
@@ -7342,37 +7342,37 @@
         <v>120</v>
       </c>
       <c r="Z51" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD51" t="n">
         <v>95</v>
       </c>
       <c r="AE51" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG51" t="n">
         <v>15.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="n">
         <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AK51" t="n">
         <v>14</v>
@@ -7381,13 +7381,13 @@
         <v>42</v>
       </c>
       <c r="AM51" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN51" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="AO51" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52">
@@ -7420,7 +7420,7 @@
         <v>2.4</v>
       </c>
       <c r="G52" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>3.3</v>
@@ -7429,10 +7429,10 @@
         <v>3.5</v>
       </c>
       <c r="J52" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K52" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L52" t="n">
         <v>1.49</v>
@@ -7447,7 +7447,7 @@
         <v>1.41</v>
       </c>
       <c r="P52" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q52" t="n">
         <v>2.18</v>
@@ -7468,7 +7468,7 @@
         <v>1.4</v>
       </c>
       <c r="W52" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X52" t="n">
         <v>12.5</v>
@@ -7489,10 +7489,10 @@
         <v>7.6</v>
       </c>
       <c r="AD52" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AF52" t="n">
         <v>16</v>
@@ -7513,16 +7513,16 @@
         <v>32</v>
       </c>
       <c r="AL52" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AM52" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN52" t="n">
         <v>28</v>
       </c>
       <c r="AO52" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
     </row>
     <row r="53">
@@ -7558,7 +7558,7 @@
         <v>14.5</v>
       </c>
       <c r="H53" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="I53" t="n">
         <v>1.3</v>
@@ -7576,7 +7576,7 @@
         <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O53" t="n">
         <v>1.16</v>
@@ -7597,7 +7597,7 @@
         <v>1.97</v>
       </c>
       <c r="U53" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V53" t="n">
         <v>4.3</v>
@@ -7618,7 +7618,7 @@
         <v>11</v>
       </c>
       <c r="AB53" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AC53" t="n">
         <v>16</v>
@@ -7636,10 +7636,10 @@
         <v>55</v>
       </c>
       <c r="AH53" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI53" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AJ53" t="n">
         <v>540</v>
@@ -7654,7 +7654,7 @@
         <v>170</v>
       </c>
       <c r="AN53" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AO53" t="n">
         <v>4.3</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I54" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J54" t="n">
         <v>3.5</v>
@@ -7717,7 +7717,7 @@
         <v>1.31</v>
       </c>
       <c r="P54" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q54" t="n">
         <v>1.96</v>
@@ -7729,16 +7729,16 @@
         <v>3.35</v>
       </c>
       <c r="T54" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U54" t="n">
         <v>2.06</v>
       </c>
       <c r="V54" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W54" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="X54" t="n">
         <v>16.5</v>
@@ -7750,7 +7750,7 @@
         <v>34</v>
       </c>
       <c r="AA54" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB54" t="n">
         <v>11</v>
@@ -7765,7 +7765,7 @@
         <v>60</v>
       </c>
       <c r="AF54" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG54" t="n">
         <v>12.5</v>
@@ -7789,7 +7789,7 @@
         <v>120</v>
       </c>
       <c r="AN54" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO54" t="n">
         <v>60</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G55" t="n">
         <v>2.24</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I55" t="n">
         <v>3.8</v>
       </c>
       <c r="J55" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K55" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L55" t="n">
         <v>1.41</v>
@@ -7846,28 +7846,28 @@
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O55" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P55" t="n">
         <v>2</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R55" t="n">
         <v>1.37</v>
       </c>
       <c r="S55" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T55" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U55" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V55" t="n">
         <v>1.35</v>
@@ -7876,7 +7876,7 @@
         <v>1.8</v>
       </c>
       <c r="X55" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y55" t="n">
         <v>14</v>
@@ -7924,7 +7924,7 @@
         <v>95</v>
       </c>
       <c r="AN55" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO55" t="n">
         <v>46</v>
@@ -7957,10 +7957,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G56" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H56" t="n">
         <v>3.05</v>
@@ -7969,7 +7969,7 @@
         <v>3.55</v>
       </c>
       <c r="J56" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K56" t="n">
         <v>3.6</v>
@@ -8017,7 +8017,7 @@
         <v>13.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AA56" t="n">
         <v>70</v>
@@ -8032,7 +8032,7 @@
         <v>16.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AF56" t="n">
         <v>18.5</v>
@@ -8041,25 +8041,25 @@
         <v>14</v>
       </c>
       <c r="AH56" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI56" t="n">
         <v>65</v>
       </c>
       <c r="AJ56" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AK56" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AL56" t="n">
         <v>55</v>
       </c>
       <c r="AM56" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AN56" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AO56" t="n">
         <v>50</v>
@@ -8092,10 +8092,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G57" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H57" t="n">
         <v>3.15</v>
@@ -8104,7 +8104,7 @@
         <v>3.2</v>
       </c>
       <c r="J57" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K57" t="n">
         <v>3.85</v>
@@ -8122,7 +8122,7 @@
         <v>1.23</v>
       </c>
       <c r="P57" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q57" t="n">
         <v>1.72</v>
@@ -8143,7 +8143,7 @@
         <v>1.45</v>
       </c>
       <c r="W57" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X57" t="n">
         <v>90</v>
@@ -8152,10 +8152,10 @@
         <v>970</v>
       </c>
       <c r="Z57" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AA57" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AB57" t="n">
         <v>13.5</v>
@@ -8167,7 +8167,7 @@
         <v>970</v>
       </c>
       <c r="AE57" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AF57" t="n">
         <v>970</v>
@@ -8179,25 +8179,25 @@
         <v>16</v>
       </c>
       <c r="AI57" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AJ57" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AK57" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AL57" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM57" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AN57" t="n">
         <v>970</v>
       </c>
       <c r="AO57" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
     </row>
     <row r="58">
@@ -8230,58 +8230,58 @@
         <v>3.45</v>
       </c>
       <c r="G58" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H58" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I58" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J58" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K58" t="n">
         <v>4.2</v>
       </c>
       <c r="L58" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M58" t="n">
         <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P58" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R58" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S58" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T58" t="n">
         <v>1.58</v>
       </c>
       <c r="U58" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V58" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W58" t="n">
         <v>1.37</v>
       </c>
       <c r="X58" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Y58" t="n">
         <v>15</v>
@@ -8290,28 +8290,28 @@
         <v>16.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AB58" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD58" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE58" t="n">
         <v>22</v>
       </c>
       <c r="AF58" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AG58" t="n">
         <v>16.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AI58" t="n">
         <v>32</v>
@@ -8320,19 +8320,19 @@
         <v>65</v>
       </c>
       <c r="AK58" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AL58" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM58" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN58" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AO58" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -8362,10 +8362,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G59" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H59" t="n">
         <v>12.5</v>
@@ -8374,10 +8374,10 @@
         <v>14</v>
       </c>
       <c r="J59" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="K59" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="L59" t="n">
         <v>1.2</v>
@@ -8398,43 +8398,43 @@
         <v>1.37</v>
       </c>
       <c r="R59" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
         <v>1.95</v>
       </c>
       <c r="T59" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="U59" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V59" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W59" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="X59" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y59" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Z59" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA59" t="n">
-        <v>710</v>
+        <v>1000</v>
       </c>
       <c r="AB59" t="n">
         <v>15</v>
       </c>
       <c r="AC59" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE59" t="n">
         <v>170</v>
@@ -8446,28 +8446,28 @@
         <v>12</v>
       </c>
       <c r="AH59" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI59" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ59" t="n">
         <v>11.5</v>
       </c>
       <c r="AK59" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AL59" t="n">
         <v>30</v>
       </c>
       <c r="AM59" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN59" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AO59" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60">
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="G60" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="H60" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I60" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="J60" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K60" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L60" t="n">
         <v>1.35</v>
@@ -8530,13 +8530,13 @@
         <v>2.2</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R60" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S60" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="T60" t="n">
         <v>1.67</v>
@@ -8545,10 +8545,10 @@
         <v>2.38</v>
       </c>
       <c r="V60" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W60" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="X60" t="n">
         <v>17.5</v>
@@ -8557,10 +8557,10 @@
         <v>17</v>
       </c>
       <c r="Z60" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA60" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB60" t="n">
         <v>11.5</v>
@@ -8569,10 +8569,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD60" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF60" t="n">
         <v>14.5</v>
@@ -8587,10 +8587,10 @@
         <v>46</v>
       </c>
       <c r="AJ60" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK60" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL60" t="n">
         <v>32</v>
@@ -8599,10 +8599,10 @@
         <v>85</v>
       </c>
       <c r="AN60" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO60" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
         <v>2.12</v>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I61" t="n">
         <v>4.5</v>
@@ -8671,10 +8671,10 @@
         <v>1.3</v>
       </c>
       <c r="S61" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T61" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U61" t="n">
         <v>2.02</v>
@@ -8716,7 +8716,7 @@
         <v>13</v>
       </c>
       <c r="AH61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI61" t="n">
         <v>70</v>
@@ -8728,7 +8728,7 @@
         <v>24</v>
       </c>
       <c r="AL61" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AM61" t="n">
         <v>140</v>
@@ -8770,7 +8770,7 @@
         <v>2.28</v>
       </c>
       <c r="G62" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H62" t="n">
         <v>2.76</v>
@@ -8779,7 +8779,7 @@
         <v>3.15</v>
       </c>
       <c r="J62" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K62" t="n">
         <v>4.4</v>
@@ -8809,7 +8809,7 @@
         <v>2.28</v>
       </c>
       <c r="T62" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U62" t="n">
         <v>2.6</v>
@@ -8830,7 +8830,7 @@
         <v>26</v>
       </c>
       <c r="AA62" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AB62" t="n">
         <v>19.5</v>
@@ -8902,19 +8902,19 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="G63" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H63" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="I63" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="J63" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K63" t="n">
         <v>4.3</v>
@@ -8935,28 +8935,28 @@
         <v>2.2</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R63" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S63" t="n">
         <v>2.98</v>
       </c>
       <c r="T63" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U63" t="n">
         <v>2.18</v>
       </c>
       <c r="V63" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="W63" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X63" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y63" t="n">
         <v>9.800000000000001</v>
@@ -8968,10 +8968,10 @@
         <v>18</v>
       </c>
       <c r="AB63" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC63" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD63" t="n">
         <v>9.800000000000001</v>
@@ -8998,7 +8998,7 @@
         <v>65</v>
       </c>
       <c r="AL63" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM63" t="n">
         <v>95</v>
@@ -9007,7 +9007,7 @@
         <v>65</v>
       </c>
       <c r="AO63" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -9037,22 +9037,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G64" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H64" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I64" t="n">
         <v>3.8</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K64" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L64" t="n">
         <v>1.44</v>
@@ -9061,88 +9061,88 @@
         <v>1.12</v>
       </c>
       <c r="N64" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="O64" t="n">
         <v>1.51</v>
       </c>
       <c r="P64" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R64" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S64" t="n">
         <v>5.1</v>
       </c>
       <c r="T64" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U64" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="V64" t="n">
         <v>1.35</v>
       </c>
       <c r="W64" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X64" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y64" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z64" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA64" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC64" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AD64" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE64" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG64" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH64" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI64" t="n">
         <v>85</v>
       </c>
       <c r="AJ64" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AK64" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL64" t="n">
         <v>65</v>
       </c>
       <c r="AM64" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AN64" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO64" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G65" t="n">
         <v>1.92</v>
@@ -9181,13 +9181,13 @@
         <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J65" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K65" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L65" t="n">
         <v>1.44</v>
@@ -9196,7 +9196,7 @@
         <v>1.08</v>
       </c>
       <c r="N65" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O65" t="n">
         <v>1.38</v>
@@ -9208,16 +9208,16 @@
         <v>2.14</v>
       </c>
       <c r="R65" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S65" t="n">
         <v>3.95</v>
       </c>
       <c r="T65" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U65" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V65" t="n">
         <v>1.24</v>
@@ -9235,7 +9235,7 @@
         <v>36</v>
       </c>
       <c r="AA65" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB65" t="n">
         <v>8</v>
@@ -9307,37 +9307,37 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="G66" t="n">
         <v>2.98</v>
       </c>
       <c r="H66" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I66" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J66" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K66" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L66" t="n">
         <v>1.48</v>
       </c>
       <c r="M66" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N66" t="n">
         <v>3.3</v>
       </c>
       <c r="O66" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P66" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q66" t="n">
         <v>2.2</v>
@@ -9346,28 +9346,28 @@
         <v>1.29</v>
       </c>
       <c r="S66" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T66" t="n">
         <v>1.88</v>
       </c>
       <c r="U66" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V66" t="n">
         <v>1.54</v>
       </c>
       <c r="W66" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X66" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y66" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z66" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA66" t="n">
         <v>44</v>
@@ -9376,10 +9376,10 @@
         <v>10.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD66" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE66" t="n">
         <v>34</v>
@@ -9394,13 +9394,13 @@
         <v>18</v>
       </c>
       <c r="AI66" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ66" t="n">
         <v>48</v>
       </c>
       <c r="AK66" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL66" t="n">
         <v>50</v>
@@ -9469,25 +9469,25 @@
         <v>4.9</v>
       </c>
       <c r="O67" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P67" t="n">
         <v>2.3</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R67" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S67" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T67" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U67" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V67" t="n">
         <v>1.18</v>
@@ -9496,7 +9496,7 @@
         <v>2.58</v>
       </c>
       <c r="X67" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y67" t="n">
         <v>24</v>
@@ -9508,19 +9508,19 @@
         <v>160</v>
       </c>
       <c r="AB67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC67" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>10</v>
       </c>
       <c r="AD67" t="n">
         <v>23</v>
       </c>
       <c r="AE67" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF67" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG67" t="n">
         <v>10</v>
@@ -9529,7 +9529,7 @@
         <v>19</v>
       </c>
       <c r="AI67" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ67" t="n">
         <v>14.5</v>
@@ -9538,10 +9538,10 @@
         <v>15</v>
       </c>
       <c r="AL67" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM67" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN67" t="n">
         <v>7.4</v>
@@ -9595,13 +9595,13 @@
         <v>3.85</v>
       </c>
       <c r="L68" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M68" t="n">
         <v>1.06</v>
       </c>
       <c r="N68" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O68" t="n">
         <v>1.28</v>
@@ -9715,10 +9715,10 @@
         <v>2.42</v>
       </c>
       <c r="G69" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I69" t="n">
         <v>4.1</v>
@@ -9730,25 +9730,25 @@
         <v>3.45</v>
       </c>
       <c r="L69" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M69" t="n">
         <v>1.1</v>
       </c>
       <c r="N69" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O69" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P69" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="R69" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S69" t="n">
         <v>4.5</v>
@@ -9763,19 +9763,19 @@
         <v>1.34</v>
       </c>
       <c r="W69" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="X69" t="n">
         <v>10.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z69" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AA69" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AB69" t="n">
         <v>9.199999999999999</v>
@@ -9787,7 +9787,7 @@
         <v>970</v>
       </c>
       <c r="AE69" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AF69" t="n">
         <v>970</v>
@@ -9796,28 +9796,28 @@
         <v>14.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI69" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AJ69" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AK69" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AL69" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AM69" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AN69" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AO69" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70">
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="G70" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H70" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I70" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J70" t="n">
-        <v>2.84</v>
+        <v>2.52</v>
       </c>
       <c r="K70" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="L70" t="n">
         <v>1.01</v>
@@ -9895,64 +9895,64 @@
         <v>1.01</v>
       </c>
       <c r="V70" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W70" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO70" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71">
@@ -9982,19 +9982,19 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G71" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H71" t="n">
         <v>2.96</v>
       </c>
       <c r="I71" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J71" t="n">
-        <v>2.68</v>
+        <v>2.22</v>
       </c>
       <c r="K71" t="n">
         <v>3.6</v>
@@ -10009,13 +10009,13 @@
         <v>1.53</v>
       </c>
       <c r="O71" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P71" t="n">
         <v>1.53</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R71" t="n">
         <v>1.09</v>
@@ -10030,10 +10030,10 @@
         <v>1.01</v>
       </c>
       <c r="V71" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W71" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="X71" t="n">
         <v>90</v>
@@ -10126,16 +10126,16 @@
         <v>3.3</v>
       </c>
       <c r="I72" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J72" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="K72" t="n">
         <v>3.45</v>
       </c>
       <c r="L72" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M72" t="n">
         <v>1.08</v>
@@ -10147,25 +10147,25 @@
         <v>1.4</v>
       </c>
       <c r="P72" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="R72" t="n">
         <v>1.25</v>
       </c>
       <c r="S72" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="T72" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U72" t="n">
         <v>1.92</v>
       </c>
       <c r="V72" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W72" t="n">
         <v>1.59</v>
@@ -10180,7 +10180,7 @@
         <v>27</v>
       </c>
       <c r="AA72" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AB72" t="n">
         <v>11</v>
@@ -10192,7 +10192,7 @@
         <v>970</v>
       </c>
       <c r="AE72" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AF72" t="n">
         <v>970</v>
@@ -10204,25 +10204,25 @@
         <v>22</v>
       </c>
       <c r="AI72" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AJ72" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AK72" t="n">
         <v>36</v>
       </c>
       <c r="AL72" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AM72" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AN72" t="n">
         <v>34</v>
       </c>
       <c r="AO72" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73">
@@ -10252,13 +10252,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G73" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H73" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I73" t="n">
         <v>3.1</v>
@@ -10288,76 +10288,76 @@
         <v>1.71</v>
       </c>
       <c r="R73" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="S73" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T73" t="n">
         <v>1.01</v>
       </c>
       <c r="U73" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="V73" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W73" t="n">
         <v>1.56</v>
       </c>
       <c r="X73" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74">
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G74" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H74" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I74" t="n">
         <v>4.8</v>
       </c>
-      <c r="I74" t="n">
-        <v>4.9</v>
-      </c>
       <c r="J74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K74" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K74" t="n">
-        <v>3.3</v>
       </c>
       <c r="L74" t="n">
         <v>1.59</v>
@@ -10411,10 +10411,10 @@
         <v>1.13</v>
       </c>
       <c r="N74" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O74" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P74" t="n">
         <v>1.55</v>
@@ -10426,7 +10426,7 @@
         <v>1.2</v>
       </c>
       <c r="S74" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="T74" t="n">
         <v>2.28</v>
@@ -10435,10 +10435,10 @@
         <v>1.73</v>
       </c>
       <c r="V74" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W74" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="X74" t="n">
         <v>8.4</v>
@@ -10456,10 +10456,10 @@
         <v>6.6</v>
       </c>
       <c r="AC74" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD74" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE74" t="n">
         <v>85</v>
@@ -10486,7 +10486,7 @@
         <v>60</v>
       </c>
       <c r="AM74" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN74" t="n">
         <v>26</v>
@@ -10522,22 +10522,22 @@
         </is>
       </c>
       <c r="F75" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G75" t="n">
         <v>1.46</v>
       </c>
-      <c r="G75" t="n">
-        <v>1.47</v>
-      </c>
       <c r="H75" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J75" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K75" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L75" t="n">
         <v>1.39</v>
@@ -10546,88 +10546,88 @@
         <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O75" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P75" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="R75" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S75" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T75" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U75" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V75" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W75" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X75" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y75" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z75" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA75" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AB75" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC75" t="n">
         <v>11</v>
       </c>
       <c r="AD75" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE75" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF75" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG75" t="n">
         <v>9.6</v>
       </c>
       <c r="AH75" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI75" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ75" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK75" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL75" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM75" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO75" t="n">
         <v>210</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>250</v>
       </c>
     </row>
     <row r="76">
@@ -10657,10 +10657,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="G76" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H76" t="n">
         <v>3.65</v>
@@ -10696,10 +10696,10 @@
         <v>1.48</v>
       </c>
       <c r="S76" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T76" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="U76" t="n">
         <v>2.3</v>
@@ -10708,7 +10708,7 @@
         <v>1.31</v>
       </c>
       <c r="W76" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X76" t="n">
         <v>24</v>
@@ -10798,7 +10798,7 @@
         <v>4</v>
       </c>
       <c r="H77" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I77" t="n">
         <v>2.1</v>
@@ -10840,13 +10840,13 @@
         <v>2.18</v>
       </c>
       <c r="V77" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W77" t="n">
         <v>1.33</v>
       </c>
       <c r="X77" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y77" t="n">
         <v>9.800000000000001</v>
@@ -10861,16 +10861,16 @@
         <v>15.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD77" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE77" t="n">
         <v>22</v>
       </c>
       <c r="AF77" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AG77" t="n">
         <v>16.5</v>
@@ -10879,22 +10879,22 @@
         <v>18</v>
       </c>
       <c r="AI77" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AJ77" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AL77" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM77" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN77" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AO77" t="n">
         <v>15</v>
@@ -10927,22 +10927,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I78" t="n">
         <v>4.1</v>
       </c>
       <c r="J78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K78" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K78" t="n">
-        <v>3.6</v>
       </c>
       <c r="L78" t="n">
         <v>1.46</v>
@@ -10960,10 +10960,10 @@
         <v>1.84</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R78" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S78" t="n">
         <v>4</v>
@@ -10972,19 +10972,19 @@
         <v>1.92</v>
       </c>
       <c r="U78" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V78" t="n">
         <v>1.32</v>
       </c>
       <c r="W78" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="X78" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y78" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z78" t="n">
         <v>28</v>
@@ -10996,7 +10996,7 @@
         <v>8.6</v>
       </c>
       <c r="AC78" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD78" t="n">
         <v>16.5</v>
@@ -11011,16 +11011,16 @@
         <v>10.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI78" t="n">
         <v>65</v>
       </c>
       <c r="AJ78" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK78" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL78" t="n">
         <v>42</v>
@@ -11077,7 +11077,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L79" t="n">
         <v>1.01</v>
@@ -11107,7 +11107,7 @@
         <v>2.1</v>
       </c>
       <c r="U79" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="V79" t="n">
         <v>6.4</v>
@@ -11212,7 +11212,7 @@
         <v>3.4</v>
       </c>
       <c r="K80" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
@@ -11296,7 +11296,7 @@
         <v>44</v>
       </c>
       <c r="AM80" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AN80" t="n">
         <v>22</v>
@@ -11332,40 +11332,40 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="G81" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H81" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="I81" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="J81" t="n">
         <v>3.75</v>
       </c>
       <c r="K81" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L81" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="M81" t="n">
         <v>1.09</v>
       </c>
       <c r="N81" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O81" t="n">
         <v>1.42</v>
       </c>
       <c r="P81" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R81" t="n">
         <v>1.25</v>
@@ -11374,70 +11374,70 @@
         <v>4.2</v>
       </c>
       <c r="T81" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U81" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="V81" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="W81" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="X81" t="n">
         <v>13</v>
       </c>
       <c r="Y81" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z81" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AA81" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AB81" t="n">
         <v>970</v>
       </c>
       <c r="AC81" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD81" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AE81" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF81" t="n">
         <v>55</v>
       </c>
       <c r="AG81" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH81" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI81" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK81" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AL81" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AM81" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AN81" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AO81" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="82">
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="G82" t="n">
         <v>1.17</v>
@@ -11476,13 +11476,13 @@
         <v>25</v>
       </c>
       <c r="I82" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J82" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="L82" t="n">
         <v>1.27</v>
@@ -11491,37 +11491,37 @@
         <v>1.03</v>
       </c>
       <c r="N82" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O82" t="n">
         <v>1.18</v>
       </c>
       <c r="P82" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q82" t="n">
         <v>1.55</v>
       </c>
       <c r="R82" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S82" t="n">
         <v>2.38</v>
       </c>
       <c r="T82" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="U82" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="V82" t="n">
         <v>1.03</v>
       </c>
       <c r="W82" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X82" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Y82" t="n">
         <v>70</v>
@@ -11548,7 +11548,7 @@
         <v>7.2</v>
       </c>
       <c r="AG82" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH82" t="n">
         <v>65</v>
@@ -11563,13 +11563,13 @@
         <v>970</v>
       </c>
       <c r="AL82" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM82" t="n">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="AN82" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="AO82" t="n">
         <v>1000</v>
@@ -11605,13 +11605,13 @@
         <v>1.63</v>
       </c>
       <c r="G83" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H83" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I83" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J83" t="n">
         <v>4</v>
@@ -11626,34 +11626,34 @@
         <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O83" t="n">
         <v>1.37</v>
       </c>
       <c r="P83" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R83" t="n">
         <v>1.32</v>
       </c>
       <c r="S83" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T83" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="U83" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V83" t="n">
         <v>1.16</v>
       </c>
       <c r="W83" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X83" t="n">
         <v>15.5</v>
@@ -11665,19 +11665,19 @@
         <v>60</v>
       </c>
       <c r="AA83" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AB83" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC83" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD83" t="n">
         <v>27</v>
       </c>
       <c r="AE83" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF83" t="n">
         <v>9.199999999999999</v>
@@ -11698,16 +11698,16 @@
         <v>19</v>
       </c>
       <c r="AL83" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM83" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN83" t="n">
         <v>11.5</v>
       </c>
       <c r="AO83" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84">
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G84" t="n">
         <v>2.06</v>
@@ -11761,16 +11761,16 @@
         <v>1.08</v>
       </c>
       <c r="N84" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O84" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P84" t="n">
         <v>1.75</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R84" t="n">
         <v>1.28</v>
@@ -11785,13 +11785,13 @@
         <v>1.92</v>
       </c>
       <c r="V84" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W84" t="n">
         <v>1.94</v>
       </c>
       <c r="X84" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y84" t="n">
         <v>17.5</v>
@@ -11881,13 +11881,13 @@
         <v>1.54</v>
       </c>
       <c r="I85" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J85" t="n">
         <v>4.4</v>
       </c>
       <c r="K85" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -11896,13 +11896,13 @@
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="O85" t="n">
         <v>1.18</v>
       </c>
       <c r="P85" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q85" t="n">
         <v>1.58</v>
@@ -11920,7 +11920,7 @@
         <v>2.2</v>
       </c>
       <c r="V85" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="W85" t="n">
         <v>1.15</v>
@@ -11929,13 +11929,13 @@
         <v>90</v>
       </c>
       <c r="Y85" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="Z85" t="n">
         <v>970</v>
       </c>
       <c r="AA85" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="AB85" t="n">
         <v>1000</v>
@@ -11947,7 +11947,7 @@
         <v>970</v>
       </c>
       <c r="AE85" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF85" t="n">
         <v>1000</v>
@@ -11959,7 +11959,7 @@
         <v>1000</v>
       </c>
       <c r="AI85" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ85" t="n">
         <v>1000</v>
@@ -11977,7 +11977,7 @@
         <v>1000</v>
       </c>
       <c r="AO85" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86">
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="G87" t="n">
         <v>9.4</v>
       </c>
       <c r="H87" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="I87" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="J87" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K87" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="L87" t="n">
         <v>1.34</v>
@@ -12190,7 +12190,7 @@
         <v>1.84</v>
       </c>
       <c r="V87" t="n">
-        <v>2.92</v>
+        <v>2.68</v>
       </c>
       <c r="W87" t="n">
         <v>1.11</v>
@@ -12244,7 +12244,7 @@
         <v>180</v>
       </c>
       <c r="AN87" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AO87" t="n">
         <v>7.8</v>
@@ -12280,19 +12280,19 @@
         <v>2.06</v>
       </c>
       <c r="G88" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H88" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I88" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J88" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L88" t="n">
         <v>1.48</v>
@@ -12310,7 +12310,7 @@
         <v>1.54</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="R88" t="n">
         <v>1.19</v>
@@ -12319,16 +12319,16 @@
         <v>4.8</v>
       </c>
       <c r="T88" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="U88" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="V88" t="n">
         <v>1.26</v>
       </c>
       <c r="W88" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X88" t="n">
         <v>10.5</v>
@@ -12337,22 +12337,22 @@
         <v>970</v>
       </c>
       <c r="Z88" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AA88" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB88" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC88" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="AD88" t="n">
         <v>22</v>
       </c>
       <c r="AE88" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AF88" t="n">
         <v>970</v>
@@ -12364,25 +12364,25 @@
         <v>28</v>
       </c>
       <c r="AI88" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AJ88" t="n">
+        <v>500</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN88" t="n">
         <v>34</v>
       </c>
-      <c r="AK88" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>32</v>
-      </c>
       <c r="AO88" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89">
@@ -12430,34 +12430,34 @@
         <v>3.85</v>
       </c>
       <c r="L89" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M89" t="n">
         <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O89" t="n">
         <v>1.29</v>
       </c>
       <c r="P89" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R89" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S89" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T89" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U89" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V89" t="n">
         <v>1.37</v>
@@ -12466,16 +12466,16 @@
         <v>1.86</v>
       </c>
       <c r="X89" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z89" t="n">
         <v>26</v>
       </c>
       <c r="AA89" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB89" t="n">
         <v>10.5</v>
@@ -12484,13 +12484,13 @@
         <v>8.4</v>
       </c>
       <c r="AD89" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE89" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF89" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG89" t="n">
         <v>10.5</v>
@@ -12505,19 +12505,19 @@
         <v>26</v>
       </c>
       <c r="AK89" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL89" t="n">
         <v>34</v>
       </c>
       <c r="AM89" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN89" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO89" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90">
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G90" t="n">
         <v>2.84</v>
@@ -12556,7 +12556,7 @@
         <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J90" t="n">
         <v>3.1</v>
@@ -12568,7 +12568,7 @@
         <v>1.5</v>
       </c>
       <c r="M90" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N90" t="n">
         <v>3.2</v>
@@ -12580,13 +12580,13 @@
         <v>1.72</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R90" t="n">
         <v>1.27</v>
       </c>
       <c r="S90" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T90" t="n">
         <v>1.93</v>
@@ -12595,7 +12595,7 @@
         <v>2.02</v>
       </c>
       <c r="V90" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W90" t="n">
         <v>1.54</v>
@@ -12682,10 +12682,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H91" t="n">
         <v>3.35</v>
@@ -12697,7 +12697,7 @@
         <v>3.7</v>
       </c>
       <c r="K91" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L91" t="n">
         <v>1.3</v>
@@ -12712,13 +12712,13 @@
         <v>1.22</v>
       </c>
       <c r="P91" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q91" t="n">
         <v>1.67</v>
       </c>
       <c r="R91" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S91" t="n">
         <v>2.64</v>
@@ -12727,13 +12727,13 @@
         <v>1.59</v>
       </c>
       <c r="U91" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V91" t="n">
         <v>1.4</v>
       </c>
       <c r="W91" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X91" t="n">
         <v>26</v>
@@ -12751,7 +12751,7 @@
         <v>15.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD91" t="n">
         <v>15</v>
@@ -12763,7 +12763,7 @@
         <v>20</v>
       </c>
       <c r="AG91" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH91" t="n">
         <v>18</v>
@@ -12817,16 +12817,16 @@
         </is>
       </c>
       <c r="F92" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H92" t="n">
         <v>2.88</v>
       </c>
-      <c r="G92" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2.92</v>
-      </c>
       <c r="I92" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="J92" t="n">
         <v>3.15</v>
@@ -12850,10 +12850,10 @@
         <v>1.66</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R92" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S92" t="n">
         <v>4.7</v>
@@ -12865,7 +12865,7 @@
         <v>1.95</v>
       </c>
       <c r="V92" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W92" t="n">
         <v>1.51</v>
@@ -12886,7 +12886,7 @@
         <v>9.4</v>
       </c>
       <c r="AC92" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD92" t="n">
         <v>13</v>
@@ -12895,7 +12895,7 @@
         <v>38</v>
       </c>
       <c r="AF92" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG92" t="n">
         <v>13</v>
@@ -12958,7 +12958,7 @@
         <v>1.45</v>
       </c>
       <c r="H93" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I93" t="n">
         <v>11</v>
@@ -12982,10 +12982,10 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -13087,19 +13087,19 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G94" t="n">
         <v>2.02</v>
       </c>
       <c r="H94" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I94" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J94" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K94" t="n">
         <v>3.55</v>
@@ -13123,10 +13123,10 @@
         <v>2.36</v>
       </c>
       <c r="R94" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S94" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T94" t="n">
         <v>1.01</v>
@@ -13141,58 +13141,58 @@
         <v>1.98</v>
       </c>
       <c r="X94" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95">
@@ -13234,7 +13234,7 @@
         <v>3.3</v>
       </c>
       <c r="J95" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K95" t="n">
         <v>3.25</v>
@@ -13261,7 +13261,7 @@
         <v>1.2</v>
       </c>
       <c r="S95" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T95" t="n">
         <v>2.04</v>
@@ -13492,22 +13492,22 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G97" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H97" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I97" t="n">
         <v>4.1</v>
       </c>
       <c r="J97" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K97" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L97" t="n">
         <v>1.34</v>
@@ -13519,10 +13519,10 @@
         <v>3.7</v>
       </c>
       <c r="O97" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P97" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q97" t="n">
         <v>1.87</v>
@@ -13540,10 +13540,10 @@
         <v>2.04</v>
       </c>
       <c r="V97" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W97" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X97" t="n">
         <v>970</v>
@@ -13552,10 +13552,10 @@
         <v>970</v>
       </c>
       <c r="Z97" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA97" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AB97" t="n">
         <v>970</v>
@@ -13567,7 +13567,7 @@
         <v>970</v>
       </c>
       <c r="AE97" t="n">
-        <v>48</v>
+        <v>500</v>
       </c>
       <c r="AF97" t="n">
         <v>970</v>
@@ -13579,25 +13579,25 @@
         <v>20</v>
       </c>
       <c r="AI97" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AJ97" t="n">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="AK97" t="n">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="AL97" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AM97" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AN97" t="n">
         <v>20</v>
       </c>
       <c r="AO97" t="n">
-        <v>44</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98">
@@ -13630,13 +13630,13 @@
         <v>1.62</v>
       </c>
       <c r="G98" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H98" t="n">
         <v>7.6</v>
       </c>
       <c r="I98" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J98" t="n">
         <v>3.65</v>
@@ -13651,43 +13651,43 @@
         <v>1.12</v>
       </c>
       <c r="N98" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="O98" t="n">
         <v>1.55</v>
       </c>
       <c r="P98" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R98" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S98" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T98" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="U98" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V98" t="n">
         <v>1.13</v>
       </c>
       <c r="W98" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X98" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y98" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Z98" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AA98" t="n">
         <v>450</v>
@@ -13696,34 +13696,34 @@
         <v>5.6</v>
       </c>
       <c r="AC98" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD98" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AE98" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AF98" t="n">
         <v>7.8</v>
       </c>
       <c r="AG98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH98" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AI98" t="n">
         <v>250</v>
       </c>
       <c r="AJ98" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK98" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL98" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AM98" t="n">
         <v>400</v>
@@ -13762,19 +13762,19 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="G99" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I99" t="n">
         <v>5.3</v>
       </c>
       <c r="J99" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K99" t="n">
         <v>3.7</v>
@@ -13813,7 +13813,7 @@
         <v>1.23</v>
       </c>
       <c r="W99" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="X99" t="n">
         <v>13.5</v>
@@ -14032,10 +14032,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G101" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="H101" t="n">
         <v>4.2</v>
@@ -14047,7 +14047,7 @@
         <v>3.15</v>
       </c>
       <c r="K101" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L101" t="n">
         <v>1.45</v>
@@ -14065,7 +14065,7 @@
         <v>1.63</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="R101" t="n">
         <v>1.23</v>
@@ -14080,10 +14080,10 @@
         <v>1.83</v>
       </c>
       <c r="V101" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W101" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X101" t="n">
         <v>12</v>
@@ -14095,7 +14095,7 @@
         <v>38</v>
       </c>
       <c r="AA101" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB101" t="n">
         <v>8.4</v>
@@ -14110,10 +14110,10 @@
         <v>85</v>
       </c>
       <c r="AF101" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG101" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH101" t="n">
         <v>26</v>
@@ -14122,7 +14122,7 @@
         <v>100</v>
       </c>
       <c r="AJ101" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK101" t="n">
         <v>32</v>
@@ -14134,7 +14134,7 @@
         <v>190</v>
       </c>
       <c r="AN101" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO101" t="n">
         <v>120</v>
@@ -14455,7 +14455,7 @@
         <v>3.45</v>
       </c>
       <c r="L104" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="M104" t="n">
         <v>1.07</v>
@@ -14464,7 +14464,7 @@
         <v>3.25</v>
       </c>
       <c r="O104" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P104" t="n">
         <v>1.75</v>
@@ -14479,10 +14479,10 @@
         <v>4</v>
       </c>
       <c r="T104" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U104" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V104" t="n">
         <v>1.37</v>
@@ -14503,7 +14503,7 @@
         <v>70</v>
       </c>
       <c r="AB104" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC104" t="n">
         <v>8.800000000000001</v>
@@ -14512,13 +14512,13 @@
         <v>17.5</v>
       </c>
       <c r="AE104" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF104" t="n">
         <v>17.5</v>
       </c>
       <c r="AG104" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH104" t="n">
         <v>23</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G2" t="n">
         <v>1.53</v>
@@ -679,46 +679,46 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="R2" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="S2" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="T2" t="n">
         <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
         <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="X2" t="n">
         <v>980</v>
@@ -742,7 +742,7 @@
         <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -754,25 +754,25 @@
         <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL2" t="n">
         <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.28</v>
@@ -826,34 +826,34 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R3" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>2.36</v>
       </c>
       <c r="T3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U3" t="n">
         <v>2.58</v>
       </c>
       <c r="V3" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X3" t="n">
         <v>27</v>
@@ -874,10 +874,10 @@
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
         <v>17.5</v>
@@ -886,28 +886,28 @@
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI3" t="n">
         <v>38</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G4" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
         <v>3.9</v>
@@ -961,22 +961,22 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q4" t="n">
         <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
         <v>1.6</v>
@@ -985,10 +985,10 @@
         <v>2.56</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -1006,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>15</v>
@@ -1030,19 +1030,19 @@
         <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM4" t="n">
         <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I5" t="n">
         <v>2.78</v>
@@ -1102,7 +1102,7 @@
         <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
         <v>1.94</v>
@@ -1111,7 +1111,7 @@
         <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T5" t="n">
         <v>1.76</v>
@@ -1126,58 +1126,58 @@
         <v>1.5</v>
       </c>
       <c r="X5" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
         <v>42</v>
       </c>
       <c r="AA5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AB5" t="n">
         <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>500</v>
       </c>
-      <c r="AG5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>900</v>
-      </c>
       <c r="AK5" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AL5" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H6" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="I6" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="J6" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="K6" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="R6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T6" t="n">
         <v>2</v>
       </c>
-      <c r="T6" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="V6" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="X6" t="n">
         <v>980</v>
@@ -1267,28 +1267,28 @@
         <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
         <v>10.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AC6" t="n">
         <v>980</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AG6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
@@ -1303,16 +1303,16 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="7">
@@ -1351,16 +1351,16 @@
         <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
         <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
@@ -1402,10 +1402,10 @@
         <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="AB7" t="n">
         <v>10</v>
@@ -1417,28 +1417,28 @@
         <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="AK7" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="AL7" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
@@ -1540,7 +1540,7 @@
         <v>14</v>
       </c>
       <c r="AA8" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AB8" t="n">
         <v>14</v>
@@ -1552,34 +1552,34 @@
         <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AF8" t="n">
         <v>80</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AI8" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
         <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="AL8" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AO8" t="n">
         <v>21</v>
@@ -1615,7 +1615,7 @@
         <v>1.87</v>
       </c>
       <c r="G9" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
@@ -1657,19 +1657,19 @@
         <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
         <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X9" t="n">
         <v>90</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>970</v>
@@ -1684,7 +1684,7 @@
         <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>500</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
         <v>1.93</v>
       </c>
       <c r="I10" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1777,7 +1777,7 @@
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
         <v>1.6</v>
@@ -1816,13 +1816,13 @@
         <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF10" t="n">
         <v>32</v>
@@ -1885,7 +1885,7 @@
         <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H11" t="n">
         <v>3.15</v>
@@ -1915,7 +1915,7 @@
         <v>2.16</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
         <v>1.46</v>
@@ -1924,7 +1924,7 @@
         <v>2.96</v>
       </c>
       <c r="T11" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
         <v>2.4</v>
@@ -1936,7 +1936,7 @@
         <v>1.67</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
         <v>15</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="n">
         <v>34</v>
@@ -2026,13 +2026,13 @@
         <v>5.2</v>
       </c>
       <c r="I12" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
         <v>1.76</v>
@@ -2206,7 +2206,7 @@
         <v>1.89</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
         <v>25</v>
@@ -2257,7 +2257,7 @@
         <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>1.65</v>
       </c>
       <c r="G14" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="H14" t="n">
         <v>5.2</v>
@@ -2311,7 +2311,7 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
@@ -2329,7 +2329,7 @@
         <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
         <v>2</v>
@@ -2338,7 +2338,7 @@
         <v>1.19</v>
       </c>
       <c r="W14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X14" t="n">
         <v>16.5</v>
@@ -2368,7 +2368,7 @@
         <v>11</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
         <v>22</v>
@@ -2377,13 +2377,13 @@
         <v>200</v>
       </c>
       <c r="AJ14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK14" t="n">
         <v>18.5</v>
       </c>
-      <c r="AK14" t="n">
-        <v>19</v>
-      </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
@@ -2392,7 +2392,7 @@
         <v>11</v>
       </c>
       <c r="AO14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G15" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
         <v>5.3</v>
       </c>
       <c r="I15" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
         <v>1.48</v>
@@ -2446,7 +2446,7 @@
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O15" t="n">
         <v>1.42</v>
@@ -2455,7 +2455,7 @@
         <v>1.65</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
         <v>1.24</v>
@@ -2464,13 +2464,13 @@
         <v>4.3</v>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U15" t="n">
         <v>1.79</v>
       </c>
       <c r="V15" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W15" t="n">
         <v>2.1</v>
@@ -2509,7 +2509,7 @@
         <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AJ15" t="n">
         <v>21</v>
@@ -2518,16 +2518,16 @@
         <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>150</v>
+        <v>460</v>
       </c>
       <c r="AM15" t="n">
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
@@ -2590,7 +2590,7 @@
         <v>2.22</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R16" t="n">
         <v>1.48</v>
@@ -2635,10 +2635,10 @@
         <v>65</v>
       </c>
       <c r="AF16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
         <v>19.5</v>
@@ -2656,7 +2656,7 @@
         <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
         <v>9</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H17" t="n">
         <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
         <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
         <v>1.31</v>
@@ -2740,34 +2740,34 @@
         <v>2.42</v>
       </c>
       <c r="V17" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W17" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X17" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA17" t="n">
         <v>500</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>900</v>
       </c>
       <c r="AB17" t="n">
         <v>46</v>
       </c>
       <c r="AC17" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="AF17" t="n">
         <v>70</v>
@@ -2785,7 +2785,7 @@
         <v>500</v>
       </c>
       <c r="AK17" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AL17" t="n">
         <v>500</v>
@@ -2794,7 +2794,7 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
         <v>980</v>
@@ -2830,10 +2830,10 @@
         <v>2.94</v>
       </c>
       <c r="G18" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I18" t="n">
         <v>2.44</v>
@@ -2851,7 +2851,7 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
@@ -2860,25 +2860,25 @@
         <v>2.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
         <v>1.56</v>
       </c>
       <c r="S18" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T18" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U18" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V18" t="n">
         <v>1.7</v>
       </c>
       <c r="W18" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
         <v>55</v>
@@ -2890,10 +2890,10 @@
         <v>18.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AB18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC18" t="n">
         <v>9.800000000000001</v>
@@ -2905,7 +2905,7 @@
         <v>48</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
         <v>14.5</v>
@@ -2929,7 +2929,7 @@
         <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>13.5</v>
@@ -2971,7 +2971,7 @@
         <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -2989,13 +2989,13 @@
         <v>3.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
         <v>2.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
         <v>1.4</v>
@@ -3004,10 +3004,10 @@
         <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V19" t="n">
         <v>1.29</v>
@@ -3016,16 +3016,16 @@
         <v>1.93</v>
       </c>
       <c r="X19" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
         <v>16</v>
       </c>
       <c r="Z19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="n">
         <v>9.800000000000001</v>
@@ -3037,7 +3037,7 @@
         <v>16.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
         <v>13</v>
@@ -3055,7 +3055,7 @@
         <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
         <v>36</v>
@@ -3064,10 +3064,10 @@
         <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO19" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3121,16 +3121,16 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O20" t="n">
         <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R20" t="n">
         <v>1.56</v>
@@ -3142,10 +3142,10 @@
         <v>1.62</v>
       </c>
       <c r="U20" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W20" t="n">
         <v>1.94</v>
@@ -3175,13 +3175,13 @@
         <v>46</v>
       </c>
       <c r="AF20" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG20" t="n">
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>50</v>
@@ -3235,13 +3235,13 @@
         <v>1.77</v>
       </c>
       <c r="G21" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
         <v>5.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
         <v>3.95</v>
@@ -3253,7 +3253,7 @@
         <v>1.35</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
         <v>4.4</v>
@@ -3262,10 +3262,10 @@
         <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
         <v>1.46</v>
@@ -3274,10 +3274,10 @@
         <v>2.98</v>
       </c>
       <c r="T21" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V21" t="n">
         <v>1.22</v>
@@ -3295,10 +3295,10 @@
         <v>42</v>
       </c>
       <c r="AA21" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC21" t="n">
         <v>9</v>
@@ -3310,10 +3310,10 @@
         <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AH21" t="n">
         <v>18.5</v>
@@ -3334,7 +3334,7 @@
         <v>95</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO21" t="n">
         <v>65</v>
@@ -3376,13 +3376,13 @@
         <v>2.88</v>
       </c>
       <c r="I22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
         <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L22" t="n">
         <v>1.51</v>
@@ -3409,10 +3409,10 @@
         <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U22" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V22" t="n">
         <v>1.47</v>
@@ -3433,10 +3433,10 @@
         <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
         <v>27</v>
@@ -3445,13 +3445,13 @@
         <v>970</v>
       </c>
       <c r="AF22" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AG22" t="n">
         <v>25</v>
       </c>
       <c r="AH22" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="n">
         <v>500</v>
@@ -3466,7 +3466,7 @@
         <v>500</v>
       </c>
       <c r="AM22" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
         <v>970</v>
@@ -3508,7 +3508,7 @@
         <v>2.24</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I23" t="n">
         <v>3.4</v>
@@ -3532,22 +3532,22 @@
         <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.61</v>
       </c>
-      <c r="R23" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S23" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U23" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="V23" t="n">
         <v>1.41</v>
@@ -3568,7 +3568,7 @@
         <v>60</v>
       </c>
       <c r="AB23" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="AC23" t="n">
         <v>9.199999999999999</v>
@@ -3592,7 +3592,7 @@
         <v>36</v>
       </c>
       <c r="AJ23" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AK23" t="n">
         <v>20</v>
@@ -3604,7 +3604,7 @@
         <v>60</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO23" t="n">
         <v>23</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G24" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I24" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J24" t="n">
         <v>3.8</v>
@@ -3655,7 +3655,7 @@
         <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -3670,10 +3670,10 @@
         <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S24" t="n">
         <v>2.58</v>
@@ -3685,10 +3685,10 @@
         <v>2.46</v>
       </c>
       <c r="V24" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W24" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X24" t="n">
         <v>23</v>
@@ -3706,7 +3706,7 @@
         <v>15</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD24" t="n">
         <v>14.5</v>
@@ -3790,7 +3790,7 @@
         <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
@@ -3802,10 +3802,10 @@
         <v>1.32</v>
       </c>
       <c r="P25" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R25" t="n">
         <v>1.34</v>
@@ -3850,7 +3850,7 @@
         <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="AG25" t="n">
         <v>16</v>
@@ -3859,22 +3859,22 @@
         <v>18.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="AJ25" t="n">
         <v>900</v>
       </c>
       <c r="AK25" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="AL25" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AM25" t="n">
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
       <c r="AO25" t="n">
         <v>19</v>
@@ -3913,7 +3913,7 @@
         <v>1.35</v>
       </c>
       <c r="H26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I26" t="n">
         <v>12</v>
@@ -3925,7 +3925,7 @@
         <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -3946,7 +3946,7 @@
         <v>1.51</v>
       </c>
       <c r="S26" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T26" t="n">
         <v>2.2</v>
@@ -3961,7 +3961,7 @@
         <v>3.85</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y26" t="n">
         <v>34</v>
@@ -3973,7 +3973,7 @@
         <v>480</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC26" t="n">
         <v>13</v>
@@ -4006,7 +4006,7 @@
         <v>38</v>
       </c>
       <c r="AM26" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN26" t="n">
         <v>5.4</v>
@@ -4066,16 +4066,16 @@
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P27" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R27" t="n">
         <v>1.27</v>
@@ -4117,7 +4117,7 @@
         <v>18</v>
       </c>
       <c r="AE27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF27" t="n">
         <v>12.5</v>
@@ -4129,7 +4129,7 @@
         <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="n">
         <v>26</v>
@@ -4147,7 +4147,7 @@
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G28" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H28" t="n">
         <v>6.2</v>
@@ -4189,7 +4189,7 @@
         <v>6.6</v>
       </c>
       <c r="J28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K28" t="n">
         <v>4.5</v>
@@ -4201,22 +4201,22 @@
         <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.27</v>
       </c>
       <c r="P28" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R28" t="n">
         <v>1.46</v>
       </c>
       <c r="S28" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T28" t="n">
         <v>1.89</v>
@@ -4225,10 +4225,10 @@
         <v>2.08</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X28" t="n">
         <v>18.5</v>
@@ -4258,7 +4258,7 @@
         <v>10</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH28" t="n">
         <v>21</v>
@@ -4270,7 +4270,7 @@
         <v>15.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL28" t="n">
         <v>32</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G29" t="n">
         <v>1.43</v>
@@ -4324,28 +4324,28 @@
         <v>15</v>
       </c>
       <c r="J29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K29" t="n">
         <v>5.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M29" t="n">
         <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O29" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
         <v>1.67</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R29" t="n">
         <v>1.24</v>
@@ -4363,7 +4363,7 @@
         <v>1.07</v>
       </c>
       <c r="W29" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X29" t="n">
         <v>13.5</v>
@@ -4372,22 +4372,22 @@
         <v>28</v>
       </c>
       <c r="Z29" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD29" t="n">
         <v>360</v>
       </c>
       <c r="AE29" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AF29" t="n">
         <v>7.4</v>
@@ -4396,10 +4396,10 @@
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="AI29" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
@@ -4408,13 +4408,13 @@
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AM29" t="n">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="AN29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,37 +4447,37 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I30" t="n">
         <v>5.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>3.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M30" t="n">
         <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O30" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P30" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q30" t="n">
         <v>2.5</v>
@@ -4489,19 +4489,19 @@
         <v>5.2</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U30" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V30" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="W30" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="X30" t="n">
-        <v>17.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y30" t="n">
         <v>32</v>
@@ -4513,7 +4513,7 @@
         <v>900</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC30" t="n">
         <v>8</v>
@@ -4525,10 +4525,10 @@
         <v>500</v>
       </c>
       <c r="AF30" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AH30" t="n">
         <v>970</v>
@@ -4552,7 +4552,7 @@
         <v>970</v>
       </c>
       <c r="AO30" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="G31" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H31" t="n">
         <v>5.3</v>
@@ -4594,13 +4594,13 @@
         <v>6.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
@@ -4609,16 +4609,16 @@
         <v>2.78</v>
       </c>
       <c r="O31" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P31" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R31" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
         <v>4.3</v>
@@ -4630,10 +4630,10 @@
         <v>1.71</v>
       </c>
       <c r="V31" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W31" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X31" t="n">
         <v>11.5</v>
@@ -4672,7 +4672,7 @@
         <v>500</v>
       </c>
       <c r="AJ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
         <v>25</v>
@@ -4684,10 +4684,10 @@
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO31" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32">
@@ -4735,10 +4735,10 @@
         <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
         <v>2.62</v>
@@ -4747,22 +4747,22 @@
         <v>1.52</v>
       </c>
       <c r="P32" t="n">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.52</v>
+        <v>2.46</v>
       </c>
       <c r="R32" t="n">
         <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="U32" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="V32" t="n">
         <v>1.35</v>
@@ -4774,7 +4774,7 @@
         <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
         <v>970</v>
@@ -4822,7 +4822,7 @@
         <v>970</v>
       </c>
       <c r="AO32" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
@@ -4852,64 +4852,64 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G33" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I33" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M33" t="n">
         <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O33" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="P33" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R33" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S33" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T33" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U33" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="V33" t="n">
         <v>1.15</v>
       </c>
       <c r="W33" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X33" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z33" t="n">
         <v>65</v>
@@ -4918,19 +4918,19 @@
         <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG33" t="n">
         <v>11.5</v>
@@ -4939,25 +4939,25 @@
         <v>80</v>
       </c>
       <c r="AI33" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AJ33" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK33" t="n">
         <v>26</v>
       </c>
       <c r="AL33" t="n">
-        <v>460</v>
+        <v>160</v>
       </c>
       <c r="AM33" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AN33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34">
@@ -4990,22 +4990,22 @@
         <v>2.1</v>
       </c>
       <c r="G34" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H34" t="n">
         <v>4.3</v>
       </c>
       <c r="I34" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
         <v>3.45</v>
       </c>
       <c r="L34" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M34" t="n">
         <v>1.09</v>
@@ -5032,13 +5032,13 @@
         <v>1.92</v>
       </c>
       <c r="U34" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>1.29</v>
       </c>
       <c r="W34" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="X34" t="n">
         <v>11.5</v>
@@ -5050,10 +5050,10 @@
         <v>30</v>
       </c>
       <c r="AA34" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC34" t="n">
         <v>7.4</v>
@@ -5089,10 +5089,10 @@
         <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO34" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35">
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G35" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H35" t="n">
         <v>2.86</v>
@@ -5137,22 +5137,22 @@
         <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O35" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P35" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q35" t="n">
         <v>2.34</v>
@@ -5164,13 +5164,13 @@
         <v>4.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U35" t="n">
         <v>1.98</v>
       </c>
       <c r="V35" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W35" t="n">
         <v>1.51</v>
@@ -5263,7 +5263,7 @@
         <v>2.6</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
         <v>3.55</v>
@@ -5272,10 +5272,10 @@
         <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L36" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
@@ -5284,13 +5284,13 @@
         <v>3.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P36" t="n">
         <v>1.69</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="R36" t="n">
         <v>1.26</v>
@@ -5362,7 +5362,7 @@
         <v>970</v>
       </c>
       <c r="AO36" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37">
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H37" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I37" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J37" t="n">
         <v>3.2</v>
@@ -5410,16 +5410,16 @@
         <v>3.3</v>
       </c>
       <c r="L37" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="M37" t="n">
         <v>1.12</v>
       </c>
       <c r="N37" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="O37" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="P37" t="n">
         <v>1.62</v>
@@ -5440,28 +5440,28 @@
         <v>1.8</v>
       </c>
       <c r="V37" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W37" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X37" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y37" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z37" t="n">
         <v>32</v>
       </c>
       <c r="AA37" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB37" t="n">
         <v>7.4</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD37" t="n">
         <v>18.5</v>
@@ -5470,31 +5470,31 @@
         <v>75</v>
       </c>
       <c r="AF37" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH37" t="n">
         <v>24</v>
       </c>
       <c r="AI37" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL37" t="n">
         <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO37" t="n">
         <v>300</v>
@@ -5575,7 +5575,7 @@
         <v>1.91</v>
       </c>
       <c r="V38" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W38" t="n">
         <v>1.43</v>
@@ -5587,7 +5587,7 @@
         <v>8.6</v>
       </c>
       <c r="Z38" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA38" t="n">
         <v>40</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G39" t="n">
         <v>1.46</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.47</v>
       </c>
       <c r="H39" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J39" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L39" t="n">
         <v>1.38</v>
@@ -5713,10 +5713,10 @@
         <v>1.12</v>
       </c>
       <c r="W39" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X39" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y39" t="n">
         <v>27</v>
@@ -5725,7 +5725,7 @@
         <v>75</v>
       </c>
       <c r="AA39" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AB39" t="n">
         <v>8.199999999999999</v>
@@ -5743,7 +5743,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG39" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH39" t="n">
         <v>27</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G40" t="n">
         <v>3.1</v>
@@ -5806,7 +5806,7 @@
         <v>2.82</v>
       </c>
       <c r="I40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
@@ -5842,19 +5842,19 @@
         <v>1.96</v>
       </c>
       <c r="U40" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V40" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W40" t="n">
         <v>1.48</v>
       </c>
       <c r="X40" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z40" t="n">
         <v>38</v>
@@ -5875,7 +5875,7 @@
         <v>970</v>
       </c>
       <c r="AF40" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AG40" t="n">
         <v>13.5</v>
@@ -5902,7 +5902,7 @@
         <v>970</v>
       </c>
       <c r="AO40" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41">
@@ -5962,7 +5962,7 @@
         <v>1.29</v>
       </c>
       <c r="P41" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q41" t="n">
         <v>1.85</v>
@@ -5971,13 +5971,13 @@
         <v>1.44</v>
       </c>
       <c r="S41" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T41" t="n">
         <v>1.7</v>
       </c>
       <c r="U41" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V41" t="n">
         <v>1.62</v>
@@ -6016,7 +6016,7 @@
         <v>12.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI41" t="n">
         <v>36</v>
@@ -6031,13 +6031,13 @@
         <v>40</v>
       </c>
       <c r="AM41" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN41" t="n">
         <v>25</v>
       </c>
       <c r="AO41" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="42">
@@ -6082,7 +6082,7 @@
         <v>3.7</v>
       </c>
       <c r="K42" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L42" t="n">
         <v>1.44</v>
@@ -6091,13 +6091,13 @@
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O42" t="n">
         <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q42" t="n">
         <v>2</v>
@@ -6106,7 +6106,7 @@
         <v>1.37</v>
       </c>
       <c r="S42" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T42" t="n">
         <v>1.86</v>
@@ -6133,7 +6133,7 @@
         <v>95</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC42" t="n">
         <v>8</v>
@@ -6145,10 +6145,10 @@
         <v>55</v>
       </c>
       <c r="AF42" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH42" t="n">
         <v>18.5</v>
@@ -6163,16 +6163,16 @@
         <v>19.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM42" t="n">
         <v>100</v>
       </c>
       <c r="AN42" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO42" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
@@ -6226,28 +6226,28 @@
         <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O43" t="n">
         <v>1.24</v>
       </c>
       <c r="P43" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R43" t="n">
         <v>1.54</v>
       </c>
       <c r="S43" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="T43" t="n">
         <v>1.62</v>
       </c>
       <c r="U43" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V43" t="n">
         <v>1.33</v>
@@ -6265,7 +6265,7 @@
         <v>30</v>
       </c>
       <c r="AA43" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB43" t="n">
         <v>12</v>
@@ -6274,7 +6274,7 @@
         <v>8.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE43" t="n">
         <v>38</v>
@@ -6289,10 +6289,10 @@
         <v>14.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ43" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK43" t="n">
         <v>19.5</v>
@@ -6307,7 +6307,7 @@
         <v>11.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -6382,7 +6382,7 @@
         <v>1.73</v>
       </c>
       <c r="U44" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V44" t="n">
         <v>1.91</v>
@@ -6391,7 +6391,7 @@
         <v>1.35</v>
       </c>
       <c r="X44" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y44" t="n">
         <v>11</v>
@@ -6406,7 +6406,7 @@
         <v>16</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD44" t="n">
         <v>10.5</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G45" t="n">
         <v>2.78</v>
@@ -6481,7 +6481,7 @@
         <v>3.05</v>
       </c>
       <c r="I45" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J45" t="n">
         <v>3</v>
@@ -6490,7 +6490,7 @@
         <v>3.4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M45" t="n">
         <v>1.1</v>
@@ -6499,28 +6499,28 @@
         <v>2.8</v>
       </c>
       <c r="O45" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P45" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="R45" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="S45" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="V45" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W45" t="n">
         <v>1.56</v>
@@ -6532,13 +6532,13 @@
         <v>10.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA45" t="n">
         <v>75</v>
       </c>
       <c r="AB45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC45" t="n">
         <v>7.6</v>
@@ -6571,7 +6571,7 @@
         <v>60</v>
       </c>
       <c r="AM45" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN45" t="n">
         <v>38</v>
@@ -6610,28 +6610,28 @@
         <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H46" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I46" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K46" t="n">
         <v>4.3</v>
       </c>
       <c r="L46" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M46" t="n">
         <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O46" t="n">
         <v>1.26</v>
@@ -6640,28 +6640,28 @@
         <v>2.1</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R46" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S46" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T46" t="n">
         <v>1.68</v>
       </c>
       <c r="U46" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V46" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W46" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X46" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y46" t="n">
         <v>11</v>
@@ -6673,10 +6673,10 @@
         <v>70</v>
       </c>
       <c r="AB46" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AD46" t="n">
         <v>11</v>
@@ -6685,7 +6685,7 @@
         <v>50</v>
       </c>
       <c r="AF46" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AG46" t="n">
         <v>34</v>
@@ -6694,13 +6694,13 @@
         <v>28</v>
       </c>
       <c r="AI46" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="AJ46" t="n">
         <v>900</v>
       </c>
       <c r="AK46" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="AL46" t="n">
         <v>500</v>
@@ -6709,7 +6709,7 @@
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AO46" t="n">
         <v>12</v>
@@ -6748,7 +6748,7 @@
         <v>1.17</v>
       </c>
       <c r="H47" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I47" t="n">
         <v>34</v>
@@ -6757,7 +6757,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="F48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G48" t="n">
         <v>3.25</v>
       </c>
-      <c r="G48" t="n">
-        <v>3.3</v>
-      </c>
       <c r="H48" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I48" t="n">
         <v>2.34</v>
@@ -6916,7 +6916,7 @@
         <v>1.66</v>
       </c>
       <c r="S48" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T48" t="n">
         <v>1.54</v>
@@ -6925,7 +6925,7 @@
         <v>2.76</v>
       </c>
       <c r="V48" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W48" t="n">
         <v>1.44</v>
@@ -6946,7 +6946,7 @@
         <v>19</v>
       </c>
       <c r="AC48" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD48" t="n">
         <v>11.5</v>
@@ -6979,10 +6979,10 @@
         <v>55</v>
       </c>
       <c r="AN48" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="49">
@@ -7012,28 +7012,28 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="H49" t="n">
         <v>12.5</v>
       </c>
       <c r="I49" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J49" t="n">
         <v>6.4</v>
       </c>
       <c r="K49" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L49" t="n">
         <v>1.3</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N49" t="n">
         <v>5.3</v>
@@ -7060,34 +7060,34 @@
         <v>1.8</v>
       </c>
       <c r="V49" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W49" t="n">
         <v>4.2</v>
       </c>
       <c r="X49" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y49" t="n">
         <v>46</v>
       </c>
       <c r="Z49" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AA49" t="n">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="AB49" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC49" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD49" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE49" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AF49" t="n">
         <v>7.6</v>
@@ -7096,10 +7096,10 @@
         <v>10.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI49" t="n">
-        <v>520</v>
+        <v>170</v>
       </c>
       <c r="AJ49" t="n">
         <v>9.6</v>
@@ -7108,7 +7108,7 @@
         <v>13.5</v>
       </c>
       <c r="AL49" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AM49" t="n">
         <v>430</v>
@@ -7117,7 +7117,7 @@
         <v>4.8</v>
       </c>
       <c r="AO49" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50">
@@ -7159,10 +7159,10 @@
         <v>2.38</v>
       </c>
       <c r="J50" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K50" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L50" t="n">
         <v>1.38</v>
@@ -7177,16 +7177,16 @@
         <v>1.28</v>
       </c>
       <c r="P50" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q50" t="n">
         <v>1.84</v>
       </c>
       <c r="R50" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S50" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T50" t="n">
         <v>1.71</v>
@@ -7213,7 +7213,7 @@
         <v>30</v>
       </c>
       <c r="AB50" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC50" t="n">
         <v>7.8</v>
@@ -7225,31 +7225,31 @@
         <v>23</v>
       </c>
       <c r="AF50" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG50" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI50" t="n">
         <v>34</v>
       </c>
       <c r="AJ50" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK50" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL50" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM50" t="n">
         <v>80</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO50" t="n">
         <v>16</v>
@@ -7291,7 +7291,7 @@
         <v>29</v>
       </c>
       <c r="I51" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J51" t="n">
         <v>12</v>
@@ -7318,7 +7318,7 @@
         <v>1.27</v>
       </c>
       <c r="R51" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="S51" t="n">
         <v>1.68</v>
@@ -7327,7 +7327,7 @@
         <v>2.1</v>
       </c>
       <c r="U51" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V51" t="n">
         <v>1.03</v>
@@ -7372,7 +7372,7 @@
         <v>280</v>
       </c>
       <c r="AJ51" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AK51" t="n">
         <v>14</v>
@@ -7387,7 +7387,7 @@
         <v>2.24</v>
       </c>
       <c r="AO51" t="n">
-        <v>440</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52">
@@ -7423,7 +7423,7 @@
         <v>2.48</v>
       </c>
       <c r="H52" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I52" t="n">
         <v>3.5</v>
@@ -7432,7 +7432,7 @@
         <v>3.25</v>
       </c>
       <c r="K52" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L52" t="n">
         <v>1.48</v>
@@ -7441,13 +7441,13 @@
         <v>1.09</v>
       </c>
       <c r="N52" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O52" t="n">
         <v>1.4</v>
       </c>
       <c r="P52" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q52" t="n">
         <v>2.2</v>
@@ -7456,10 +7456,10 @@
         <v>1.28</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U52" t="n">
         <v>2.02</v>
@@ -7513,7 +7513,7 @@
         <v>32</v>
       </c>
       <c r="AL52" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM52" t="n">
         <v>130</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="G53" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="H53" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="I53" t="n">
         <v>1.3</v>
@@ -7570,19 +7570,19 @@
         <v>7.4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M53" t="n">
         <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O53" t="n">
         <v>1.16</v>
       </c>
       <c r="P53" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q53" t="n">
         <v>1.48</v>
@@ -7591,13 +7591,13 @@
         <v>1.65</v>
       </c>
       <c r="S53" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T53" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U53" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="V53" t="n">
         <v>4.3</v>
@@ -7615,7 +7615,7 @@
         <v>9.4</v>
       </c>
       <c r="AA53" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB53" t="n">
         <v>970</v>
@@ -7627,7 +7627,7 @@
         <v>12</v>
       </c>
       <c r="AE53" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF53" t="n">
         <v>140</v>
@@ -7657,7 +7657,7 @@
         <v>260</v>
       </c>
       <c r="AO53" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="54">
@@ -7693,7 +7693,7 @@
         <v>2.18</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I54" t="n">
         <v>4.1</v>
@@ -7714,13 +7714,13 @@
         <v>3.6</v>
       </c>
       <c r="O54" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P54" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R54" t="n">
         <v>1.34</v>
@@ -7732,7 +7732,7 @@
         <v>1.83</v>
       </c>
       <c r="U54" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V54" t="n">
         <v>1.32</v>
@@ -7741,13 +7741,13 @@
         <v>1.84</v>
       </c>
       <c r="X54" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y54" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="n">
         <v>900</v>
@@ -7756,25 +7756,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC54" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD54" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AF54" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG54" t="n">
         <v>11.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI54" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="AJ54" t="n">
         <v>26</v>
@@ -7783,16 +7783,16 @@
         <v>23</v>
       </c>
       <c r="AL54" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AM54" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN54" t="n">
         <v>17</v>
       </c>
       <c r="AO54" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G55" t="n">
         <v>2.22</v>
@@ -7846,25 +7846,25 @@
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O55" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P55" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R55" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S55" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T55" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U55" t="n">
         <v>2.24</v>
@@ -7996,7 +7996,7 @@
         <v>1.28</v>
       </c>
       <c r="S56" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="T56" t="n">
         <v>1.79</v>
@@ -8092,19 +8092,19 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G57" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H57" t="n">
         <v>3.15</v>
       </c>
       <c r="I57" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J57" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K57" t="n">
         <v>3.85</v>
@@ -8116,88 +8116,88 @@
         <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O57" t="n">
         <v>1.24</v>
       </c>
       <c r="P57" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R57" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S57" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T57" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="U57" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V57" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W57" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X57" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y57" t="n">
         <v>16.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AA57" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AB57" t="n">
         <v>13.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD57" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE57" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AF57" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AJ57" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AK57" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AL57" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AM57" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AN57" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
@@ -8230,10 +8230,10 @@
         <v>3.5</v>
       </c>
       <c r="G58" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H58" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I58" t="n">
         <v>2.14</v>
@@ -8263,16 +8263,16 @@
         <v>1.63</v>
       </c>
       <c r="R58" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S58" t="n">
         <v>2.54</v>
       </c>
       <c r="T58" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U58" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V58" t="n">
         <v>1.88</v>
@@ -8281,7 +8281,7 @@
         <v>1.37</v>
       </c>
       <c r="X58" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Y58" t="n">
         <v>16.5</v>
@@ -8293,19 +8293,19 @@
         <v>30</v>
       </c>
       <c r="AB58" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD58" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE58" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AF58" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AG58" t="n">
         <v>16</v>
@@ -8317,7 +8317,7 @@
         <v>34</v>
       </c>
       <c r="AJ58" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AK58" t="n">
         <v>970</v>
@@ -8326,7 +8326,7 @@
         <v>46</v>
       </c>
       <c r="AM58" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="AN58" t="n">
         <v>29</v>
@@ -8368,10 +8368,10 @@
         <v>1.28</v>
       </c>
       <c r="H59" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I59" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J59" t="n">
         <v>7</v>
@@ -8380,13 +8380,13 @@
         <v>7.6</v>
       </c>
       <c r="L59" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M59" t="n">
         <v>1.02</v>
       </c>
       <c r="N59" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O59" t="n">
         <v>1.12</v>
@@ -8398,31 +8398,31 @@
         <v>1.4</v>
       </c>
       <c r="R59" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="S59" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T59" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U59" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V59" t="n">
         <v>1.08</v>
       </c>
       <c r="W59" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="X59" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Y59" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="Z59" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA59" t="n">
         <v>1000</v>
@@ -8431,13 +8431,13 @@
         <v>14.5</v>
       </c>
       <c r="AC59" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD59" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE59" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF59" t="n">
         <v>10.5</v>
@@ -8449,16 +8449,16 @@
         <v>28</v>
       </c>
       <c r="AI59" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AJ59" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK59" t="n">
         <v>14</v>
       </c>
       <c r="AL59" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM59" t="n">
         <v>140</v>
@@ -8530,7 +8530,7 @@
         <v>2.2</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R60" t="n">
         <v>1.48</v>
@@ -8578,7 +8578,7 @@
         <v>13.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH60" t="n">
         <v>16</v>
@@ -8590,7 +8590,7 @@
         <v>24</v>
       </c>
       <c r="AK60" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL60" t="n">
         <v>30</v>
@@ -8656,7 +8656,7 @@
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O61" t="n">
         <v>1.37</v>
@@ -8665,7 +8665,7 @@
         <v>1.8</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R61" t="n">
         <v>1.3</v>
@@ -8680,7 +8680,7 @@
         <v>2.02</v>
       </c>
       <c r="V61" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W61" t="n">
         <v>1.92</v>
@@ -8698,7 +8698,7 @@
         <v>500</v>
       </c>
       <c r="AB61" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC61" t="n">
         <v>8.4</v>
@@ -8722,7 +8722,7 @@
         <v>400</v>
       </c>
       <c r="AJ61" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AK61" t="n">
         <v>25</v>
@@ -8812,7 +8812,7 @@
         <v>1.55</v>
       </c>
       <c r="U62" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V62" t="n">
         <v>1.46</v>
@@ -8821,7 +8821,7 @@
         <v>1.66</v>
       </c>
       <c r="X62" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="Y62" t="n">
         <v>19</v>
@@ -8908,13 +8908,13 @@
         <v>5.3</v>
       </c>
       <c r="H63" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I63" t="n">
         <v>1.76</v>
       </c>
       <c r="J63" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K63" t="n">
         <v>4.3</v>
@@ -8923,10 +8923,10 @@
         <v>1.35</v>
       </c>
       <c r="M63" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N63" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O63" t="n">
         <v>1.26</v>
@@ -8950,13 +8950,13 @@
         <v>2.18</v>
       </c>
       <c r="V63" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W63" t="n">
         <v>1.23</v>
       </c>
       <c r="X63" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y63" t="n">
         <v>9.800000000000001</v>
@@ -9043,10 +9043,10 @@
         <v>2.36</v>
       </c>
       <c r="H64" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I64" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J64" t="n">
         <v>3.1</v>
@@ -9061,16 +9061,16 @@
         <v>1.12</v>
       </c>
       <c r="N64" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O64" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P64" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="R64" t="n">
         <v>1.21</v>
@@ -9079,10 +9079,10 @@
         <v>5.1</v>
       </c>
       <c r="T64" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U64" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V64" t="n">
         <v>1.32</v>
@@ -9109,13 +9109,13 @@
         <v>6.8</v>
       </c>
       <c r="AD64" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE64" t="n">
         <v>65</v>
       </c>
       <c r="AF64" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG64" t="n">
         <v>12</v>
@@ -9124,7 +9124,7 @@
         <v>23</v>
       </c>
       <c r="AI64" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="AJ64" t="n">
         <v>32</v>
@@ -9133,16 +9133,16 @@
         <v>32</v>
       </c>
       <c r="AL64" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AM64" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN64" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AO64" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G65" t="n">
         <v>1.92</v>
@@ -9181,10 +9181,10 @@
         <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J65" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K65" t="n">
         <v>3.65</v>
@@ -9196,13 +9196,13 @@
         <v>1.08</v>
       </c>
       <c r="N65" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O65" t="n">
         <v>1.38</v>
       </c>
       <c r="P65" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q65" t="n">
         <v>2.14</v>
@@ -9253,7 +9253,7 @@
         <v>10.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH65" t="n">
         <v>20</v>
@@ -9349,7 +9349,7 @@
         <v>4.1</v>
       </c>
       <c r="T66" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U66" t="n">
         <v>2.08</v>
@@ -9361,7 +9361,7 @@
         <v>1.51</v>
       </c>
       <c r="X66" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y66" t="n">
         <v>10.5</v>
@@ -9391,13 +9391,13 @@
         <v>13</v>
       </c>
       <c r="AH66" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI66" t="n">
         <v>50</v>
       </c>
       <c r="AJ66" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK66" t="n">
         <v>34</v>
@@ -9409,7 +9409,7 @@
         <v>110</v>
       </c>
       <c r="AN66" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO66" t="n">
         <v>32</v>
@@ -9475,19 +9475,19 @@
         <v>2.32</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R67" t="n">
         <v>1.53</v>
       </c>
       <c r="S67" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T67" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U67" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V67" t="n">
         <v>1.18</v>
@@ -9496,7 +9496,7 @@
         <v>2.6</v>
       </c>
       <c r="X67" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y67" t="n">
         <v>24</v>
@@ -9508,7 +9508,7 @@
         <v>160</v>
       </c>
       <c r="AB67" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC67" t="n">
         <v>10</v>
@@ -9541,7 +9541,7 @@
         <v>30</v>
       </c>
       <c r="AM67" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN67" t="n">
         <v>7.2</v>
@@ -9577,25 +9577,25 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G68" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H68" t="n">
+        <v>4</v>
+      </c>
+      <c r="I68" t="n">
         <v>4.1</v>
       </c>
-      <c r="I68" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K68" t="n">
         <v>3.8</v>
       </c>
-      <c r="K68" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L68" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M68" t="n">
         <v>1.06</v>
@@ -9607,16 +9607,16 @@
         <v>1.27</v>
       </c>
       <c r="P68" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R68" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S68" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T68" t="n">
         <v>1.74</v>
@@ -9625,37 +9625,37 @@
         <v>2.28</v>
       </c>
       <c r="V68" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W68" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X68" t="n">
         <v>16.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z68" t="n">
         <v>32</v>
       </c>
       <c r="AA68" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB68" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC68" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD68" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE68" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF68" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG68" t="n">
         <v>10</v>
@@ -9664,13 +9664,13 @@
         <v>17</v>
       </c>
       <c r="AI68" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ68" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK68" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL68" t="n">
         <v>32</v>
@@ -9712,13 +9712,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="G69" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H69" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I69" t="n">
         <v>3.7</v>
@@ -9730,7 +9730,7 @@
         <v>3.35</v>
       </c>
       <c r="L69" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M69" t="n">
         <v>1.1</v>
@@ -9763,7 +9763,7 @@
         <v>1.37</v>
       </c>
       <c r="W69" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X69" t="n">
         <v>10.5</v>
@@ -9784,7 +9784,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD69" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AE69" t="n">
         <v>500</v>
@@ -9874,7 +9874,7 @@
         <v>1.47</v>
       </c>
       <c r="O70" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P70" t="n">
         <v>1.47</v>
@@ -9916,7 +9916,7 @@
         <v>970</v>
       </c>
       <c r="AC70" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD70" t="n">
         <v>970</v>
@@ -9982,19 +9982,19 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G71" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="H71" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I71" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="K71" t="n">
         <v>3.6</v>
@@ -10003,70 +10003,70 @@
         <v>1.38</v>
       </c>
       <c r="M71" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N71" t="n">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="O71" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P71" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.4</v>
+        <v>2.22</v>
       </c>
       <c r="R71" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="S71" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="T71" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U71" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V71" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="W71" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="X71" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="Y71" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="Z71" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AA71" t="n">
         <v>900</v>
       </c>
       <c r="AB71" t="n">
-        <v>500</v>
+        <v>16.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="AD71" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AE71" t="n">
         <v>500</v>
       </c>
       <c r="AF71" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AG71" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="AH71" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AI71" t="n">
         <v>500</v>
@@ -10075,7 +10075,7 @@
         <v>900</v>
       </c>
       <c r="AK71" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AL71" t="n">
         <v>500</v>
@@ -10084,7 +10084,7 @@
         <v>500</v>
       </c>
       <c r="AN71" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AO71" t="n">
         <v>500</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="G72" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I72" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J72" t="n">
         <v>2.96</v>
       </c>
       <c r="K72" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L72" t="n">
         <v>1.46</v>
@@ -10156,7 +10156,7 @@
         <v>1.25</v>
       </c>
       <c r="S72" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T72" t="n">
         <v>1.84</v>
@@ -10165,28 +10165,28 @@
         <v>1.92</v>
       </c>
       <c r="V72" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W72" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X72" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="Y72" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="Z72" t="n">
         <v>970</v>
       </c>
       <c r="AA72" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB72" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AC72" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AD72" t="n">
         <v>970</v>
@@ -10252,46 +10252,46 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="G73" t="n">
-        <v>3.25</v>
+        <v>2.78</v>
       </c>
       <c r="H73" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="I73" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.96</v>
+        <v>3.45</v>
       </c>
       <c r="K73" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
       </c>
       <c r="M73" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="O73" t="n">
         <v>1.31</v>
       </c>
       <c r="P73" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="R73" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="S73" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="T73" t="n">
         <v>1.66</v>
@@ -10300,64 +10300,64 @@
         <v>2.22</v>
       </c>
       <c r="V73" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="W73" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="X73" t="n">
-        <v>500</v>
+        <v>17.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="Z73" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AA73" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AB73" t="n">
-        <v>500</v>
+        <v>13</v>
       </c>
       <c r="AC73" t="n">
-        <v>500</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD73" t="n">
-        <v>500</v>
+        <v>13.5</v>
       </c>
       <c r="AE73" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AF73" t="n">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="AG73" t="n">
-        <v>500</v>
+        <v>13</v>
       </c>
       <c r="AH73" t="n">
-        <v>500</v>
+        <v>17</v>
       </c>
       <c r="AI73" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AJ73" t="n">
-        <v>900</v>
+        <v>40</v>
       </c>
       <c r="AK73" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="AL73" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AM73" t="n">
         <v>500</v>
       </c>
       <c r="AN73" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="AO73" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
@@ -10411,7 +10411,7 @@
         <v>1.13</v>
       </c>
       <c r="N74" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O74" t="n">
         <v>1.57</v>
@@ -10480,7 +10480,7 @@
         <v>25</v>
       </c>
       <c r="AK74" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL74" t="n">
         <v>60</v>
@@ -10609,7 +10609,7 @@
         <v>28</v>
       </c>
       <c r="AI75" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ75" t="n">
         <v>12</v>
@@ -10660,16 +10660,16 @@
         <v>1.89</v>
       </c>
       <c r="G76" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I76" t="n">
         <v>4.4</v>
       </c>
       <c r="J76" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K76" t="n">
         <v>4.2</v>
@@ -10687,7 +10687,7 @@
         <v>1.23</v>
       </c>
       <c r="P76" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q76" t="n">
         <v>1.6</v>
@@ -10708,10 +10708,10 @@
         <v>1.29</v>
       </c>
       <c r="W76" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="X76" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y76" t="n">
         <v>22</v>
@@ -10750,13 +10750,13 @@
         <v>29</v>
       </c>
       <c r="AK76" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL76" t="n">
         <v>38</v>
       </c>
       <c r="AM76" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AN76" t="n">
         <v>13.5</v>
@@ -10798,19 +10798,19 @@
         <v>4.1</v>
       </c>
       <c r="H77" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I77" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J77" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K77" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L77" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M77" t="n">
         <v>1.07</v>
@@ -10819,37 +10819,37 @@
         <v>3.9</v>
       </c>
       <c r="O77" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P77" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R77" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S77" t="n">
         <v>3.35</v>
       </c>
       <c r="T77" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U77" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V77" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="W77" t="n">
         <v>1.32</v>
       </c>
       <c r="X77" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y77" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z77" t="n">
         <v>13</v>
@@ -10858,7 +10858,7 @@
         <v>24</v>
       </c>
       <c r="AB77" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC77" t="n">
         <v>8.199999999999999</v>
@@ -10867,7 +10867,7 @@
         <v>10.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF77" t="n">
         <v>30</v>
@@ -10876,28 +10876,28 @@
         <v>16.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ77" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK77" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL77" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM77" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN77" t="n">
         <v>65</v>
       </c>
       <c r="AO77" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="78">
@@ -10927,19 +10927,19 @@
         </is>
       </c>
       <c r="F78" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G78" t="n">
         <v>2.18</v>
       </c>
-      <c r="G78" t="n">
-        <v>2.2</v>
-      </c>
       <c r="H78" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I78" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J78" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K78" t="n">
         <v>3.55</v>
@@ -10975,10 +10975,10 @@
         <v>2.04</v>
       </c>
       <c r="V78" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W78" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X78" t="n">
         <v>12</v>
@@ -11002,16 +11002,16 @@
         <v>15.5</v>
       </c>
       <c r="AE78" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF78" t="n">
         <v>12.5</v>
       </c>
       <c r="AG78" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH78" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI78" t="n">
         <v>60</v>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="G79" t="n">
         <v>19.5</v>
@@ -11074,7 +11074,7 @@
         <v>1.18</v>
       </c>
       <c r="J79" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K79" t="n">
         <v>10.5</v>
@@ -11095,13 +11095,13 @@
         <v>3.2</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="R79" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S79" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="T79" t="n">
         <v>2.1</v>
@@ -11116,10 +11116,10 @@
         <v>1.05</v>
       </c>
       <c r="X79" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="Y79" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z79" t="n">
         <v>9.6</v>
@@ -11128,7 +11128,7 @@
         <v>9.6</v>
       </c>
       <c r="AB79" t="n">
-        <v>65</v>
+        <v>390</v>
       </c>
       <c r="AC79" t="n">
         <v>23</v>
@@ -11143,28 +11143,28 @@
         <v>220</v>
       </c>
       <c r="AG79" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="AH79" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AI79" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AJ79" t="n">
         <v>1000</v>
       </c>
       <c r="AK79" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AL79" t="n">
-        <v>230</v>
+        <v>470</v>
       </c>
       <c r="AM79" t="n">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="AN79" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="AO79" t="n">
         <v>3.1</v>
@@ -11200,13 +11200,13 @@
         <v>2.54</v>
       </c>
       <c r="G80" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H80" t="n">
         <v>2.72</v>
       </c>
       <c r="I80" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J80" t="n">
         <v>3.4</v>
@@ -11227,10 +11227,10 @@
         <v>1.28</v>
       </c>
       <c r="P80" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R80" t="n">
         <v>1.33</v>
@@ -11239,13 +11239,13 @@
         <v>2.74</v>
       </c>
       <c r="T80" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U80" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="V80" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="W80" t="n">
         <v>1.56</v>
@@ -11266,7 +11266,7 @@
         <v>970</v>
       </c>
       <c r="AC80" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AD80" t="n">
         <v>970</v>
@@ -11296,7 +11296,7 @@
         <v>500</v>
       </c>
       <c r="AM80" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN80" t="n">
         <v>500</v>
@@ -11341,13 +11341,13 @@
         <v>1.73</v>
       </c>
       <c r="I81" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="J81" t="n">
         <v>3.55</v>
       </c>
       <c r="K81" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L81" t="n">
         <v>1.49</v>
@@ -11380,13 +11380,13 @@
         <v>1.76</v>
       </c>
       <c r="V81" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W81" t="n">
         <v>1.18</v>
       </c>
       <c r="X81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y81" t="n">
         <v>8</v>
@@ -11395,13 +11395,13 @@
         <v>10</v>
       </c>
       <c r="AA81" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AB81" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AC81" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD81" t="n">
         <v>11</v>
@@ -11410,16 +11410,16 @@
         <v>65</v>
       </c>
       <c r="AF81" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="AG81" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AH81" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AI81" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AJ81" t="n">
         <v>500</v>
@@ -11431,13 +11431,13 @@
         <v>500</v>
       </c>
       <c r="AM81" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN81" t="n">
         <v>500</v>
       </c>
       <c r="AO81" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
@@ -11470,7 +11470,7 @@
         <v>1.14</v>
       </c>
       <c r="G82" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H82" t="n">
         <v>25</v>
@@ -11479,7 +11479,7 @@
         <v>30</v>
       </c>
       <c r="J82" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="K82" t="n">
         <v>11</v>
@@ -11491,25 +11491,25 @@
         <v>1.03</v>
       </c>
       <c r="N82" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O82" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P82" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R82" t="n">
         <v>1.68</v>
       </c>
       <c r="S82" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T82" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="U82" t="n">
         <v>1.54</v>
@@ -11518,37 +11518,37 @@
         <v>1.03</v>
       </c>
       <c r="W82" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="X82" t="n">
         <v>36</v>
       </c>
       <c r="Y82" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="Z82" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AA82" t="n">
         <v>1000</v>
       </c>
       <c r="AB82" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC82" t="n">
         <v>27</v>
       </c>
       <c r="AD82" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="AE82" t="n">
         <v>1000</v>
       </c>
       <c r="AF82" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG82" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH82" t="n">
         <v>75</v>
@@ -11563,10 +11563,10 @@
         <v>16</v>
       </c>
       <c r="AL82" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AM82" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AN82" t="n">
         <v>3.6</v>
@@ -11605,13 +11605,13 @@
         <v>1.63</v>
       </c>
       <c r="G83" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H83" t="n">
         <v>6.6</v>
       </c>
       <c r="I83" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J83" t="n">
         <v>4</v>
@@ -11641,7 +11641,7 @@
         <v>1.32</v>
       </c>
       <c r="S83" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T83" t="n">
         <v>2.12</v>
@@ -11653,10 +11653,10 @@
         <v>1.16</v>
       </c>
       <c r="W83" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X83" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y83" t="n">
         <v>20</v>
@@ -11668,7 +11668,7 @@
         <v>260</v>
       </c>
       <c r="AB83" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AC83" t="n">
         <v>10</v>
@@ -11689,7 +11689,7 @@
         <v>26</v>
       </c>
       <c r="AI83" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AJ83" t="n">
         <v>15.5</v>
@@ -11701,7 +11701,7 @@
         <v>48</v>
       </c>
       <c r="AM83" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN83" t="n">
         <v>11.5</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="G84" t="n">
         <v>2.06</v>
@@ -11746,10 +11746,10 @@
         <v>4.3</v>
       </c>
       <c r="I84" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J84" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K84" t="n">
         <v>3.7</v>
@@ -11767,7 +11767,7 @@
         <v>1.39</v>
       </c>
       <c r="P84" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q84" t="n">
         <v>2.14</v>
@@ -11785,7 +11785,7 @@
         <v>1.92</v>
       </c>
       <c r="V84" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W84" t="n">
         <v>1.94</v>
@@ -11797,10 +11797,10 @@
         <v>17.5</v>
       </c>
       <c r="Z84" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AA84" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB84" t="n">
         <v>9.6</v>
@@ -11809,13 +11809,13 @@
         <v>9.6</v>
       </c>
       <c r="AD84" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AE84" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AF84" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG84" t="n">
         <v>13</v>
@@ -11824,10 +11824,10 @@
         <v>25</v>
       </c>
       <c r="AI84" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AJ84" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AK84" t="n">
         <v>28</v>
@@ -11836,13 +11836,13 @@
         <v>55</v>
       </c>
       <c r="AM84" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN84" t="n">
         <v>21</v>
       </c>
       <c r="AO84" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85">
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="G85" t="n">
         <v>7</v>
@@ -11890,7 +11890,7 @@
         <v>5.2</v>
       </c>
       <c r="L85" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M85" t="n">
         <v>1.03</v>
@@ -11908,7 +11908,7 @@
         <v>1.58</v>
       </c>
       <c r="R85" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S85" t="n">
         <v>2.4</v>
@@ -11923,10 +11923,10 @@
         <v>2.62</v>
       </c>
       <c r="W85" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X85" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="Y85" t="n">
         <v>12</v>
@@ -11938,7 +11938,7 @@
         <v>16</v>
       </c>
       <c r="AB85" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AC85" t="n">
         <v>12</v>
@@ -11950,7 +11950,7 @@
         <v>16</v>
       </c>
       <c r="AF85" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="AG85" t="n">
         <v>25</v>
@@ -11965,19 +11965,19 @@
         <v>170</v>
       </c>
       <c r="AK85" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AL85" t="n">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="AM85" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="AN85" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AO85" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="86">
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G86" t="n">
         <v>3.45</v>
@@ -12019,10 +12019,10 @@
         <v>2.36</v>
       </c>
       <c r="J86" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K86" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L86" t="n">
         <v>1.28</v>
@@ -12058,16 +12058,16 @@
         <v>1.73</v>
       </c>
       <c r="W86" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X86" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y86" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z86" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AA86" t="n">
         <v>32</v>
@@ -12094,19 +12094,19 @@
         <v>19</v>
       </c>
       <c r="AI86" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ86" t="n">
         <v>60</v>
       </c>
       <c r="AK86" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL86" t="n">
         <v>42</v>
       </c>
-      <c r="AL86" t="n">
-        <v>48</v>
-      </c>
       <c r="AM86" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN86" t="n">
         <v>32</v>
@@ -12154,13 +12154,13 @@
         <v>1.52</v>
       </c>
       <c r="J87" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K87" t="n">
         <v>5.1</v>
       </c>
       <c r="L87" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M87" t="n">
         <v>1.05</v>
@@ -12196,22 +12196,22 @@
         <v>1.11</v>
       </c>
       <c r="X87" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y87" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z87" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA87" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC87" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD87" t="n">
         <v>11</v>
@@ -12223,13 +12223,13 @@
         <v>90</v>
       </c>
       <c r="AG87" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AH87" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI87" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AJ87" t="n">
         <v>340</v>
@@ -12247,7 +12247,7 @@
         <v>220</v>
       </c>
       <c r="AO87" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="88">
@@ -12412,22 +12412,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H89" t="n">
         <v>3.55</v>
       </c>
       <c r="I89" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J89" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K89" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L89" t="n">
         <v>1.36</v>
@@ -12448,22 +12448,22 @@
         <v>1.89</v>
       </c>
       <c r="R89" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S89" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T89" t="n">
         <v>1.75</v>
       </c>
       <c r="U89" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V89" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W89" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X89" t="n">
         <v>16.5</v>
@@ -12481,25 +12481,25 @@
         <v>10.5</v>
       </c>
       <c r="AC89" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD89" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE89" t="n">
         <v>40</v>
       </c>
       <c r="AF89" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG89" t="n">
         <v>10.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ89" t="n">
         <v>27</v>
@@ -12559,10 +12559,10 @@
         <v>3.1</v>
       </c>
       <c r="J90" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K90" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K90" t="n">
-        <v>3.15</v>
       </c>
       <c r="L90" t="n">
         <v>1.5</v>
@@ -12592,10 +12592,10 @@
         <v>1.95</v>
       </c>
       <c r="U90" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V90" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W90" t="n">
         <v>1.53</v>
@@ -12682,19 +12682,19 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G91" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H91" t="n">
         <v>3.45</v>
       </c>
       <c r="I91" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J91" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K91" t="n">
         <v>3.8</v>
@@ -12703,7 +12703,7 @@
         <v>1.3</v>
       </c>
       <c r="M91" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N91" t="n">
         <v>5</v>
@@ -12715,34 +12715,34 @@
         <v>2.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R91" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S91" t="n">
         <v>2.62</v>
       </c>
       <c r="T91" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="U91" t="n">
         <v>2.6</v>
       </c>
       <c r="V91" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W91" t="n">
         <v>1.79</v>
       </c>
       <c r="X91" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y91" t="n">
         <v>18.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA91" t="n">
         <v>60</v>
@@ -12754,7 +12754,7 @@
         <v>8.6</v>
       </c>
       <c r="AD91" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE91" t="n">
         <v>36</v>
@@ -12766,7 +12766,7 @@
         <v>11.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI91" t="n">
         <v>40</v>
@@ -12775,13 +12775,13 @@
         <v>30</v>
       </c>
       <c r="AK91" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL91" t="n">
         <v>32</v>
       </c>
       <c r="AM91" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN91" t="n">
         <v>13</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G92" t="n">
         <v>2.94</v>
       </c>
       <c r="H92" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I92" t="n">
         <v>2.94</v>
       </c>
       <c r="J92" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K92" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K92" t="n">
-        <v>3.2</v>
       </c>
       <c r="L92" t="n">
         <v>1.55</v>
@@ -12853,7 +12853,7 @@
         <v>2.52</v>
       </c>
       <c r="R92" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S92" t="n">
         <v>5</v>
@@ -12871,7 +12871,7 @@
         <v>1.51</v>
       </c>
       <c r="X92" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y92" t="n">
         <v>8.800000000000001</v>
@@ -12958,7 +12958,7 @@
         <v>1.45</v>
       </c>
       <c r="H93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I93" t="n">
         <v>10.5</v>
@@ -12967,7 +12967,7 @@
         <v>4.8</v>
       </c>
       <c r="K93" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -12982,10 +12982,10 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -13087,19 +13087,19 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G94" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="H94" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="I94" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="J94" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="K94" t="n">
         <v>3.55</v>
@@ -13111,16 +13111,16 @@
         <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="O94" t="n">
         <v>1.01</v>
       </c>
       <c r="P94" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="R94" t="n">
         <v>1.18</v>
@@ -13132,13 +13132,13 @@
         <v>1.01</v>
       </c>
       <c r="U94" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="W94" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="X94" t="n">
         <v>500</v>
@@ -13222,22 +13222,22 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="G95" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H95" t="n">
-        <v>2.6</v>
+        <v>2.94</v>
       </c>
       <c r="I95" t="n">
         <v>3.25</v>
       </c>
       <c r="J95" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="K95" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L95" t="n">
         <v>1.01</v>
@@ -13249,19 +13249,19 @@
         <v>2.62</v>
       </c>
       <c r="O95" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P95" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R95" t="n">
         <v>1.2</v>
       </c>
       <c r="S95" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="T95" t="n">
         <v>2.04</v>
@@ -13510,7 +13510,7 @@
         <v>3.9</v>
       </c>
       <c r="L97" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M97" t="n">
         <v>1.06</v>
@@ -13546,7 +13546,7 @@
         <v>1.72</v>
       </c>
       <c r="X97" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y97" t="n">
         <v>970</v>
@@ -13555,7 +13555,7 @@
         <v>500</v>
       </c>
       <c r="AA97" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB97" t="n">
         <v>970</v>
@@ -13582,7 +13582,7 @@
         <v>500</v>
       </c>
       <c r="AJ97" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK97" t="n">
         <v>500</v>
@@ -13594,7 +13594,7 @@
         <v>500</v>
       </c>
       <c r="AN97" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AO97" t="n">
         <v>500</v>
@@ -13630,7 +13630,7 @@
         <v>1.61</v>
       </c>
       <c r="G98" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H98" t="n">
         <v>7.8</v>
@@ -13651,7 +13651,7 @@
         <v>1.12</v>
       </c>
       <c r="N98" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O98" t="n">
         <v>1.55</v>
@@ -13672,13 +13672,13 @@
         <v>2.56</v>
       </c>
       <c r="U98" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V98" t="n">
         <v>1.13</v>
       </c>
       <c r="W98" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X98" t="n">
         <v>9.199999999999999</v>
@@ -13762,22 +13762,22 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G99" t="n">
         <v>1.9</v>
       </c>
       <c r="H99" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="I99" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="J99" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K99" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L99" t="n">
         <v>1.01</v>
@@ -13798,19 +13798,19 @@
         <v>2.2</v>
       </c>
       <c r="R99" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V99" t="n">
         <v>1.23</v>
-      </c>
-      <c r="S99" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T99" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U99" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V99" t="n">
-        <v>1.21</v>
       </c>
       <c r="W99" t="n">
         <v>2.1</v>
@@ -13897,13 +13897,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G100" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="H100" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I100" t="n">
         <v>2.12</v>
@@ -13912,28 +13912,28 @@
         <v>3.1</v>
       </c>
       <c r="K100" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="L100" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M100" t="n">
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="O100" t="n">
         <v>1.31</v>
       </c>
       <c r="P100" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="Q100" t="n">
         <v>1.31</v>
       </c>
       <c r="R100" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="S100" t="n">
         <v>1.31</v>
@@ -13954,7 +13954,7 @@
         <v>1000</v>
       </c>
       <c r="Y100" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="Z100" t="n">
         <v>500</v>
@@ -13969,7 +13969,7 @@
         <v>1000</v>
       </c>
       <c r="AD100" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AE100" t="n">
         <v>500</v>
@@ -14065,7 +14065,7 @@
         <v>1.63</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="R101" t="n">
         <v>1.23</v>
@@ -14095,7 +14095,7 @@
         <v>38</v>
       </c>
       <c r="AA101" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB101" t="n">
         <v>8.6</v>
@@ -14167,16 +14167,16 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G102" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H102" t="n">
         <v>4.7</v>
       </c>
       <c r="I102" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J102" t="n">
         <v>3</v>
@@ -14188,7 +14188,7 @@
         <v>1.01</v>
       </c>
       <c r="M102" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N102" t="n">
         <v>2.4</v>
@@ -14197,16 +14197,16 @@
         <v>1.63</v>
       </c>
       <c r="P102" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="Q102" t="n">
         <v>2.92</v>
       </c>
       <c r="R102" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="S102" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="T102" t="n">
         <v>2.32</v>
@@ -14218,7 +14218,7 @@
         <v>1.24</v>
       </c>
       <c r="W102" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X102" t="n">
         <v>9.199999999999999</v>
@@ -14311,7 +14311,7 @@
         <v>8.6</v>
       </c>
       <c r="I103" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J103" t="n">
         <v>3.95</v>
@@ -14320,10 +14320,10 @@
         <v>4.3</v>
       </c>
       <c r="L103" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M103" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N103" t="n">
         <v>2.9</v>
@@ -14332,7 +14332,7 @@
         <v>1.47</v>
       </c>
       <c r="P103" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q103" t="n">
         <v>2.34</v>
@@ -14344,13 +14344,13 @@
         <v>4.6</v>
       </c>
       <c r="T103" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="U103" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="V103" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W103" t="n">
         <v>2.74</v>
@@ -14596,13 +14596,13 @@
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="O105" t="n">
         <v>1.17</v>
       </c>
       <c r="P105" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Q105" t="n">
         <v>1.17</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,111 +653,111 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>3.55</v>
+        <v>190</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>1.17</v>
       </c>
       <c r="I2" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.94</v>
+        <v>6.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.02</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.01</v>
       </c>
-      <c r="S2" t="n">
-        <v>85</v>
-      </c>
-      <c r="T2" t="n">
-        <v>7</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.38</v>
-      </c>
       <c r="X2" t="n">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>1.29</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>23</v>
+        <v>1.02</v>
       </c>
       <c r="H3" t="n">
-        <v>1.2</v>
+        <v>11.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.21</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>7.8</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,28 +832,28 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.04</v>
+        <v>40</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -862,10 +862,10 @@
         <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -874,10 +874,10 @@
         <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -886,34 +886,34 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>1.3</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>940</v>
       </c>
       <c r="AM3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>5.4</v>
       </c>
       <c r="G4" t="n">
-        <v>2.66</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>13</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
-        <v>2.52</v>
+        <v>1.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.54</v>
+        <v>1.31</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.5</v>
+        <v>3.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="S4" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="T4" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.29</v>
+        <v>1.02</v>
       </c>
       <c r="W4" t="n">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="X4" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>1.47</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>19.5</v>
+        <v>6.8</v>
       </c>
       <c r="AH4" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AI4" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AL4" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="H5" t="n">
-        <v>8.6</v>
+        <v>46</v>
       </c>
       <c r="I5" t="n">
-        <v>8.800000000000001</v>
+        <v>850</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>1.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.03</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="S5" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>4.1</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.66</v>
+        <v>50</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,52 +1138,52 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.8</v>
+        <v>1.24</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,105 +1193,105 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>4.7</v>
+        <v>15</v>
       </c>
       <c r="J6" t="n">
-        <v>2.62</v>
+        <v>2.12</v>
       </c>
       <c r="K6" t="n">
-        <v>2.68</v>
+        <v>2.18</v>
       </c>
       <c r="L6" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.27</v>
+        <v>1.57</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>1.28</v>
       </c>
       <c r="O6" t="n">
-        <v>2.04</v>
+        <v>4.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.26</v>
+        <v>1.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.5</v>
+        <v>22</v>
       </c>
       <c r="R6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S6" t="n">
+        <v>75</v>
+      </c>
+      <c r="T6" t="n">
+        <v>11</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.07</v>
       </c>
-      <c r="S6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="X6" t="n">
-        <v>4.7</v>
+        <v>2.72</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.6</v>
+        <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>19.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>990</v>
+        <v>480</v>
       </c>
       <c r="AH6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1300,7 +1300,7 @@
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1312,13 +1312,13 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="G7" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="I7" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.42</v>
+        <v>2.08</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.84</v>
+        <v>2.36</v>
       </c>
       <c r="X7" t="n">
         <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AA7" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="AB7" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AE7" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="AJ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN7" t="n">
         <v>13</v>
       </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>360</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>12</v>
-      </c>
       <c r="AO7" t="n">
-        <v>370</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>4.7</v>
       </c>
       <c r="G8" t="n">
-        <v>2.32</v>
+        <v>6.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>1.72</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="V8" t="n">
-        <v>1.36</v>
+        <v>2.16</v>
       </c>
       <c r="W8" t="n">
-        <v>1.76</v>
+        <v>1.2</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>16.5</v>
+        <v>500</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="AL8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO8" t="n">
         <v>55</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Platense FC</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>Rubio Nu</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.82</v>
+        <v>2.14</v>
       </c>
       <c r="G9" t="n">
-        <v>1.94</v>
+        <v>2.22</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>2.46</v>
       </c>
       <c r="R9" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>2.88</v>
+        <v>4.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="V9" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W9" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI9" t="n">
         <v>110</v>
       </c>
-      <c r="AB9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AN9" t="n">
-        <v>11.5</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>2.72</v>
+        <v>2.36</v>
       </c>
       <c r="O10" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="P10" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="S10" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="V10" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="X10" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AB10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO10" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.72</v>
+        <v>1.4</v>
       </c>
       <c r="G11" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.92</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S11" t="n">
-        <v>6</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.18</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="V11" t="n">
-        <v>1.46</v>
+        <v>1.08</v>
       </c>
       <c r="W11" t="n">
-        <v>1.52</v>
+        <v>3.45</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.6</v>
+        <v>26</v>
       </c>
       <c r="Z11" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>790</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>390</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>370</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
         <v>21</v>
       </c>
-      <c r="AA11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AL11" t="n">
         <v>80</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>95</v>
-      </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="AN11" t="n">
-        <v>60</v>
+        <v>10.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>22:20:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>1.69</v>
+        <v>2.46</v>
       </c>
       <c r="H12" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.46</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.66</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.48</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.84</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>1.51</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>2.44</v>
+        <v>1.68</v>
       </c>
       <c r="X12" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>65</v>
+        <v>990</v>
       </c>
       <c r="AA12" t="n">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="AB12" t="n">
-        <v>5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.6</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>540</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>540</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,935 +2138,125 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Genesis Huracan</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="G13" t="n">
-        <v>1.87</v>
+        <v>1.34</v>
       </c>
       <c r="H13" t="n">
-        <v>5.4</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>5.7</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22</v>
+        <v>1.58</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>2.48</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="W13" t="n">
-        <v>2.14</v>
+        <v>3.9</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AA13" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO13" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Lobos UPNFM</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>CD Marathon</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X14" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>500</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Club Sportivo Ameliano</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Rubio Nu</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>370</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Tigre</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Estudiantes Rio Cuarto</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="X16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>340</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Argentinos Juniors</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Sarmiento de Junin</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>510</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>280</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>270</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>390</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>22:20:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Once Caldas</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X18" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Genesis Huracan</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H19" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W19" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X19" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO19" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="J2" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>5.4</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.23</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>4.3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>5.6</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -739,10 +739,10 @@
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>850</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -751,10 +751,10 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>850</v>
+        <v>5.7</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -763,7 +763,7 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>950</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.01</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J3" t="n">
-        <v>55</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="V3" t="n">
+        <v>6</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.01</v>
       </c>
-      <c r="W3" t="n">
-        <v>40</v>
-      </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>2.26</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -895,16 +895,16 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.3</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>940</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Platense FC</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>Rubio Nu</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>1.22</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>21</v>
+        <v>950</v>
       </c>
       <c r="J4" t="n">
-        <v>1.25</v>
+        <v>6.2</v>
       </c>
       <c r="K4" t="n">
-        <v>1.31</v>
+        <v>6.8</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,16 +967,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.02</v>
+        <v>1.63</v>
       </c>
       <c r="S4" t="n">
-        <v>28</v>
+        <v>2.34</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.11</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1006,10 +1006,10 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.47</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,28 +1018,28 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>6.8</v>
+        <v>1.73</v>
       </c>
       <c r="AH4" t="n">
-        <v>110</v>
+        <v>7.2</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>95</v>
+        <v>6.6</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,114 +1058,114 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.12</v>
+        <v>2.9</v>
       </c>
       <c r="G5" t="n">
-        <v>1.14</v>
+        <v>2.96</v>
       </c>
       <c r="H5" t="n">
-        <v>46</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>850</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>7.2</v>
+        <v>2.1</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>2.12</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="N5" t="n">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="O5" t="n">
-        <v>1.09</v>
+        <v>3.7</v>
       </c>
       <c r="P5" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R5" t="n">
         <v>1.01</v>
       </c>
       <c r="S5" t="n">
-        <v>5.1</v>
+        <v>55</v>
       </c>
       <c r="T5" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>50</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.24</v>
+        <v>4.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1193,114 +1193,114 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>2.12</v>
+        <v>2.54</v>
       </c>
       <c r="K6" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="O6" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="P6" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>22</v>
+        <v>7.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="S6" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="T6" t="n">
-        <v>11</v>
+        <v>5.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="W6" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="X6" t="n">
-        <v>2.72</v>
+        <v>3.55</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AC6" t="n">
-        <v>19.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>480</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>22:20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.7</v>
+        <v>2.32</v>
       </c>
       <c r="G7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.73</v>
       </c>
-      <c r="H7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.81</v>
-      </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="U7" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="W7" t="n">
-        <v>2.36</v>
+        <v>1.72</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1463,800 +1463,125 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lobos UPNFM</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>Genesis Huracan</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.7</v>
+        <v>1.29</v>
       </c>
       <c r="G8" t="n">
-        <v>6.2</v>
+        <v>1.33</v>
       </c>
       <c r="H8" t="n">
-        <v>1.72</v>
+        <v>10.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.85</v>
+        <v>14.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>5.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>1.84</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.02</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.82</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V8" t="n">
-        <v>2.16</v>
+        <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>560</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
         <v>40</v>
       </c>
-      <c r="AA8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL8" t="n">
         <v>980</v>
       </c>
-      <c r="AH8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>500</v>
-      </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="AN8" t="n">
-        <v>600</v>
+        <v>4.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Club Sportivo Ameliano</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Rubio Nu</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tigre</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Estudiantes Rio Cuarto</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>320</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Argentinos Juniors</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Sarmiento de Junin</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="H11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="X11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>790</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>390</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>370</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>490</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22:20:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Once Caldas</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>990</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Genesis Huracan</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X13" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO13" t="n">
         <v>1000</v>
       </c>
     </row>
